--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/RnkTest/健身文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5B60E29E-153B-F640-9098-A368C4577E43}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="7160" yWindow="480" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="训练计划表" sheetId="3" r:id="rId4"/>
     <sheet name="模型花费" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="424">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -1853,25 +1854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鸡胸肉:蛋白质19.4g/脂肪1.5g  /碳水2.5g  ≈ 101卡</t>
-    <rPh sb="0" eb="1">
-      <t>ji'xiong'rou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dan'bai'zhi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhi'fang</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>tan'shui</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ka</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瘦牛肉:蛋白质20.2g/脂肪2.3g/碳水1.2g  ≈ 106卡</t>
     <rPh sb="0" eb="1">
       <t>shou</t>
@@ -3006,10 +2988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.5  前平举放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武道会6   超三发波</t>
     <rPh sb="0" eb="1">
       <t>wu'dao'hui</t>
@@ -3457,20 +3435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电玩男</t>
-    <rPh sb="0" eb="1">
-      <t>dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦原</t>
-    <rPh sb="0" eb="1">
-      <t>nan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浦原</t>
     <rPh sb="0" eb="1">
       <t>yuan</t>
@@ -3513,42 +3477,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海贼王      婚纱     女帝         预定</t>
+    <t>龙珠TV      腾云小悟空            预定</t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魅力闪光    峰不二子              预定</t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙珠TV      腾云小悟空            预定</t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROS  终极自在极意功   悟空       预定</t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GROS   卡卡西                     预定</t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROS   佐助                       预定</t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
     </rPh>
@@ -3597,13 +3533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Grandista ROS 觉悟3桃红(已付) + 黑发悟空 预定</t>
-    <rPh sb="0" eb="2">
-      <t>yi'daohei'fawu'kong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JOJO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3893,13 +3822,6 @@
     <t>鸡胸</t>
     <rPh sb="0" eb="1">
       <t>ji'da</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡蛋清</t>
-    <rPh sb="0" eb="1">
-      <t>ji'xion</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4031,13 +3953,266 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>屁股</t>
     <rPh sb="0" eb="2">
       <t>pi'gi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">海贼王      婚纱     女帝         </t>
+    <rPh sb="0" eb="1">
+      <t>long'zhulan'fabei'ji'teyu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量/g</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'liang</t>
+    </rPh>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>脂肪</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'fang</t>
+    </rPh>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳水</t>
+    <rPh sb="0" eb="1">
+      <t>tan'shui</t>
+    </rPh>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白</t>
+    <rPh sb="0" eb="1">
+      <t>dan'bai</t>
+    </rPh>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <rPh sb="0" eb="1">
+      <t>shi'wu</t>
+    </rPh>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>热量/kcal</t>
+    <rPh sb="0" eb="1">
+      <t>re'liang</t>
+    </rPh>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>热量计算</t>
+    <rPh sb="0" eb="1">
+      <t>re'liang'ji'suan</t>
+    </rPh>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>总热量</t>
+    <rPh sb="0" eb="1">
+      <t>zong're'liang</t>
+    </rPh>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡胸肉:蛋白质19.4g/脂肪5g  /碳水2.5g  ≈ 101卡</t>
+    <rPh sb="0" eb="1">
+      <t>ji'xiong'rou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dan'bai'zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi'fang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>tan'shui</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曼巴 L红蜘蛛                    预定</t>
+    <rPh sb="0" eb="1">
+      <t>hei'man'ba</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hong'zhi'zhu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊家玩具</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ren</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grandista ROS 觉悟3桃红(已付) + 黑发悟空</t>
+    <rPh sb="0" eb="2">
+      <t>yi'daohei'fawu'kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗宾codeB 景品                    预定</t>
+    <rPh sb="0" eb="1">
+      <t>luo'bin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin'pin</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲原</t>
+    <rPh sb="0" eb="1">
+      <t>pu'yuan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲原</t>
+    <rPh sb="0" eb="1">
+      <t>pu'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景品  剧场 终极战士    布罗利     预定</t>
+    <rPh sb="0" eb="1">
+      <t>jin'pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ju'chang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong'ji'zhan'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'luo'li</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景品  剧场 终极战士    孙悟空     预定</t>
+    <rPh sb="0" eb="1">
+      <t>jin'pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ju'chang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong'ji'zhan'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>sun'wu'kong</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景品  剧场 终极战士    贝吉塔     预定</t>
+    <rPh sb="0" eb="1">
+      <t>jin'pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ju'chang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong'ji'zhan'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bei'ji'ta</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">魅力闪光    峰不二子              </t>
+    <rPh sb="0" eb="1">
+      <t>long'zhulan'fabei'ji'teyu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曼巴  氮气宙斯</t>
+    <rPh sb="0" eb="1">
+      <t>hei'man'ba</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhou'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大班    MB 蓝异端                 预定</t>
+    <rPh sb="0" eb="1">
+      <t>da'ban</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lan'yi'duan</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ettoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GROS   佐助                       </t>
+    <rPh sb="0" eb="1">
+      <t>long'zhulan'fabei'ji'teyu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GROS  终极自在极意功   悟空       </t>
+    <rPh sb="0" eb="1">
+      <t>long'zhulan'fabei'ji'teyu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDS   海贼王    蕾玖</t>
+    <rPh sb="0" eb="1">
+      <t>lei'jiu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4045,11 +4220,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="60">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4504,6 +4679,14 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="5"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -4870,7 +5053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5099,9 +5282,6 @@
     <xf numFmtId="176" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5122,7 +5302,12 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5191,6 +5376,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5344,7 +5532,7 @@
         <xdr:cNvPr id="3" name="直线连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5394,7 +5582,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5470,7 +5658,7 @@
         <xdr:cNvPr id="3" name="直线连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5520,7 +5708,7 @@
         <xdr:cNvPr id="6" name="文本框 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5598,7 +5786,7 @@
         <xdr:cNvPr id="8" name="文本框 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5941,17 +6129,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="H17" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -5970,21 +6158,21 @@
     <col min="17" max="17" width="17" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:17" ht="31" customHeight="1">
+      <c r="A1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-    </row>
-    <row r="2" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+    </row>
+    <row r="2" spans="1:17" ht="63" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -6023,7 +6211,7 @@
       <c r="P2"/>
       <c r="Q2"/>
     </row>
-    <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19" customHeight="1">
       <c r="A3" s="1"/>
       <c r="K3" s="31" t="s">
         <v>19</v>
@@ -6033,7 +6221,7 @@
       <c r="P3"/>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="K4" s="32">
         <v>94</v>
       </c>
@@ -6041,7 +6229,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="19">
       <c r="K5" s="33" t="s">
         <v>18</v>
       </c>
@@ -6050,13 +6238,13 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="K6" s="34">
         <f>SUM(13.7*K4+726)</f>
         <v>2013.8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="K7" s="29" t="s">
         <v>12</v>
       </c>
@@ -6064,7 +6252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="K8" s="29">
         <v>1.5</v>
       </c>
@@ -6072,7 +6260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="K9" s="30" t="s">
         <v>17</v>
       </c>
@@ -6080,7 +6268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="K10" s="47">
         <f>SUM(K6*K8)</f>
         <v>3020.7</v>
@@ -6089,7 +6277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="K11" s="49" t="s">
         <v>20</v>
       </c>
@@ -6097,37 +6285,37 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="21" customHeight="1">
       <c r="K12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="92" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L12" s="91" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="K13" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="K14" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="21" customHeight="1">
       <c r="K15" s="48" t="s">
         <v>128</v>
       </c>
       <c r="M15" s="45"/>
     </row>
-    <row r="16" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="23" customHeight="1">
       <c r="K16" s="35" t="s">
         <v>129</v>
       </c>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:14" ht="21" customHeight="1">
       <c r="K17" s="36" t="s">
         <v>130</v>
       </c>
@@ -6136,55 +6324,55 @@
       </c>
       <c r="M17" s="45"/>
     </row>
-    <row r="18" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K18" s="110" t="s">
+    <row r="18" spans="11:14" ht="19" customHeight="1">
+      <c r="K18" s="112" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="106" t="s">
+      <c r="M18" s="108" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K19" s="111"/>
+    <row r="19" spans="11:14" ht="19" customHeight="1">
+      <c r="K19" s="113"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="107"/>
-    </row>
-    <row r="20" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K20" s="112"/>
+      <c r="M19" s="109"/>
+    </row>
+    <row r="20" spans="11:14" ht="19" customHeight="1">
+      <c r="K20" s="114"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="108"/>
-    </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K21" s="113" t="s">
+      <c r="M20" s="110"/>
+    </row>
+    <row r="21" spans="11:14">
+      <c r="K21" s="115" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K22" s="114"/>
+    <row r="22" spans="11:14">
+      <c r="K22" s="116"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:14" ht="21" customHeight="1">
       <c r="K23" s="39" t="s">
         <v>161</v>
       </c>
       <c r="L23" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="N23" s="91"/>
-    </row>
-    <row r="24" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="90"/>
+    </row>
+    <row r="24" spans="11:14" ht="21" customHeight="1">
       <c r="K24" s="39" t="s">
         <v>163</v>
       </c>
@@ -6192,178 +6380,178 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:14" ht="21" customHeight="1">
       <c r="K25" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="L25" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="L25" s="42" t="s">
+    </row>
+    <row r="26" spans="11:14" ht="21" customHeight="1">
+      <c r="K26" s="117" t="s">
+        <v>392</v>
+      </c>
+      <c r="L26" s="118"/>
+      <c r="M26" s="89" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="11:14" ht="21" customHeight="1">
+      <c r="K27" s="104" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="26" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="115" t="s">
-        <v>402</v>
-      </c>
-      <c r="L26" s="116"/>
-      <c r="M26" s="90" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="27" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K27" s="102" t="s">
+      <c r="L27" s="105"/>
+      <c r="M27" s="89" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="11:14" ht="21" customHeight="1">
+      <c r="K28" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="L27" s="103"/>
-      <c r="M27" s="90" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="28" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K28" s="102" t="s">
+      <c r="L28" s="105"/>
+      <c r="M28" s="89"/>
+    </row>
+    <row r="29" spans="11:14" ht="21" customHeight="1">
+      <c r="K29" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="L28" s="103"/>
-      <c r="M28" s="90"/>
-    </row>
-    <row r="29" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K29" s="102" t="s">
+      <c r="L29" s="105"/>
+    </row>
+    <row r="30" spans="11:14" ht="21" customHeight="1">
+      <c r="K30" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="L29" s="103"/>
-    </row>
-    <row r="30" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K30" s="102" t="s">
+      <c r="L30" s="105"/>
+    </row>
+    <row r="31" spans="11:14" ht="21" customHeight="1">
+      <c r="K31" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="L30" s="103"/>
-    </row>
-    <row r="31" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K31" s="102" t="s">
+      <c r="L31" s="105"/>
+    </row>
+    <row r="32" spans="11:14" ht="21" customHeight="1">
+      <c r="K32" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="L31" s="103"/>
-    </row>
-    <row r="32" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K32" s="102" t="s">
+      <c r="L32" s="105"/>
+    </row>
+    <row r="33" spans="11:12" ht="21" customHeight="1">
+      <c r="K33" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="L32" s="103"/>
-    </row>
-    <row r="33" spans="11:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K33" s="102" t="s">
+      <c r="L33" s="105"/>
+    </row>
+    <row r="34" spans="11:12">
+      <c r="K34" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="L33" s="103"/>
-    </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K34" s="102" t="s">
+      <c r="L34" s="105"/>
+    </row>
+    <row r="35" spans="11:12">
+      <c r="K35" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="L34" s="103"/>
-    </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K35" s="102" t="s">
+      <c r="L35" s="105"/>
+    </row>
+    <row r="36" spans="11:12">
+      <c r="K36" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="L35" s="103"/>
-    </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K36" s="102" t="s">
+      <c r="L36" s="105"/>
+    </row>
+    <row r="37" spans="11:12">
+      <c r="K37" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="L36" s="103"/>
-    </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K37" s="102" t="s">
+      <c r="L37" s="105"/>
+    </row>
+    <row r="38" spans="11:12">
+      <c r="K38" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="L37" s="103"/>
-    </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K38" s="102" t="s">
+      <c r="L38" s="105"/>
+    </row>
+    <row r="39" spans="11:12">
+      <c r="K39" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="L38" s="103"/>
-    </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K39" s="102" t="s">
+      <c r="L39" s="105"/>
+    </row>
+    <row r="40" spans="11:12">
+      <c r="K40" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="L39" s="103"/>
-    </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K40" s="102" t="s">
+      <c r="L40" s="105"/>
+    </row>
+    <row r="41" spans="11:12">
+      <c r="K41" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="L40" s="103"/>
-    </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K41" s="102" t="s">
+      <c r="L41" s="105"/>
+    </row>
+    <row r="42" spans="11:12">
+      <c r="K42" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="L41" s="103"/>
-    </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K42" s="102" t="s">
+      <c r="L42" s="105"/>
+    </row>
+    <row r="43" spans="11:12">
+      <c r="K43" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="L42" s="103"/>
-    </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K43" s="102" t="s">
+      <c r="L43" s="105"/>
+    </row>
+    <row r="44" spans="11:12">
+      <c r="K44" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="L43" s="103"/>
-    </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K44" s="102" t="s">
+      <c r="L44" s="105"/>
+    </row>
+    <row r="45" spans="11:12">
+      <c r="K45" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="L44" s="103"/>
-    </row>
-    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K45" s="102" t="s">
-        <v>185</v>
-      </c>
-      <c r="L45" s="103"/>
-    </row>
-    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K46" s="104"/>
-      <c r="L46" s="105"/>
-    </row>
-    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K47" s="100"/>
-      <c r="L47" s="101"/>
-    </row>
-    <row r="48" spans="11:12" ht="23" x14ac:dyDescent="0.3">
-      <c r="K48" s="117" t="s">
+      <c r="L45" s="105"/>
+    </row>
+    <row r="46" spans="11:12">
+      <c r="K46" s="106"/>
+      <c r="L46" s="107"/>
+    </row>
+    <row r="47" spans="11:12">
+      <c r="K47" s="102"/>
+      <c r="L47" s="103"/>
+    </row>
+    <row r="48" spans="11:12" ht="23">
+      <c r="K48" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="118"/>
-    </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K49" s="119" t="s">
+      <c r="L48" s="120"/>
+    </row>
+    <row r="49" spans="11:12">
+      <c r="K49" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="120"/>
-    </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K50" s="119" t="s">
+      <c r="L49" s="122"/>
+    </row>
+    <row r="50" spans="11:12">
+      <c r="K50" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="120"/>
-    </row>
-    <row r="51" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K51" s="119" t="s">
+      <c r="L50" s="122"/>
+    </row>
+    <row r="51" spans="11:12">
+      <c r="K51" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="120"/>
-    </row>
-    <row r="52" spans="11:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="K52" s="121" t="s">
+      <c r="L51" s="122"/>
+    </row>
+    <row r="52" spans="11:12" ht="22">
+      <c r="K52" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="122"/>
+      <c r="L52" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -6407,14 +6595,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="77" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="77" customWidth="1"/>
@@ -6424,49 +6612,65 @@
     <col min="6" max="9" width="10.83203125" style="77"/>
     <col min="10" max="10" width="16.33203125" style="77" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="77" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="77"/>
-    <col min="13" max="13" width="12.6640625" style="77" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="77" customWidth="1"/>
+    <col min="13" max="18" width="12.6640625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="78" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>379</v>
+    <row r="1" spans="1:28" s="78" customFormat="1" ht="31" customHeight="1">
+      <c r="A1" s="94" t="s">
+        <v>370</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>382</v>
-      </c>
-      <c r="E1" s="93" t="s">
-        <v>384</v>
-      </c>
-      <c r="F1" s="94" t="s">
-        <v>383</v>
+        <v>373</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>374</v>
       </c>
       <c r="G1" s="77"/>
       <c r="H1" s="77"/>
       <c r="I1" s="77"/>
       <c r="J1" s="77" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="K1" s="77" t="s">
-        <v>390</v>
-      </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77" t="s">
-        <v>382</v>
-      </c>
-      <c r="N1" s="77" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>385</v>
+        <v>381</v>
+      </c>
+      <c r="L1" s="125" t="s">
+        <v>405</v>
+      </c>
+      <c r="M1" s="100" t="s">
+        <v>403</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1" s="77"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:28" ht="28" customHeight="1">
+      <c r="A2" s="92" t="s">
+        <v>376</v>
       </c>
       <c r="J2" s="77">
         <v>5</v>
@@ -6474,22 +6678,39 @@
       <c r="K2" s="77">
         <v>2</v>
       </c>
-      <c r="M2" s="90" t="s">
-        <v>392</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="125"/>
+      <c r="M2" s="98" t="s">
+        <v>383</v>
+      </c>
+      <c r="N2" s="89">
+        <v>500</v>
+      </c>
+      <c r="O2" s="89">
+        <f>AVERAGE(N2*0.05)</f>
+        <v>25</v>
+      </c>
+      <c r="P2" s="89">
+        <f>AVERAGE(N2*0.03)</f>
+        <v>15</v>
+      </c>
+      <c r="Q2" s="89">
+        <f>AVERAGE(N2*0.194)</f>
+        <v>97</v>
+      </c>
+      <c r="R2" s="89">
+        <f>SUM(O2*9+P2*4+Q2*4)</f>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="40" customHeight="1">
       <c r="A3" s="77">
         <v>90</v>
       </c>
-      <c r="B3" s="97" t="s">
-        <v>387</v>
-      </c>
-      <c r="C3" s="98" t="s">
-        <v>388</v>
+      <c r="B3" s="96" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>379</v>
       </c>
       <c r="D3" s="79">
         <v>200</v>
@@ -6498,7 +6719,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H3" s="77">
         <v>1750</v>
@@ -6506,14 +6727,17 @@
       <c r="I3" s="77">
         <v>437.5</v>
       </c>
-      <c r="M3" s="90" t="s">
-        <v>393</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="125"/>
+      <c r="M3" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+    </row>
+    <row r="4" spans="1:28" ht="40" customHeight="1">
       <c r="C4" s="77">
         <v>2200</v>
       </c>
@@ -6523,47 +6747,213 @@
       <c r="E4" s="77">
         <v>800</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="95">
         <v>450</v>
       </c>
-      <c r="M4" s="90" t="s">
-        <v>401</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M5" s="90" t="s">
-        <v>394</v>
-      </c>
-      <c r="N5" s="99" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M6" s="90" t="s">
-        <v>400</v>
-      </c>
-      <c r="N6" s="99" t="s">
-        <v>398</v>
-      </c>
+      <c r="L4" s="125"/>
+      <c r="M4" s="98" t="s">
+        <v>384</v>
+      </c>
+      <c r="N4" s="89">
+        <v>50</v>
+      </c>
+      <c r="O4" s="89">
+        <f>SUM(N4*0.071)</f>
+        <v>3.55</v>
+      </c>
+      <c r="P4" s="89">
+        <f>SUM(N4*0.079)</f>
+        <v>3.95</v>
+      </c>
+      <c r="Q4" s="89">
+        <f>SUM(N4*0.75)</f>
+        <v>37.5</v>
+      </c>
+      <c r="R4" s="89">
+        <f>SUM(O4*9+P4*4+Q4*4)</f>
+        <v>197.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="40" customHeight="1">
+      <c r="L5" s="125"/>
+      <c r="M5" s="98" t="s">
+        <v>390</v>
+      </c>
+      <c r="N5" s="89">
+        <v>30</v>
+      </c>
+      <c r="O5" s="89">
+        <f>SUM(N5*0.012)</f>
+        <v>0.36</v>
+      </c>
+      <c r="P5" s="89">
+        <f>SUM(N5*0.532)</f>
+        <v>15.96</v>
+      </c>
+      <c r="Q5" s="89">
+        <f>SUM(N5*0.352)</f>
+        <v>10.559999999999999</v>
+      </c>
+      <c r="R5" s="89">
+        <f>SUM(O5*9+P5*4+Q5*4)</f>
+        <v>109.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="40" customHeight="1">
+      <c r="L6" s="125"/>
+      <c r="M6" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="N6" s="89">
+        <v>250</v>
+      </c>
+      <c r="O6" s="77">
+        <f>SUM(N6*0.002)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="77">
+        <f>SUM(N6*0.008)</f>
+        <v>2</v>
+      </c>
+      <c r="Q6" s="77">
+        <f>SUM(N6*0.024)</f>
+        <v>6</v>
+      </c>
+      <c r="R6" s="89">
+        <f>SUM(O6*9+P6*4+Q6*4)</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="40" customHeight="1">
+      <c r="L7" s="125"/>
+      <c r="M7" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="N7"/>
+      <c r="R7" s="89"/>
+    </row>
+    <row r="8" spans="1:28" ht="40" customHeight="1">
+      <c r="L8" s="125"/>
+      <c r="M8" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="N8" s="89">
+        <v>500</v>
+      </c>
+      <c r="O8" s="77">
+        <f>SUM(N8*0.006)</f>
+        <v>3</v>
+      </c>
+      <c r="P8" s="77">
+        <f>SUM(N8*0.027)</f>
+        <v>13.5</v>
+      </c>
+      <c r="Q8" s="77">
+        <f>SUM(N8*0.041)</f>
+        <v>20.5</v>
+      </c>
+      <c r="R8" s="89">
+        <f t="shared" ref="R8:R10" si="0">SUM(O8*9+P8*4+Q8*4)</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="40" customHeight="1">
+      <c r="L9" s="125"/>
+      <c r="M9" s="99" t="s">
+        <v>387</v>
+      </c>
+      <c r="N9" s="89">
+        <v>200</v>
+      </c>
+      <c r="O9" s="77">
+        <f>SUM(N9*0.008)</f>
+        <v>1.6</v>
+      </c>
+      <c r="P9" s="77">
+        <f>SUM(N9*0.772)</f>
+        <v>154.4</v>
+      </c>
+      <c r="Q9" s="77">
+        <f>SUM(N9*0.074)</f>
+        <v>14.799999999999999</v>
+      </c>
+      <c r="R9" s="89">
+        <f t="shared" si="0"/>
+        <v>691.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="40" customHeight="1">
+      <c r="L10" s="125"/>
+      <c r="M10" s="99" t="s">
+        <v>388</v>
+      </c>
+      <c r="N10" s="89">
+        <v>50</v>
+      </c>
+      <c r="O10" s="77">
+        <f>SUM(N10*0.067)</f>
+        <v>3.35</v>
+      </c>
+      <c r="P10" s="77">
+        <f>SUM(N10*0.616)</f>
+        <v>30.8</v>
+      </c>
+      <c r="Q10" s="77">
+        <f>SUM(N10*0.15)</f>
+        <v>7.5</v>
+      </c>
+      <c r="R10" s="89">
+        <f t="shared" si="0"/>
+        <v>183.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="40" customHeight="1">
+      <c r="L11" s="101" t="s">
+        <v>406</v>
+      </c>
+      <c r="O11" s="77">
+        <f>SUM(O2:O10)</f>
+        <v>37.36</v>
+      </c>
+      <c r="P11" s="77">
+        <f>SUM(P2:P10)</f>
+        <v>235.61</v>
+      </c>
+      <c r="Q11" s="77">
+        <f>SUM(Q2:Q10)</f>
+        <v>193.86</v>
+      </c>
+      <c r="R11" s="77">
+        <f>SUM(R2:R10)</f>
+        <v>2054.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="40" customHeight="1">
+      <c r="W14" s="98"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:L10"/>
+  </mergeCells>
   <phoneticPr fontId="55" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="90" x14ac:dyDescent="0.9"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="90"/>
   <cols>
     <col min="1" max="1" width="36.5" style="20" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="21" customWidth="1"/>
@@ -6573,17 +6963,17 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="123" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:7" s="126" customFormat="1" ht="47" customHeight="1">
+      <c r="A1" s="126" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="128" t="s">
+    <row r="2" spans="1:7" ht="67" customHeight="1">
+      <c r="A2" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="133"/>
       <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
@@ -6591,482 +6981,457 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125" t="s">
+    <row r="3" spans="1:7" ht="36" customHeight="1">
+      <c r="A3" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="127" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="25">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="126"/>
-      <c r="B4" s="124"/>
+    </row>
+    <row r="4" spans="1:7" ht="36" customHeight="1">
+      <c r="A4" s="129"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="25">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="126"/>
-      <c r="B5" s="124"/>
+    </row>
+    <row r="5" spans="1:7" ht="36" customHeight="1">
+      <c r="A5" s="129"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="25">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="126"/>
-      <c r="B6" s="124"/>
+    </row>
+    <row r="6" spans="1:7" ht="36" customHeight="1">
+      <c r="A6" s="129"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="75" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="126"/>
-      <c r="B7" s="124"/>
+      <c r="D6" s="75"/>
+    </row>
+    <row r="7" spans="1:7" ht="36" customHeight="1">
+      <c r="A7" s="129"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="75">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
-      <c r="B8" s="124" t="s">
+      <c r="D7" s="75"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1">
+      <c r="A8" s="129"/>
+      <c r="B8" s="127" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="25">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="126"/>
-      <c r="B9" s="124"/>
+    </row>
+    <row r="9" spans="1:7" ht="36" customHeight="1">
+      <c r="A9" s="129"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="25">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="124"/>
+    </row>
+    <row r="10" spans="1:7" ht="36" customHeight="1">
+      <c r="A10" s="129"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="25">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="126"/>
-      <c r="B11" s="124"/>
+    </row>
+    <row r="11" spans="1:7" ht="36" customHeight="1">
+      <c r="A11" s="129"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="25">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="126"/>
-      <c r="B12" s="124"/>
+    </row>
+    <row r="12" spans="1:7" ht="36" customHeight="1">
+      <c r="A12" s="129"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="126"/>
-      <c r="B13" s="124" t="s">
+    <row r="13" spans="1:7" ht="36" customHeight="1">
+      <c r="A13" s="129"/>
+      <c r="B13" s="127" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="126"/>
-      <c r="B14" s="124"/>
+    <row r="14" spans="1:7" ht="36" customHeight="1">
+      <c r="A14" s="129"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="126"/>
-      <c r="B15" s="124"/>
+    <row r="15" spans="1:7" ht="36" customHeight="1">
+      <c r="A15" s="129"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="126"/>
-      <c r="B16" s="124"/>
+    <row r="16" spans="1:7" ht="36" customHeight="1">
+      <c r="A16" s="129"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="126"/>
-      <c r="B17" s="124"/>
+    <row r="17" spans="1:3" ht="36" customHeight="1">
+      <c r="A17" s="129"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="126"/>
-      <c r="B18" s="124"/>
+    <row r="18" spans="1:3" ht="36" customHeight="1">
+      <c r="A18" s="129"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="127"/>
-      <c r="B19" s="124"/>
+    <row r="19" spans="1:3" ht="36" customHeight="1">
+      <c r="A19" s="130"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="125" t="s">
+    <row r="20" spans="1:3" ht="36" customHeight="1">
+      <c r="A20" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="127" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="126"/>
-      <c r="B21" s="124"/>
+    <row r="21" spans="1:3" ht="36" customHeight="1">
+      <c r="A21" s="129"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="126"/>
-      <c r="B22" s="124"/>
+    <row r="22" spans="1:3" ht="36" customHeight="1">
+      <c r="A22" s="129"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="126"/>
-      <c r="B23" s="124"/>
+    <row r="23" spans="1:3" ht="36" customHeight="1">
+      <c r="A23" s="129"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="126"/>
-      <c r="B24" s="124"/>
+    <row r="24" spans="1:3" ht="36" customHeight="1">
+      <c r="A24" s="129"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="126"/>
-      <c r="B25" s="124"/>
+    <row r="25" spans="1:3" ht="36" customHeight="1">
+      <c r="A25" s="129"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="126"/>
-      <c r="B26" s="124"/>
+    <row r="26" spans="1:3" ht="36" customHeight="1">
+      <c r="A26" s="129"/>
+      <c r="B26" s="127"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="126"/>
-      <c r="B27" s="124"/>
+    <row r="27" spans="1:3" ht="36" customHeight="1">
+      <c r="A27" s="129"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="126"/>
-      <c r="B28" s="124"/>
+    <row r="28" spans="1:3" ht="36" customHeight="1">
+      <c r="A28" s="129"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="126"/>
-      <c r="B29" s="124" t="s">
+    <row r="29" spans="1:3" ht="36" customHeight="1">
+      <c r="A29" s="129"/>
+      <c r="B29" s="127" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="126"/>
-      <c r="B30" s="124"/>
+    <row r="30" spans="1:3" ht="36" customHeight="1">
+      <c r="A30" s="129"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="127"/>
-      <c r="B31" s="124"/>
+    <row r="31" spans="1:3" ht="36" customHeight="1">
+      <c r="A31" s="130"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="125" t="s">
+    <row r="32" spans="1:3" ht="36" customHeight="1">
+      <c r="A32" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="124" t="s">
+      <c r="B32" s="127" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="126"/>
-      <c r="B33" s="124"/>
+    <row r="33" spans="1:3" ht="36" customHeight="1">
+      <c r="A33" s="129"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="126"/>
-      <c r="B34" s="124"/>
+    <row r="34" spans="1:3" ht="36" customHeight="1">
+      <c r="A34" s="129"/>
+      <c r="B34" s="127"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="126"/>
-      <c r="B35" s="124"/>
+    <row r="35" spans="1:3" ht="36" customHeight="1">
+      <c r="A35" s="129"/>
+      <c r="B35" s="127"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="126"/>
-      <c r="B36" s="124"/>
+    <row r="36" spans="1:3" ht="36" customHeight="1">
+      <c r="A36" s="129"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="126"/>
-      <c r="B37" s="124" t="s">
+    <row r="37" spans="1:3" ht="36" customHeight="1">
+      <c r="A37" s="129"/>
+      <c r="B37" s="127" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="126"/>
-      <c r="B38" s="124"/>
+    <row r="38" spans="1:3" ht="36" customHeight="1">
+      <c r="A38" s="129"/>
+      <c r="B38" s="127"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="126"/>
-      <c r="B39" s="124" t="s">
+    <row r="39" spans="1:3" ht="36" customHeight="1">
+      <c r="A39" s="129"/>
+      <c r="B39" s="127" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="126"/>
-      <c r="B40" s="124"/>
+    <row r="40" spans="1:3" ht="36" customHeight="1">
+      <c r="A40" s="129"/>
+      <c r="B40" s="127"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="127"/>
-      <c r="B41" s="124"/>
+    <row r="41" spans="1:3" ht="36" customHeight="1">
+      <c r="A41" s="130"/>
+      <c r="B41" s="127"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="125" t="s">
+    <row r="42" spans="1:3" ht="36" customHeight="1">
+      <c r="A42" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="124" t="s">
+      <c r="B42" s="127" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="126"/>
-      <c r="B43" s="124"/>
+    <row r="43" spans="1:3" ht="36" customHeight="1">
+      <c r="A43" s="129"/>
+      <c r="B43" s="127"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="126"/>
-      <c r="B44" s="124"/>
+    <row r="44" spans="1:3" ht="36" customHeight="1">
+      <c r="A44" s="129"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="126"/>
-      <c r="B45" s="124"/>
+    <row r="45" spans="1:3" ht="36" customHeight="1">
+      <c r="A45" s="129"/>
+      <c r="B45" s="127"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="126"/>
-      <c r="B46" s="124"/>
+    <row r="46" spans="1:3" ht="36" customHeight="1">
+      <c r="A46" s="129"/>
+      <c r="B46" s="127"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="126"/>
-      <c r="B47" s="124" t="s">
+    <row r="47" spans="1:3" ht="36" customHeight="1">
+      <c r="A47" s="129"/>
+      <c r="B47" s="127" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="126"/>
-      <c r="B48" s="124"/>
+    <row r="48" spans="1:3" ht="36" customHeight="1">
+      <c r="A48" s="129"/>
+      <c r="B48" s="127"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="126"/>
-      <c r="B49" s="124" t="s">
+    <row r="49" spans="1:3" ht="36" customHeight="1">
+      <c r="A49" s="129"/>
+      <c r="B49" s="127" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="126"/>
-      <c r="B50" s="124"/>
+    <row r="50" spans="1:3" ht="36" customHeight="1">
+      <c r="A50" s="129"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="126"/>
-      <c r="B51" s="124"/>
+    <row r="51" spans="1:3" ht="36" customHeight="1">
+      <c r="A51" s="129"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="126"/>
-      <c r="B52" s="124"/>
+    <row r="52" spans="1:3" ht="36" customHeight="1">
+      <c r="A52" s="129"/>
+      <c r="B52" s="127"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="126"/>
-      <c r="B53" s="124"/>
+    <row r="53" spans="1:3" ht="36" customHeight="1">
+      <c r="A53" s="129"/>
+      <c r="B53" s="127"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="126"/>
-      <c r="B54" s="124"/>
+    <row r="54" spans="1:3" ht="36" customHeight="1">
+      <c r="A54" s="129"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="126"/>
-      <c r="B55" s="124"/>
+    <row r="55" spans="1:3" ht="36" customHeight="1">
+      <c r="A55" s="129"/>
+      <c r="B55" s="127"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="126"/>
-      <c r="B56" s="124"/>
+    <row r="56" spans="1:3" ht="36" customHeight="1">
+      <c r="A56" s="129"/>
+      <c r="B56" s="127"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="127"/>
-      <c r="B57" s="124"/>
+    <row r="57" spans="1:3" ht="36" customHeight="1">
+      <c r="A57" s="130"/>
+      <c r="B57" s="127"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="125" t="s">
+    <row r="58" spans="1:3" ht="36" customHeight="1">
+      <c r="A58" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="124" t="s">
+      <c r="B58" s="127" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="126"/>
-      <c r="B59" s="124"/>
+    <row r="59" spans="1:3" ht="36" customHeight="1">
+      <c r="A59" s="129"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="126"/>
-      <c r="B60" s="124"/>
+    <row r="60" spans="1:3" ht="36" customHeight="1">
+      <c r="A60" s="129"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="126"/>
-      <c r="B61" s="124"/>
+    <row r="61" spans="1:3" ht="36" customHeight="1">
+      <c r="A61" s="129"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="127"/>
+    <row r="62" spans="1:3" ht="36" customHeight="1">
+      <c r="A62" s="130"/>
       <c r="B62" s="21" t="s">
         <v>60</v>
       </c>
@@ -7074,8 +7439,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="125" t="s">
+    <row r="63" spans="1:3" ht="36" customHeight="1">
+      <c r="A63" s="128" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="21" t="s">
@@ -7085,38 +7450,38 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="126"/>
-      <c r="B64" s="124" t="s">
+    <row r="64" spans="1:3" ht="36" customHeight="1">
+      <c r="A64" s="129"/>
+      <c r="B64" s="127" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="126"/>
-      <c r="B65" s="124"/>
+    <row r="65" spans="1:4" ht="36" customHeight="1">
+      <c r="A65" s="129"/>
+      <c r="B65" s="127"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="126"/>
-      <c r="B66" s="124"/>
+    <row r="66" spans="1:4" ht="36" customHeight="1">
+      <c r="A66" s="129"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="126"/>
-      <c r="B67" s="124"/>
+    <row r="67" spans="1:4" ht="36" customHeight="1">
+      <c r="A67" s="129"/>
+      <c r="B67" s="127"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="127"/>
+    <row r="68" spans="1:4" ht="36" customHeight="1">
+      <c r="A68" s="130"/>
       <c r="B68" s="21" t="s">
         <v>64</v>
       </c>
@@ -7124,8 +7489,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="131" t="s">
+    <row r="69" spans="1:4" ht="36" customHeight="1">
+      <c r="A69" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7135,59 +7500,59 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="131"/>
-      <c r="B70" s="124" t="s">
+    <row r="70" spans="1:4" ht="36" customHeight="1">
+      <c r="A70" s="134"/>
+      <c r="B70" s="127" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="131"/>
-      <c r="B71" s="124"/>
+    <row r="71" spans="1:4" ht="36" customHeight="1">
+      <c r="A71" s="134"/>
+      <c r="B71" s="127"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="131"/>
-      <c r="B72" s="124"/>
+    <row r="72" spans="1:4" ht="36" customHeight="1">
+      <c r="A72" s="134"/>
+      <c r="B72" s="127"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="131"/>
-      <c r="B73" s="124"/>
+    <row r="73" spans="1:4" ht="36" customHeight="1">
+      <c r="A73" s="134"/>
+      <c r="B73" s="127"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="131"/>
-      <c r="B74" s="124"/>
+    <row r="74" spans="1:4" ht="36" customHeight="1">
+      <c r="A74" s="134"/>
+      <c r="B74" s="127"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="131"/>
-      <c r="B75" s="124"/>
+    <row r="75" spans="1:4" ht="36" customHeight="1">
+      <c r="A75" s="134"/>
+      <c r="B75" s="127"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="131"/>
-      <c r="B76" s="124"/>
+    <row r="76" spans="1:4" ht="36" customHeight="1">
+      <c r="A76" s="134"/>
+      <c r="B76" s="127"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="131"/>
+    <row r="77" spans="1:4" ht="36" customHeight="1">
+      <c r="A77" s="134"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7195,8 +7560,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="131"/>
+    <row r="78" spans="1:4" ht="36" customHeight="1">
+      <c r="A78" s="134"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -7204,1087 +7569,1087 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="79" spans="1:4" ht="36" customHeight="1">
       <c r="A79" s="18"/>
       <c r="B79" s="23"/>
       <c r="C79" s="14"/>
       <c r="D79" s="26"/>
     </row>
-    <row r="80" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="80" spans="1:4" ht="36" customHeight="1">
       <c r="A80" s="18"/>
       <c r="B80" s="23"/>
       <c r="C80" s="14"/>
       <c r="D80" s="26"/>
     </row>
-    <row r="81" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="81" spans="1:4" ht="36" customHeight="1">
       <c r="A81" s="18"/>
       <c r="B81" s="23"/>
       <c r="C81" s="14"/>
       <c r="D81" s="26"/>
     </row>
-    <row r="82" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="82" spans="1:4" ht="36" customHeight="1">
       <c r="A82" s="18"/>
       <c r="B82" s="23"/>
       <c r="C82" s="14"/>
       <c r="D82" s="26"/>
     </row>
-    <row r="83" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="83" spans="1:4" ht="36" customHeight="1">
       <c r="A83" s="18"/>
       <c r="B83" s="23"/>
       <c r="C83" s="14"/>
       <c r="D83" s="26"/>
     </row>
-    <row r="84" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="84" spans="1:4" ht="36" customHeight="1">
       <c r="A84" s="18"/>
       <c r="B84" s="23"/>
       <c r="C84" s="14"/>
       <c r="D84" s="26"/>
     </row>
-    <row r="85" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="85" spans="1:4" ht="36" customHeight="1">
       <c r="A85" s="18"/>
       <c r="B85" s="23"/>
       <c r="C85" s="14"/>
       <c r="D85" s="26"/>
     </row>
-    <row r="86" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="86" spans="1:4" ht="36" customHeight="1">
       <c r="A86" s="18"/>
       <c r="B86" s="23"/>
       <c r="C86" s="14"/>
       <c r="D86" s="26"/>
     </row>
-    <row r="87" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="87" spans="1:4" ht="36" customHeight="1">
       <c r="A87" s="18"/>
       <c r="B87" s="23"/>
       <c r="C87" s="14"/>
       <c r="D87" s="26"/>
     </row>
-    <row r="88" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="88" spans="1:4" ht="36" customHeight="1">
       <c r="A88" s="18"/>
       <c r="B88" s="23"/>
       <c r="C88" s="14"/>
       <c r="D88" s="26"/>
     </row>
-    <row r="89" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="89" spans="1:4" ht="36" customHeight="1">
       <c r="A89" s="18"/>
       <c r="B89" s="23"/>
       <c r="C89" s="14"/>
       <c r="D89" s="27"/>
     </row>
-    <row r="90" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="90" spans="1:4" ht="36" customHeight="1">
       <c r="A90" s="18"/>
       <c r="B90" s="23"/>
       <c r="C90" s="14"/>
       <c r="D90" s="27"/>
     </row>
-    <row r="91" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="91" spans="1:4" ht="36" customHeight="1">
       <c r="A91" s="18"/>
       <c r="B91" s="23"/>
       <c r="C91" s="14"/>
       <c r="D91" s="27"/>
     </row>
-    <row r="92" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="92" spans="1:4" ht="36" customHeight="1">
       <c r="A92" s="18"/>
       <c r="B92" s="23"/>
       <c r="C92" s="14"/>
       <c r="D92" s="27"/>
     </row>
-    <row r="93" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="93" spans="1:4" ht="36" customHeight="1">
       <c r="A93" s="18"/>
       <c r="B93" s="23"/>
       <c r="C93" s="14"/>
       <c r="D93" s="27"/>
     </row>
-    <row r="94" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="94" spans="1:4" ht="36" customHeight="1">
       <c r="A94" s="18"/>
       <c r="B94" s="23"/>
       <c r="C94" s="14"/>
       <c r="D94" s="27"/>
     </row>
-    <row r="95" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="95" spans="1:4" ht="36" customHeight="1">
       <c r="A95" s="18"/>
       <c r="B95" s="23"/>
       <c r="C95" s="14"/>
       <c r="D95" s="27"/>
     </row>
-    <row r="96" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="96" spans="1:4" ht="36" customHeight="1">
       <c r="A96" s="18"/>
       <c r="B96" s="23"/>
       <c r="C96" s="14"/>
       <c r="D96" s="27"/>
     </row>
-    <row r="97" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="97" spans="1:4" ht="36" customHeight="1">
       <c r="A97" s="18"/>
       <c r="B97" s="23"/>
       <c r="C97" s="14"/>
       <c r="D97" s="27"/>
     </row>
-    <row r="98" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="98" spans="1:4" ht="36" customHeight="1">
       <c r="A98" s="18"/>
       <c r="B98" s="23"/>
       <c r="C98" s="14"/>
       <c r="D98" s="27"/>
     </row>
-    <row r="99" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="99" spans="1:4" ht="36" customHeight="1">
       <c r="A99" s="18"/>
       <c r="B99" s="23"/>
       <c r="C99" s="14"/>
       <c r="D99" s="27"/>
     </row>
-    <row r="100" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="100" spans="1:4" ht="36" customHeight="1">
       <c r="A100" s="18"/>
       <c r="B100" s="23"/>
       <c r="C100" s="14"/>
       <c r="D100" s="27"/>
     </row>
-    <row r="101" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="101" spans="1:4" ht="36" customHeight="1">
       <c r="A101" s="18"/>
       <c r="B101" s="23"/>
       <c r="C101" s="14"/>
       <c r="D101" s="27"/>
     </row>
-    <row r="102" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="102" spans="1:4" ht="36" customHeight="1">
       <c r="A102" s="18"/>
       <c r="B102" s="23"/>
       <c r="C102" s="14"/>
       <c r="D102" s="27"/>
     </row>
-    <row r="103" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="103" spans="1:4" ht="36" customHeight="1">
       <c r="A103" s="18"/>
       <c r="B103" s="23"/>
       <c r="C103" s="14"/>
       <c r="D103" s="27"/>
     </row>
-    <row r="104" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="104" spans="1:4" ht="36" customHeight="1">
       <c r="A104" s="18"/>
       <c r="B104" s="23"/>
       <c r="C104" s="14"/>
       <c r="D104" s="27"/>
     </row>
-    <row r="105" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="105" spans="1:4" ht="36" customHeight="1">
       <c r="A105" s="18"/>
       <c r="B105" s="23"/>
       <c r="C105" s="14"/>
       <c r="D105" s="27"/>
     </row>
-    <row r="106" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="106" spans="1:4" ht="36" customHeight="1">
       <c r="A106" s="18"/>
       <c r="B106" s="23"/>
       <c r="C106" s="14"/>
       <c r="D106" s="27"/>
     </row>
-    <row r="107" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="107" spans="1:4" ht="36" customHeight="1">
       <c r="A107" s="18"/>
       <c r="B107" s="23"/>
       <c r="C107" s="14"/>
       <c r="D107" s="27"/>
     </row>
-    <row r="108" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="108" spans="1:4" ht="36" customHeight="1">
       <c r="A108" s="18"/>
       <c r="B108" s="23"/>
       <c r="C108" s="14"/>
       <c r="D108" s="27"/>
     </row>
-    <row r="109" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="109" spans="1:4" ht="36" customHeight="1">
       <c r="A109" s="18"/>
       <c r="B109" s="23"/>
       <c r="C109" s="14"/>
       <c r="D109" s="27"/>
     </row>
-    <row r="110" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="110" spans="1:4" ht="36" customHeight="1">
       <c r="A110" s="18"/>
       <c r="B110" s="23"/>
       <c r="C110" s="14"/>
       <c r="D110" s="27"/>
     </row>
-    <row r="111" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="111" spans="1:4" ht="36" customHeight="1">
       <c r="A111" s="18"/>
       <c r="B111" s="23"/>
       <c r="C111" s="14"/>
       <c r="D111" s="27"/>
     </row>
-    <row r="112" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="112" spans="1:4" ht="36" customHeight="1">
       <c r="A112" s="18"/>
       <c r="B112" s="23"/>
       <c r="C112" s="14"/>
       <c r="D112" s="27"/>
     </row>
-    <row r="113" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="113" spans="1:4" ht="36" customHeight="1">
       <c r="A113" s="18"/>
       <c r="B113" s="23"/>
       <c r="C113" s="14"/>
       <c r="D113" s="27"/>
     </row>
-    <row r="114" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="114" spans="1:4" ht="36" customHeight="1">
       <c r="A114" s="18"/>
       <c r="B114" s="23"/>
       <c r="C114" s="14"/>
       <c r="D114" s="27"/>
     </row>
-    <row r="115" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="115" spans="1:4" ht="36" customHeight="1">
       <c r="A115" s="18"/>
       <c r="B115" s="23"/>
       <c r="C115" s="14"/>
       <c r="D115" s="27"/>
     </row>
-    <row r="116" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="116" spans="1:4" ht="36" customHeight="1">
       <c r="A116" s="18"/>
       <c r="B116" s="23"/>
       <c r="C116" s="14"/>
       <c r="D116" s="27"/>
     </row>
-    <row r="117" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="117" spans="1:4" ht="36" customHeight="1">
       <c r="A117" s="18"/>
       <c r="B117" s="23"/>
       <c r="C117" s="14"/>
       <c r="D117" s="27"/>
     </row>
-    <row r="118" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="118" spans="1:4" ht="36" customHeight="1">
       <c r="A118" s="18"/>
       <c r="B118" s="23"/>
       <c r="C118" s="14"/>
       <c r="D118" s="27"/>
     </row>
-    <row r="119" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="119" spans="1:4" ht="36" customHeight="1">
       <c r="A119" s="18"/>
       <c r="B119" s="23"/>
       <c r="C119" s="14"/>
       <c r="D119" s="27"/>
     </row>
-    <row r="120" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="120" spans="1:4" ht="36" customHeight="1">
       <c r="A120" s="18"/>
       <c r="B120" s="23"/>
       <c r="C120" s="14"/>
       <c r="D120" s="27"/>
     </row>
-    <row r="121" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="121" spans="1:4" ht="36" customHeight="1">
       <c r="A121" s="18"/>
       <c r="B121" s="23"/>
       <c r="C121" s="14"/>
       <c r="D121" s="27"/>
     </row>
-    <row r="122" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="122" spans="1:4" ht="36" customHeight="1">
       <c r="A122" s="18"/>
       <c r="B122" s="23"/>
       <c r="C122" s="14"/>
       <c r="D122" s="27"/>
     </row>
-    <row r="123" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="123" spans="1:4" ht="36" customHeight="1">
       <c r="A123" s="18"/>
       <c r="B123" s="23"/>
       <c r="C123" s="14"/>
       <c r="D123" s="27"/>
     </row>
-    <row r="124" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="124" spans="1:4" ht="36" customHeight="1">
       <c r="A124" s="18"/>
       <c r="B124" s="23"/>
       <c r="C124" s="14"/>
       <c r="D124" s="27"/>
     </row>
-    <row r="125" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="125" spans="1:4" ht="36" customHeight="1">
       <c r="A125" s="18"/>
       <c r="B125" s="23"/>
       <c r="C125" s="14"/>
       <c r="D125" s="27"/>
     </row>
-    <row r="126" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="126" spans="1:4" ht="36" customHeight="1">
       <c r="A126" s="18"/>
       <c r="B126" s="23"/>
       <c r="C126" s="14"/>
       <c r="D126" s="27"/>
     </row>
-    <row r="127" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="127" spans="1:4" ht="36" customHeight="1">
       <c r="A127" s="18"/>
       <c r="B127" s="23"/>
       <c r="C127" s="14"/>
       <c r="D127" s="27"/>
     </row>
-    <row r="128" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="128" spans="1:4" ht="36" customHeight="1">
       <c r="A128" s="18"/>
       <c r="B128" s="23"/>
       <c r="C128" s="14"/>
       <c r="D128" s="27"/>
     </row>
-    <row r="129" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="129" spans="1:4" ht="36" customHeight="1">
       <c r="A129" s="18"/>
       <c r="B129" s="23"/>
       <c r="C129" s="14"/>
       <c r="D129" s="27"/>
     </row>
-    <row r="130" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="130" spans="1:4" ht="36" customHeight="1">
       <c r="A130" s="18"/>
       <c r="B130" s="23"/>
       <c r="C130" s="14"/>
       <c r="D130" s="27"/>
     </row>
-    <row r="131" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="131" spans="1:4" ht="36" customHeight="1">
       <c r="A131" s="18"/>
       <c r="B131" s="23"/>
       <c r="C131" s="14"/>
       <c r="D131" s="27"/>
     </row>
-    <row r="132" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="132" spans="1:4" ht="36" customHeight="1">
       <c r="A132" s="18"/>
       <c r="B132" s="23"/>
       <c r="C132" s="14"/>
       <c r="D132" s="27"/>
     </row>
-    <row r="133" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="133" spans="1:4" ht="36" customHeight="1">
       <c r="A133" s="18"/>
       <c r="B133" s="23"/>
       <c r="C133" s="14"/>
       <c r="D133" s="27"/>
     </row>
-    <row r="134" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="134" spans="1:4" ht="36" customHeight="1">
       <c r="A134" s="18"/>
       <c r="B134" s="23"/>
       <c r="C134" s="14"/>
       <c r="D134" s="27"/>
     </row>
-    <row r="135" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="135" spans="1:4" ht="36" customHeight="1">
       <c r="A135" s="18"/>
       <c r="B135" s="23"/>
       <c r="C135" s="14"/>
       <c r="D135" s="27"/>
     </row>
-    <row r="136" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="136" spans="1:4" ht="36" customHeight="1">
       <c r="A136" s="18"/>
       <c r="B136" s="23"/>
       <c r="C136" s="14"/>
       <c r="D136" s="27"/>
     </row>
-    <row r="137" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="137" spans="1:4" ht="36" customHeight="1">
       <c r="A137" s="18"/>
       <c r="B137" s="23"/>
       <c r="C137" s="14"/>
       <c r="D137" s="27"/>
     </row>
-    <row r="138" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="138" spans="1:4" ht="36" customHeight="1">
       <c r="A138" s="18"/>
       <c r="B138" s="23"/>
       <c r="C138" s="14"/>
       <c r="D138" s="27"/>
     </row>
-    <row r="139" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="139" spans="1:4" ht="36" customHeight="1">
       <c r="A139" s="18"/>
       <c r="B139" s="23"/>
       <c r="C139" s="14"/>
       <c r="D139" s="27"/>
     </row>
-    <row r="140" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="140" spans="1:4" ht="36" customHeight="1">
       <c r="A140" s="18"/>
       <c r="B140" s="23"/>
       <c r="C140" s="14"/>
       <c r="D140" s="27"/>
     </row>
-    <row r="141" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="141" spans="1:4" ht="36" customHeight="1">
       <c r="A141" s="18"/>
       <c r="B141" s="23"/>
       <c r="C141" s="14"/>
       <c r="D141" s="27"/>
     </row>
-    <row r="142" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="142" spans="1:4" ht="36" customHeight="1">
       <c r="A142" s="18"/>
       <c r="B142" s="23"/>
       <c r="C142" s="14"/>
       <c r="D142" s="27"/>
     </row>
-    <row r="143" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="143" spans="1:4" ht="36" customHeight="1">
       <c r="A143" s="18"/>
       <c r="B143" s="23"/>
       <c r="C143" s="14"/>
       <c r="D143" s="27"/>
     </row>
-    <row r="144" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="144" spans="1:4" ht="36" customHeight="1">
       <c r="A144" s="18"/>
       <c r="B144" s="23"/>
       <c r="C144" s="14"/>
       <c r="D144" s="27"/>
     </row>
-    <row r="145" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="145" spans="1:4" ht="36" customHeight="1">
       <c r="A145" s="18"/>
       <c r="B145" s="23"/>
       <c r="C145" s="14"/>
       <c r="D145" s="27"/>
     </row>
-    <row r="146" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="146" spans="1:4" ht="36" customHeight="1">
       <c r="A146" s="18"/>
       <c r="B146" s="23"/>
       <c r="C146" s="14"/>
       <c r="D146" s="27"/>
     </row>
-    <row r="147" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="147" spans="1:4" ht="36" customHeight="1">
       <c r="A147" s="18"/>
       <c r="B147" s="23"/>
       <c r="C147" s="14"/>
       <c r="D147" s="27"/>
     </row>
-    <row r="148" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="148" spans="1:4" ht="36" customHeight="1">
       <c r="A148" s="18"/>
       <c r="B148" s="23"/>
       <c r="C148" s="14"/>
       <c r="D148" s="27"/>
     </row>
-    <row r="149" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="149" spans="1:4" ht="36" customHeight="1">
       <c r="A149" s="18"/>
       <c r="B149" s="23"/>
       <c r="C149" s="14"/>
       <c r="D149" s="27"/>
     </row>
-    <row r="150" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="150" spans="1:4" ht="36" customHeight="1">
       <c r="A150" s="18"/>
       <c r="B150" s="23"/>
       <c r="C150" s="14"/>
       <c r="D150" s="27"/>
     </row>
-    <row r="151" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="151" spans="1:4" ht="36" customHeight="1">
       <c r="A151" s="18"/>
       <c r="B151" s="23"/>
       <c r="C151" s="14"/>
       <c r="D151" s="27"/>
     </row>
-    <row r="152" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="152" spans="1:4" ht="36" customHeight="1">
       <c r="A152" s="18"/>
       <c r="B152" s="23"/>
       <c r="C152" s="14"/>
       <c r="D152" s="27"/>
     </row>
-    <row r="153" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="153" spans="1:4" ht="36" customHeight="1">
       <c r="A153" s="18"/>
       <c r="B153" s="23"/>
       <c r="C153" s="14"/>
       <c r="D153" s="27"/>
     </row>
-    <row r="154" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="154" spans="1:4" ht="36" customHeight="1">
       <c r="A154" s="18"/>
       <c r="B154" s="23"/>
       <c r="C154" s="14"/>
       <c r="D154" s="27"/>
     </row>
-    <row r="155" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="155" spans="1:4" ht="36" customHeight="1">
       <c r="A155" s="18"/>
       <c r="B155" s="23"/>
       <c r="C155" s="14"/>
       <c r="D155" s="27"/>
     </row>
-    <row r="156" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="156" spans="1:4" ht="36" customHeight="1">
       <c r="A156" s="18"/>
       <c r="B156" s="23"/>
       <c r="C156" s="14"/>
       <c r="D156" s="27"/>
     </row>
-    <row r="157" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="157" spans="1:4" ht="36" customHeight="1">
       <c r="A157" s="18"/>
       <c r="B157" s="23"/>
       <c r="C157" s="14"/>
       <c r="D157" s="27"/>
     </row>
-    <row r="158" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="158" spans="1:4" ht="36" customHeight="1">
       <c r="A158" s="18"/>
       <c r="B158" s="23"/>
       <c r="C158" s="14"/>
       <c r="D158" s="27"/>
     </row>
-    <row r="159" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="159" spans="1:4" ht="36" customHeight="1">
       <c r="A159" s="18"/>
       <c r="B159" s="23"/>
       <c r="C159" s="14"/>
       <c r="D159" s="27"/>
     </row>
-    <row r="160" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="160" spans="1:4" ht="36" customHeight="1">
       <c r="A160" s="18"/>
       <c r="B160" s="23"/>
       <c r="C160" s="14"/>
       <c r="D160" s="27"/>
     </row>
-    <row r="161" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="161" spans="1:4" ht="36" customHeight="1">
       <c r="A161" s="18"/>
       <c r="B161" s="23"/>
       <c r="C161" s="14"/>
       <c r="D161" s="27"/>
     </row>
-    <row r="162" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="162" spans="1:4" ht="36" customHeight="1">
       <c r="A162" s="18"/>
       <c r="B162" s="23"/>
       <c r="C162" s="14"/>
       <c r="D162" s="27"/>
     </row>
-    <row r="163" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="163" spans="1:4" ht="36" customHeight="1">
       <c r="A163" s="18"/>
       <c r="B163" s="23"/>
       <c r="C163" s="14"/>
       <c r="D163" s="27"/>
     </row>
-    <row r="164" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="164" spans="1:4" ht="36" customHeight="1">
       <c r="A164" s="18"/>
       <c r="B164" s="23"/>
       <c r="C164" s="14"/>
       <c r="D164" s="27"/>
     </row>
-    <row r="165" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="165" spans="1:4" ht="36" customHeight="1">
       <c r="A165" s="18"/>
       <c r="B165" s="23"/>
       <c r="C165" s="14"/>
       <c r="D165" s="27"/>
     </row>
-    <row r="166" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="166" spans="1:4" ht="36" customHeight="1">
       <c r="A166" s="18"/>
       <c r="B166" s="23"/>
       <c r="C166" s="14"/>
       <c r="D166" s="27"/>
     </row>
-    <row r="167" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="167" spans="1:4" ht="36" customHeight="1">
       <c r="A167" s="18"/>
       <c r="B167" s="23"/>
       <c r="C167" s="14"/>
       <c r="D167" s="27"/>
     </row>
-    <row r="168" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="168" spans="1:4" ht="36" customHeight="1">
       <c r="A168" s="18"/>
       <c r="B168" s="23"/>
       <c r="C168" s="14"/>
       <c r="D168" s="27"/>
     </row>
-    <row r="169" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="169" spans="1:4" ht="36" customHeight="1">
       <c r="A169" s="18"/>
       <c r="B169" s="23"/>
       <c r="C169" s="14"/>
       <c r="D169" s="27"/>
     </row>
-    <row r="170" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="170" spans="1:4" ht="36" customHeight="1">
       <c r="A170" s="18"/>
       <c r="B170" s="23"/>
       <c r="C170" s="14"/>
       <c r="D170" s="27"/>
     </row>
-    <row r="171" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="171" spans="1:4" ht="36" customHeight="1">
       <c r="A171" s="18"/>
       <c r="B171" s="23"/>
       <c r="C171" s="14"/>
       <c r="D171" s="27"/>
     </row>
-    <row r="172" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="172" spans="1:4" ht="36" customHeight="1">
       <c r="A172" s="18"/>
       <c r="B172" s="23"/>
       <c r="C172" s="14"/>
       <c r="D172" s="27"/>
     </row>
-    <row r="173" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="173" spans="1:4" ht="36" customHeight="1">
       <c r="A173" s="18"/>
       <c r="B173" s="23"/>
       <c r="C173" s="14"/>
       <c r="D173" s="27"/>
     </row>
-    <row r="174" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="174" spans="1:4" ht="36" customHeight="1">
       <c r="A174" s="18"/>
       <c r="B174" s="23"/>
       <c r="C174" s="14"/>
       <c r="D174" s="27"/>
     </row>
-    <row r="175" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="175" spans="1:4" ht="36" customHeight="1">
       <c r="A175" s="18"/>
       <c r="B175" s="23"/>
       <c r="C175" s="14"/>
       <c r="D175" s="27"/>
     </row>
-    <row r="176" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="176" spans="1:4" ht="36" customHeight="1">
       <c r="A176" s="18"/>
       <c r="B176" s="23"/>
       <c r="C176" s="14"/>
       <c r="D176" s="27"/>
     </row>
-    <row r="177" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="177" spans="1:4" ht="36" customHeight="1">
       <c r="A177" s="18"/>
       <c r="B177" s="23"/>
       <c r="C177" s="14"/>
       <c r="D177" s="27"/>
     </row>
-    <row r="178" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="178" spans="1:4" ht="36" customHeight="1">
       <c r="A178" s="18"/>
       <c r="B178" s="23"/>
       <c r="C178" s="14"/>
       <c r="D178" s="27"/>
     </row>
-    <row r="179" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="179" spans="1:4" ht="36" customHeight="1">
       <c r="A179" s="18"/>
       <c r="B179" s="23"/>
       <c r="C179" s="14"/>
       <c r="D179" s="27"/>
     </row>
-    <row r="180" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="180" spans="1:4" ht="36" customHeight="1">
       <c r="A180" s="18"/>
       <c r="B180" s="23"/>
       <c r="C180" s="14"/>
       <c r="D180" s="27"/>
     </row>
-    <row r="181" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="181" spans="1:4" ht="36" customHeight="1">
       <c r="A181" s="18"/>
       <c r="B181" s="23"/>
       <c r="C181" s="14"/>
       <c r="D181" s="27"/>
     </row>
-    <row r="182" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="182" spans="1:4" ht="36" customHeight="1">
       <c r="A182" s="18"/>
       <c r="B182" s="23"/>
       <c r="C182" s="14"/>
       <c r="D182" s="27"/>
     </row>
-    <row r="183" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="183" spans="1:4" ht="36" customHeight="1">
       <c r="A183" s="18"/>
       <c r="B183" s="23"/>
       <c r="C183" s="14"/>
       <c r="D183" s="27"/>
     </row>
-    <row r="184" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="184" spans="1:4" ht="36" customHeight="1">
       <c r="A184" s="18"/>
       <c r="B184" s="23"/>
       <c r="C184" s="14"/>
       <c r="D184" s="27"/>
     </row>
-    <row r="185" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="185" spans="1:4" ht="36" customHeight="1">
       <c r="A185" s="18"/>
       <c r="B185" s="23"/>
       <c r="C185" s="14"/>
       <c r="D185" s="27"/>
     </row>
-    <row r="186" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="186" spans="1:4" ht="36" customHeight="1">
       <c r="A186" s="18"/>
       <c r="B186" s="23"/>
       <c r="C186" s="14"/>
       <c r="D186" s="27"/>
     </row>
-    <row r="187" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="187" spans="1:4" ht="36" customHeight="1">
       <c r="A187" s="18"/>
       <c r="B187" s="23"/>
       <c r="C187" s="14"/>
       <c r="D187" s="27"/>
     </row>
-    <row r="188" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="188" spans="1:4" ht="36" customHeight="1">
       <c r="A188" s="18"/>
       <c r="B188" s="23"/>
       <c r="C188" s="14"/>
       <c r="D188" s="27"/>
     </row>
-    <row r="189" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="189" spans="1:4" ht="36" customHeight="1">
       <c r="A189" s="18"/>
       <c r="B189" s="23"/>
       <c r="C189" s="14"/>
       <c r="D189" s="27"/>
     </row>
-    <row r="190" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="190" spans="1:4" ht="36" customHeight="1">
       <c r="A190" s="18"/>
       <c r="B190" s="23"/>
       <c r="C190" s="14"/>
       <c r="D190" s="27"/>
     </row>
-    <row r="191" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="191" spans="1:4" ht="36" customHeight="1">
       <c r="A191" s="18"/>
       <c r="B191" s="23"/>
       <c r="C191" s="14"/>
       <c r="D191" s="27"/>
     </row>
-    <row r="192" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="192" spans="1:4" ht="36" customHeight="1">
       <c r="A192" s="18"/>
       <c r="B192" s="23"/>
       <c r="C192" s="14"/>
       <c r="D192" s="27"/>
     </row>
-    <row r="193" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="193" spans="1:4" ht="36" customHeight="1">
       <c r="A193" s="18"/>
       <c r="B193" s="23"/>
       <c r="C193" s="14"/>
       <c r="D193" s="27"/>
     </row>
-    <row r="194" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="194" spans="1:4" ht="36" customHeight="1">
       <c r="A194" s="18"/>
       <c r="B194" s="23"/>
       <c r="C194" s="14"/>
       <c r="D194" s="27"/>
     </row>
-    <row r="195" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="195" spans="1:4" ht="36" customHeight="1">
       <c r="A195" s="18"/>
       <c r="B195" s="23"/>
       <c r="C195" s="14"/>
       <c r="D195" s="27"/>
     </row>
-    <row r="196" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="196" spans="1:4" ht="36" customHeight="1">
       <c r="A196" s="18"/>
       <c r="B196" s="23"/>
       <c r="C196" s="14"/>
       <c r="D196" s="27"/>
     </row>
-    <row r="197" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="197" spans="1:4" ht="36" customHeight="1">
       <c r="A197" s="18"/>
       <c r="B197" s="23"/>
       <c r="C197" s="14"/>
       <c r="D197" s="27"/>
     </row>
-    <row r="198" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="198" spans="1:4" ht="36" customHeight="1">
       <c r="A198" s="18"/>
       <c r="B198" s="23"/>
       <c r="C198" s="14"/>
       <c r="D198" s="27"/>
     </row>
-    <row r="199" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="199" spans="1:4" ht="36" customHeight="1">
       <c r="A199" s="18"/>
       <c r="B199" s="23"/>
       <c r="C199" s="14"/>
       <c r="D199" s="27"/>
     </row>
-    <row r="200" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="200" spans="1:4" ht="36" customHeight="1">
       <c r="A200" s="18"/>
       <c r="B200" s="23"/>
       <c r="C200" s="14"/>
       <c r="D200" s="27"/>
     </row>
-    <row r="201" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="201" spans="1:4" ht="36" customHeight="1">
       <c r="A201" s="18"/>
       <c r="B201" s="23"/>
       <c r="C201" s="14"/>
       <c r="D201" s="27"/>
     </row>
-    <row r="202" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="202" spans="1:4" ht="36" customHeight="1">
       <c r="A202" s="18"/>
       <c r="B202" s="23"/>
       <c r="C202" s="14"/>
       <c r="D202" s="27"/>
     </row>
-    <row r="203" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="203" spans="1:4" ht="36" customHeight="1">
       <c r="A203" s="18"/>
       <c r="B203" s="23"/>
       <c r="C203" s="14"/>
       <c r="D203" s="27"/>
     </row>
-    <row r="204" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="204" spans="1:4" ht="36" customHeight="1">
       <c r="A204" s="18"/>
       <c r="B204" s="23"/>
       <c r="C204" s="14"/>
       <c r="D204" s="27"/>
     </row>
-    <row r="205" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="205" spans="1:4" ht="36" customHeight="1">
       <c r="A205" s="18"/>
       <c r="B205" s="23"/>
       <c r="C205" s="14"/>
       <c r="D205" s="27"/>
     </row>
-    <row r="206" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="206" spans="1:4" ht="36" customHeight="1">
       <c r="A206" s="18"/>
       <c r="B206" s="23"/>
       <c r="C206" s="14"/>
       <c r="D206" s="27"/>
     </row>
-    <row r="207" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="207" spans="1:4" ht="36" customHeight="1">
       <c r="A207" s="18"/>
       <c r="B207" s="23"/>
       <c r="C207" s="14"/>
       <c r="D207" s="27"/>
     </row>
-    <row r="208" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="208" spans="1:4" ht="36" customHeight="1">
       <c r="A208" s="18"/>
       <c r="B208" s="23"/>
       <c r="C208" s="14"/>
       <c r="D208" s="27"/>
     </row>
-    <row r="209" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="209" spans="1:4" ht="36" customHeight="1">
       <c r="A209" s="18"/>
       <c r="B209" s="23"/>
       <c r="C209" s="14"/>
       <c r="D209" s="27"/>
     </row>
-    <row r="210" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="210" spans="1:4" ht="36" customHeight="1">
       <c r="A210" s="18"/>
       <c r="B210" s="23"/>
       <c r="C210" s="14"/>
       <c r="D210" s="27"/>
     </row>
-    <row r="211" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="211" spans="1:4" ht="36" customHeight="1">
       <c r="A211" s="18"/>
       <c r="B211" s="23"/>
       <c r="C211" s="14"/>
       <c r="D211" s="27"/>
     </row>
-    <row r="212" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="212" spans="1:4" ht="36" customHeight="1">
       <c r="A212" s="18"/>
       <c r="B212" s="23"/>
       <c r="C212" s="14"/>
       <c r="D212" s="27"/>
     </row>
-    <row r="213" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="213" spans="1:4" ht="36" customHeight="1">
       <c r="A213" s="18"/>
       <c r="B213" s="23"/>
       <c r="C213" s="14"/>
       <c r="D213" s="27"/>
     </row>
-    <row r="214" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="214" spans="1:4" ht="36" customHeight="1">
       <c r="A214" s="18"/>
       <c r="B214" s="23"/>
       <c r="C214" s="14"/>
       <c r="D214" s="27"/>
     </row>
-    <row r="215" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="215" spans="1:4" ht="36" customHeight="1">
       <c r="A215" s="18"/>
       <c r="B215" s="23"/>
       <c r="C215" s="14"/>
       <c r="D215" s="27"/>
     </row>
-    <row r="216" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="216" spans="1:4" ht="36" customHeight="1">
       <c r="A216" s="18"/>
       <c r="B216" s="23"/>
       <c r="C216" s="14"/>
       <c r="D216" s="27"/>
     </row>
-    <row r="217" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="217" spans="1:4" ht="36" customHeight="1">
       <c r="A217" s="18"/>
       <c r="B217" s="23"/>
       <c r="C217" s="14"/>
       <c r="D217" s="27"/>
     </row>
-    <row r="218" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="218" spans="1:4" ht="36" customHeight="1">
       <c r="A218" s="18"/>
       <c r="B218" s="23"/>
       <c r="C218" s="14"/>
       <c r="D218" s="27"/>
     </row>
-    <row r="219" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="219" spans="1:4" ht="36" customHeight="1">
       <c r="A219" s="18"/>
       <c r="B219" s="23"/>
       <c r="C219" s="14"/>
       <c r="D219" s="27"/>
     </row>
-    <row r="220" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="220" spans="1:4" ht="36" customHeight="1">
       <c r="A220" s="18"/>
       <c r="B220" s="23"/>
       <c r="C220" s="14"/>
       <c r="D220" s="27"/>
     </row>
-    <row r="221" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="221" spans="1:4" ht="36" customHeight="1">
       <c r="A221" s="18"/>
       <c r="B221" s="23"/>
       <c r="C221" s="14"/>
       <c r="D221" s="27"/>
     </row>
-    <row r="222" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="222" spans="1:4" ht="36" customHeight="1">
       <c r="A222" s="18"/>
       <c r="B222" s="23"/>
       <c r="C222" s="14"/>
       <c r="D222" s="27"/>
     </row>
-    <row r="223" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="223" spans="1:4" ht="36" customHeight="1">
       <c r="A223" s="18"/>
       <c r="B223" s="23"/>
       <c r="C223" s="14"/>
       <c r="D223" s="27"/>
     </row>
-    <row r="224" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="224" spans="1:4" ht="36" customHeight="1">
       <c r="A224" s="18"/>
       <c r="B224" s="23"/>
       <c r="C224" s="14"/>
       <c r="D224" s="27"/>
     </row>
-    <row r="225" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="225" spans="1:4" ht="36" customHeight="1">
       <c r="A225" s="18"/>
       <c r="B225" s="23"/>
       <c r="C225" s="14"/>
       <c r="D225" s="27"/>
     </row>
-    <row r="226" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="226" spans="1:4" ht="36" customHeight="1">
       <c r="A226" s="18"/>
       <c r="B226" s="23"/>
       <c r="C226" s="14"/>
       <c r="D226" s="27"/>
     </row>
-    <row r="227" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="227" spans="1:4" ht="36" customHeight="1">
       <c r="A227" s="18"/>
       <c r="B227" s="23"/>
       <c r="C227" s="14"/>
       <c r="D227" s="27"/>
     </row>
-    <row r="228" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="228" spans="1:4" ht="36" customHeight="1">
       <c r="A228" s="18"/>
       <c r="B228" s="23"/>
       <c r="C228" s="14"/>
       <c r="D228" s="27"/>
     </row>
-    <row r="229" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="229" spans="1:4" ht="36" customHeight="1">
       <c r="A229" s="18"/>
       <c r="B229" s="23"/>
       <c r="C229" s="14"/>
       <c r="D229" s="27"/>
     </row>
-    <row r="230" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="230" spans="1:4" ht="36" customHeight="1">
       <c r="A230" s="18"/>
       <c r="B230" s="23"/>
       <c r="C230" s="14"/>
       <c r="D230" s="27"/>
     </row>
-    <row r="231" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="231" spans="1:4" ht="36" customHeight="1">
       <c r="A231" s="18"/>
       <c r="B231" s="23"/>
       <c r="C231" s="14"/>
       <c r="D231" s="27"/>
     </row>
-    <row r="232" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="232" spans="1:4" ht="36" customHeight="1">
       <c r="A232" s="18"/>
       <c r="B232" s="23"/>
       <c r="C232" s="14"/>
       <c r="D232" s="27"/>
     </row>
-    <row r="233" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="233" spans="1:4" ht="36" customHeight="1">
       <c r="A233" s="18"/>
       <c r="B233" s="23"/>
       <c r="C233" s="14"/>
       <c r="D233" s="27"/>
     </row>
-    <row r="234" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="234" spans="1:4" ht="36" customHeight="1">
       <c r="A234" s="18"/>
       <c r="B234" s="23"/>
       <c r="C234" s="14"/>
       <c r="D234" s="27"/>
     </row>
-    <row r="235" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="235" spans="1:4" ht="36" customHeight="1">
       <c r="A235" s="18"/>
       <c r="B235" s="23"/>
       <c r="C235" s="14"/>
       <c r="D235" s="27"/>
     </row>
-    <row r="236" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="236" spans="1:4" ht="36" customHeight="1">
       <c r="A236" s="18"/>
       <c r="B236" s="23"/>
       <c r="C236" s="14"/>
       <c r="D236" s="27"/>
     </row>
-    <row r="237" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="237" spans="1:4" ht="36" customHeight="1">
       <c r="A237" s="18"/>
       <c r="B237" s="23"/>
       <c r="C237" s="14"/>
       <c r="D237" s="27"/>
     </row>
-    <row r="238" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="238" spans="1:4" ht="36" customHeight="1">
       <c r="A238" s="18"/>
       <c r="B238" s="23"/>
       <c r="C238" s="14"/>
       <c r="D238" s="27"/>
     </row>
-    <row r="239" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="239" spans="1:4" ht="36" customHeight="1">
       <c r="A239" s="18"/>
       <c r="B239" s="23"/>
       <c r="C239" s="14"/>
       <c r="D239" s="27"/>
     </row>
-    <row r="240" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="240" spans="1:4" ht="36" customHeight="1">
       <c r="A240" s="18"/>
       <c r="B240" s="23"/>
       <c r="C240" s="14"/>
       <c r="D240" s="27"/>
     </row>
-    <row r="241" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="241" spans="1:4" ht="36" customHeight="1">
       <c r="A241" s="18"/>
       <c r="B241" s="23"/>
       <c r="C241" s="14"/>
       <c r="D241" s="27"/>
     </row>
-    <row r="242" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="242" spans="1:4" ht="36" customHeight="1">
       <c r="A242" s="18"/>
       <c r="B242" s="23"/>
       <c r="C242" s="14"/>
       <c r="D242" s="27"/>
     </row>
-    <row r="243" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="243" spans="1:4" ht="36" customHeight="1">
       <c r="A243" s="18"/>
       <c r="B243" s="23"/>
       <c r="C243" s="14"/>
       <c r="D243" s="27"/>
     </row>
-    <row r="244" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="244" spans="1:4" ht="36" customHeight="1">
       <c r="A244" s="18"/>
       <c r="B244" s="23"/>
       <c r="C244" s="14"/>
       <c r="D244" s="27"/>
     </row>
-    <row r="245" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="245" spans="1:4" ht="36" customHeight="1">
       <c r="A245" s="18"/>
       <c r="B245" s="23"/>
       <c r="C245" s="14"/>
       <c r="D245" s="27"/>
     </row>
-    <row r="246" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="246" spans="1:4" ht="36" customHeight="1">
       <c r="A246" s="18"/>
       <c r="B246" s="23"/>
       <c r="C246" s="14"/>
       <c r="D246" s="27"/>
     </row>
-    <row r="247" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="247" spans="1:4" ht="36" customHeight="1">
       <c r="A247" s="18"/>
       <c r="B247" s="23"/>
       <c r="C247" s="14"/>
       <c r="D247" s="27"/>
     </row>
-    <row r="248" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="248" spans="1:4" ht="36" customHeight="1">
       <c r="A248" s="18"/>
       <c r="B248" s="23"/>
       <c r="C248" s="14"/>
       <c r="D248" s="27"/>
     </row>
-    <row r="249" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="249" spans="1:4" ht="36" customHeight="1">
       <c r="A249" s="18"/>
       <c r="B249" s="23"/>
       <c r="C249" s="14"/>
       <c r="D249" s="27"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="250" spans="1:4">
       <c r="A250" s="18"/>
       <c r="B250" s="23"/>
       <c r="C250" s="14"/>
       <c r="D250" s="27"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="251" spans="1:4">
       <c r="A251" s="18"/>
       <c r="B251" s="23"/>
       <c r="C251" s="14"/>
       <c r="D251" s="27"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="252" spans="1:4">
       <c r="A252" s="18"/>
       <c r="B252" s="23"/>
       <c r="C252" s="14"/>
       <c r="D252" s="27"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="253" spans="1:4">
       <c r="A253" s="18"/>
       <c r="B253" s="23"/>
       <c r="C253" s="14"/>
       <c r="D253" s="27"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="254" spans="1:4">
       <c r="A254" s="19"/>
       <c r="B254" s="24"/>
       <c r="C254" s="15"/>
       <c r="D254" s="26"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="255" spans="1:4">
       <c r="A255" s="19"/>
       <c r="B255" s="24"/>
       <c r="C255" s="15"/>
       <c r="D255" s="26"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="256" spans="1:4">
       <c r="A256" s="19"/>
       <c r="B256" s="24"/>
       <c r="C256" s="15"/>
       <c r="D256" s="26"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="257" spans="1:4">
       <c r="A257" s="19"/>
       <c r="B257" s="24"/>
       <c r="C257" s="15"/>
       <c r="D257" s="26"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="258" spans="1:4">
       <c r="A258" s="19"/>
       <c r="B258" s="24"/>
       <c r="C258" s="15"/>
       <c r="D258" s="26"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="259" spans="1:4">
       <c r="A259" s="19"/>
       <c r="B259" s="24"/>
       <c r="C259" s="15"/>
@@ -8318,82 +8683,82 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="推举"/>
-    <hyperlink ref="C4" r:id="rId2" display="坐姿推举"/>
-    <hyperlink ref="C5" r:id="rId3" display="阿诺德推举"/>
-    <hyperlink ref="C6" r:id="rId4" display="双臂前平举"/>
-    <hyperlink ref="C7" r:id="rId5" display="单臂前平举"/>
-    <hyperlink ref="C8" r:id="rId6" display="侧平举"/>
-    <hyperlink ref="C9" r:id="rId7" display="直拉"/>
-    <hyperlink ref="C10" r:id="rId8" display="坐姿侧平举"/>
-    <hyperlink ref="C11" r:id="rId9" display="侧卧侧平举"/>
-    <hyperlink ref="C12" r:id="rId10" display="侧斜侧平举"/>
-    <hyperlink ref="C13" r:id="rId11" display="俯身侧平举"/>
-    <hyperlink ref="C14" r:id="rId12" display="俯身摆臂"/>
-    <hyperlink ref="C15" r:id="rId13" display="俯身上拉"/>
-    <hyperlink ref="C16" r:id="rId14" display="斜躺侧平举"/>
-    <hyperlink ref="C17" r:id="rId15" display="斜板侧平举"/>
-    <hyperlink ref="C18" r:id="rId16" display="坐姿俯身侧平举"/>
-    <hyperlink ref="C19" r:id="rId17" display="侧卧侧平举"/>
-    <hyperlink ref="C42" r:id="rId18" display="半蹲单臂弯举"/>
-    <hyperlink ref="C43" r:id="rId19" display="垂式弯举"/>
-    <hyperlink ref="C44" r:id="rId20"/>
-    <hyperlink ref="C45" r:id="rId21"/>
-    <hyperlink ref="C46" r:id="rId22"/>
-    <hyperlink ref="C47" r:id="rId23"/>
-    <hyperlink ref="C48" r:id="rId24" display="直板托臂弯举"/>
-    <hyperlink ref="C49" r:id="rId25"/>
-    <hyperlink ref="C50" r:id="rId26"/>
-    <hyperlink ref="C51" r:id="rId27"/>
-    <hyperlink ref="C52" r:id="rId28"/>
-    <hyperlink ref="C53" r:id="rId29"/>
-    <hyperlink ref="C54" r:id="rId30"/>
-    <hyperlink ref="C55" r:id="rId31" display="站姿屈臂伸(单)"/>
-    <hyperlink ref="C56" r:id="rId32"/>
-    <hyperlink ref="C57" r:id="rId33"/>
-    <hyperlink ref="C58" r:id="rId34" display="臂弯举"/>
-    <hyperlink ref="C59" r:id="rId35" display="臂弯举(腕翻转)"/>
-    <hyperlink ref="C60" r:id="rId36" display="臂弯举(锤式)"/>
-    <hyperlink ref="C61" r:id="rId37"/>
-    <hyperlink ref="C62" r:id="rId38" display="腕弯举"/>
-    <hyperlink ref="C20" r:id="rId39" display="仰卧屈臂上提(单)"/>
-    <hyperlink ref="C21" r:id="rId40" display="仰卧屈臂上拉"/>
-    <hyperlink ref="C22" r:id="rId41" display="下斜飞鸟"/>
-    <hyperlink ref="C23" r:id="rId42" display="高腿位飞鸟"/>
-    <hyperlink ref="C24" r:id="rId43"/>
-    <hyperlink ref="C25" r:id="rId44" display="下斜卧推"/>
-    <hyperlink ref="C26" r:id="rId45" display="卧推"/>
-    <hyperlink ref="C27" r:id="rId46"/>
-    <hyperlink ref="C28" r:id="rId47"/>
-    <hyperlink ref="C29" r:id="rId48" display="上斜飞鸟"/>
-    <hyperlink ref="C30" r:id="rId49" display="上斜卧推"/>
-    <hyperlink ref="C31" r:id="rId50" display="旋转上斜卧推"/>
-    <hyperlink ref="C32" r:id="rId51" display="斜板划船"/>
-    <hyperlink ref="C33" r:id="rId52"/>
-    <hyperlink ref="C34" r:id="rId53"/>
-    <hyperlink ref="C35" r:id="rId54"/>
-    <hyperlink ref="C36" r:id="rId55"/>
-    <hyperlink ref="C37" r:id="rId56" display="绕肩"/>
-    <hyperlink ref="C38" r:id="rId57" display="耸肩"/>
-    <hyperlink ref="C39" r:id="rId58" display="俯身摆肩"/>
-    <hyperlink ref="C40" r:id="rId59" display="侧卧侧拉"/>
-    <hyperlink ref="C41" r:id="rId60" display="侧卧支撑侧拉"/>
-    <hyperlink ref="C63" r:id="rId61"/>
-    <hyperlink ref="C64" r:id="rId62"/>
-    <hyperlink ref="C65" r:id="rId63" display="双臂侧屈体"/>
-    <hyperlink ref="C66" r:id="rId64" display="单臂侧屈"/>
-    <hyperlink ref="C67" r:id="rId65"/>
-    <hyperlink ref="C68" r:id="rId66" display="直腿硬拉"/>
-    <hyperlink ref="C69" r:id="rId67" display="侧弓步"/>
-    <hyperlink ref="C77" r:id="rId68" display="硬拉"/>
-    <hyperlink ref="C70" r:id="rId69" display="深蹲"/>
-    <hyperlink ref="C71" r:id="rId70"/>
-    <hyperlink ref="C72" r:id="rId71" display="提箱式深蹲"/>
-    <hyperlink ref="C73" r:id="rId72" display="弓步蹲"/>
-    <hyperlink ref="C74" r:id="rId73" display="侧弓步"/>
-    <hyperlink ref="C75" r:id="rId74" display="前弓步"/>
-    <hyperlink ref="C76" r:id="rId75" display="后弓步"/>
-    <hyperlink ref="C78" r:id="rId76" display="坐姿提踵"/>
+    <hyperlink ref="C3" r:id="rId1" display="推举" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" display="坐姿推举" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" display="阿诺德推举" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" display="双臂前平举" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" display="单臂前平举" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" display="侧平举" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C9" r:id="rId7" display="直拉" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" display="坐姿侧平举" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C11" r:id="rId9" display="侧卧侧平举" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C12" r:id="rId10" display="侧斜侧平举" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C13" r:id="rId11" display="俯身侧平举" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C14" r:id="rId12" display="俯身摆臂" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C15" r:id="rId13" display="俯身上拉" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C16" r:id="rId14" display="斜躺侧平举" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="C17" r:id="rId15" display="斜板侧平举" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C18" r:id="rId16" display="坐姿俯身侧平举" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="C19" r:id="rId17" display="侧卧侧平举" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C42" r:id="rId18" display="半蹲单臂弯举" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="C43" r:id="rId19" display="垂式弯举" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C44" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="C45" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="C46" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="C47" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="C48" r:id="rId24" display="直板托臂弯举" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="C49" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="C50" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="C51" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="C52" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="C53" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="C54" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="C55" r:id="rId31" display="站姿屈臂伸(单)" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="C56" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="C57" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="C58" r:id="rId34" display="臂弯举" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="C59" r:id="rId35" display="臂弯举(腕翻转)" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="C60" r:id="rId36" display="臂弯举(锤式)" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="C61" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="C62" r:id="rId38" display="腕弯举" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="C20" r:id="rId39" display="仰卧屈臂上提(单)" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="C21" r:id="rId40" display="仰卧屈臂上拉" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="C22" r:id="rId41" display="下斜飞鸟" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="C23" r:id="rId42" display="高腿位飞鸟" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="C24" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="C25" r:id="rId44" display="下斜卧推" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="C26" r:id="rId45" display="卧推" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="C27" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="C28" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="C29" r:id="rId48" display="上斜飞鸟" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="C30" r:id="rId49" display="上斜卧推" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="C31" r:id="rId50" display="旋转上斜卧推" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="C32" r:id="rId51" display="斜板划船" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="C33" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="C34" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="C35" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="C36" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="C37" r:id="rId56" display="绕肩" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="C38" r:id="rId57" display="耸肩" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="C39" r:id="rId58" display="俯身摆肩" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="C40" r:id="rId59" display="侧卧侧拉" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="C41" r:id="rId60" display="侧卧支撑侧拉" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="C63" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="C64" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="C65" r:id="rId63" display="双臂侧屈体" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="C66" r:id="rId64" display="单臂侧屈" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="C67" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="C68" r:id="rId66" display="直腿硬拉" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="C69" r:id="rId67" display="侧弓步" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="C77" r:id="rId68" display="硬拉" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="C70" r:id="rId69" display="深蹲" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="C72" r:id="rId71" display="提箱式深蹲" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="C73" r:id="rId72" display="弓步蹲" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="C74" r:id="rId73" display="侧弓步" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="C75" r:id="rId74" display="前弓步" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="C76" r:id="rId75" display="后弓步" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="C78" r:id="rId76" display="坐姿提踵" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8402,14 +8767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="62" customWidth="1"/>
@@ -8419,102 +8784,102 @@
     <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="35">
       <c r="A1" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="132"/>
-    </row>
-    <row r="2" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="144" t="s">
+      <c r="C1" s="135" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="135"/>
+    </row>
+    <row r="2" spans="1:6" ht="65" customHeight="1">
+      <c r="A2" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="133"/>
-    </row>
-    <row r="3" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="145"/>
-      <c r="C3" s="134" t="s">
+      <c r="D2" s="136"/>
+    </row>
+    <row r="3" spans="1:6" ht="31" customHeight="1">
+      <c r="A3" s="148"/>
+      <c r="C3" s="137" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="157" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="158"/>
-    </row>
-    <row r="4" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="135"/>
+      <c r="E3" s="160" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="161"/>
+    </row>
+    <row r="4" spans="1:6" ht="31" customHeight="1">
+      <c r="A4" s="149" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="138"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="147"/>
-      <c r="C5" s="136" t="s">
+    <row r="5" spans="1:6" ht="31" customHeight="1">
+      <c r="A5" s="150"/>
+      <c r="C5" s="139" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="138" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="147"/>
-      <c r="C6" s="137"/>
+      <c r="F5" s="141" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31" customHeight="1">
+      <c r="A6" s="150"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="138"/>
-    </row>
-    <row r="7" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="147"/>
-      <c r="C7" s="140" t="s">
+      <c r="F6" s="141"/>
+    </row>
+    <row r="7" spans="1:6" ht="31" customHeight="1">
+      <c r="A7" s="150"/>
+      <c r="C7" s="143" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="138"/>
-    </row>
-    <row r="8" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="147"/>
-      <c r="C8" s="141"/>
+      <c r="F7" s="141"/>
+    </row>
+    <row r="8" spans="1:6" ht="31" customHeight="1">
+      <c r="A8" s="150"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="138"/>
-    </row>
-    <row r="9" spans="1:6" ht="23" x14ac:dyDescent="0.2">
-      <c r="A9" s="147"/>
-      <c r="C9" s="153" t="s">
+      <c r="F8" s="141"/>
+    </row>
+    <row r="9" spans="1:6" ht="23">
+      <c r="A9" s="150"/>
+      <c r="C9" s="156" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="154"/>
-      <c r="F9" s="138"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="147"/>
-      <c r="C10" s="149" t="s">
+      <c r="D9" s="157"/>
+      <c r="F9" s="141"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="150"/>
+      <c r="C10" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="150"/>
-      <c r="F10" s="138"/>
-    </row>
-    <row r="11" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="147"/>
+      <c r="D10" s="153"/>
+      <c r="F10" s="141"/>
+    </row>
+    <row r="11" spans="1:6" ht="32" customHeight="1">
+      <c r="A11" s="150"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -8522,67 +8887,67 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="138"/>
-    </row>
-    <row r="12" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="148"/>
-      <c r="C12" s="151" t="s">
+      <c r="F11" s="141"/>
+    </row>
+    <row r="12" spans="1:6" ht="54" customHeight="1">
+      <c r="A12" s="151"/>
+      <c r="C12" s="154" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="152"/>
-      <c r="F12" s="138"/>
-    </row>
-    <row r="13" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="155" t="s">
+      <c r="D12" s="155"/>
+      <c r="F12" s="141"/>
+    </row>
+    <row r="13" spans="1:6" ht="37" customHeight="1">
+      <c r="C13" s="158" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="159"/>
+      <c r="F13" s="141" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" customHeight="1">
+      <c r="C14" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="156"/>
-      <c r="F13" s="138" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="138"/>
-    </row>
-    <row r="15" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="142" t="s">
+      <c r="F14" s="141"/>
+    </row>
+    <row r="15" spans="1:6" ht="48" customHeight="1">
+      <c r="C15" s="145" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="143"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="138"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F16" s="138"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F17" s="138"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="138"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F19" s="138"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F20" s="139" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F21" s="139"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F22" s="139"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F23" s="139"/>
+      <c r="F15" s="141"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="F16" s="141"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="141"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="141"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="141"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="142" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="142"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="142"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -8610,14 +8975,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y671"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Y679"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
     <col min="1" max="1" width="72.5" style="63" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="85" customWidth="1"/>
@@ -8629,29 +8994,29 @@
     <col min="15" max="15" width="34.6640625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="159">
+    <row r="1" spans="1:3" ht="28">
+      <c r="A1" s="162">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="159"/>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="162"/>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1">
       <c r="A2" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="85">
         <v>43.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="85">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="B4" s="86">
         <f>SUM(B2:B3)</f>
         <v>163.80000000000001</v>
@@ -8660,47 +9025,47 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="159">
+    <row r="5" spans="1:3" ht="28">
+      <c r="A5" s="162">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="159"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="162"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="85">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" s="87">
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="85">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="85">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" s="85">
         <v>148</v>
@@ -8709,7 +9074,7 @@
         <v>623.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="B11" s="86">
         <f>SUM(B6:B10)</f>
         <v>623.35</v>
@@ -8719,23 +9084,23 @@
         <v>787.15000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="159" t="s">
+    <row r="12" spans="1:3" ht="21" customHeight="1">
+      <c r="A12" s="162" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="162"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="64" t="s">
         <v>195</v>
-      </c>
-      <c r="B12" s="159"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
-        <v>196</v>
       </c>
       <c r="B13" s="85">
         <v>53.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" s="85">
         <v>79</v>
@@ -8744,7 +9109,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="64"/>
       <c r="B15" s="86">
         <f>SUM(B13:B14)</f>
@@ -8755,18 +9120,18 @@
         <v>919.90000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="159" t="s">
-        <v>239</v>
-      </c>
-      <c r="B16" s="159"/>
+    <row r="16" spans="1:3" ht="21" customHeight="1">
+      <c r="A16" s="162" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="162"/>
       <c r="C16" s="70">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" s="86">
         <v>324</v>
@@ -8776,31 +9141,31 @@
         <v>1243.9000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="159" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" s="159"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="21" customHeight="1">
+      <c r="A18" s="162" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="162"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" s="85">
         <v>109.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="85">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" s="85">
         <v>105.7</v>
@@ -8809,7 +9174,7 @@
         <v>305.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="B22" s="86">
         <f>SUM(B19:B21)</f>
         <v>305.31</v>
@@ -8819,18 +9184,18 @@
         <v>1549.21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="159" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="159"/>
+    <row r="23" spans="1:3" ht="21" customHeight="1">
+      <c r="A23" s="162" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="162"/>
       <c r="C23" s="70">
         <v>49.67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="86">
         <v>49.67</v>
@@ -8840,63 +9205,63 @@
         <v>1598.88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="159" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="159"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="21" customHeight="1">
+      <c r="A25" s="162" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="162"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" s="85">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="85">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="85">
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" s="85">
         <v>308.70999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="85">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" s="85">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" s="85">
         <v>116.82</v>
@@ -8905,7 +9270,7 @@
         <v>1098.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="B33" s="86">
         <f>SUM(B26:B32)</f>
         <v>1098.43</v>
@@ -8915,79 +9280,79 @@
         <v>2697.3100000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="159" t="s">
-        <v>242</v>
-      </c>
-      <c r="B34" s="159"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="21" customHeight="1">
+      <c r="A34" s="162" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="162"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B35" s="85">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" s="85">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B37" s="85">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" s="85">
         <v>35.64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" s="85">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B40" s="85">
         <v>178.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B41" s="85">
         <v>51.27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B42" s="85">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="41" customHeight="1">
       <c r="A43" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B43" s="85">
         <v>227.92</v>
@@ -8996,7 +9361,7 @@
         <v>826.03</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="65"/>
       <c r="B44" s="86">
         <f>SUM(B35:B43)</f>
@@ -9007,23 +9372,23 @@
         <v>3523.34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="159" t="s">
-        <v>243</v>
-      </c>
-      <c r="B45" s="159"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="21" customHeight="1">
+      <c r="A45" s="162" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" s="162"/>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" s="85">
         <v>309.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B47" s="85">
         <v>191</v>
@@ -9032,7 +9397,7 @@
         <v>500.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="65"/>
       <c r="B48" s="86">
         <f>SUM(B46:B47)</f>
@@ -9043,39 +9408,39 @@
         <v>4024.04</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="159" t="s">
-        <v>244</v>
-      </c>
-      <c r="B49" s="159"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="21" customHeight="1">
+      <c r="A49" s="162" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="162"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B50" s="85">
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B51" s="85">
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B52" s="85">
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B53" s="85">
         <v>99</v>
@@ -9084,7 +9449,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="65"/>
       <c r="B54" s="86">
         <f>SUM(B50:B53)</f>
@@ -9095,47 +9460,47 @@
         <v>4539.54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="159" t="s">
-        <v>245</v>
-      </c>
-      <c r="B55" s="159"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="21" customHeight="1">
+      <c r="A55" s="162" t="s">
+        <v>244</v>
+      </c>
+      <c r="B55" s="162"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B56" s="85">
         <v>199.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="65" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B57" s="85">
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B58" s="85">
         <v>238.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B59" s="85">
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B60" s="85">
         <v>56</v>
@@ -9144,7 +9509,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="65"/>
       <c r="B61" s="86">
         <f>SUM(B56:B60)</f>
@@ -9155,31 +9520,31 @@
         <v>5521.54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="159" t="s">
-        <v>246</v>
-      </c>
-      <c r="B62" s="159"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="21" customHeight="1">
+      <c r="A62" s="162" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" s="162"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="65" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B63" s="85">
         <v>75.239999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B64" s="85">
         <v>85.84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B65" s="85">
         <v>46.06</v>
@@ -9188,7 +9553,7 @@
         <v>207.14</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="65"/>
       <c r="B66" s="86">
         <f>SUM(B63:B65)</f>
@@ -9199,23 +9564,23 @@
         <v>5728.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="159" t="s">
-        <v>220</v>
-      </c>
-      <c r="B67" s="159"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="21" customHeight="1">
+      <c r="A67" s="162" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" s="162"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B68" s="85">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B69" s="85">
         <v>83.3</v>
@@ -9224,7 +9589,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="65"/>
       <c r="B70" s="86">
         <f>SUM(B68:B69)</f>
@@ -9235,31 +9600,31 @@
         <v>5926.9800000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="159" t="s">
-        <v>248</v>
-      </c>
-      <c r="B71" s="159"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="21" customHeight="1">
+      <c r="A71" s="162" t="s">
+        <v>247</v>
+      </c>
+      <c r="B71" s="162"/>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B72" s="85">
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B73" s="85">
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B74" s="85">
         <v>120</v>
@@ -9268,7 +9633,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="65"/>
       <c r="B75" s="86">
         <f>SUM(B72:B74)</f>
@@ -9279,39 +9644,39 @@
         <v>6341.9800000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="159" t="s">
-        <v>249</v>
-      </c>
-      <c r="B76" s="159"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="21" customHeight="1">
+      <c r="A76" s="162" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" s="162"/>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B77" s="85">
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B78" s="85">
         <v>98.99</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B79" s="85">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B80" s="85">
         <v>120</v>
@@ -9320,7 +9685,7 @@
         <v>386.53</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="65"/>
       <c r="B81" s="86">
         <f>SUM(B77:B80)</f>
@@ -9331,39 +9696,39 @@
         <v>6728.51</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="159" t="s">
-        <v>222</v>
-      </c>
-      <c r="B82" s="159"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="21" customHeight="1">
+      <c r="A82" s="162" t="s">
+        <v>221</v>
+      </c>
+      <c r="B82" s="162"/>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B83" s="85">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B84" s="85">
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B85" s="85">
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B86" s="85">
         <v>229</v>
@@ -9372,7 +9737,7 @@
         <v>579.15</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" s="65"/>
       <c r="B87" s="86">
         <f>SUM(B83:B86)</f>
@@ -9383,31 +9748,31 @@
         <v>7307.66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="159" t="s">
-        <v>250</v>
-      </c>
-      <c r="B88" s="159"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="21" customHeight="1">
+      <c r="A88" s="162" t="s">
+        <v>249</v>
+      </c>
+      <c r="B88" s="162"/>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B89" s="85">
         <v>36.26</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B90" s="85">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B91" s="85">
         <v>118</v>
@@ -9416,7 +9781,7 @@
         <v>229.26</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="65"/>
       <c r="B92" s="86">
         <f>SUM(B89:B91)</f>
@@ -9427,95 +9792,95 @@
         <v>7536.92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="159" t="s">
-        <v>226</v>
-      </c>
-      <c r="B93" s="159"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="21" customHeight="1">
+      <c r="A93" s="162" t="s">
+        <v>225</v>
+      </c>
+      <c r="B93" s="162"/>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B94" s="85">
         <v>143.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B95" s="85">
         <v>69.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" s="65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B96" s="85">
         <v>166.32</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B97" s="85">
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B98" s="85">
         <v>33.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B99" s="85">
         <v>199.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" s="65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B100" s="85">
         <v>6.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" s="65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B101" s="85">
         <v>26.6</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" s="65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B102" s="85">
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B103" s="85">
         <v>93.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" s="65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B104" s="85">
         <v>70.599999999999994</v>
@@ -9524,7 +9889,7 @@
         <v>1068.92</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="65"/>
       <c r="B105" s="86">
         <f>SUM(B94:B104)</f>
@@ -9535,52 +9900,52 @@
         <v>8605.84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="159" t="s">
-        <v>251</v>
-      </c>
-      <c r="B106" s="159"/>
+    <row r="106" spans="1:3" ht="21" customHeight="1">
+      <c r="A106" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="B106" s="162"/>
       <c r="C106" s="68"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B107" s="85">
         <v>99</v>
       </c>
       <c r="C107" s="68"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B108" s="85">
         <v>22.5</v>
       </c>
       <c r="C108" s="68"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B109" s="85">
         <v>135.24</v>
       </c>
       <c r="C109" s="68"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B110" s="85">
         <v>0</v>
       </c>
       <c r="C110" s="68"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B111" s="85">
         <v>109.25</v>
@@ -9589,7 +9954,7 @@
         <v>365.99</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="66"/>
       <c r="B112" s="86">
         <f>SUM(B107:B111)</f>
@@ -9600,247 +9965,244 @@
         <v>8971.83</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="159" t="s">
-        <v>252</v>
-      </c>
-      <c r="B113" s="159"/>
+    <row r="113" spans="1:3" ht="21" customHeight="1">
+      <c r="A113" s="162" t="s">
+        <v>251</v>
+      </c>
+      <c r="B113" s="162"/>
       <c r="C113" s="68"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" s="66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B114" s="85">
         <v>121</v>
       </c>
       <c r="C114" s="68"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" s="66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B115" s="85">
         <v>104</v>
       </c>
       <c r="C115" s="68"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B116" s="85">
         <v>34.6</v>
       </c>
       <c r="C116" s="68"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" s="66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B117" s="85">
         <v>112.7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="73" t="s">
-        <v>349</v>
-      </c>
-      <c r="B118" s="88">
-        <v>105</v>
-      </c>
-      <c r="D118" s="82" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="26" customHeight="1">
+      <c r="A118" s="66" t="s">
+        <v>410</v>
+      </c>
+      <c r="B118" s="85">
+        <v>170.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B119" s="85">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" s="66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B120" s="85">
         <v>90.14</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" s="66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B121" s="85">
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" s="63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B122" s="85">
         <v>80</v>
       </c>
       <c r="C122" s="70">
         <f>AVERAGE(B123)</f>
-        <v>769.74</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>835.33999999999992</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="B123" s="86">
         <f>SUM(B114:B122)</f>
-        <v>769.74</v>
+        <v>835.33999999999992</v>
       </c>
       <c r="C123" s="71">
         <f>SUM(C112:C122)</f>
-        <v>9741.57</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="159" t="s">
+        <v>9807.17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="28">
+      <c r="A124" s="162" t="s">
+        <v>288</v>
+      </c>
+      <c r="B124" s="162"/>
+    </row>
+    <row r="125" spans="1:3" ht="26" customHeight="1">
+      <c r="A125" s="66" t="s">
         <v>289</v>
-      </c>
-      <c r="B124" s="159"/>
-    </row>
-    <row r="125" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="66" t="s">
-        <v>290</v>
       </c>
       <c r="B125" s="85">
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B126" s="85">
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B127" s="85">
         <v>88.2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B128" s="85">
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" s="63" t="s">
-        <v>376</v>
-      </c>
-      <c r="B129" s="89">
+        <v>367</v>
+      </c>
+      <c r="B129" s="88">
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" s="76" t="s">
-        <v>294</v>
-      </c>
-      <c r="B130" s="89">
+        <v>293</v>
+      </c>
+      <c r="B130" s="88">
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" s="76" t="s">
-        <v>298</v>
-      </c>
-      <c r="B131" s="89">
+        <v>296</v>
+      </c>
+      <c r="B131" s="88">
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" s="63" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B132" s="85">
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" s="63" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B133" s="85">
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" s="63" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B134" s="85">
         <v>44.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" s="63" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B135" s="85">
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" s="63" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B136" s="85">
         <v>70</v>
       </c>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" s="63" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B137" s="85">
         <v>80</v>
       </c>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" s="63" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B138" s="85">
         <v>60</v>
       </c>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" s="63" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B139" s="85">
         <v>76</v>
       </c>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="63" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B140" s="85">
         <v>60</v>
       </c>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="63" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B141" s="85">
         <v>86</v>
@@ -9850,7 +10212,7 @@
         <v>1349.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142"/>
       <c r="B142" s="86">
         <f>SUM(B125:B141)</f>
@@ -9858,141 +10220,141 @@
       </c>
       <c r="C142" s="71">
         <f>SUM(C123:C141)</f>
-        <v>11091.17</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="159" t="s">
-        <v>304</v>
-      </c>
-      <c r="B143" s="159"/>
+        <v>11156.77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="28">
+      <c r="A143" s="162" t="s">
+        <v>302</v>
+      </c>
+      <c r="B143" s="162"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" s="63" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B144" s="85">
         <v>98</v>
       </c>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15">
       <c r="A145" s="63" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B145" s="85">
         <v>83</v>
       </c>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15">
       <c r="A146" s="63" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B146" s="85">
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15">
       <c r="A147" s="63" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B147" s="85">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15">
       <c r="A148" s="63" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B148" s="85">
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15">
       <c r="A149" s="63" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B149" s="85">
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15">
       <c r="A150" s="63" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B150" s="85">
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15">
       <c r="A151" s="63" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B151" s="85">
         <v>49.6</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15">
       <c r="A152" s="63" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B152" s="85">
         <v>49.5</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15">
       <c r="A153" s="63" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B153" s="85">
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15">
       <c r="A154" s="65" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B154" s="85">
         <v>131.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15">
       <c r="A155" s="65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B155" s="85">
         <v>158.88</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15">
       <c r="A156" s="65" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B156" s="85">
         <v>83.6</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15">
       <c r="A157" s="65" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B157" s="85">
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15">
       <c r="A158" s="65" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B158" s="85">
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15">
       <c r="A159" s="65" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B159" s="85">
         <v>84</v>
@@ -10003,9 +10365,9 @@
       <c r="M159" s="77"/>
       <c r="O159"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15">
       <c r="A160" s="65" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B160" s="85">
         <v>114.8</v>
@@ -10016,7 +10378,7 @@
       <c r="D160" s="83"/>
       <c r="E160" s="86"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15">
       <c r="A161" s="65"/>
       <c r="B161" s="86">
         <f>SUM(B144:B160)</f>
@@ -10024,151 +10386,151 @@
       </c>
       <c r="C161" s="71">
         <f>SUM(C142:C160)</f>
-        <v>12552.65</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="160">
+        <v>12618.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="28">
+      <c r="A162" s="163">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="159"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B162" s="162"/>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="65" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B163" s="85">
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15">
       <c r="A164" s="63" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B164" s="85">
         <v>292</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15">
       <c r="A165" s="63" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B165" s="85">
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15">
       <c r="A166" s="63" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B166" s="85">
         <v>56.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15">
       <c r="A167" s="63" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B167" s="85">
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15">
       <c r="A168" s="63" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B168" s="85">
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15">
       <c r="A169" s="65" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B169" s="85">
         <v>84.83</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15">
       <c r="A170" s="63" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B170" s="85">
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15">
       <c r="A171" s="63" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B171" s="85">
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15">
       <c r="A172" s="73" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B172" s="84">
         <v>10</v>
       </c>
       <c r="D172" s="82" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I172" s="78"/>
       <c r="J172"/>
       <c r="M172" s="77"/>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A173" s="73" t="s">
-        <v>345</v>
-      </c>
-      <c r="B173" s="84">
-        <v>10</v>
+    <row r="173" spans="1:15">
+      <c r="A173" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="B173" s="85">
+        <v>84</v>
       </c>
       <c r="C173" s="70">
-        <v>1114.6300000000001</v>
+        <v>1188.6300000000001</v>
       </c>
       <c r="D173" s="82" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="B174" s="86">
         <f>SUM(B163:B173)</f>
-        <v>1114.6300000000001</v>
+        <v>1188.6300000000001</v>
       </c>
       <c r="C174" s="72">
         <f>SUM(C161:C173)</f>
-        <v>13667.279999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="160">
+        <v>13806.880000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="28">
+      <c r="A175" s="163">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="159"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B175" s="162"/>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="63" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B176" s="85">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" s="63" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B177" s="85">
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4">
       <c r="A178" s="63" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B178" s="85">
         <v>115.64</v>
@@ -10177,437 +10539,513 @@
         <v>285.64</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="B179" s="85">
         <f>SUM(B176:B178)</f>
         <v>285.64</v>
       </c>
       <c r="C179" s="72">
         <f>SUM(C174:C178)</f>
-        <v>13952.919999999998</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="160">
+        <v>14092.52</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="28">
+      <c r="A180" s="163">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="159"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B180" s="162"/>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="63" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B181" s="85">
         <v>84.74</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" s="63" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B182" s="85">
         <v>115.64</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="73" t="s">
-        <v>343</v>
-      </c>
-      <c r="B183" s="84">
-        <v>20</v>
+    <row r="183" spans="1:4">
+      <c r="A183" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="B183" s="85">
+        <v>86</v>
       </c>
       <c r="D183" s="82" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="63" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B184" s="85">
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4">
       <c r="A185" s="63" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B185" s="85">
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="48" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="48">
       <c r="A186" s="65" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B186" s="85">
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4">
       <c r="A187" s="65" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B187" s="85">
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="73" t="s">
-        <v>340</v>
-      </c>
-      <c r="B188" s="84">
-        <v>10</v>
-      </c>
-      <c r="D188" s="82" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="73" t="s">
-        <v>341</v>
-      </c>
-      <c r="B189" s="84">
-        <v>10</v>
-      </c>
-      <c r="D189" s="82" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4">
+      <c r="A188" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="B188" s="85">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="B189" s="85">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="73" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B190" s="84">
         <v>10</v>
       </c>
       <c r="D190" s="82" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="65" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B191" s="85">
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4">
       <c r="A192" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B192" s="85">
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4">
       <c r="A193" s="65" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B193" s="85">
         <v>72</v>
       </c>
       <c r="C193" s="70">
-        <v>1041.06</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1254.56</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="65"/>
       <c r="B194" s="86">
         <f>SUM(B181:B193)</f>
-        <v>1041.06</v>
+        <v>1254.56</v>
       </c>
       <c r="C194" s="72">
         <f>SUM(C179:C193)</f>
-        <v>14993.979999999998</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="160">
+        <v>15347.08</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="28">
+      <c r="A195" s="163">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="159"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B195" s="162"/>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="73" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B196" s="84">
         <v>29.7</v>
       </c>
       <c r="D196" s="82" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="65" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B197" s="85">
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4">
       <c r="A198" s="63" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B198" s="85">
         <v>114.5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4">
       <c r="C199" s="70">
         <f>SUM(B200,0)</f>
         <v>226.2</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4">
       <c r="B200" s="86">
         <f>SUM(B196:B199)</f>
         <v>226.2</v>
       </c>
       <c r="C200" s="72">
         <f>SUM(C190:C199)</f>
-        <v>16261.239999999998</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="160">
+        <v>16827.84</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="28">
+      <c r="A201" s="163">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="159"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B201" s="162"/>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="63" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B202" s="85">
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4">
       <c r="A203" s="63" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B203" s="85">
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4">
       <c r="A204" s="73" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B204" s="84">
         <v>9.9</v>
       </c>
       <c r="D204" s="82" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="73" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B205" s="84">
         <v>9.9</v>
       </c>
       <c r="D205" s="82" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="73" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B206" s="84">
         <v>9.9</v>
       </c>
       <c r="D206" s="82" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" s="73" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B207" s="84">
         <v>9.9</v>
       </c>
       <c r="D207" s="82" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="73" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B208" s="84">
         <v>9.9</v>
       </c>
       <c r="D208" s="82" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="73" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B209" s="84">
         <v>10</v>
       </c>
       <c r="D209" s="82" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="C210" s="70">
         <f>SUM(B211,0)</f>
         <v>251.70000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4">
       <c r="B211" s="86">
         <f>SUM(B202:B210)</f>
         <v>251.70000000000002</v>
       </c>
       <c r="C211" s="72">
         <f>SUM(C200:C210)</f>
-        <v>16512.939999999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="160" t="s">
-        <v>367</v>
-      </c>
-      <c r="B212" s="159"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17079.54</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="28">
+      <c r="A212" s="163" t="s">
+        <v>358</v>
+      </c>
+      <c r="B212" s="162"/>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="73" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B213" s="84">
         <v>10</v>
       </c>
       <c r="D213" s="82" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="C214" s="70">
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4">
       <c r="B215" s="86">
         <f>SUM(B213:B214)</f>
         <v>10</v>
       </c>
       <c r="C215" s="72">
         <f>SUM(C211:C214)</f>
-        <v>16522.939999999999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A216" s="160" t="s">
-        <v>407</v>
-      </c>
-      <c r="B216" s="159"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17089.54</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="28">
+      <c r="A216" s="163">
+        <v>2018.08</v>
+      </c>
+      <c r="B216" s="162"/>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" s="63" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B217" s="85">
         <v>68</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C220" s="70">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B221" s="86">
-        <f>SUM(B217:B220)</f>
-        <v>68</v>
-      </c>
-      <c r="C221" s="72">
-        <f>SUM(C215:C220)</f>
-        <v>16590.939999999999</v>
-      </c>
-    </row>
-    <row r="256" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I256" s="78"/>
-      <c r="J256"/>
-    </row>
-    <row r="257" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I257" s="78"/>
-      <c r="J257"/>
-    </row>
-    <row r="326" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J326" s="80"/>
-    </row>
-    <row r="368" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I368" s="79"/>
-    </row>
-    <row r="656" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O656" s="79"/>
-    </row>
-    <row r="661" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y661">
+    <row r="218" spans="1:4">
+      <c r="A218" s="63" t="s">
+        <v>418</v>
+      </c>
+      <c r="B218" s="85">
+        <v>155.80000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="73" t="s">
+        <v>408</v>
+      </c>
+      <c r="B219" s="84">
+        <v>14.7</v>
+      </c>
+      <c r="D219" s="82" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="73" t="s">
+        <v>411</v>
+      </c>
+      <c r="B220" s="84">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="D220" s="82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="B221" s="84">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="D221" s="82" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="73" t="s">
+        <v>415</v>
+      </c>
+      <c r="B222" s="84">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="D222" s="82" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="B223" s="84">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="D223" s="82" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="73" t="s">
+        <v>419</v>
+      </c>
+      <c r="B224" s="84">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="D224" s="82" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="B225" s="85">
+        <v>70.78</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="C228" s="70">
+        <v>121.54</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="B229" s="86">
+        <f>SUM(B217:B228)</f>
+        <v>496.81999999999994</v>
+      </c>
+      <c r="C229" s="72">
+        <f>SUM(C215:C228)</f>
+        <v>17211.080000000002</v>
+      </c>
+    </row>
+    <row r="264" spans="9:10">
+      <c r="I264" s="78"/>
+      <c r="J264"/>
+    </row>
+    <row r="265" spans="9:10">
+      <c r="I265" s="78"/>
+      <c r="J265"/>
+    </row>
+    <row r="334" spans="10:10">
+      <c r="J334" s="80"/>
+    </row>
+    <row r="376" spans="9:9">
+      <c r="I376" s="79"/>
+    </row>
+    <row r="664" spans="14:25">
+      <c r="O664" s="79"/>
+    </row>
+    <row r="669" spans="14:25">
+      <c r="Y669">
         <v>9</v>
       </c>
     </row>
-    <row r="662" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y662">
+    <row r="670" spans="14:25">
+      <c r="Y670">
         <v>12</v>
       </c>
     </row>
-    <row r="663" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y663">
+    <row r="671" spans="14:25">
+      <c r="Y671">
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N664" s="79"/>
-      <c r="Y664">
+    <row r="672" spans="14:25">
+      <c r="N672" s="79"/>
+      <c r="Y672">
         <v>10</v>
       </c>
     </row>
-    <row r="665" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y665">
+    <row r="673" spans="25:25">
+      <c r="Y673">
         <v>10</v>
       </c>
     </row>
-    <row r="666" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y666">
+    <row r="674" spans="25:25">
+      <c r="Y674">
         <v>9</v>
       </c>
     </row>
-    <row r="667" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y667">
+    <row r="675" spans="25:25">
+      <c r="Y675">
         <v>16</v>
       </c>
     </row>
-    <row r="668" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y668">
+    <row r="676" spans="25:25">
+      <c r="Y676">
         <v>9</v>
       </c>
     </row>
-    <row r="669" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y669">
+    <row r="677" spans="25:25">
+      <c r="Y677">
         <v>6</v>
       </c>
     </row>
-    <row r="670" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y670">
+    <row r="678" spans="25:25">
+      <c r="Y678">
         <v>8</v>
       </c>
     </row>
-    <row r="671" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y671" s="81">
-        <f>SUM(Y661:Y670)</f>
+    <row r="679" spans="25:25">
+      <c r="Y679" s="81">
+        <f>SUM(Y669:Y678)</f>
         <v>97</v>
       </c>
     </row>
@@ -10647,7 +11085,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A216" numberStoredAsText="1"/>
+    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5B60E29E-153B-F640-9098-A368C4577E43}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53F91106-FD71-A04D-8937-5A3843DA7A66}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="480" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="429">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -4214,6 +4214,29 @@
     <rPh sb="0" eb="1">
       <t>lei'jiu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI 新52超人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HG     魔神Z铁甲万能侠            预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新玩堂</t>
+    <rPh sb="0" eb="2">
+      <t>xin'wan'tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HG     魔神Z大魔神                预定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5308,93 +5331,96 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5404,8 +5430,68 @@
     <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5425,73 +5511,10 @@
     <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6159,18 +6182,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:17" ht="63" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6325,32 +6348,32 @@
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="11:14" ht="19" customHeight="1">
-      <c r="K18" s="112" t="s">
+      <c r="K18" s="109" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="108" t="s">
+      <c r="M18" s="118" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="11:14" ht="19" customHeight="1">
-      <c r="K19" s="113"/>
+      <c r="K19" s="110"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="109"/>
+      <c r="M19" s="119"/>
     </row>
     <row r="20" spans="11:14" ht="19" customHeight="1">
-      <c r="K20" s="114"/>
+      <c r="K20" s="111"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="110"/>
+      <c r="M20" s="120"/>
     </row>
     <row r="21" spans="11:14">
-      <c r="K21" s="115" t="s">
+      <c r="K21" s="112" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
@@ -6358,7 +6381,7 @@
       </c>
     </row>
     <row r="22" spans="11:14">
-      <c r="K22" s="116"/>
+      <c r="K22" s="113"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
@@ -6389,192 +6412,172 @@
       </c>
     </row>
     <row r="26" spans="11:14" ht="21" customHeight="1">
-      <c r="K26" s="117" t="s">
+      <c r="K26" s="116" t="s">
         <v>392</v>
       </c>
-      <c r="L26" s="118"/>
+      <c r="L26" s="117"/>
       <c r="M26" s="89" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="27" spans="11:14" ht="21" customHeight="1">
-      <c r="K27" s="104" t="s">
+      <c r="K27" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="105"/>
+      <c r="L27" s="115"/>
       <c r="M27" s="89" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="28" spans="11:14" ht="21" customHeight="1">
-      <c r="K28" s="104" t="s">
+      <c r="K28" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="105"/>
+      <c r="L28" s="115"/>
       <c r="M28" s="89"/>
     </row>
     <row r="29" spans="11:14" ht="21" customHeight="1">
-      <c r="K29" s="104" t="s">
+      <c r="K29" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="105"/>
+      <c r="L29" s="115"/>
     </row>
     <row r="30" spans="11:14" ht="21" customHeight="1">
-      <c r="K30" s="104" t="s">
+      <c r="K30" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="105"/>
+      <c r="L30" s="115"/>
     </row>
     <row r="31" spans="11:14" ht="21" customHeight="1">
-      <c r="K31" s="104" t="s">
+      <c r="K31" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="105"/>
+      <c r="L31" s="115"/>
     </row>
     <row r="32" spans="11:14" ht="21" customHeight="1">
-      <c r="K32" s="104" t="s">
+      <c r="K32" s="114" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="105"/>
+      <c r="L32" s="115"/>
     </row>
     <row r="33" spans="11:12" ht="21" customHeight="1">
-      <c r="K33" s="104" t="s">
+      <c r="K33" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="105"/>
+      <c r="L33" s="115"/>
     </row>
     <row r="34" spans="11:12">
-      <c r="K34" s="104" t="s">
+      <c r="K34" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="105"/>
+      <c r="L34" s="115"/>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="104" t="s">
+      <c r="K35" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="105"/>
+      <c r="L35" s="115"/>
     </row>
     <row r="36" spans="11:12">
-      <c r="K36" s="104" t="s">
+      <c r="K36" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="105"/>
+      <c r="L36" s="115"/>
     </row>
     <row r="37" spans="11:12">
-      <c r="K37" s="104" t="s">
+      <c r="K37" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="L37" s="105"/>
+      <c r="L37" s="115"/>
     </row>
     <row r="38" spans="11:12">
-      <c r="K38" s="104" t="s">
+      <c r="K38" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="105"/>
+      <c r="L38" s="115"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="104" t="s">
+      <c r="K39" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="105"/>
+      <c r="L39" s="115"/>
     </row>
     <row r="40" spans="11:12">
-      <c r="K40" s="104" t="s">
+      <c r="K40" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="105"/>
+      <c r="L40" s="115"/>
     </row>
     <row r="41" spans="11:12">
-      <c r="K41" s="104" t="s">
+      <c r="K41" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="105"/>
+      <c r="L41" s="115"/>
     </row>
     <row r="42" spans="11:12">
-      <c r="K42" s="104" t="s">
+      <c r="K42" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="105"/>
+      <c r="L42" s="115"/>
     </row>
     <row r="43" spans="11:12">
-      <c r="K43" s="104" t="s">
+      <c r="K43" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="105"/>
+      <c r="L43" s="115"/>
     </row>
     <row r="44" spans="11:12">
-      <c r="K44" s="104" t="s">
+      <c r="K44" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="105"/>
+      <c r="L44" s="115"/>
     </row>
     <row r="45" spans="11:12">
-      <c r="K45" s="104" t="s">
+      <c r="K45" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="105"/>
+      <c r="L45" s="115"/>
     </row>
     <row r="46" spans="11:12">
-      <c r="K46" s="106"/>
-      <c r="L46" s="107"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="124"/>
     </row>
     <row r="47" spans="11:12">
-      <c r="K47" s="102"/>
-      <c r="L47" s="103"/>
+      <c r="K47" s="121"/>
+      <c r="L47" s="122"/>
     </row>
     <row r="48" spans="11:12" ht="23">
-      <c r="K48" s="119" t="s">
+      <c r="K48" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="120"/>
+      <c r="L48" s="103"/>
     </row>
     <row r="49" spans="11:12">
-      <c r="K49" s="121" t="s">
+      <c r="K49" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="122"/>
+      <c r="L49" s="105"/>
     </row>
     <row r="50" spans="11:12">
-      <c r="K50" s="121" t="s">
+      <c r="K50" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="122"/>
+      <c r="L50" s="105"/>
     </row>
     <row r="51" spans="11:12">
-      <c r="K51" s="121" t="s">
+      <c r="K51" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="122"/>
+      <c r="L51" s="105"/>
     </row>
     <row r="52" spans="11:12" ht="22">
-      <c r="K52" s="123" t="s">
+      <c r="K52" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="124"/>
+      <c r="L52" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
@@ -6586,6 +6589,26 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6963,17 +6986,17 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="126" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:7" s="131" customFormat="1" ht="47" customHeight="1">
+      <c r="A1" s="131" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67" customHeight="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
@@ -6985,7 +7008,7 @@
       <c r="A3" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="126" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -6994,21 +7017,21 @@
     </row>
     <row r="4" spans="1:7" ht="36" customHeight="1">
       <c r="A4" s="129"/>
-      <c r="B4" s="127"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1">
       <c r="A5" s="129"/>
-      <c r="B5" s="127"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1">
       <c r="A6" s="129"/>
-      <c r="B6" s="127"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="74" t="s">
         <v>78</v>
       </c>
@@ -7016,7 +7039,7 @@
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1">
       <c r="A7" s="129"/>
-      <c r="B7" s="127"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="74" t="s">
         <v>79</v>
       </c>
@@ -7024,7 +7047,7 @@
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="A8" s="129"/>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="126" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -7033,35 +7056,35 @@
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1">
       <c r="A9" s="129"/>
-      <c r="B9" s="127"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1">
       <c r="A10" s="129"/>
-      <c r="B10" s="127"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1">
       <c r="A11" s="129"/>
-      <c r="B11" s="127"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1">
       <c r="A12" s="129"/>
-      <c r="B12" s="127"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
       <c r="A13" s="129"/>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="126" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -7070,42 +7093,42 @@
     </row>
     <row r="14" spans="1:7" ht="36" customHeight="1">
       <c r="A14" s="129"/>
-      <c r="B14" s="127"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1">
       <c r="A15" s="129"/>
-      <c r="B15" s="127"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
       <c r="A16" s="129"/>
-      <c r="B16" s="127"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1">
       <c r="A17" s="129"/>
-      <c r="B17" s="127"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1">
       <c r="A18" s="129"/>
-      <c r="B18" s="127"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1">
       <c r="A19" s="130"/>
-      <c r="B19" s="127"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
@@ -7114,7 +7137,7 @@
       <c r="A20" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="126" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -7123,63 +7146,63 @@
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1">
       <c r="A21" s="129"/>
-      <c r="B21" s="127"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
       <c r="A22" s="129"/>
-      <c r="B22" s="127"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1">
       <c r="A23" s="129"/>
-      <c r="B23" s="127"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
       <c r="A24" s="129"/>
-      <c r="B24" s="127"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1">
       <c r="A25" s="129"/>
-      <c r="B25" s="127"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1">
       <c r="A26" s="129"/>
-      <c r="B26" s="127"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1">
       <c r="A27" s="129"/>
-      <c r="B27" s="127"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1">
       <c r="A28" s="129"/>
-      <c r="B28" s="127"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1">
       <c r="A29" s="129"/>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="126" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -7188,14 +7211,14 @@
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1">
       <c r="A30" s="129"/>
-      <c r="B30" s="127"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1">
       <c r="A31" s="130"/>
-      <c r="B31" s="127"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
@@ -7204,7 +7227,7 @@
       <c r="A32" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="126" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
@@ -7213,35 +7236,35 @@
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1">
       <c r="A33" s="129"/>
-      <c r="B33" s="127"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1">
       <c r="A34" s="129"/>
-      <c r="B34" s="127"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1">
       <c r="A35" s="129"/>
-      <c r="B35" s="127"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
       <c r="A36" s="129"/>
-      <c r="B36" s="127"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1">
       <c r="A37" s="129"/>
-      <c r="B37" s="127" t="s">
+      <c r="B37" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -7250,14 +7273,14 @@
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1">
       <c r="A38" s="129"/>
-      <c r="B38" s="127"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1">
       <c r="A39" s="129"/>
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="126" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -7266,14 +7289,14 @@
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1">
       <c r="A40" s="129"/>
-      <c r="B40" s="127"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1">
       <c r="A41" s="130"/>
-      <c r="B41" s="127"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
@@ -7282,7 +7305,7 @@
       <c r="A42" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="126" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -7291,35 +7314,35 @@
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1">
       <c r="A43" s="129"/>
-      <c r="B43" s="127"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1">
       <c r="A44" s="129"/>
-      <c r="B44" s="127"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1">
       <c r="A45" s="129"/>
-      <c r="B45" s="127"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1">
       <c r="A46" s="129"/>
-      <c r="B46" s="127"/>
+      <c r="B46" s="126"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1">
       <c r="A47" s="129"/>
-      <c r="B47" s="127" t="s">
+      <c r="B47" s="126" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -7328,14 +7351,14 @@
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1">
       <c r="A48" s="129"/>
-      <c r="B48" s="127"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1">
       <c r="A49" s="129"/>
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="126" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -7344,56 +7367,56 @@
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1">
       <c r="A50" s="129"/>
-      <c r="B50" s="127"/>
+      <c r="B50" s="126"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1">
       <c r="A51" s="129"/>
-      <c r="B51" s="127"/>
+      <c r="B51" s="126"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
       <c r="A52" s="129"/>
-      <c r="B52" s="127"/>
+      <c r="B52" s="126"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1">
       <c r="A53" s="129"/>
-      <c r="B53" s="127"/>
+      <c r="B53" s="126"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1">
       <c r="A54" s="129"/>
-      <c r="B54" s="127"/>
+      <c r="B54" s="126"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1">
       <c r="A55" s="129"/>
-      <c r="B55" s="127"/>
+      <c r="B55" s="126"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1">
       <c r="A56" s="129"/>
-      <c r="B56" s="127"/>
+      <c r="B56" s="126"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1">
       <c r="A57" s="130"/>
-      <c r="B57" s="127"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
@@ -7402,7 +7425,7 @@
       <c r="A58" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="126" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -7411,21 +7434,21 @@
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1">
       <c r="A59" s="129"/>
-      <c r="B59" s="127"/>
+      <c r="B59" s="126"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1">
       <c r="A60" s="129"/>
-      <c r="B60" s="127"/>
+      <c r="B60" s="126"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1">
       <c r="A61" s="129"/>
-      <c r="B61" s="127"/>
+      <c r="B61" s="126"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
@@ -7452,7 +7475,7 @@
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1">
       <c r="A64" s="129"/>
-      <c r="B64" s="127" t="s">
+      <c r="B64" s="126" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="s">
@@ -7461,21 +7484,21 @@
     </row>
     <row r="65" spans="1:4" ht="36" customHeight="1">
       <c r="A65" s="129"/>
-      <c r="B65" s="127"/>
+      <c r="B65" s="126"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="36" customHeight="1">
       <c r="A66" s="129"/>
-      <c r="B66" s="127"/>
+      <c r="B66" s="126"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="36" customHeight="1">
       <c r="A67" s="129"/>
-      <c r="B67" s="127"/>
+      <c r="B67" s="126"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
@@ -7490,7 +7513,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="36" customHeight="1">
-      <c r="A69" s="134" t="s">
+      <c r="A69" s="127" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7501,8 +7524,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="36" customHeight="1">
-      <c r="A70" s="134"/>
-      <c r="B70" s="127" t="s">
+      <c r="A70" s="127"/>
+      <c r="B70" s="126" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -7510,49 +7533,49 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="36" customHeight="1">
-      <c r="A71" s="134"/>
-      <c r="B71" s="127"/>
+      <c r="A71" s="127"/>
+      <c r="B71" s="126"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="36" customHeight="1">
-      <c r="A72" s="134"/>
-      <c r="B72" s="127"/>
+      <c r="A72" s="127"/>
+      <c r="B72" s="126"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36" customHeight="1">
-      <c r="A73" s="134"/>
-      <c r="B73" s="127"/>
+      <c r="A73" s="127"/>
+      <c r="B73" s="126"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="36" customHeight="1">
-      <c r="A74" s="134"/>
-      <c r="B74" s="127"/>
+      <c r="A74" s="127"/>
+      <c r="B74" s="126"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="36" customHeight="1">
-      <c r="A75" s="134"/>
-      <c r="B75" s="127"/>
+      <c r="A75" s="127"/>
+      <c r="B75" s="126"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="36" customHeight="1">
-      <c r="A76" s="134"/>
-      <c r="B76" s="127"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="126"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="36" customHeight="1">
-      <c r="A77" s="134"/>
+      <c r="A77" s="127"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7561,7 +7584,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="36" customHeight="1">
-      <c r="A78" s="134"/>
+      <c r="A78" s="127"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -8657,13 +8680,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B48"/>
@@ -8680,6 +8696,13 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A63:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8788,98 +8811,98 @@
       <c r="A1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="156" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="135"/>
+      <c r="D1" s="156"/>
     </row>
     <row r="2" spans="1:6" ht="65" customHeight="1">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="157" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="136"/>
+      <c r="D2" s="157"/>
     </row>
     <row r="3" spans="1:6" ht="31" customHeight="1">
-      <c r="A3" s="148"/>
-      <c r="C3" s="137" t="s">
+      <c r="A3" s="142"/>
+      <c r="C3" s="158" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="160" t="s">
+      <c r="E3" s="154" t="s">
         <v>334</v>
       </c>
-      <c r="F3" s="161"/>
+      <c r="F3" s="155"/>
     </row>
     <row r="4" spans="1:6" ht="31" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="143" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="138"/>
+      <c r="C4" s="159"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31" customHeight="1">
-      <c r="A5" s="150"/>
-      <c r="C5" s="139" t="s">
+      <c r="A5" s="144"/>
+      <c r="C5" s="160" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="135" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31" customHeight="1">
-      <c r="A6" s="150"/>
-      <c r="C6" s="140"/>
+      <c r="A6" s="144"/>
+      <c r="C6" s="161"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="141"/>
+      <c r="F6" s="135"/>
     </row>
     <row r="7" spans="1:6" ht="31" customHeight="1">
-      <c r="A7" s="150"/>
-      <c r="C7" s="143" t="s">
+      <c r="A7" s="144"/>
+      <c r="C7" s="137" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="141"/>
+      <c r="F7" s="135"/>
     </row>
     <row r="8" spans="1:6" ht="31" customHeight="1">
-      <c r="A8" s="150"/>
-      <c r="C8" s="144"/>
+      <c r="A8" s="144"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="141"/>
+      <c r="F8" s="135"/>
     </row>
     <row r="9" spans="1:6" ht="23">
-      <c r="A9" s="150"/>
-      <c r="C9" s="156" t="s">
+      <c r="A9" s="144"/>
+      <c r="C9" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="F9" s="141"/>
+      <c r="D9" s="151"/>
+      <c r="F9" s="135"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="150"/>
-      <c r="C10" s="152" t="s">
+      <c r="A10" s="144"/>
+      <c r="C10" s="146" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="F10" s="141"/>
+      <c r="D10" s="147"/>
+      <c r="F10" s="135"/>
     </row>
     <row r="11" spans="1:6" ht="32" customHeight="1">
-      <c r="A11" s="150"/>
+      <c r="A11" s="144"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -8887,22 +8910,22 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="141"/>
+      <c r="F11" s="135"/>
     </row>
     <row r="12" spans="1:6" ht="54" customHeight="1">
-      <c r="A12" s="151"/>
-      <c r="C12" s="154" t="s">
+      <c r="A12" s="145"/>
+      <c r="C12" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="F12" s="141"/>
+      <c r="D12" s="149"/>
+      <c r="F12" s="135"/>
     </row>
     <row r="13" spans="1:6" ht="37" customHeight="1">
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="159"/>
-      <c r="F13" s="141" t="s">
+      <c r="D13" s="153"/>
+      <c r="F13" s="135" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8913,44 +8936,49 @@
       <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="141"/>
+      <c r="F14" s="135"/>
     </row>
     <row r="15" spans="1:6" ht="48" customHeight="1">
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="146"/>
+      <c r="D15" s="140"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="141"/>
+      <c r="F15" s="135"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="F16" s="141"/>
+      <c r="F16" s="135"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="141"/>
+      <c r="F17" s="135"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="141"/>
+      <c r="F18" s="135"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="141"/>
+      <c r="F19" s="135"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="142" t="s">
+      <c r="F20" s="136" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="142"/>
+      <c r="F21" s="136"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="142"/>
+      <c r="F22" s="136"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="142"/>
+      <c r="F23" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F12"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="C7:C8"/>
@@ -8962,11 +8990,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8976,10 +8999,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y679"/>
+  <dimension ref="A1:Y678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -8995,10 +9018,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28">
-      <c r="A1" s="162">
+      <c r="A1" s="163">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="162"/>
+      <c r="B1" s="163"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1">
       <c r="A2" s="63" t="s">
@@ -9026,10 +9049,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28">
-      <c r="A5" s="162">
+      <c r="A5" s="163">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="162"/>
+      <c r="B5" s="163"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="63" t="s">
@@ -9085,10 +9108,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="163" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="162"/>
+      <c r="B12" s="163"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="64" t="s">
@@ -9121,10 +9144,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="163" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="162"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="70">
         <v>324</v>
       </c>
@@ -9142,10 +9165,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="163" t="s">
         <v>239</v>
       </c>
-      <c r="B18" s="162"/>
+      <c r="B18" s="163"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="63" t="s">
@@ -9185,10 +9208,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="163" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="162"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="70">
         <v>49.67</v>
       </c>
@@ -9206,10 +9229,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1">
-      <c r="A25" s="162" t="s">
+      <c r="A25" s="163" t="s">
         <v>240</v>
       </c>
-      <c r="B25" s="162"/>
+      <c r="B25" s="163"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="64" t="s">
@@ -9281,10 +9304,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="21" customHeight="1">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="163" t="s">
         <v>241</v>
       </c>
-      <c r="B34" s="162"/>
+      <c r="B34" s="163"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="63" t="s">
@@ -9373,10 +9396,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="21" customHeight="1">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="163" t="s">
         <v>242</v>
       </c>
-      <c r="B45" s="162"/>
+      <c r="B45" s="163"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="65" t="s">
@@ -9409,10 +9432,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="21" customHeight="1">
-      <c r="A49" s="162" t="s">
+      <c r="A49" s="163" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="162"/>
+      <c r="B49" s="163"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="65" t="s">
@@ -9461,10 +9484,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="21" customHeight="1">
-      <c r="A55" s="162" t="s">
+      <c r="A55" s="163" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="162"/>
+      <c r="B55" s="163"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="64" t="s">
@@ -9521,10 +9544,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="21" customHeight="1">
-      <c r="A62" s="162" t="s">
+      <c r="A62" s="163" t="s">
         <v>245</v>
       </c>
-      <c r="B62" s="162"/>
+      <c r="B62" s="163"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="65" t="s">
@@ -9565,10 +9588,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="21" customHeight="1">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="163" t="s">
         <v>219</v>
       </c>
-      <c r="B67" s="162"/>
+      <c r="B67" s="163"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="65" t="s">
@@ -9601,10 +9624,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="21" customHeight="1">
-      <c r="A71" s="162" t="s">
+      <c r="A71" s="163" t="s">
         <v>247</v>
       </c>
-      <c r="B71" s="162"/>
+      <c r="B71" s="163"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="65" t="s">
@@ -9645,10 +9668,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="21" customHeight="1">
-      <c r="A76" s="162" t="s">
+      <c r="A76" s="163" t="s">
         <v>248</v>
       </c>
-      <c r="B76" s="162"/>
+      <c r="B76" s="163"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="65" t="s">
@@ -9697,10 +9720,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="21" customHeight="1">
-      <c r="A82" s="162" t="s">
+      <c r="A82" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="162"/>
+      <c r="B82" s="163"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="65" t="s">
@@ -9749,10 +9772,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="21" customHeight="1">
-      <c r="A88" s="162" t="s">
+      <c r="A88" s="163" t="s">
         <v>249</v>
       </c>
-      <c r="B88" s="162"/>
+      <c r="B88" s="163"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="65" t="s">
@@ -9793,10 +9816,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="21" customHeight="1">
-      <c r="A93" s="162" t="s">
+      <c r="A93" s="163" t="s">
         <v>225</v>
       </c>
-      <c r="B93" s="162"/>
+      <c r="B93" s="163"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="65" t="s">
@@ -9901,10 +9924,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="21" customHeight="1">
-      <c r="A106" s="162" t="s">
+      <c r="A106" s="163" t="s">
         <v>250</v>
       </c>
-      <c r="B106" s="162"/>
+      <c r="B106" s="163"/>
       <c r="C106" s="68"/>
     </row>
     <row r="107" spans="1:3">
@@ -9966,10 +9989,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="21" customHeight="1">
-      <c r="A113" s="162" t="s">
+      <c r="A113" s="163" t="s">
         <v>251</v>
       </c>
-      <c r="B113" s="162"/>
+      <c r="B113" s="163"/>
       <c r="C113" s="68"/>
     </row>
     <row r="114" spans="1:3">
@@ -10062,10 +10085,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28">
-      <c r="A124" s="162" t="s">
+      <c r="A124" s="163" t="s">
         <v>288</v>
       </c>
-      <c r="B124" s="162"/>
+      <c r="B124" s="163"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1">
       <c r="A125" s="66" t="s">
@@ -10224,10 +10247,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28">
-      <c r="A143" s="162" t="s">
+      <c r="A143" s="163" t="s">
         <v>302</v>
       </c>
-      <c r="B143" s="162"/>
+      <c r="B143" s="163"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3">
@@ -10390,10 +10413,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28">
-      <c r="A162" s="163">
+      <c r="A162" s="162">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="162"/>
+      <c r="B162" s="163"/>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="65" t="s">
@@ -10492,9 +10515,6 @@
       <c r="C173" s="70">
         <v>1188.6300000000001</v>
       </c>
-      <c r="D173" s="82" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="174" spans="1:15">
       <c r="B174" s="86">
@@ -10507,10 +10527,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28">
-      <c r="A175" s="163">
+      <c r="A175" s="162">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="162"/>
+      <c r="B175" s="163"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="63" t="s">
@@ -10550,10 +10570,10 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="28">
-      <c r="A180" s="163">
+      <c r="A180" s="162">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="162"/>
+      <c r="B180" s="163"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="63" t="s">
@@ -10680,10 +10700,10 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="28">
-      <c r="A195" s="163">
+      <c r="A195" s="162">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="162"/>
+      <c r="B195" s="163"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="73" t="s">
@@ -10729,10 +10749,10 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="28">
-      <c r="A201" s="163">
+      <c r="A201" s="162">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="162"/>
+      <c r="B201" s="163"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="63" t="s">
@@ -10833,10 +10853,10 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="28">
-      <c r="A212" s="163" t="s">
+      <c r="A212" s="162" t="s">
         <v>358</v>
       </c>
-      <c r="B212" s="162"/>
+      <c r="B212" s="163"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="73" t="s">
@@ -10865,10 +10885,10 @@
       </c>
     </row>
     <row r="216" spans="1:4" ht="28">
-      <c r="A216" s="163">
+      <c r="A216" s="162">
         <v>2018.08</v>
       </c>
-      <c r="B216" s="162"/>
+      <c r="B216" s="163"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="63" t="s">
@@ -10952,7 +10972,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:4">
       <c r="A225" s="63" t="s">
         <v>423</v>
       </c>
@@ -10960,97 +10980,162 @@
         <v>70.78</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
-      <c r="C228" s="70">
-        <v>121.54</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="B229" s="86">
-        <f>SUM(B217:B228)</f>
-        <v>496.81999999999994</v>
-      </c>
-      <c r="C229" s="72">
-        <f>SUM(C215:C228)</f>
-        <v>17211.080000000002</v>
-      </c>
+    <row r="226" spans="1:4">
+      <c r="A226" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="B226" s="85">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="C227" s="70">
+        <v>835.82</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="B228" s="86">
+        <f>SUM(B217:B227)</f>
+        <v>835.81999999999994</v>
+      </c>
+      <c r="C228" s="72">
+        <f>SUM(C215:C227)</f>
+        <v>17925.36</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="28">
+      <c r="A229" s="162" t="s">
+        <v>425</v>
+      </c>
+      <c r="B229" s="163"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B230" s="84">
+        <v>20</v>
+      </c>
+      <c r="D230" s="82" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="B231" s="84">
+        <v>20</v>
+      </c>
+      <c r="D231" s="82" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="C236" s="70">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="B237" s="86">
+        <f>SUM(B230:B236)</f>
+        <v>40</v>
+      </c>
+      <c r="C237" s="72">
+        <f>SUM(C227:C236)</f>
+        <v>18801.18</v>
+      </c>
+    </row>
+    <row r="263" spans="9:10">
+      <c r="I263" s="78"/>
+      <c r="J263"/>
     </row>
     <row r="264" spans="9:10">
       <c r="I264" s="78"/>
       <c r="J264"/>
     </row>
-    <row r="265" spans="9:10">
-      <c r="I265" s="78"/>
-      <c r="J265"/>
-    </row>
-    <row r="334" spans="10:10">
-      <c r="J334" s="80"/>
-    </row>
-    <row r="376" spans="9:9">
-      <c r="I376" s="79"/>
-    </row>
-    <row r="664" spans="14:25">
-      <c r="O664" s="79"/>
+    <row r="333" spans="10:10">
+      <c r="J333" s="80"/>
+    </row>
+    <row r="375" spans="9:9">
+      <c r="I375" s="79"/>
+    </row>
+    <row r="663" spans="14:25">
+      <c r="O663" s="79"/>
+    </row>
+    <row r="668" spans="14:25">
+      <c r="Y668">
+        <v>9</v>
+      </c>
     </row>
     <row r="669" spans="14:25">
       <c r="Y669">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="670" spans="14:25">
       <c r="Y670">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="671" spans="14:25">
+      <c r="N671" s="79"/>
       <c r="Y671">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="672" spans="14:25">
-      <c r="N672" s="79"/>
       <c r="Y672">
         <v>10</v>
       </c>
     </row>
     <row r="673" spans="25:25">
       <c r="Y673">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="674" spans="25:25">
       <c r="Y674">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="675" spans="25:25">
       <c r="Y675">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="676" spans="25:25">
       <c r="Y676">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="677" spans="25:25">
       <c r="Y677">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="678" spans="25:25">
-      <c r="Y678">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="679" spans="25:25">
-      <c r="Y679" s="81">
-        <f>SUM(Y669:Y678)</f>
+      <c r="Y678" s="81">
+        <f>SUM(Y668:Y677)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A216:B216"/>
     <mergeCell ref="A212:B212"/>
     <mergeCell ref="A201:B201"/>
@@ -11067,25 +11152,12 @@
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212" numberStoredAsText="1"/>
+    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A229" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53F91106-FD71-A04D-8937-5A3843DA7A66}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9281E664-54D5-6C47-9267-D7377ED96F2C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="427">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -3428,20 +3428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>龟仙屋</t>
-    <rPh sb="0" eb="3">
-      <t>gui'xian'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦原</t>
-    <rPh sb="0" eb="1">
-      <t>yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>唯美模玩社</t>
     <rPh sb="0" eb="1">
       <t>yuan</t>
@@ -3473,20 +3459,6 @@
     <t>msp  悟天克斯</t>
     <rPh sb="0" eb="2">
       <t>wu'tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙珠TV      腾云小悟空            预定</t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROS   卡卡西                     预定</t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4225,10 +4197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HG     魔神Z铁甲万能侠            预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新玩堂</t>
     <rPh sb="0" eb="2">
       <t>xin'wan'tan</t>
@@ -4237,6 +4205,24 @@
   </si>
   <si>
     <t>HG     魔神Z大魔神                预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HG     魔神Z铁甲万能侠            </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">龙珠TV      腾云小悟空            </t>
+    <rPh sb="0" eb="1">
+      <t>long'zhulan'fabei'ji'teyu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GROS   卡卡西                     </t>
+    <rPh sb="0" eb="1">
+      <t>long'zhulan'fabei'ji'teyu'din</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5331,6 +5317,57 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5349,86 +5386,53 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5492,24 +5496,6 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6182,18 +6168,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="1:17" ht="63" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6313,7 +6299,7 @@
         <v>21</v>
       </c>
       <c r="L12" s="91" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6348,32 +6334,32 @@
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="11:14" ht="19" customHeight="1">
-      <c r="K18" s="109" t="s">
+      <c r="K18" s="112" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="118" t="s">
+      <c r="M18" s="108" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="11:14" ht="19" customHeight="1">
-      <c r="K19" s="110"/>
+      <c r="K19" s="113"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="119"/>
+      <c r="M19" s="109"/>
     </row>
     <row r="20" spans="11:14" ht="19" customHeight="1">
-      <c r="K20" s="111"/>
+      <c r="K20" s="114"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="120"/>
+      <c r="M20" s="110"/>
     </row>
     <row r="21" spans="11:14">
-      <c r="K21" s="112" t="s">
+      <c r="K21" s="115" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
@@ -6381,7 +6367,7 @@
       </c>
     </row>
     <row r="22" spans="11:14">
-      <c r="K22" s="113"/>
+      <c r="K22" s="116"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
@@ -6405,179 +6391,199 @@
     </row>
     <row r="25" spans="11:14" ht="21" customHeight="1">
       <c r="K25" s="41" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L25" s="42" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="26" spans="11:14" ht="21" customHeight="1">
-      <c r="K26" s="116" t="s">
-        <v>392</v>
-      </c>
-      <c r="L26" s="117"/>
+      <c r="K26" s="117" t="s">
+        <v>388</v>
+      </c>
+      <c r="L26" s="118"/>
       <c r="M26" s="89" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="11:14" ht="21" customHeight="1">
-      <c r="K27" s="114" t="s">
+      <c r="K27" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="115"/>
+      <c r="L27" s="105"/>
       <c r="M27" s="89" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="11:14" ht="21" customHeight="1">
-      <c r="K28" s="114" t="s">
+      <c r="K28" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="115"/>
+      <c r="L28" s="105"/>
       <c r="M28" s="89"/>
     </row>
     <row r="29" spans="11:14" ht="21" customHeight="1">
-      <c r="K29" s="114" t="s">
+      <c r="K29" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="115"/>
+      <c r="L29" s="105"/>
     </row>
     <row r="30" spans="11:14" ht="21" customHeight="1">
-      <c r="K30" s="114" t="s">
+      <c r="K30" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="115"/>
+      <c r="L30" s="105"/>
     </row>
     <row r="31" spans="11:14" ht="21" customHeight="1">
-      <c r="K31" s="114" t="s">
+      <c r="K31" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="115"/>
+      <c r="L31" s="105"/>
     </row>
     <row r="32" spans="11:14" ht="21" customHeight="1">
-      <c r="K32" s="114" t="s">
+      <c r="K32" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="115"/>
+      <c r="L32" s="105"/>
     </row>
     <row r="33" spans="11:12" ht="21" customHeight="1">
-      <c r="K33" s="114" t="s">
+      <c r="K33" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="115"/>
+      <c r="L33" s="105"/>
     </row>
     <row r="34" spans="11:12">
-      <c r="K34" s="114" t="s">
+      <c r="K34" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="115"/>
+      <c r="L34" s="105"/>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="114" t="s">
+      <c r="K35" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="115"/>
+      <c r="L35" s="105"/>
     </row>
     <row r="36" spans="11:12">
-      <c r="K36" s="114" t="s">
+      <c r="K36" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="115"/>
+      <c r="L36" s="105"/>
     </row>
     <row r="37" spans="11:12">
-      <c r="K37" s="114" t="s">
+      <c r="K37" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="L37" s="115"/>
+      <c r="L37" s="105"/>
     </row>
     <row r="38" spans="11:12">
-      <c r="K38" s="114" t="s">
+      <c r="K38" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="115"/>
+      <c r="L38" s="105"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="114" t="s">
+      <c r="K39" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="115"/>
+      <c r="L39" s="105"/>
     </row>
     <row r="40" spans="11:12">
-      <c r="K40" s="114" t="s">
+      <c r="K40" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="115"/>
+      <c r="L40" s="105"/>
     </row>
     <row r="41" spans="11:12">
-      <c r="K41" s="114" t="s">
+      <c r="K41" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="115"/>
+      <c r="L41" s="105"/>
     </row>
     <row r="42" spans="11:12">
-      <c r="K42" s="114" t="s">
+      <c r="K42" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="115"/>
+      <c r="L42" s="105"/>
     </row>
     <row r="43" spans="11:12">
-      <c r="K43" s="114" t="s">
+      <c r="K43" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="115"/>
+      <c r="L43" s="105"/>
     </row>
     <row r="44" spans="11:12">
-      <c r="K44" s="114" t="s">
+      <c r="K44" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="115"/>
+      <c r="L44" s="105"/>
     </row>
     <row r="45" spans="11:12">
-      <c r="K45" s="114" t="s">
+      <c r="K45" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="115"/>
+      <c r="L45" s="105"/>
     </row>
     <row r="46" spans="11:12">
-      <c r="K46" s="123"/>
-      <c r="L46" s="124"/>
+      <c r="K46" s="106"/>
+      <c r="L46" s="107"/>
     </row>
     <row r="47" spans="11:12">
-      <c r="K47" s="121"/>
-      <c r="L47" s="122"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="103"/>
     </row>
     <row r="48" spans="11:12" ht="23">
-      <c r="K48" s="102" t="s">
+      <c r="K48" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="103"/>
+      <c r="L48" s="120"/>
     </row>
     <row r="49" spans="11:12">
-      <c r="K49" s="104" t="s">
+      <c r="K49" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="105"/>
+      <c r="L49" s="122"/>
     </row>
     <row r="50" spans="11:12">
-      <c r="K50" s="104" t="s">
+      <c r="K50" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="105"/>
+      <c r="L50" s="122"/>
     </row>
     <row r="51" spans="11:12">
-      <c r="K51" s="104" t="s">
+      <c r="K51" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="105"/>
+      <c r="L51" s="122"/>
     </row>
     <row r="52" spans="11:12" ht="22">
-      <c r="K52" s="106" t="s">
+      <c r="K52" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="107"/>
+      <c r="L52" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
@@ -6589,26 +6595,6 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6641,59 +6627,59 @@
   <sheetData>
     <row r="1" spans="1:28" s="78" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="94" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="93" t="s">
         <v>370</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>371</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>373</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>375</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>374</v>
       </c>
       <c r="G1" s="77"/>
       <c r="H1" s="77"/>
       <c r="I1" s="77"/>
       <c r="J1" s="77" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K1" s="77" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L1" s="125" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M1" s="100" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="S1" s="77"/>
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:28" ht="28" customHeight="1">
       <c r="A2" s="92" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J2" s="77">
         <v>5</v>
@@ -6703,7 +6689,7 @@
       </c>
       <c r="L2" s="125"/>
       <c r="M2" s="98" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="N2" s="89">
         <v>500</v>
@@ -6730,10 +6716,10 @@
         <v>90</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C3" s="97" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D3" s="79">
         <v>200</v>
@@ -6742,7 +6728,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H3" s="77">
         <v>1750</v>
@@ -6752,7 +6738,7 @@
       </c>
       <c r="L3" s="125"/>
       <c r="M3" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N3" s="89"/>
       <c r="O3" s="89"/>
@@ -6775,7 +6761,7 @@
       </c>
       <c r="L4" s="125"/>
       <c r="M4" s="98" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N4" s="89">
         <v>50</v>
@@ -6800,7 +6786,7 @@
     <row r="5" spans="1:28" ht="40" customHeight="1">
       <c r="L5" s="125"/>
       <c r="M5" s="98" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="N5" s="89">
         <v>30</v>
@@ -6825,7 +6811,7 @@
     <row r="6" spans="1:28" ht="40" customHeight="1">
       <c r="L6" s="125"/>
       <c r="M6" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N6" s="89">
         <v>250</v>
@@ -6850,7 +6836,7 @@
     <row r="7" spans="1:28" ht="40" customHeight="1">
       <c r="L7" s="125"/>
       <c r="M7" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N7"/>
       <c r="R7" s="89"/>
@@ -6858,7 +6844,7 @@
     <row r="8" spans="1:28" ht="40" customHeight="1">
       <c r="L8" s="125"/>
       <c r="M8" s="99" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N8" s="89">
         <v>500</v>
@@ -6883,7 +6869,7 @@
     <row r="9" spans="1:28" ht="40" customHeight="1">
       <c r="L9" s="125"/>
       <c r="M9" s="99" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N9" s="89">
         <v>200</v>
@@ -6908,7 +6894,7 @@
     <row r="10" spans="1:28" ht="40" customHeight="1">
       <c r="L10" s="125"/>
       <c r="M10" s="99" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="N10" s="89">
         <v>50</v>
@@ -6932,7 +6918,7 @@
     </row>
     <row r="11" spans="1:28" ht="40" customHeight="1">
       <c r="L11" s="101" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O11" s="77">
         <f>SUM(O2:O10)</f>
@@ -6986,17 +6972,17 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="131" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="131" t="s">
+    <row r="1" spans="1:7" s="126" customFormat="1" ht="47" customHeight="1">
+      <c r="A1" s="126" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="134"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="133"/>
       <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
@@ -7008,7 +6994,7 @@
       <c r="A3" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="127" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -7017,21 +7003,21 @@
     </row>
     <row r="4" spans="1:7" ht="36" customHeight="1">
       <c r="A4" s="129"/>
-      <c r="B4" s="126"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1">
       <c r="A5" s="129"/>
-      <c r="B5" s="126"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1">
       <c r="A6" s="129"/>
-      <c r="B6" s="126"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="74" t="s">
         <v>78</v>
       </c>
@@ -7039,7 +7025,7 @@
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1">
       <c r="A7" s="129"/>
-      <c r="B7" s="126"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="74" t="s">
         <v>79</v>
       </c>
@@ -7047,7 +7033,7 @@
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="A8" s="129"/>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="127" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -7056,35 +7042,35 @@
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1">
       <c r="A9" s="129"/>
-      <c r="B9" s="126"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1">
       <c r="A10" s="129"/>
-      <c r="B10" s="126"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1">
       <c r="A11" s="129"/>
-      <c r="B11" s="126"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1">
       <c r="A12" s="129"/>
-      <c r="B12" s="126"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
       <c r="A13" s="129"/>
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="127" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -7093,42 +7079,42 @@
     </row>
     <row r="14" spans="1:7" ht="36" customHeight="1">
       <c r="A14" s="129"/>
-      <c r="B14" s="126"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1">
       <c r="A15" s="129"/>
-      <c r="B15" s="126"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
       <c r="A16" s="129"/>
-      <c r="B16" s="126"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1">
       <c r="A17" s="129"/>
-      <c r="B17" s="126"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1">
       <c r="A18" s="129"/>
-      <c r="B18" s="126"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1">
       <c r="A19" s="130"/>
-      <c r="B19" s="126"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
@@ -7137,7 +7123,7 @@
       <c r="A20" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="127" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -7146,63 +7132,63 @@
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1">
       <c r="A21" s="129"/>
-      <c r="B21" s="126"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
       <c r="A22" s="129"/>
-      <c r="B22" s="126"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1">
       <c r="A23" s="129"/>
-      <c r="B23" s="126"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
       <c r="A24" s="129"/>
-      <c r="B24" s="126"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1">
       <c r="A25" s="129"/>
-      <c r="B25" s="126"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1">
       <c r="A26" s="129"/>
-      <c r="B26" s="126"/>
+      <c r="B26" s="127"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1">
       <c r="A27" s="129"/>
-      <c r="B27" s="126"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1">
       <c r="A28" s="129"/>
-      <c r="B28" s="126"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1">
       <c r="A29" s="129"/>
-      <c r="B29" s="126" t="s">
+      <c r="B29" s="127" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -7211,14 +7197,14 @@
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1">
       <c r="A30" s="129"/>
-      <c r="B30" s="126"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1">
       <c r="A31" s="130"/>
-      <c r="B31" s="126"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
@@ -7227,7 +7213,7 @@
       <c r="A32" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="126" t="s">
+      <c r="B32" s="127" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
@@ -7236,35 +7222,35 @@
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1">
       <c r="A33" s="129"/>
-      <c r="B33" s="126"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1">
       <c r="A34" s="129"/>
-      <c r="B34" s="126"/>
+      <c r="B34" s="127"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1">
       <c r="A35" s="129"/>
-      <c r="B35" s="126"/>
+      <c r="B35" s="127"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
       <c r="A36" s="129"/>
-      <c r="B36" s="126"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1">
       <c r="A37" s="129"/>
-      <c r="B37" s="126" t="s">
+      <c r="B37" s="127" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -7273,14 +7259,14 @@
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1">
       <c r="A38" s="129"/>
-      <c r="B38" s="126"/>
+      <c r="B38" s="127"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1">
       <c r="A39" s="129"/>
-      <c r="B39" s="126" t="s">
+      <c r="B39" s="127" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -7289,14 +7275,14 @@
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1">
       <c r="A40" s="129"/>
-      <c r="B40" s="126"/>
+      <c r="B40" s="127"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1">
       <c r="A41" s="130"/>
-      <c r="B41" s="126"/>
+      <c r="B41" s="127"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
@@ -7305,7 +7291,7 @@
       <c r="A42" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="126" t="s">
+      <c r="B42" s="127" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -7314,35 +7300,35 @@
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1">
       <c r="A43" s="129"/>
-      <c r="B43" s="126"/>
+      <c r="B43" s="127"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1">
       <c r="A44" s="129"/>
-      <c r="B44" s="126"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1">
       <c r="A45" s="129"/>
-      <c r="B45" s="126"/>
+      <c r="B45" s="127"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1">
       <c r="A46" s="129"/>
-      <c r="B46" s="126"/>
+      <c r="B46" s="127"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1">
       <c r="A47" s="129"/>
-      <c r="B47" s="126" t="s">
+      <c r="B47" s="127" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -7351,14 +7337,14 @@
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1">
       <c r="A48" s="129"/>
-      <c r="B48" s="126"/>
+      <c r="B48" s="127"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1">
       <c r="A49" s="129"/>
-      <c r="B49" s="126" t="s">
+      <c r="B49" s="127" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -7367,56 +7353,56 @@
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1">
       <c r="A50" s="129"/>
-      <c r="B50" s="126"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1">
       <c r="A51" s="129"/>
-      <c r="B51" s="126"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
       <c r="A52" s="129"/>
-      <c r="B52" s="126"/>
+      <c r="B52" s="127"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1">
       <c r="A53" s="129"/>
-      <c r="B53" s="126"/>
+      <c r="B53" s="127"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1">
       <c r="A54" s="129"/>
-      <c r="B54" s="126"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1">
       <c r="A55" s="129"/>
-      <c r="B55" s="126"/>
+      <c r="B55" s="127"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1">
       <c r="A56" s="129"/>
-      <c r="B56" s="126"/>
+      <c r="B56" s="127"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1">
       <c r="A57" s="130"/>
-      <c r="B57" s="126"/>
+      <c r="B57" s="127"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
@@ -7425,7 +7411,7 @@
       <c r="A58" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="126" t="s">
+      <c r="B58" s="127" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -7434,21 +7420,21 @@
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1">
       <c r="A59" s="129"/>
-      <c r="B59" s="126"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1">
       <c r="A60" s="129"/>
-      <c r="B60" s="126"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1">
       <c r="A61" s="129"/>
-      <c r="B61" s="126"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
@@ -7475,7 +7461,7 @@
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1">
       <c r="A64" s="129"/>
-      <c r="B64" s="126" t="s">
+      <c r="B64" s="127" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="s">
@@ -7484,21 +7470,21 @@
     </row>
     <row r="65" spans="1:4" ht="36" customHeight="1">
       <c r="A65" s="129"/>
-      <c r="B65" s="126"/>
+      <c r="B65" s="127"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="36" customHeight="1">
       <c r="A66" s="129"/>
-      <c r="B66" s="126"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="36" customHeight="1">
       <c r="A67" s="129"/>
-      <c r="B67" s="126"/>
+      <c r="B67" s="127"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
@@ -7513,7 +7499,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="36" customHeight="1">
-      <c r="A69" s="127" t="s">
+      <c r="A69" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7524,8 +7510,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="36" customHeight="1">
-      <c r="A70" s="127"/>
-      <c r="B70" s="126" t="s">
+      <c r="A70" s="134"/>
+      <c r="B70" s="127" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -7533,49 +7519,49 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="36" customHeight="1">
-      <c r="A71" s="127"/>
-      <c r="B71" s="126"/>
+      <c r="A71" s="134"/>
+      <c r="B71" s="127"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="36" customHeight="1">
-      <c r="A72" s="127"/>
-      <c r="B72" s="126"/>
+      <c r="A72" s="134"/>
+      <c r="B72" s="127"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36" customHeight="1">
-      <c r="A73" s="127"/>
-      <c r="B73" s="126"/>
+      <c r="A73" s="134"/>
+      <c r="B73" s="127"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="36" customHeight="1">
-      <c r="A74" s="127"/>
-      <c r="B74" s="126"/>
+      <c r="A74" s="134"/>
+      <c r="B74" s="127"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="36" customHeight="1">
-      <c r="A75" s="127"/>
-      <c r="B75" s="126"/>
+      <c r="A75" s="134"/>
+      <c r="B75" s="127"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="36" customHeight="1">
-      <c r="A76" s="127"/>
-      <c r="B76" s="126"/>
+      <c r="A76" s="134"/>
+      <c r="B76" s="127"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="36" customHeight="1">
-      <c r="A77" s="127"/>
+      <c r="A77" s="134"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7584,7 +7570,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="36" customHeight="1">
-      <c r="A78" s="127"/>
+      <c r="A78" s="134"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -8680,6 +8666,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B48"/>
@@ -8696,13 +8689,6 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A63:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8811,98 +8797,98 @@
       <c r="A1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="156" t="s">
+      <c r="C1" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="156"/>
+      <c r="D1" s="135"/>
     </row>
     <row r="2" spans="1:6" ht="65" customHeight="1">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="157"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="3" spans="1:6" ht="31" customHeight="1">
-      <c r="A3" s="142"/>
-      <c r="C3" s="158" t="s">
+      <c r="A3" s="148"/>
+      <c r="C3" s="137" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="154" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" s="155"/>
+      <c r="E3" s="160" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="161"/>
     </row>
     <row r="4" spans="1:6" ht="31" customHeight="1">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="149" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="159"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31" customHeight="1">
-      <c r="A5" s="144"/>
-      <c r="C5" s="160" t="s">
+      <c r="A5" s="150"/>
+      <c r="C5" s="139" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="135" t="s">
-        <v>363</v>
+      <c r="F5" s="141" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31" customHeight="1">
-      <c r="A6" s="144"/>
-      <c r="C6" s="161"/>
+      <c r="A6" s="150"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" ht="31" customHeight="1">
-      <c r="A7" s="144"/>
-      <c r="C7" s="137" t="s">
+      <c r="A7" s="150"/>
+      <c r="C7" s="143" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="1:6" ht="31" customHeight="1">
-      <c r="A8" s="144"/>
-      <c r="C8" s="138"/>
+      <c r="A8" s="150"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="135"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="1:6" ht="23">
-      <c r="A9" s="144"/>
-      <c r="C9" s="150" t="s">
+      <c r="A9" s="150"/>
+      <c r="C9" s="156" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="151"/>
-      <c r="F9" s="135"/>
+      <c r="D9" s="157"/>
+      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="144"/>
-      <c r="C10" s="146" t="s">
+      <c r="A10" s="150"/>
+      <c r="C10" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="F10" s="135"/>
+      <c r="D10" s="153"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:6" ht="32" customHeight="1">
-      <c r="A11" s="144"/>
+      <c r="A11" s="150"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -8910,23 +8896,23 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="135"/>
+      <c r="F11" s="141"/>
     </row>
     <row r="12" spans="1:6" ht="54" customHeight="1">
-      <c r="A12" s="145"/>
-      <c r="C12" s="148" t="s">
+      <c r="A12" s="151"/>
+      <c r="C12" s="154" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="149"/>
-      <c r="F12" s="135"/>
+      <c r="D12" s="155"/>
+      <c r="F12" s="141"/>
     </row>
     <row r="13" spans="1:6" ht="37" customHeight="1">
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="158" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="F13" s="135" t="s">
-        <v>364</v>
+      <c r="D13" s="159"/>
+      <c r="F13" s="141" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1">
@@ -8936,49 +8922,44 @@
       <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="135"/>
+      <c r="F14" s="141"/>
     </row>
     <row r="15" spans="1:6" ht="48" customHeight="1">
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="145" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="140"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="135"/>
+      <c r="F15" s="141"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="F16" s="135"/>
+      <c r="F16" s="141"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="135"/>
+      <c r="F17" s="141"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="135"/>
+      <c r="F18" s="141"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="135"/>
+      <c r="F19" s="141"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="136" t="s">
-        <v>365</v>
+      <c r="F20" s="142" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="136"/>
+      <c r="F21" s="142"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="136"/>
+      <c r="F22" s="142"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="136"/>
+      <c r="F23" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F12"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="C7:C8"/>
@@ -8990,6 +8971,11 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9001,8 +8987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -10032,7 +10018,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1">
       <c r="A118" s="66" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B118" s="85">
         <v>170.6</v>
@@ -10124,7 +10110,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="63" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B129" s="88">
         <v>145</v>
@@ -10172,7 +10158,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="63" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B135" s="85">
         <v>80</v>
@@ -10180,7 +10166,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="63" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B136" s="85">
         <v>70</v>
@@ -10189,7 +10175,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="63" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B137" s="85">
         <v>80</v>
@@ -10225,7 +10211,7 @@
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="63" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B141" s="85">
         <v>86</v>
@@ -10273,7 +10259,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="63" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B146" s="85">
         <v>80</v>
@@ -10281,7 +10267,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="63" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B147" s="85">
         <v>80</v>
@@ -10289,7 +10275,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="63" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B148" s="85">
         <v>80</v>
@@ -10369,7 +10355,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="65" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B158" s="85">
         <v>84</v>
@@ -10420,7 +10406,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="65" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B163" s="85">
         <v>86</v>
@@ -10491,14 +10477,11 @@
       </c>
     </row>
     <row r="172" spans="1:15">
-      <c r="A172" s="73" t="s">
-        <v>337</v>
-      </c>
-      <c r="B172" s="84">
-        <v>10</v>
-      </c>
-      <c r="D172" s="82" t="s">
-        <v>330</v>
+      <c r="A172" s="63" t="s">
+        <v>426</v>
+      </c>
+      <c r="B172" s="85">
+        <v>84</v>
       </c>
       <c r="I172" s="78"/>
       <c r="J172"/>
@@ -10507,23 +10490,23 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="63" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B173" s="85">
         <v>84</v>
       </c>
       <c r="C173" s="70">
-        <v>1188.6300000000001</v>
+        <v>1262.6300000000001</v>
       </c>
     </row>
     <row r="174" spans="1:15">
       <c r="B174" s="86">
         <f>SUM(B163:B173)</f>
-        <v>1188.6300000000001</v>
+        <v>1262.6300000000001</v>
       </c>
       <c r="C174" s="72">
         <f>SUM(C161:C173)</f>
-        <v>13806.880000000001</v>
+        <v>13880.880000000001</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="28">
@@ -10534,7 +10517,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="63" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B176" s="85">
         <v>84</v>
@@ -10542,7 +10525,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="63" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B177" s="85">
         <v>86</v>
@@ -10566,7 +10549,7 @@
       </c>
       <c r="C179" s="72">
         <f>SUM(C174:C178)</f>
-        <v>14092.52</v>
+        <v>14166.52</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="28">
@@ -10577,7 +10560,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="63" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B181" s="85">
         <v>84.74</v>
@@ -10593,13 +10576,13 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="63" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B183" s="85">
         <v>86</v>
       </c>
       <c r="D183" s="82" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -10628,7 +10611,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="65" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B187" s="85">
         <v>83</v>
@@ -10636,7 +10619,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="65" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B188" s="85">
         <v>83.1</v>
@@ -10644,26 +10627,23 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="65" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B189" s="85">
         <v>84.4</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="73" t="s">
-        <v>336</v>
-      </c>
-      <c r="B190" s="84">
-        <v>10</v>
-      </c>
-      <c r="D190" s="82" t="s">
-        <v>329</v>
+      <c r="A190" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="B190" s="85">
+        <v>84</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="65" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B191" s="85">
         <v>117</v>
@@ -10671,7 +10651,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="65" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B192" s="85">
         <v>36</v>
@@ -10679,24 +10659,24 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B193" s="85">
         <v>72</v>
       </c>
       <c r="C193" s="70">
-        <v>1254.56</v>
+        <v>1328.56</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="65"/>
       <c r="B194" s="86">
         <f>SUM(B181:B193)</f>
-        <v>1254.56</v>
+        <v>1328.56</v>
       </c>
       <c r="C194" s="72">
         <f>SUM(C179:C193)</f>
-        <v>15347.08</v>
+        <v>15495.08</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="28">
@@ -10707,18 +10687,18 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="73" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B196" s="84">
         <v>29.7</v>
       </c>
       <c r="D196" s="82" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="65" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B197" s="85">
         <v>82</v>
@@ -10726,7 +10706,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="63" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B198" s="85">
         <v>114.5</v>
@@ -10745,7 +10725,7 @@
       </c>
       <c r="C200" s="72">
         <f>SUM(C190:C199)</f>
-        <v>16827.84</v>
+        <v>17049.84</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="28">
@@ -10756,7 +10736,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="63" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B202" s="85">
         <v>137.19999999999999</v>
@@ -10764,7 +10744,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="63" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B203" s="85">
         <v>55</v>
@@ -10772,68 +10752,68 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="73" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B204" s="84">
         <v>9.9</v>
       </c>
       <c r="D204" s="82" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="73" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B205" s="84">
         <v>9.9</v>
       </c>
       <c r="D205" s="82" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="73" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B206" s="84">
         <v>9.9</v>
       </c>
       <c r="D206" s="82" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="73" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B207" s="84">
         <v>9.9</v>
       </c>
       <c r="D207" s="82" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="73" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B208" s="84">
         <v>9.9</v>
       </c>
       <c r="D208" s="82" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="73" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B209" s="84">
         <v>10</v>
       </c>
       <c r="D209" s="82" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -10849,24 +10829,24 @@
       </c>
       <c r="C211" s="72">
         <f>SUM(C200:C210)</f>
-        <v>17079.54</v>
+        <v>17301.54</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="28">
       <c r="A212" s="162" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B212" s="163"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="73" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B213" s="84">
         <v>10</v>
       </c>
       <c r="D213" s="82" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -10881,7 +10861,7 @@
       </c>
       <c r="C215" s="72">
         <f>SUM(C211:C214)</f>
-        <v>17089.54</v>
+        <v>17311.54</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="28">
@@ -10892,7 +10872,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="63" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B217" s="85">
         <v>68</v>
@@ -10900,7 +10880,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="63" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B218" s="85">
         <v>155.80000000000001</v>
@@ -10908,73 +10888,73 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="73" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B219" s="84">
         <v>14.7</v>
       </c>
       <c r="D219" s="82" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="73" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B220" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D220" s="82" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="73" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B221" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D221" s="82" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="73" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B222" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D222" s="82" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="73" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B223" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D223" s="82" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="73" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B224" s="84">
         <v>148.69999999999999</v>
       </c>
       <c r="D224" s="82" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="63" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B225" s="85">
         <v>70.78</v>
@@ -10982,7 +10962,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="63" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B226" s="85">
         <v>339</v>
@@ -11000,35 +10980,32 @@
       </c>
       <c r="C228" s="72">
         <f>SUM(C215:C227)</f>
-        <v>17925.36</v>
+        <v>18147.36</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="28">
       <c r="A229" s="162" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B229" s="163"/>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="73" t="s">
-        <v>426</v>
-      </c>
-      <c r="B230" s="84">
-        <v>20</v>
-      </c>
-      <c r="D230" s="82" t="s">
-        <v>427</v>
+      <c r="A230" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="B230" s="85">
+        <v>177</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="73" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B231" s="84">
         <v>20</v>
       </c>
       <c r="D231" s="82" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -11039,11 +11016,11 @@
     <row r="237" spans="1:4">
       <c r="B237" s="86">
         <f>SUM(B230:B236)</f>
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="C237" s="72">
         <f>SUM(C227:C236)</f>
-        <v>18801.18</v>
+        <v>19023.18</v>
       </c>
     </row>
     <row r="263" spans="9:10">
@@ -11122,6 +11099,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A106:B106"/>
     <mergeCell ref="A229:B229"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:B5"/>
@@ -11138,20 +11129,6 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A216:B216"/>
     <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A106:B106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9281E664-54D5-6C47-9267-D7377ED96F2C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{66127162-D2AA-DC46-AF3D-583B9D531454}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="424">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -3505,17 +3505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JOJO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/6         钢铁奥特曼            预定</t>
-    <rPh sb="0" eb="2">
-      <t>gang'tie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">武道会8    沙鲁                   </t>
     <rPh sb="0" eb="1">
       <t>wu'dao'hui</t>
@@ -3631,20 +3620,6 @@
   </si>
   <si>
     <t>2018.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大班        大力神                预定</t>
-    <rPh sb="0" eb="2">
-      <t>da ban</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山木</t>
-    <rPh sb="0" eb="2">
-      <t>shan'm</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4151,23 +4126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大班    MB 蓝异端                 预定</t>
-    <rPh sb="0" eb="1">
-      <t>da'ban</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>lan'yi'duan</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ettoy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">GROS   佐助                       </t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
@@ -4222,6 +4180,27 @@
     <t xml:space="preserve">GROS   卡卡西                     </t>
     <rPh sb="0" eb="1">
       <t>long'zhulan'fabei'ji'teyu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩模主义</t>
+    <rPh sb="0" eb="2">
+      <t>wan'mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御模道     1/6 赛文                    预定</t>
+    <rPh sb="0" eb="1">
+      <t>yu'mo'da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1/6         钢铁奥特曼            </t>
+    <rPh sb="0" eb="2">
+      <t>gang'tie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5317,93 +5296,96 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5413,8 +5395,68 @@
     <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5433,69 +5475,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6168,18 +6147,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:17" ht="63" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6299,7 +6278,7 @@
         <v>21</v>
       </c>
       <c r="L12" s="91" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6334,32 +6313,32 @@
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="11:14" ht="19" customHeight="1">
-      <c r="K18" s="112" t="s">
+      <c r="K18" s="109" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="108" t="s">
+      <c r="M18" s="118" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="11:14" ht="19" customHeight="1">
-      <c r="K19" s="113"/>
+      <c r="K19" s="110"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="109"/>
+      <c r="M19" s="119"/>
     </row>
     <row r="20" spans="11:14" ht="19" customHeight="1">
-      <c r="K20" s="114"/>
+      <c r="K20" s="111"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="110"/>
+      <c r="M20" s="120"/>
     </row>
     <row r="21" spans="11:14">
-      <c r="K21" s="115" t="s">
+      <c r="K21" s="112" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
@@ -6367,7 +6346,7 @@
       </c>
     </row>
     <row r="22" spans="11:14">
-      <c r="K22" s="116"/>
+      <c r="K22" s="113"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
@@ -6391,199 +6370,179 @@
     </row>
     <row r="25" spans="11:14" ht="21" customHeight="1">
       <c r="K25" s="41" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L25" s="42" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="26" spans="11:14" ht="21" customHeight="1">
-      <c r="K26" s="117" t="s">
-        <v>388</v>
-      </c>
-      <c r="L26" s="118"/>
+      <c r="K26" s="116" t="s">
+        <v>384</v>
+      </c>
+      <c r="L26" s="117"/>
       <c r="M26" s="89" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="11:14" ht="21" customHeight="1">
-      <c r="K27" s="104" t="s">
+      <c r="K27" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="105"/>
+      <c r="L27" s="115"/>
       <c r="M27" s="89" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="11:14" ht="21" customHeight="1">
-      <c r="K28" s="104" t="s">
+      <c r="K28" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="105"/>
+      <c r="L28" s="115"/>
       <c r="M28" s="89"/>
     </row>
     <row r="29" spans="11:14" ht="21" customHeight="1">
-      <c r="K29" s="104" t="s">
+      <c r="K29" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="105"/>
+      <c r="L29" s="115"/>
     </row>
     <row r="30" spans="11:14" ht="21" customHeight="1">
-      <c r="K30" s="104" t="s">
+      <c r="K30" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="105"/>
+      <c r="L30" s="115"/>
     </row>
     <row r="31" spans="11:14" ht="21" customHeight="1">
-      <c r="K31" s="104" t="s">
+      <c r="K31" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="105"/>
+      <c r="L31" s="115"/>
     </row>
     <row r="32" spans="11:14" ht="21" customHeight="1">
-      <c r="K32" s="104" t="s">
+      <c r="K32" s="114" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="105"/>
+      <c r="L32" s="115"/>
     </row>
     <row r="33" spans="11:12" ht="21" customHeight="1">
-      <c r="K33" s="104" t="s">
+      <c r="K33" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="105"/>
+      <c r="L33" s="115"/>
     </row>
     <row r="34" spans="11:12">
-      <c r="K34" s="104" t="s">
+      <c r="K34" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="105"/>
+      <c r="L34" s="115"/>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="104" t="s">
+      <c r="K35" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="105"/>
+      <c r="L35" s="115"/>
     </row>
     <row r="36" spans="11:12">
-      <c r="K36" s="104" t="s">
+      <c r="K36" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="105"/>
+      <c r="L36" s="115"/>
     </row>
     <row r="37" spans="11:12">
-      <c r="K37" s="104" t="s">
+      <c r="K37" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="L37" s="105"/>
+      <c r="L37" s="115"/>
     </row>
     <row r="38" spans="11:12">
-      <c r="K38" s="104" t="s">
+      <c r="K38" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="105"/>
+      <c r="L38" s="115"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="104" t="s">
+      <c r="K39" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="105"/>
+      <c r="L39" s="115"/>
     </row>
     <row r="40" spans="11:12">
-      <c r="K40" s="104" t="s">
+      <c r="K40" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="105"/>
+      <c r="L40" s="115"/>
     </row>
     <row r="41" spans="11:12">
-      <c r="K41" s="104" t="s">
+      <c r="K41" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="105"/>
+      <c r="L41" s="115"/>
     </row>
     <row r="42" spans="11:12">
-      <c r="K42" s="104" t="s">
+      <c r="K42" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="105"/>
+      <c r="L42" s="115"/>
     </row>
     <row r="43" spans="11:12">
-      <c r="K43" s="104" t="s">
+      <c r="K43" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="105"/>
+      <c r="L43" s="115"/>
     </row>
     <row r="44" spans="11:12">
-      <c r="K44" s="104" t="s">
+      <c r="K44" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="105"/>
+      <c r="L44" s="115"/>
     </row>
     <row r="45" spans="11:12">
-      <c r="K45" s="104" t="s">
+      <c r="K45" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="105"/>
+      <c r="L45" s="115"/>
     </row>
     <row r="46" spans="11:12">
-      <c r="K46" s="106"/>
-      <c r="L46" s="107"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="124"/>
     </row>
     <row r="47" spans="11:12">
-      <c r="K47" s="102"/>
-      <c r="L47" s="103"/>
+      <c r="K47" s="121"/>
+      <c r="L47" s="122"/>
     </row>
     <row r="48" spans="11:12" ht="23">
-      <c r="K48" s="119" t="s">
+      <c r="K48" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="120"/>
+      <c r="L48" s="103"/>
     </row>
     <row r="49" spans="11:12">
-      <c r="K49" s="121" t="s">
+      <c r="K49" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="122"/>
+      <c r="L49" s="105"/>
     </row>
     <row r="50" spans="11:12">
-      <c r="K50" s="121" t="s">
+      <c r="K50" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="122"/>
+      <c r="L50" s="105"/>
     </row>
     <row r="51" spans="11:12">
-      <c r="K51" s="121" t="s">
+      <c r="K51" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="122"/>
+      <c r="L51" s="105"/>
     </row>
     <row r="52" spans="11:12" ht="22">
-      <c r="K52" s="123" t="s">
+      <c r="K52" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="124"/>
+      <c r="L52" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
@@ -6595,6 +6554,26 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6627,59 +6606,59 @@
   <sheetData>
     <row r="1" spans="1:28" s="78" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="94" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>367</v>
+      </c>
+      <c r="F1" s="93" t="s">
         <v>366</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>367</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>368</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>369</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>371</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>370</v>
       </c>
       <c r="G1" s="77"/>
       <c r="H1" s="77"/>
       <c r="I1" s="77"/>
       <c r="J1" s="77" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K1" s="77" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L1" s="125" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M1" s="100" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="S1" s="77"/>
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:28" ht="28" customHeight="1">
       <c r="A2" s="92" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J2" s="77">
         <v>5</v>
@@ -6689,7 +6668,7 @@
       </c>
       <c r="L2" s="125"/>
       <c r="M2" s="98" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N2" s="89">
         <v>500</v>
@@ -6716,10 +6695,10 @@
         <v>90</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C3" s="97" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D3" s="79">
         <v>200</v>
@@ -6728,7 +6707,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H3" s="77">
         <v>1750</v>
@@ -6738,7 +6717,7 @@
       </c>
       <c r="L3" s="125"/>
       <c r="M3" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N3" s="89"/>
       <c r="O3" s="89"/>
@@ -6761,7 +6740,7 @@
       </c>
       <c r="L4" s="125"/>
       <c r="M4" s="98" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N4" s="89">
         <v>50</v>
@@ -6786,7 +6765,7 @@
     <row r="5" spans="1:28" ht="40" customHeight="1">
       <c r="L5" s="125"/>
       <c r="M5" s="98" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N5" s="89">
         <v>30</v>
@@ -6811,7 +6790,7 @@
     <row r="6" spans="1:28" ht="40" customHeight="1">
       <c r="L6" s="125"/>
       <c r="M6" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N6" s="89">
         <v>250</v>
@@ -6836,7 +6815,7 @@
     <row r="7" spans="1:28" ht="40" customHeight="1">
       <c r="L7" s="125"/>
       <c r="M7" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N7"/>
       <c r="R7" s="89"/>
@@ -6844,7 +6823,7 @@
     <row r="8" spans="1:28" ht="40" customHeight="1">
       <c r="L8" s="125"/>
       <c r="M8" s="99" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N8" s="89">
         <v>500</v>
@@ -6869,7 +6848,7 @@
     <row r="9" spans="1:28" ht="40" customHeight="1">
       <c r="L9" s="125"/>
       <c r="M9" s="99" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="N9" s="89">
         <v>200</v>
@@ -6894,7 +6873,7 @@
     <row r="10" spans="1:28" ht="40" customHeight="1">
       <c r="L10" s="125"/>
       <c r="M10" s="99" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N10" s="89">
         <v>50</v>
@@ -6918,7 +6897,7 @@
     </row>
     <row r="11" spans="1:28" ht="40" customHeight="1">
       <c r="L11" s="101" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="O11" s="77">
         <f>SUM(O2:O10)</f>
@@ -6972,17 +6951,17 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="126" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:7" s="131" customFormat="1" ht="47" customHeight="1">
+      <c r="A1" s="131" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67" customHeight="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
@@ -6994,7 +6973,7 @@
       <c r="A3" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="126" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -7003,21 +6982,21 @@
     </row>
     <row r="4" spans="1:7" ht="36" customHeight="1">
       <c r="A4" s="129"/>
-      <c r="B4" s="127"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1">
       <c r="A5" s="129"/>
-      <c r="B5" s="127"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1">
       <c r="A6" s="129"/>
-      <c r="B6" s="127"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="74" t="s">
         <v>78</v>
       </c>
@@ -7025,7 +7004,7 @@
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1">
       <c r="A7" s="129"/>
-      <c r="B7" s="127"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="74" t="s">
         <v>79</v>
       </c>
@@ -7033,7 +7012,7 @@
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="A8" s="129"/>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="126" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -7042,35 +7021,35 @@
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1">
       <c r="A9" s="129"/>
-      <c r="B9" s="127"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1">
       <c r="A10" s="129"/>
-      <c r="B10" s="127"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1">
       <c r="A11" s="129"/>
-      <c r="B11" s="127"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1">
       <c r="A12" s="129"/>
-      <c r="B12" s="127"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
       <c r="A13" s="129"/>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="126" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -7079,42 +7058,42 @@
     </row>
     <row r="14" spans="1:7" ht="36" customHeight="1">
       <c r="A14" s="129"/>
-      <c r="B14" s="127"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1">
       <c r="A15" s="129"/>
-      <c r="B15" s="127"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
       <c r="A16" s="129"/>
-      <c r="B16" s="127"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1">
       <c r="A17" s="129"/>
-      <c r="B17" s="127"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1">
       <c r="A18" s="129"/>
-      <c r="B18" s="127"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1">
       <c r="A19" s="130"/>
-      <c r="B19" s="127"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
@@ -7123,7 +7102,7 @@
       <c r="A20" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="126" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -7132,63 +7111,63 @@
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1">
       <c r="A21" s="129"/>
-      <c r="B21" s="127"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
       <c r="A22" s="129"/>
-      <c r="B22" s="127"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1">
       <c r="A23" s="129"/>
-      <c r="B23" s="127"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
       <c r="A24" s="129"/>
-      <c r="B24" s="127"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1">
       <c r="A25" s="129"/>
-      <c r="B25" s="127"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1">
       <c r="A26" s="129"/>
-      <c r="B26" s="127"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1">
       <c r="A27" s="129"/>
-      <c r="B27" s="127"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1">
       <c r="A28" s="129"/>
-      <c r="B28" s="127"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1">
       <c r="A29" s="129"/>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="126" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -7197,14 +7176,14 @@
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1">
       <c r="A30" s="129"/>
-      <c r="B30" s="127"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1">
       <c r="A31" s="130"/>
-      <c r="B31" s="127"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
@@ -7213,7 +7192,7 @@
       <c r="A32" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="126" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
@@ -7222,35 +7201,35 @@
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1">
       <c r="A33" s="129"/>
-      <c r="B33" s="127"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1">
       <c r="A34" s="129"/>
-      <c r="B34" s="127"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1">
       <c r="A35" s="129"/>
-      <c r="B35" s="127"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
       <c r="A36" s="129"/>
-      <c r="B36" s="127"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1">
       <c r="A37" s="129"/>
-      <c r="B37" s="127" t="s">
+      <c r="B37" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -7259,14 +7238,14 @@
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1">
       <c r="A38" s="129"/>
-      <c r="B38" s="127"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1">
       <c r="A39" s="129"/>
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="126" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -7275,14 +7254,14 @@
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1">
       <c r="A40" s="129"/>
-      <c r="B40" s="127"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1">
       <c r="A41" s="130"/>
-      <c r="B41" s="127"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
@@ -7291,7 +7270,7 @@
       <c r="A42" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="126" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -7300,35 +7279,35 @@
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1">
       <c r="A43" s="129"/>
-      <c r="B43" s="127"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1">
       <c r="A44" s="129"/>
-      <c r="B44" s="127"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1">
       <c r="A45" s="129"/>
-      <c r="B45" s="127"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1">
       <c r="A46" s="129"/>
-      <c r="B46" s="127"/>
+      <c r="B46" s="126"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1">
       <c r="A47" s="129"/>
-      <c r="B47" s="127" t="s">
+      <c r="B47" s="126" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -7337,14 +7316,14 @@
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1">
       <c r="A48" s="129"/>
-      <c r="B48" s="127"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1">
       <c r="A49" s="129"/>
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="126" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -7353,56 +7332,56 @@
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1">
       <c r="A50" s="129"/>
-      <c r="B50" s="127"/>
+      <c r="B50" s="126"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1">
       <c r="A51" s="129"/>
-      <c r="B51" s="127"/>
+      <c r="B51" s="126"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
       <c r="A52" s="129"/>
-      <c r="B52" s="127"/>
+      <c r="B52" s="126"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1">
       <c r="A53" s="129"/>
-      <c r="B53" s="127"/>
+      <c r="B53" s="126"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1">
       <c r="A54" s="129"/>
-      <c r="B54" s="127"/>
+      <c r="B54" s="126"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1">
       <c r="A55" s="129"/>
-      <c r="B55" s="127"/>
+      <c r="B55" s="126"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1">
       <c r="A56" s="129"/>
-      <c r="B56" s="127"/>
+      <c r="B56" s="126"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1">
       <c r="A57" s="130"/>
-      <c r="B57" s="127"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
@@ -7411,7 +7390,7 @@
       <c r="A58" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="126" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -7420,21 +7399,21 @@
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1">
       <c r="A59" s="129"/>
-      <c r="B59" s="127"/>
+      <c r="B59" s="126"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1">
       <c r="A60" s="129"/>
-      <c r="B60" s="127"/>
+      <c r="B60" s="126"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1">
       <c r="A61" s="129"/>
-      <c r="B61" s="127"/>
+      <c r="B61" s="126"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
@@ -7461,7 +7440,7 @@
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1">
       <c r="A64" s="129"/>
-      <c r="B64" s="127" t="s">
+      <c r="B64" s="126" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="s">
@@ -7470,21 +7449,21 @@
     </row>
     <row r="65" spans="1:4" ht="36" customHeight="1">
       <c r="A65" s="129"/>
-      <c r="B65" s="127"/>
+      <c r="B65" s="126"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="36" customHeight="1">
       <c r="A66" s="129"/>
-      <c r="B66" s="127"/>
+      <c r="B66" s="126"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="36" customHeight="1">
       <c r="A67" s="129"/>
-      <c r="B67" s="127"/>
+      <c r="B67" s="126"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
@@ -7499,7 +7478,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="36" customHeight="1">
-      <c r="A69" s="134" t="s">
+      <c r="A69" s="127" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7510,8 +7489,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="36" customHeight="1">
-      <c r="A70" s="134"/>
-      <c r="B70" s="127" t="s">
+      <c r="A70" s="127"/>
+      <c r="B70" s="126" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -7519,49 +7498,49 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="36" customHeight="1">
-      <c r="A71" s="134"/>
-      <c r="B71" s="127"/>
+      <c r="A71" s="127"/>
+      <c r="B71" s="126"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="36" customHeight="1">
-      <c r="A72" s="134"/>
-      <c r="B72" s="127"/>
+      <c r="A72" s="127"/>
+      <c r="B72" s="126"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36" customHeight="1">
-      <c r="A73" s="134"/>
-      <c r="B73" s="127"/>
+      <c r="A73" s="127"/>
+      <c r="B73" s="126"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="36" customHeight="1">
-      <c r="A74" s="134"/>
-      <c r="B74" s="127"/>
+      <c r="A74" s="127"/>
+      <c r="B74" s="126"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="36" customHeight="1">
-      <c r="A75" s="134"/>
-      <c r="B75" s="127"/>
+      <c r="A75" s="127"/>
+      <c r="B75" s="126"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="36" customHeight="1">
-      <c r="A76" s="134"/>
-      <c r="B76" s="127"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="126"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="36" customHeight="1">
-      <c r="A77" s="134"/>
+      <c r="A77" s="127"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7570,7 +7549,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="36" customHeight="1">
-      <c r="A78" s="134"/>
+      <c r="A78" s="127"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -8666,13 +8645,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B48"/>
@@ -8689,6 +8661,13 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A63:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8797,98 +8776,98 @@
       <c r="A1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="156" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="135"/>
+      <c r="D1" s="156"/>
     </row>
     <row r="2" spans="1:6" ht="65" customHeight="1">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="157" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="136"/>
+      <c r="D2" s="157"/>
     </row>
     <row r="3" spans="1:6" ht="31" customHeight="1">
-      <c r="A3" s="148"/>
-      <c r="C3" s="137" t="s">
+      <c r="A3" s="142"/>
+      <c r="C3" s="158" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="160" t="s">
+      <c r="E3" s="154" t="s">
         <v>332</v>
       </c>
-      <c r="F3" s="161"/>
+      <c r="F3" s="155"/>
     </row>
     <row r="4" spans="1:6" ht="31" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="143" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="138"/>
+      <c r="C4" s="159"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31" customHeight="1">
-      <c r="A5" s="150"/>
-      <c r="C5" s="139" t="s">
+      <c r="A5" s="144"/>
+      <c r="C5" s="160" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="141" t="s">
-        <v>359</v>
+      <c r="F5" s="135" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31" customHeight="1">
-      <c r="A6" s="150"/>
-      <c r="C6" s="140"/>
+      <c r="A6" s="144"/>
+      <c r="C6" s="161"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="141"/>
+      <c r="F6" s="135"/>
     </row>
     <row r="7" spans="1:6" ht="31" customHeight="1">
-      <c r="A7" s="150"/>
-      <c r="C7" s="143" t="s">
+      <c r="A7" s="144"/>
+      <c r="C7" s="137" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="141"/>
+      <c r="F7" s="135"/>
     </row>
     <row r="8" spans="1:6" ht="31" customHeight="1">
-      <c r="A8" s="150"/>
-      <c r="C8" s="144"/>
+      <c r="A8" s="144"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="141"/>
+      <c r="F8" s="135"/>
     </row>
     <row r="9" spans="1:6" ht="23">
-      <c r="A9" s="150"/>
-      <c r="C9" s="156" t="s">
+      <c r="A9" s="144"/>
+      <c r="C9" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="F9" s="141"/>
+      <c r="D9" s="151"/>
+      <c r="F9" s="135"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="150"/>
-      <c r="C10" s="152" t="s">
+      <c r="A10" s="144"/>
+      <c r="C10" s="146" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="F10" s="141"/>
+      <c r="D10" s="147"/>
+      <c r="F10" s="135"/>
     </row>
     <row r="11" spans="1:6" ht="32" customHeight="1">
-      <c r="A11" s="150"/>
+      <c r="A11" s="144"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -8896,23 +8875,23 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="141"/>
+      <c r="F11" s="135"/>
     </row>
     <row r="12" spans="1:6" ht="54" customHeight="1">
-      <c r="A12" s="151"/>
-      <c r="C12" s="154" t="s">
+      <c r="A12" s="145"/>
+      <c r="C12" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="F12" s="141"/>
+      <c r="D12" s="149"/>
+      <c r="F12" s="135"/>
     </row>
     <row r="13" spans="1:6" ht="37" customHeight="1">
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="159"/>
-      <c r="F13" s="141" t="s">
-        <v>360</v>
+      <c r="D13" s="153"/>
+      <c r="F13" s="135" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1">
@@ -8922,44 +8901,49 @@
       <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="141"/>
+      <c r="F14" s="135"/>
     </row>
     <row r="15" spans="1:6" ht="48" customHeight="1">
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="146"/>
+      <c r="D15" s="140"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="141"/>
+      <c r="F15" s="135"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="F16" s="141"/>
+      <c r="F16" s="135"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="141"/>
+      <c r="F17" s="135"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="141"/>
+      <c r="F18" s="135"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="141"/>
+      <c r="F19" s="135"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="142" t="s">
-        <v>361</v>
+      <c r="F20" s="136" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="142"/>
+      <c r="F21" s="136"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="142"/>
+      <c r="F22" s="136"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="142"/>
+      <c r="F23" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F12"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="C7:C8"/>
@@ -8971,11 +8955,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8985,10 +8964,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y678"/>
+  <dimension ref="A1:Y676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -10018,7 +9997,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1">
       <c r="A118" s="66" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B118" s="85">
         <v>170.6</v>
@@ -10110,7 +10089,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="63" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B129" s="88">
         <v>145</v>
@@ -10158,7 +10137,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="63" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B135" s="85">
         <v>80</v>
@@ -10166,7 +10145,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="63" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B136" s="85">
         <v>70</v>
@@ -10211,7 +10190,7 @@
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="63" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B141" s="85">
         <v>86</v>
@@ -10259,7 +10238,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="63" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B146" s="85">
         <v>80</v>
@@ -10267,7 +10246,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="63" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B147" s="85">
         <v>80</v>
@@ -10406,7 +10385,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="65" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B163" s="85">
         <v>86</v>
@@ -10478,7 +10457,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="63" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B172" s="85">
         <v>84</v>
@@ -10490,7 +10469,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="63" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B173" s="85">
         <v>84</v>
@@ -10517,7 +10496,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="63" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B176" s="85">
         <v>84</v>
@@ -10525,7 +10504,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="63" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B177" s="85">
         <v>86</v>
@@ -10560,7 +10539,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="63" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B181" s="85">
         <v>84.74</v>
@@ -10576,7 +10555,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="63" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B183" s="85">
         <v>86</v>
@@ -10611,7 +10590,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="65" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B187" s="85">
         <v>83</v>
@@ -10619,7 +10598,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="65" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B188" s="85">
         <v>83.1</v>
@@ -10627,7 +10606,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="65" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B189" s="85">
         <v>84.4</v>
@@ -10635,7 +10614,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="65" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B190" s="85">
         <v>84</v>
@@ -10686,19 +10665,16 @@
       <c r="B195" s="163"/>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="73" t="s">
-        <v>338</v>
-      </c>
-      <c r="B196" s="84">
-        <v>29.7</v>
-      </c>
-      <c r="D196" s="82" t="s">
-        <v>337</v>
+      <c r="A196" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="B196" s="85">
+        <v>288</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="65" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B197" s="85">
         <v>82</v>
@@ -10706,7 +10682,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="63" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B198" s="85">
         <v>114.5</v>
@@ -10715,17 +10691,17 @@
     <row r="199" spans="1:4">
       <c r="C199" s="70">
         <f>SUM(B200,0)</f>
-        <v>226.2</v>
+        <v>484.5</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="B200" s="86">
         <f>SUM(B196:B199)</f>
-        <v>226.2</v>
+        <v>484.5</v>
       </c>
       <c r="C200" s="72">
         <f>SUM(C190:C199)</f>
-        <v>17049.84</v>
+        <v>17308.14</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="28">
@@ -10736,7 +10712,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="63" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B202" s="85">
         <v>137.19999999999999</v>
@@ -10744,7 +10720,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="63" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B203" s="85">
         <v>55</v>
@@ -10752,68 +10728,68 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="73" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B204" s="84">
         <v>9.9</v>
       </c>
       <c r="D204" s="82" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="73" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B205" s="84">
         <v>9.9</v>
       </c>
       <c r="D205" s="82" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="73" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B206" s="84">
         <v>9.9</v>
       </c>
       <c r="D206" s="82" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="73" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B207" s="84">
         <v>9.9</v>
       </c>
       <c r="D207" s="82" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="73" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B208" s="84">
         <v>9.9</v>
       </c>
       <c r="D208" s="82" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="73" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B209" s="84">
         <v>10</v>
       </c>
       <c r="D209" s="82" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -10829,241 +10805,240 @@
       </c>
       <c r="C211" s="72">
         <f>SUM(C200:C210)</f>
-        <v>17301.54</v>
+        <v>17559.84</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="28">
       <c r="A212" s="162" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B212" s="163"/>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="73" t="s">
-        <v>355</v>
-      </c>
-      <c r="B213" s="84">
-        <v>10</v>
-      </c>
-      <c r="D213" s="82" t="s">
-        <v>356</v>
+      <c r="C213" s="70">
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="C214" s="70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="B215" s="86">
-        <f>SUM(B213:B214)</f>
-        <v>10</v>
-      </c>
-      <c r="C215" s="72">
-        <f>SUM(C211:C214)</f>
-        <v>17311.54</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="28">
-      <c r="A216" s="162">
+      <c r="B214" s="86">
+        <f>SUM(B213:B213)</f>
+        <v>0</v>
+      </c>
+      <c r="C214" s="72">
+        <f>SUM(C211:C213)</f>
+        <v>17559.84</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="28">
+      <c r="A215" s="162">
         <v>2018.08</v>
       </c>
-      <c r="B216" s="163"/>
+      <c r="B215" s="163"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="B216" s="85">
+        <v>68</v>
+      </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="63" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="B217" s="85">
-        <v>68</v>
+        <v>155.80000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="B218" s="85">
-        <v>155.80000000000001</v>
+      <c r="A218" s="73" t="s">
+        <v>400</v>
+      </c>
+      <c r="B218" s="84">
+        <v>14.7</v>
+      </c>
+      <c r="D218" s="82" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="73" t="s">
+        <v>403</v>
+      </c>
+      <c r="B219" s="84">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="D219" s="82" t="s">
         <v>404</v>
-      </c>
-      <c r="B219" s="84">
-        <v>14.7</v>
-      </c>
-      <c r="D219" s="82" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="73" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B220" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D220" s="82" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="73" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B221" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D221" s="82" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="73" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B222" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D222" s="82" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="73" t="s">
-        <v>412</v>
-      </c>
-      <c r="B223" s="84">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="D223" s="82" t="s">
-        <v>409</v>
+      <c r="A223" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="B223" s="85">
+        <v>70.78</v>
       </c>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="73" t="s">
+      <c r="A224" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="B224" s="85">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="C225" s="70">
+        <v>687.12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="B226" s="86">
+        <f>SUM(B216:B225)</f>
+        <v>687.12</v>
+      </c>
+      <c r="C226" s="72">
+        <f>SUM(C214:C225)</f>
+        <v>18246.96</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="28">
+      <c r="A227" s="162" t="s">
         <v>415</v>
       </c>
-      <c r="B224" s="84">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="D224" s="82" t="s">
+      <c r="B227" s="163"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="63" t="s">
+        <v>418</v>
+      </c>
+      <c r="B228" s="85">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="73" t="s">
+        <v>417</v>
+      </c>
+      <c r="B229" s="84">
+        <v>20</v>
+      </c>
+      <c r="D229" s="82" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="63" t="s">
-        <v>419</v>
-      </c>
-      <c r="B225" s="85">
-        <v>70.78</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="B226" s="85">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="C227" s="70">
-        <v>835.82</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="B228" s="86">
-        <f>SUM(B217:B227)</f>
-        <v>835.81999999999994</v>
-      </c>
-      <c r="C228" s="72">
-        <f>SUM(C215:C227)</f>
-        <v>18147.36</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="28">
-      <c r="A229" s="162" t="s">
+    <row r="230" spans="1:4">
+      <c r="A230" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="B230" s="84">
+        <v>10</v>
+      </c>
+      <c r="D230" s="82" t="s">
         <v>421</v>
       </c>
-      <c r="B229" s="163"/>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="63" t="s">
-        <v>424</v>
-      </c>
-      <c r="B230" s="85">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="73" t="s">
-        <v>423</v>
-      </c>
-      <c r="B231" s="84">
-        <v>20</v>
-      </c>
-      <c r="D231" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="C236" s="70">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="B237" s="86">
-        <f>SUM(B230:B236)</f>
-        <v>197</v>
-      </c>
-      <c r="C237" s="72">
-        <f>SUM(C227:C236)</f>
-        <v>19023.18</v>
-      </c>
-    </row>
-    <row r="263" spans="9:10">
-      <c r="I263" s="78"/>
-      <c r="J263"/>
-    </row>
-    <row r="264" spans="9:10">
-      <c r="I264" s="78"/>
-      <c r="J264"/>
-    </row>
-    <row r="333" spans="10:10">
-      <c r="J333" s="80"/>
-    </row>
-    <row r="375" spans="9:9">
-      <c r="I375" s="79"/>
-    </row>
-    <row r="663" spans="14:25">
-      <c r="O663" s="79"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="C234" s="70">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="B235" s="86">
+        <f>SUM(B228:B234)</f>
+        <v>207</v>
+      </c>
+      <c r="C235" s="72">
+        <f>SUM(C225:C234)</f>
+        <v>19141.079999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="9:10">
+      <c r="I261" s="78"/>
+      <c r="J261"/>
+    </row>
+    <row r="262" spans="9:10">
+      <c r="I262" s="78"/>
+      <c r="J262"/>
+    </row>
+    <row r="331" spans="10:10">
+      <c r="J331" s="80"/>
+    </row>
+    <row r="373" spans="9:9">
+      <c r="I373" s="79"/>
+    </row>
+    <row r="661" spans="14:25">
+      <c r="O661" s="79"/>
+    </row>
+    <row r="666" spans="14:25">
+      <c r="Y666">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="667" spans="14:25">
+      <c r="Y667">
+        <v>12</v>
+      </c>
     </row>
     <row r="668" spans="14:25">
       <c r="Y668">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="669" spans="14:25">
+      <c r="N669" s="79"/>
       <c r="Y669">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="670" spans="14:25">
       <c r="Y670">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="671" spans="14:25">
-      <c r="N671" s="79"/>
       <c r="Y671">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="672" spans="14:25">
       <c r="Y672">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="673" spans="25:25">
@@ -11073,32 +11048,38 @@
     </row>
     <row r="674" spans="25:25">
       <c r="Y674">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="675" spans="25:25">
       <c r="Y675">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="676" spans="25:25">
-      <c r="Y676">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="677" spans="25:25">
-      <c r="Y677">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="678" spans="25:25">
-      <c r="Y678" s="81">
-        <f>SUM(Y668:Y677)</f>
+      <c r="Y676" s="81">
+        <f>SUM(Y666:Y675)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
     <mergeCell ref="A201:B201"/>
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A62:B62"/>
@@ -11113,28 +11094,12 @@
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A212:B212"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A229" numberStoredAsText="1"/>
+    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A227" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{66127162-D2AA-DC46-AF3D-583B9D531454}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BDCADC7F-71E0-3D44-BC9E-5DE543C7F208}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15120" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="436">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -3989,32 +3989,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黑曼巴 L红蜘蛛                    预定</t>
-    <rPh sb="0" eb="1">
-      <t>hei'man'ba</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hong'zhi'zhu</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊家玩具</t>
-    <rPh sb="0" eb="1">
-      <t>yi'ren</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jia</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wan'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Grandista ROS 觉悟3桃红(已付) + 黑发悟空</t>
     <rPh sb="0" eb="2">
       <t>yi'daohei'fawu'kong</t>
@@ -4155,17 +4129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新玩堂</t>
-    <rPh sb="0" eb="2">
-      <t>xin'wan'tan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HG     魔神Z大魔神                预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">HG     魔神Z铁甲万能侠            </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4191,17 +4154,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>御模道     1/6 赛文                    预定</t>
-    <rPh sb="0" eb="1">
-      <t>yu'mo'da</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1/6         钢铁奥特曼            </t>
     <rPh sb="0" eb="2">
       <t>gang'tie</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">黑曼巴 L红蜘蛛                    </t>
+    <rPh sb="0" eb="1">
+      <t>hei'man'ba</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hong'zhi'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御模道     1/6 赛文               预定</t>
+    <rPh sb="0" eb="1">
+      <t>yu'mo'da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BWFC 特兰克斯 未来                预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BWFC 黑悟空 扎马斯                预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BWFC 佛利萨 第2形态               预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲原</t>
+  </si>
+  <si>
+    <t>BWFC 小悟空 童年                  预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BWFC 贝吉塔 比达                  预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HG     魔神Z大魔神                </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BWFC 孙悟空 打伞修行              预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BWFC 比克 短笛                    预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BWFC 人造人 17号                  预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BWFC </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">卡塔库栗 卡二 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">               预定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BWFC 孙悟空 军装                  预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BWFC 山治                         预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BWFC 海侠 甚平                    预定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4212,7 +4267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4675,6 +4730,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -5041,7 +5104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5296,6 +5359,60 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5314,86 +5431,53 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5457,24 +5541,6 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6147,18 +6213,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:17" ht="63" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6313,32 +6379,32 @@
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="11:14" ht="19" customHeight="1">
-      <c r="K18" s="109" t="s">
+      <c r="K18" s="113" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="118" t="s">
+      <c r="M18" s="109" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="11:14" ht="19" customHeight="1">
-      <c r="K19" s="110"/>
+      <c r="K19" s="114"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="119"/>
+      <c r="M19" s="110"/>
     </row>
     <row r="20" spans="11:14" ht="19" customHeight="1">
-      <c r="K20" s="111"/>
+      <c r="K20" s="115"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="120"/>
+      <c r="M20" s="111"/>
     </row>
     <row r="21" spans="11:14">
-      <c r="K21" s="112" t="s">
+      <c r="K21" s="116" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
@@ -6346,7 +6412,7 @@
       </c>
     </row>
     <row r="22" spans="11:14">
-      <c r="K22" s="113"/>
+      <c r="K22" s="117"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
@@ -6377,172 +6443,192 @@
       </c>
     </row>
     <row r="26" spans="11:14" ht="21" customHeight="1">
-      <c r="K26" s="116" t="s">
+      <c r="K26" s="118" t="s">
         <v>384</v>
       </c>
-      <c r="L26" s="117"/>
+      <c r="L26" s="119"/>
       <c r="M26" s="89" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="27" spans="11:14" ht="21" customHeight="1">
-      <c r="K27" s="114" t="s">
+      <c r="K27" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="115"/>
+      <c r="L27" s="106"/>
       <c r="M27" s="89" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="28" spans="11:14" ht="21" customHeight="1">
-      <c r="K28" s="114" t="s">
+      <c r="K28" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="115"/>
+      <c r="L28" s="106"/>
       <c r="M28" s="89"/>
     </row>
     <row r="29" spans="11:14" ht="21" customHeight="1">
-      <c r="K29" s="114" t="s">
+      <c r="K29" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="115"/>
+      <c r="L29" s="106"/>
     </row>
     <row r="30" spans="11:14" ht="21" customHeight="1">
-      <c r="K30" s="114" t="s">
+      <c r="K30" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="115"/>
+      <c r="L30" s="106"/>
     </row>
     <row r="31" spans="11:14" ht="21" customHeight="1">
-      <c r="K31" s="114" t="s">
+      <c r="K31" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="115"/>
+      <c r="L31" s="106"/>
     </row>
     <row r="32" spans="11:14" ht="21" customHeight="1">
-      <c r="K32" s="114" t="s">
+      <c r="K32" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="115"/>
+      <c r="L32" s="106"/>
     </row>
     <row r="33" spans="11:12" ht="21" customHeight="1">
-      <c r="K33" s="114" t="s">
+      <c r="K33" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="115"/>
+      <c r="L33" s="106"/>
     </row>
     <row r="34" spans="11:12">
-      <c r="K34" s="114" t="s">
+      <c r="K34" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="115"/>
+      <c r="L34" s="106"/>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="114" t="s">
+      <c r="K35" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="115"/>
+      <c r="L35" s="106"/>
     </row>
     <row r="36" spans="11:12">
-      <c r="K36" s="114" t="s">
+      <c r="K36" s="105" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="115"/>
+      <c r="L36" s="106"/>
     </row>
     <row r="37" spans="11:12">
-      <c r="K37" s="114" t="s">
+      <c r="K37" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="L37" s="115"/>
+      <c r="L37" s="106"/>
     </row>
     <row r="38" spans="11:12">
-      <c r="K38" s="114" t="s">
+      <c r="K38" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="115"/>
+      <c r="L38" s="106"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="114" t="s">
+      <c r="K39" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="115"/>
+      <c r="L39" s="106"/>
     </row>
     <row r="40" spans="11:12">
-      <c r="K40" s="114" t="s">
+      <c r="K40" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="115"/>
+      <c r="L40" s="106"/>
     </row>
     <row r="41" spans="11:12">
-      <c r="K41" s="114" t="s">
+      <c r="K41" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="115"/>
+      <c r="L41" s="106"/>
     </row>
     <row r="42" spans="11:12">
-      <c r="K42" s="114" t="s">
+      <c r="K42" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="115"/>
+      <c r="L42" s="106"/>
     </row>
     <row r="43" spans="11:12">
-      <c r="K43" s="114" t="s">
+      <c r="K43" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="115"/>
+      <c r="L43" s="106"/>
     </row>
     <row r="44" spans="11:12">
-      <c r="K44" s="114" t="s">
+      <c r="K44" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="115"/>
+      <c r="L44" s="106"/>
     </row>
     <row r="45" spans="11:12">
-      <c r="K45" s="114" t="s">
+      <c r="K45" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="115"/>
+      <c r="L45" s="106"/>
     </row>
     <row r="46" spans="11:12">
-      <c r="K46" s="123"/>
-      <c r="L46" s="124"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="108"/>
     </row>
     <row r="47" spans="11:12">
-      <c r="K47" s="121"/>
-      <c r="L47" s="122"/>
+      <c r="K47" s="103"/>
+      <c r="L47" s="104"/>
     </row>
     <row r="48" spans="11:12" ht="23">
-      <c r="K48" s="102" t="s">
+      <c r="K48" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="103"/>
+      <c r="L48" s="121"/>
     </row>
     <row r="49" spans="11:12">
-      <c r="K49" s="104" t="s">
+      <c r="K49" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="105"/>
+      <c r="L49" s="123"/>
     </row>
     <row r="50" spans="11:12">
-      <c r="K50" s="104" t="s">
+      <c r="K50" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="105"/>
+      <c r="L50" s="123"/>
     </row>
     <row r="51" spans="11:12">
-      <c r="K51" s="104" t="s">
+      <c r="K51" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="105"/>
+      <c r="L51" s="123"/>
     </row>
     <row r="52" spans="11:12" ht="22">
-      <c r="K52" s="106" t="s">
+      <c r="K52" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="107"/>
+      <c r="L52" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
@@ -6554,26 +6640,6 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6632,7 +6698,7 @@
       <c r="K1" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="L1" s="125" t="s">
+      <c r="L1" s="126" t="s">
         <v>397</v>
       </c>
       <c r="M1" s="100" t="s">
@@ -6666,7 +6732,7 @@
       <c r="K2" s="77">
         <v>2</v>
       </c>
-      <c r="L2" s="125"/>
+      <c r="L2" s="126"/>
       <c r="M2" s="98" t="s">
         <v>375</v>
       </c>
@@ -6715,7 +6781,7 @@
       <c r="I3" s="77">
         <v>437.5</v>
       </c>
-      <c r="L3" s="125"/>
+      <c r="L3" s="126"/>
       <c r="M3" s="2" t="s">
         <v>383</v>
       </c>
@@ -6738,7 +6804,7 @@
       <c r="F4" s="95">
         <v>450</v>
       </c>
-      <c r="L4" s="125"/>
+      <c r="L4" s="126"/>
       <c r="M4" s="98" t="s">
         <v>376</v>
       </c>
@@ -6763,7 +6829,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" ht="40" customHeight="1">
-      <c r="L5" s="125"/>
+      <c r="L5" s="126"/>
       <c r="M5" s="98" t="s">
         <v>382</v>
       </c>
@@ -6788,7 +6854,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="40" customHeight="1">
-      <c r="L6" s="125"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="6" t="s">
         <v>377</v>
       </c>
@@ -6813,7 +6879,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="40" customHeight="1">
-      <c r="L7" s="125"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="6" t="s">
         <v>381</v>
       </c>
@@ -6821,7 +6887,7 @@
       <c r="R7" s="89"/>
     </row>
     <row r="8" spans="1:28" ht="40" customHeight="1">
-      <c r="L8" s="125"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="99" t="s">
         <v>378</v>
       </c>
@@ -6846,7 +6912,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="40" customHeight="1">
-      <c r="L9" s="125"/>
+      <c r="L9" s="126"/>
       <c r="M9" s="99" t="s">
         <v>379</v>
       </c>
@@ -6871,7 +6937,7 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="40" customHeight="1">
-      <c r="L10" s="125"/>
+      <c r="L10" s="126"/>
       <c r="M10" s="99" t="s">
         <v>380</v>
       </c>
@@ -6951,8 +7017,8 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="131" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="131" t="s">
+    <row r="1" spans="1:7" s="127" customFormat="1" ht="47" customHeight="1">
+      <c r="A1" s="127" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6970,10 +7036,10 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="36" customHeight="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -6981,38 +7047,38 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="36" customHeight="1">
-      <c r="A4" s="129"/>
-      <c r="B4" s="126"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1">
-      <c r="A5" s="129"/>
-      <c r="B5" s="126"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1">
-      <c r="A6" s="129"/>
-      <c r="B6" s="126"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="74" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1">
-      <c r="A7" s="129"/>
-      <c r="B7" s="126"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="74" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="126" t="s">
+      <c r="A8" s="130"/>
+      <c r="B8" s="128" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -7020,36 +7086,36 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1">
-      <c r="A9" s="129"/>
-      <c r="B9" s="126"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1">
-      <c r="A10" s="129"/>
-      <c r="B10" s="126"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1">
-      <c r="A11" s="129"/>
-      <c r="B11" s="126"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1">
-      <c r="A12" s="129"/>
-      <c r="B12" s="126"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
-      <c r="A13" s="129"/>
-      <c r="B13" s="126" t="s">
+      <c r="A13" s="130"/>
+      <c r="B13" s="128" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -7057,52 +7123,52 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" customHeight="1">
-      <c r="A14" s="129"/>
-      <c r="B14" s="126"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1">
-      <c r="A15" s="129"/>
-      <c r="B15" s="126"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
-      <c r="A16" s="129"/>
-      <c r="B16" s="126"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1">
-      <c r="A17" s="129"/>
-      <c r="B17" s="126"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1">
-      <c r="A18" s="129"/>
-      <c r="B18" s="126"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1">
-      <c r="A19" s="130"/>
-      <c r="B19" s="126"/>
+      <c r="A19" s="131"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" customHeight="1">
-      <c r="A20" s="128" t="s">
+      <c r="A20" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="128" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -7110,64 +7176,64 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1">
-      <c r="A21" s="129"/>
-      <c r="B21" s="126"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
-      <c r="A22" s="129"/>
-      <c r="B22" s="126"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1">
-      <c r="A23" s="129"/>
-      <c r="B23" s="126"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
-      <c r="A24" s="129"/>
-      <c r="B24" s="126"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1">
-      <c r="A25" s="129"/>
-      <c r="B25" s="126"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1">
-      <c r="A26" s="129"/>
-      <c r="B26" s="126"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1">
-      <c r="A27" s="129"/>
-      <c r="B27" s="126"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1">
-      <c r="A28" s="129"/>
-      <c r="B28" s="126"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1">
-      <c r="A29" s="129"/>
-      <c r="B29" s="126" t="s">
+      <c r="A29" s="130"/>
+      <c r="B29" s="128" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -7175,24 +7241,24 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1">
-      <c r="A30" s="129"/>
-      <c r="B30" s="126"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1">
-      <c r="A31" s="130"/>
-      <c r="B31" s="126"/>
+      <c r="A31" s="131"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" customHeight="1">
-      <c r="A32" s="128" t="s">
+      <c r="A32" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="126" t="s">
+      <c r="B32" s="128" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
@@ -7200,36 +7266,36 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1">
-      <c r="A33" s="129"/>
-      <c r="B33" s="126"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1">
-      <c r="A34" s="129"/>
-      <c r="B34" s="126"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1">
-      <c r="A35" s="129"/>
-      <c r="B35" s="126"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
-      <c r="A36" s="129"/>
-      <c r="B36" s="126"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1">
-      <c r="A37" s="129"/>
-      <c r="B37" s="126" t="s">
+      <c r="A37" s="130"/>
+      <c r="B37" s="128" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -7237,15 +7303,15 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1">
-      <c r="A38" s="129"/>
-      <c r="B38" s="126"/>
+      <c r="A38" s="130"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1">
-      <c r="A39" s="129"/>
-      <c r="B39" s="126" t="s">
+      <c r="A39" s="130"/>
+      <c r="B39" s="128" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -7253,24 +7319,24 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1">
-      <c r="A40" s="129"/>
-      <c r="B40" s="126"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1">
-      <c r="A41" s="130"/>
-      <c r="B41" s="126"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="36" customHeight="1">
-      <c r="A42" s="128" t="s">
+      <c r="A42" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="126" t="s">
+      <c r="B42" s="128" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -7278,36 +7344,36 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1">
-      <c r="A43" s="129"/>
-      <c r="B43" s="126"/>
+      <c r="A43" s="130"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1">
-      <c r="A44" s="129"/>
-      <c r="B44" s="126"/>
+      <c r="A44" s="130"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1">
-      <c r="A45" s="129"/>
-      <c r="B45" s="126"/>
+      <c r="A45" s="130"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1">
-      <c r="A46" s="129"/>
-      <c r="B46" s="126"/>
+      <c r="A46" s="130"/>
+      <c r="B46" s="128"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1">
-      <c r="A47" s="129"/>
-      <c r="B47" s="126" t="s">
+      <c r="A47" s="130"/>
+      <c r="B47" s="128" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -7315,15 +7381,15 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1">
-      <c r="A48" s="129"/>
-      <c r="B48" s="126"/>
+      <c r="A48" s="130"/>
+      <c r="B48" s="128"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1">
-      <c r="A49" s="129"/>
-      <c r="B49" s="126" t="s">
+      <c r="A49" s="130"/>
+      <c r="B49" s="128" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -7331,66 +7397,66 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1">
-      <c r="A50" s="129"/>
-      <c r="B50" s="126"/>
+      <c r="A50" s="130"/>
+      <c r="B50" s="128"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1">
-      <c r="A51" s="129"/>
-      <c r="B51" s="126"/>
+      <c r="A51" s="130"/>
+      <c r="B51" s="128"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
-      <c r="A52" s="129"/>
-      <c r="B52" s="126"/>
+      <c r="A52" s="130"/>
+      <c r="B52" s="128"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1">
-      <c r="A53" s="129"/>
-      <c r="B53" s="126"/>
+      <c r="A53" s="130"/>
+      <c r="B53" s="128"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1">
-      <c r="A54" s="129"/>
-      <c r="B54" s="126"/>
+      <c r="A54" s="130"/>
+      <c r="B54" s="128"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1">
-      <c r="A55" s="129"/>
-      <c r="B55" s="126"/>
+      <c r="A55" s="130"/>
+      <c r="B55" s="128"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1">
-      <c r="A56" s="129"/>
-      <c r="B56" s="126"/>
+      <c r="A56" s="130"/>
+      <c r="B56" s="128"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1">
-      <c r="A57" s="130"/>
-      <c r="B57" s="126"/>
+      <c r="A57" s="131"/>
+      <c r="B57" s="128"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="36" customHeight="1">
-      <c r="A58" s="128" t="s">
+      <c r="A58" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="126" t="s">
+      <c r="B58" s="128" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -7398,28 +7464,28 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1">
-      <c r="A59" s="129"/>
-      <c r="B59" s="126"/>
+      <c r="A59" s="130"/>
+      <c r="B59" s="128"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1">
-      <c r="A60" s="129"/>
-      <c r="B60" s="126"/>
+      <c r="A60" s="130"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1">
-      <c r="A61" s="129"/>
-      <c r="B61" s="126"/>
+      <c r="A61" s="130"/>
+      <c r="B61" s="128"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="36" customHeight="1">
-      <c r="A62" s="130"/>
+      <c r="A62" s="131"/>
       <c r="B62" s="21" t="s">
         <v>60</v>
       </c>
@@ -7428,7 +7494,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="36" customHeight="1">
-      <c r="A63" s="128" t="s">
+      <c r="A63" s="129" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="21" t="s">
@@ -7439,8 +7505,8 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1">
-      <c r="A64" s="129"/>
-      <c r="B64" s="126" t="s">
+      <c r="A64" s="130"/>
+      <c r="B64" s="128" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="s">
@@ -7448,28 +7514,28 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="36" customHeight="1">
-      <c r="A65" s="129"/>
-      <c r="B65" s="126"/>
+      <c r="A65" s="130"/>
+      <c r="B65" s="128"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="36" customHeight="1">
-      <c r="A66" s="129"/>
-      <c r="B66" s="126"/>
+      <c r="A66" s="130"/>
+      <c r="B66" s="128"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="36" customHeight="1">
-      <c r="A67" s="129"/>
-      <c r="B67" s="126"/>
+      <c r="A67" s="130"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="36" customHeight="1">
-      <c r="A68" s="130"/>
+      <c r="A68" s="131"/>
       <c r="B68" s="21" t="s">
         <v>64</v>
       </c>
@@ -7478,7 +7544,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="36" customHeight="1">
-      <c r="A69" s="127" t="s">
+      <c r="A69" s="135" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7489,8 +7555,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="36" customHeight="1">
-      <c r="A70" s="127"/>
-      <c r="B70" s="126" t="s">
+      <c r="A70" s="135"/>
+      <c r="B70" s="128" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -7498,49 +7564,49 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="36" customHeight="1">
-      <c r="A71" s="127"/>
-      <c r="B71" s="126"/>
+      <c r="A71" s="135"/>
+      <c r="B71" s="128"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="36" customHeight="1">
-      <c r="A72" s="127"/>
-      <c r="B72" s="126"/>
+      <c r="A72" s="135"/>
+      <c r="B72" s="128"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36" customHeight="1">
-      <c r="A73" s="127"/>
-      <c r="B73" s="126"/>
+      <c r="A73" s="135"/>
+      <c r="B73" s="128"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="36" customHeight="1">
-      <c r="A74" s="127"/>
-      <c r="B74" s="126"/>
+      <c r="A74" s="135"/>
+      <c r="B74" s="128"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="36" customHeight="1">
-      <c r="A75" s="127"/>
-      <c r="B75" s="126"/>
+      <c r="A75" s="135"/>
+      <c r="B75" s="128"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="36" customHeight="1">
-      <c r="A76" s="127"/>
-      <c r="B76" s="126"/>
+      <c r="A76" s="135"/>
+      <c r="B76" s="128"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="36" customHeight="1">
-      <c r="A77" s="127"/>
+      <c r="A77" s="135"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7549,7 +7615,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="36" customHeight="1">
-      <c r="A78" s="127"/>
+      <c r="A78" s="135"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -8645,6 +8711,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B48"/>
@@ -8661,13 +8734,6 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A63:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8776,98 +8842,98 @@
       <c r="A1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="156" t="s">
+      <c r="C1" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="156"/>
+      <c r="D1" s="136"/>
     </row>
     <row r="2" spans="1:6" ht="65" customHeight="1">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="157"/>
+      <c r="D2" s="137"/>
     </row>
     <row r="3" spans="1:6" ht="31" customHeight="1">
-      <c r="A3" s="142"/>
-      <c r="C3" s="158" t="s">
+      <c r="A3" s="149"/>
+      <c r="C3" s="138" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="154" t="s">
+      <c r="E3" s="161" t="s">
         <v>332</v>
       </c>
-      <c r="F3" s="155"/>
+      <c r="F3" s="162"/>
     </row>
     <row r="4" spans="1:6" ht="31" customHeight="1">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="150" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="159"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31" customHeight="1">
-      <c r="A5" s="144"/>
-      <c r="C5" s="160" t="s">
+      <c r="A5" s="151"/>
+      <c r="C5" s="140" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="142" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31" customHeight="1">
-      <c r="A6" s="144"/>
-      <c r="C6" s="161"/>
+      <c r="A6" s="151"/>
+      <c r="C6" s="141"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="31" customHeight="1">
-      <c r="A7" s="144"/>
-      <c r="C7" s="137" t="s">
+      <c r="A7" s="151"/>
+      <c r="C7" s="144" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="142"/>
     </row>
     <row r="8" spans="1:6" ht="31" customHeight="1">
-      <c r="A8" s="144"/>
-      <c r="C8" s="138"/>
+      <c r="A8" s="151"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="135"/>
+      <c r="F8" s="142"/>
     </row>
     <row r="9" spans="1:6" ht="23">
-      <c r="A9" s="144"/>
-      <c r="C9" s="150" t="s">
+      <c r="A9" s="151"/>
+      <c r="C9" s="157" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="151"/>
-      <c r="F9" s="135"/>
+      <c r="D9" s="158"/>
+      <c r="F9" s="142"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="144"/>
-      <c r="C10" s="146" t="s">
+      <c r="A10" s="151"/>
+      <c r="C10" s="153" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="F10" s="135"/>
+      <c r="D10" s="154"/>
+      <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:6" ht="32" customHeight="1">
-      <c r="A11" s="144"/>
+      <c r="A11" s="151"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -8875,22 +8941,22 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="135"/>
+      <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:6" ht="54" customHeight="1">
-      <c r="A12" s="145"/>
-      <c r="C12" s="148" t="s">
+      <c r="A12" s="152"/>
+      <c r="C12" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="149"/>
-      <c r="F12" s="135"/>
+      <c r="D12" s="156"/>
+      <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:6" ht="37" customHeight="1">
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="159" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="F13" s="135" t="s">
+      <c r="D13" s="160"/>
+      <c r="F13" s="142" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8901,49 +8967,44 @@
       <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="135"/>
+      <c r="F14" s="142"/>
     </row>
     <row r="15" spans="1:6" ht="48" customHeight="1">
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="140"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="135"/>
+      <c r="F15" s="142"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="F16" s="135"/>
+      <c r="F16" s="142"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="135"/>
+      <c r="F17" s="142"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="135"/>
+      <c r="F18" s="142"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="135"/>
+      <c r="F19" s="142"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="136" t="s">
+      <c r="F20" s="143" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="136"/>
+      <c r="F21" s="143"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="136"/>
+      <c r="F22" s="143"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="136"/>
+      <c r="F23" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F12"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="C7:C8"/>
@@ -8955,6 +9016,11 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8964,10 +9030,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y676"/>
+  <dimension ref="A1:Y684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -8983,10 +9049,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28">
-      <c r="A1" s="163">
+      <c r="A1" s="164">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="164"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1">
       <c r="A2" s="63" t="s">
@@ -9014,10 +9080,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28">
-      <c r="A5" s="163">
+      <c r="A5" s="164">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="163"/>
+      <c r="B5" s="164"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="63" t="s">
@@ -9073,10 +9139,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="164" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="163"/>
+      <c r="B12" s="164"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="64" t="s">
@@ -9109,10 +9175,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="164" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="163"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="70">
         <v>324</v>
       </c>
@@ -9130,10 +9196,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1">
-      <c r="A18" s="163" t="s">
+      <c r="A18" s="164" t="s">
         <v>239</v>
       </c>
-      <c r="B18" s="163"/>
+      <c r="B18" s="164"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="63" t="s">
@@ -9173,10 +9239,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="164" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="70">
         <v>49.67</v>
       </c>
@@ -9194,10 +9260,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1">
-      <c r="A25" s="163" t="s">
+      <c r="A25" s="164" t="s">
         <v>240</v>
       </c>
-      <c r="B25" s="163"/>
+      <c r="B25" s="164"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="64" t="s">
@@ -9269,10 +9335,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="21" customHeight="1">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="164" t="s">
         <v>241</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="164"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="63" t="s">
@@ -9361,10 +9427,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="21" customHeight="1">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="164"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="65" t="s">
@@ -9397,10 +9463,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="21" customHeight="1">
-      <c r="A49" s="163" t="s">
+      <c r="A49" s="164" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="163"/>
+      <c r="B49" s="164"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="65" t="s">
@@ -9449,10 +9515,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="21" customHeight="1">
-      <c r="A55" s="163" t="s">
+      <c r="A55" s="164" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="163"/>
+      <c r="B55" s="164"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="64" t="s">
@@ -9509,10 +9575,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="21" customHeight="1">
-      <c r="A62" s="163" t="s">
+      <c r="A62" s="164" t="s">
         <v>245</v>
       </c>
-      <c r="B62" s="163"/>
+      <c r="B62" s="164"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="65" t="s">
@@ -9553,10 +9619,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="21" customHeight="1">
-      <c r="A67" s="163" t="s">
+      <c r="A67" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="164"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="65" t="s">
@@ -9589,10 +9655,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="21" customHeight="1">
-      <c r="A71" s="163" t="s">
+      <c r="A71" s="164" t="s">
         <v>247</v>
       </c>
-      <c r="B71" s="163"/>
+      <c r="B71" s="164"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="65" t="s">
@@ -9633,10 +9699,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="21" customHeight="1">
-      <c r="A76" s="163" t="s">
+      <c r="A76" s="164" t="s">
         <v>248</v>
       </c>
-      <c r="B76" s="163"/>
+      <c r="B76" s="164"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="65" t="s">
@@ -9685,10 +9751,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="21" customHeight="1">
-      <c r="A82" s="163" t="s">
+      <c r="A82" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="163"/>
+      <c r="B82" s="164"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="65" t="s">
@@ -9737,10 +9803,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="21" customHeight="1">
-      <c r="A88" s="163" t="s">
+      <c r="A88" s="164" t="s">
         <v>249</v>
       </c>
-      <c r="B88" s="163"/>
+      <c r="B88" s="164"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="65" t="s">
@@ -9781,10 +9847,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="21" customHeight="1">
-      <c r="A93" s="163" t="s">
+      <c r="A93" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="B93" s="163"/>
+      <c r="B93" s="164"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="65" t="s">
@@ -9889,10 +9955,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="21" customHeight="1">
-      <c r="A106" s="163" t="s">
+      <c r="A106" s="164" t="s">
         <v>250</v>
       </c>
-      <c r="B106" s="163"/>
+      <c r="B106" s="164"/>
       <c r="C106" s="68"/>
     </row>
     <row r="107" spans="1:3">
@@ -9954,10 +10020,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="21" customHeight="1">
-      <c r="A113" s="163" t="s">
+      <c r="A113" s="164" t="s">
         <v>251</v>
       </c>
-      <c r="B113" s="163"/>
+      <c r="B113" s="164"/>
       <c r="C113" s="68"/>
     </row>
     <row r="114" spans="1:3">
@@ -9997,7 +10063,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1">
       <c r="A118" s="66" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B118" s="85">
         <v>170.6</v>
@@ -10050,10 +10116,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28">
-      <c r="A124" s="163" t="s">
+      <c r="A124" s="164" t="s">
         <v>288</v>
       </c>
-      <c r="B124" s="163"/>
+      <c r="B124" s="164"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1">
       <c r="A125" s="66" t="s">
@@ -10212,10 +10278,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28">
-      <c r="A143" s="163" t="s">
+      <c r="A143" s="164" t="s">
         <v>302</v>
       </c>
-      <c r="B143" s="163"/>
+      <c r="B143" s="164"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3">
@@ -10378,10 +10444,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28">
-      <c r="A162" s="162">
+      <c r="A162" s="163">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="163"/>
+      <c r="B162" s="164"/>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="65" t="s">
@@ -10457,7 +10523,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="63" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B172" s="85">
         <v>84</v>
@@ -10469,7 +10535,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="63" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B173" s="85">
         <v>84</v>
@@ -10489,10 +10555,10 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28">
-      <c r="A175" s="162">
+      <c r="A175" s="163">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="163"/>
+      <c r="B175" s="164"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="63" t="s">
@@ -10532,10 +10598,10 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="28">
-      <c r="A180" s="162">
+      <c r="A180" s="163">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="163"/>
+      <c r="B180" s="164"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="63" t="s">
@@ -10555,7 +10621,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="63" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B183" s="85">
         <v>86</v>
@@ -10606,7 +10672,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="65" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B189" s="85">
         <v>84.4</v>
@@ -10614,7 +10680,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="65" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B190" s="85">
         <v>84</v>
@@ -10659,14 +10725,14 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="28">
-      <c r="A195" s="162">
+      <c r="A195" s="163">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="163"/>
+      <c r="B195" s="164"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="65" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B196" s="85">
         <v>288</v>
@@ -10705,10 +10771,10 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="28">
-      <c r="A201" s="162">
+      <c r="A201" s="163">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="163"/>
+      <c r="B201" s="164"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="63" t="s">
@@ -10809,10 +10875,10 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="28">
-      <c r="A212" s="162" t="s">
+      <c r="A212" s="163" t="s">
         <v>352</v>
       </c>
-      <c r="B212" s="163"/>
+      <c r="B212" s="164"/>
     </row>
     <row r="213" spans="1:4">
       <c r="C213" s="70">
@@ -10830,10 +10896,10 @@
       </c>
     </row>
     <row r="215" spans="1:4" ht="28">
-      <c r="A215" s="162">
+      <c r="A215" s="163">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="163"/>
+      <c r="B215" s="164"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="63" t="s">
@@ -10845,70 +10911,67 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="63" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B217" s="85">
         <v>155.80000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="73" t="s">
-        <v>400</v>
-      </c>
-      <c r="B218" s="84">
-        <v>14.7</v>
-      </c>
-      <c r="D218" s="82" t="s">
-        <v>401</v>
+      <c r="A218" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="B218" s="85">
+        <v>147.69999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="73" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B219" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D219" s="82" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="73" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B220" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D220" s="82" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="73" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B221" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D221" s="82" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="73" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B222" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D222" s="82" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="63" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B223" s="85">
         <v>70.78</v>
@@ -10916,7 +10979,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="63" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B224" s="85">
         <v>339</v>
@@ -10924,146 +10987,334 @@
     </row>
     <row r="225" spans="1:4">
       <c r="C225" s="70">
-        <v>687.12</v>
+        <v>820.12</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="B226" s="86">
         <f>SUM(B216:B225)</f>
-        <v>687.12</v>
+        <v>820.11999999999989</v>
       </c>
       <c r="C226" s="72">
         <f>SUM(C214:C225)</f>
-        <v>18246.96</v>
+        <v>18379.96</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="28">
-      <c r="A227" s="162" t="s">
-        <v>415</v>
-      </c>
-      <c r="B227" s="163"/>
+      <c r="A227" s="163" t="s">
+        <v>413</v>
+      </c>
+      <c r="B227" s="164"/>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="63" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B228" s="85">
         <v>177</v>
       </c>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="73" t="s">
-        <v>417</v>
-      </c>
-      <c r="B229" s="84">
-        <v>20</v>
-      </c>
-      <c r="D229" s="82" t="s">
-        <v>416</v>
+      <c r="A229" s="63" t="s">
+        <v>428</v>
+      </c>
+      <c r="B229" s="85">
+        <v>201</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="73" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B230" s="84">
         <v>10</v>
       </c>
       <c r="D230" s="82" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="C231" s="70">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="B232" s="86">
+        <f>SUM(B228:B231)</f>
+        <v>388</v>
+      </c>
+      <c r="C232" s="72">
+        <f>SUM(C225:C231)</f>
+        <v>19588.079999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="28">
+      <c r="A233" s="163" t="s">
         <v>421</v>
       </c>
+      <c r="B233" s="164"/>
     </row>
     <row r="234" spans="1:4">
-      <c r="C234" s="70">
-        <v>207</v>
+      <c r="A234" s="73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B234" s="84">
+        <v>9.66</v>
+      </c>
+      <c r="D234" s="82" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="B235" s="86">
-        <f>SUM(B228:B234)</f>
-        <v>207</v>
-      </c>
-      <c r="C235" s="72">
-        <f>SUM(C225:C234)</f>
-        <v>19141.079999999998</v>
-      </c>
-    </row>
-    <row r="261" spans="9:10">
-      <c r="I261" s="78"/>
-      <c r="J261"/>
-    </row>
-    <row r="262" spans="9:10">
-      <c r="I262" s="78"/>
-      <c r="J262"/>
-    </row>
-    <row r="331" spans="10:10">
-      <c r="J331" s="80"/>
-    </row>
-    <row r="373" spans="9:9">
-      <c r="I373" s="79"/>
-    </row>
-    <row r="661" spans="14:25">
-      <c r="O661" s="79"/>
-    </row>
-    <row r="666" spans="14:25">
-      <c r="Y666">
+      <c r="A235" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="B235" s="84">
+        <v>9.66</v>
+      </c>
+      <c r="D235" s="82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="B236" s="84">
+        <v>9.66</v>
+      </c>
+      <c r="D236" s="82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="73" t="s">
+        <v>423</v>
+      </c>
+      <c r="B237" s="84">
+        <v>9.66</v>
+      </c>
+      <c r="D237" s="82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="B238" s="84">
+        <v>9.66</v>
+      </c>
+      <c r="D238" s="82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="B239" s="84">
+        <v>9.66</v>
+      </c>
+      <c r="D239" s="82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="73" t="s">
+        <v>430</v>
+      </c>
+      <c r="B240" s="84">
+        <v>9.66</v>
+      </c>
+      <c r="D240" s="82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="B241" s="84">
+        <v>9.66</v>
+      </c>
+      <c r="D241" s="82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="73" t="s">
+        <v>432</v>
+      </c>
+      <c r="B242" s="84">
+        <v>9.66</v>
+      </c>
+      <c r="D242" s="82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="73" t="s">
+        <v>433</v>
+      </c>
+      <c r="B243" s="84">
+        <v>9.66</v>
+      </c>
+      <c r="D243" s="82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="73" t="s">
+        <v>434</v>
+      </c>
+      <c r="B244" s="84">
+        <v>9.66</v>
+      </c>
+      <c r="D244" s="82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="B245" s="84">
+        <v>9.6</v>
+      </c>
+      <c r="D245" s="82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="73"/>
+      <c r="B246" s="84"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="73"/>
+      <c r="B247" s="84"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="73"/>
+      <c r="B248" s="84"/>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="73"/>
+      <c r="B249" s="84"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="76"/>
+      <c r="B250" s="102"/>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="76"/>
+      <c r="B251" s="102"/>
+      <c r="C251" s="70">
+        <v>115.86</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="B252" s="86">
+        <f>SUM(B234:B251)</f>
+        <v>115.85999999999997</v>
+      </c>
+      <c r="C252" s="72">
+        <f>SUM(C232:C251)</f>
+        <v>19703.939999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="9:10">
+      <c r="I269" s="78"/>
+      <c r="J269"/>
+    </row>
+    <row r="270" spans="9:10">
+      <c r="I270" s="78"/>
+      <c r="J270"/>
+    </row>
+    <row r="339" spans="10:10">
+      <c r="J339" s="80"/>
+    </row>
+    <row r="381" spans="9:9">
+      <c r="I381" s="79"/>
+    </row>
+    <row r="669" spans="15:15">
+      <c r="O669" s="79"/>
+    </row>
+    <row r="674" spans="14:25">
+      <c r="Y674">
         <v>9</v>
       </c>
     </row>
-    <row r="667" spans="14:25">
-      <c r="Y667">
+    <row r="675" spans="14:25">
+      <c r="Y675">
         <v>12</v>
       </c>
     </row>
-    <row r="668" spans="14:25">
-      <c r="Y668">
+    <row r="676" spans="14:25">
+      <c r="Y676">
         <v>8</v>
       </c>
     </row>
-    <row r="669" spans="14:25">
-      <c r="N669" s="79"/>
-      <c r="Y669">
+    <row r="677" spans="14:25">
+      <c r="N677" s="79"/>
+      <c r="Y677">
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="14:25">
-      <c r="Y670">
+    <row r="678" spans="14:25">
+      <c r="Y678">
         <v>10</v>
       </c>
     </row>
-    <row r="671" spans="14:25">
-      <c r="Y671">
+    <row r="679" spans="14:25">
+      <c r="Y679">
         <v>9</v>
       </c>
     </row>
-    <row r="672" spans="14:25">
-      <c r="Y672">
+    <row r="680" spans="14:25">
+      <c r="Y680">
         <v>16</v>
       </c>
     </row>
-    <row r="673" spans="25:25">
-      <c r="Y673">
+    <row r="681" spans="14:25">
+      <c r="Y681">
         <v>9</v>
       </c>
     </row>
-    <row r="674" spans="25:25">
-      <c r="Y674">
+    <row r="682" spans="14:25">
+      <c r="Y682">
         <v>6</v>
       </c>
     </row>
-    <row r="675" spans="25:25">
-      <c r="Y675">
+    <row r="683" spans="14:25">
+      <c r="Y683">
         <v>8</v>
       </c>
     </row>
-    <row r="676" spans="25:25">
-      <c r="Y676" s="81">
-        <f>SUM(Y666:Y675)</f>
+    <row r="684" spans="14:25">
+      <c r="Y684" s="81">
+        <f>SUM(Y674:Y683)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A233:B233"/>
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:B5"/>
@@ -11079,27 +11330,12 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A106:B106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A227" numberStoredAsText="1"/>
+    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A227 A233" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BDCADC7F-71E0-3D44-BC9E-5DE543C7F208}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3590659-A10F-C345-A951-A0B0BBA99CF9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17340" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="440">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -4221,33 +4221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">BWFC </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">卡塔库栗 卡二 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">               预定</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BWFC 孙悟空 军装                  预定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4257,6 +4230,32 @@
   </si>
   <si>
     <t>BWFC 海侠 甚平                    预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">龙珠GT    贝吉塔超4               预定 </t>
+    <rPh sb="0" eb="1">
+      <t>long'zh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形金刚封绘集</t>
+    <rPh sb="0" eb="2">
+      <t>bian'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BWFC 卡塔库栗 卡二                预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Grandista  索隆                   预定           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Grandista  山治                   预定           </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4267,7 +4266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="60">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4730,14 +4729,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -5362,93 +5353,96 @@
     <xf numFmtId="176" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5458,8 +5452,68 @@
     <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5478,69 +5532,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6213,18 +6204,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="2" spans="1:17" ht="63" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6379,32 +6370,32 @@
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="11:14" ht="19" customHeight="1">
-      <c r="K18" s="113" t="s">
+      <c r="K18" s="110" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="109" t="s">
+      <c r="M18" s="119" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="11:14" ht="19" customHeight="1">
-      <c r="K19" s="114"/>
+      <c r="K19" s="111"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="110"/>
+      <c r="M19" s="120"/>
     </row>
     <row r="20" spans="11:14" ht="19" customHeight="1">
-      <c r="K20" s="115"/>
+      <c r="K20" s="112"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="111"/>
+      <c r="M20" s="121"/>
     </row>
     <row r="21" spans="11:14">
-      <c r="K21" s="116" t="s">
+      <c r="K21" s="113" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
@@ -6412,7 +6403,7 @@
       </c>
     </row>
     <row r="22" spans="11:14">
-      <c r="K22" s="117"/>
+      <c r="K22" s="114"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
@@ -6443,192 +6434,172 @@
       </c>
     </row>
     <row r="26" spans="11:14" ht="21" customHeight="1">
-      <c r="K26" s="118" t="s">
+      <c r="K26" s="117" t="s">
         <v>384</v>
       </c>
-      <c r="L26" s="119"/>
+      <c r="L26" s="118"/>
       <c r="M26" s="89" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="27" spans="11:14" ht="21" customHeight="1">
-      <c r="K27" s="105" t="s">
+      <c r="K27" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="106"/>
+      <c r="L27" s="116"/>
       <c r="M27" s="89" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="28" spans="11:14" ht="21" customHeight="1">
-      <c r="K28" s="105" t="s">
+      <c r="K28" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="106"/>
+      <c r="L28" s="116"/>
       <c r="M28" s="89"/>
     </row>
     <row r="29" spans="11:14" ht="21" customHeight="1">
-      <c r="K29" s="105" t="s">
+      <c r="K29" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="106"/>
+      <c r="L29" s="116"/>
     </row>
     <row r="30" spans="11:14" ht="21" customHeight="1">
-      <c r="K30" s="105" t="s">
+      <c r="K30" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="106"/>
+      <c r="L30" s="116"/>
     </row>
     <row r="31" spans="11:14" ht="21" customHeight="1">
-      <c r="K31" s="105" t="s">
+      <c r="K31" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="106"/>
+      <c r="L31" s="116"/>
     </row>
     <row r="32" spans="11:14" ht="21" customHeight="1">
-      <c r="K32" s="105" t="s">
+      <c r="K32" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="106"/>
+      <c r="L32" s="116"/>
     </row>
     <row r="33" spans="11:12" ht="21" customHeight="1">
-      <c r="K33" s="105" t="s">
+      <c r="K33" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="106"/>
+      <c r="L33" s="116"/>
     </row>
     <row r="34" spans="11:12">
-      <c r="K34" s="105" t="s">
+      <c r="K34" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="106"/>
+      <c r="L34" s="116"/>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="105" t="s">
+      <c r="K35" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="106"/>
+      <c r="L35" s="116"/>
     </row>
     <row r="36" spans="11:12">
-      <c r="K36" s="105" t="s">
+      <c r="K36" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="106"/>
+      <c r="L36" s="116"/>
     </row>
     <row r="37" spans="11:12">
-      <c r="K37" s="105" t="s">
+      <c r="K37" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="L37" s="106"/>
+      <c r="L37" s="116"/>
     </row>
     <row r="38" spans="11:12">
-      <c r="K38" s="105" t="s">
+      <c r="K38" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="106"/>
+      <c r="L38" s="116"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="105" t="s">
+      <c r="K39" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="106"/>
+      <c r="L39" s="116"/>
     </row>
     <row r="40" spans="11:12">
-      <c r="K40" s="105" t="s">
+      <c r="K40" s="115" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="106"/>
+      <c r="L40" s="116"/>
     </row>
     <row r="41" spans="11:12">
-      <c r="K41" s="105" t="s">
+      <c r="K41" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="106"/>
+      <c r="L41" s="116"/>
     </row>
     <row r="42" spans="11:12">
-      <c r="K42" s="105" t="s">
+      <c r="K42" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="106"/>
+      <c r="L42" s="116"/>
     </row>
     <row r="43" spans="11:12">
-      <c r="K43" s="105" t="s">
+      <c r="K43" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="106"/>
+      <c r="L43" s="116"/>
     </row>
     <row r="44" spans="11:12">
-      <c r="K44" s="105" t="s">
+      <c r="K44" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="106"/>
+      <c r="L44" s="116"/>
     </row>
     <row r="45" spans="11:12">
-      <c r="K45" s="105" t="s">
+      <c r="K45" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="106"/>
+      <c r="L45" s="116"/>
     </row>
     <row r="46" spans="11:12">
-      <c r="K46" s="107"/>
-      <c r="L46" s="108"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="125"/>
     </row>
     <row r="47" spans="11:12">
-      <c r="K47" s="103"/>
-      <c r="L47" s="104"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="123"/>
     </row>
     <row r="48" spans="11:12" ht="23">
-      <c r="K48" s="120" t="s">
+      <c r="K48" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="121"/>
+      <c r="L48" s="104"/>
     </row>
     <row r="49" spans="11:12">
-      <c r="K49" s="122" t="s">
+      <c r="K49" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="123"/>
+      <c r="L49" s="106"/>
     </row>
     <row r="50" spans="11:12">
-      <c r="K50" s="122" t="s">
+      <c r="K50" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="123"/>
+      <c r="L50" s="106"/>
     </row>
     <row r="51" spans="11:12">
-      <c r="K51" s="122" t="s">
+      <c r="K51" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="123"/>
+      <c r="L51" s="106"/>
     </row>
     <row r="52" spans="11:12" ht="22">
-      <c r="K52" s="124" t="s">
+      <c r="K52" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="125"/>
+      <c r="L52" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
@@ -6640,6 +6611,26 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7017,17 +7008,17 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="127" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:7" s="132" customFormat="1" ht="47" customHeight="1">
+      <c r="A1" s="132" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
@@ -7039,7 +7030,7 @@
       <c r="A3" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="127" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -7048,21 +7039,21 @@
     </row>
     <row r="4" spans="1:7" ht="36" customHeight="1">
       <c r="A4" s="130"/>
-      <c r="B4" s="128"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1">
       <c r="A5" s="130"/>
-      <c r="B5" s="128"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1">
       <c r="A6" s="130"/>
-      <c r="B6" s="128"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="74" t="s">
         <v>78</v>
       </c>
@@ -7070,7 +7061,7 @@
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1">
       <c r="A7" s="130"/>
-      <c r="B7" s="128"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="74" t="s">
         <v>79</v>
       </c>
@@ -7078,7 +7069,7 @@
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="A8" s="130"/>
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="127" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -7087,35 +7078,35 @@
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1">
       <c r="A9" s="130"/>
-      <c r="B9" s="128"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1">
       <c r="A10" s="130"/>
-      <c r="B10" s="128"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1">
       <c r="A11" s="130"/>
-      <c r="B11" s="128"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1">
       <c r="A12" s="130"/>
-      <c r="B12" s="128"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
       <c r="A13" s="130"/>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -7124,42 +7115,42 @@
     </row>
     <row r="14" spans="1:7" ht="36" customHeight="1">
       <c r="A14" s="130"/>
-      <c r="B14" s="128"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1">
       <c r="A15" s="130"/>
-      <c r="B15" s="128"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
       <c r="A16" s="130"/>
-      <c r="B16" s="128"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1">
       <c r="A17" s="130"/>
-      <c r="B17" s="128"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1">
       <c r="A18" s="130"/>
-      <c r="B18" s="128"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1">
       <c r="A19" s="131"/>
-      <c r="B19" s="128"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
@@ -7168,7 +7159,7 @@
       <c r="A20" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="127" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -7177,63 +7168,63 @@
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1">
       <c r="A21" s="130"/>
-      <c r="B21" s="128"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
       <c r="A22" s="130"/>
-      <c r="B22" s="128"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1">
       <c r="A23" s="130"/>
-      <c r="B23" s="128"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
       <c r="A24" s="130"/>
-      <c r="B24" s="128"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1">
       <c r="A25" s="130"/>
-      <c r="B25" s="128"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1">
       <c r="A26" s="130"/>
-      <c r="B26" s="128"/>
+      <c r="B26" s="127"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1">
       <c r="A27" s="130"/>
-      <c r="B27" s="128"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1">
       <c r="A28" s="130"/>
-      <c r="B28" s="128"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1">
       <c r="A29" s="130"/>
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="127" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -7242,14 +7233,14 @@
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1">
       <c r="A30" s="130"/>
-      <c r="B30" s="128"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1">
       <c r="A31" s="131"/>
-      <c r="B31" s="128"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
@@ -7258,7 +7249,7 @@
       <c r="A32" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="127" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
@@ -7267,35 +7258,35 @@
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1">
       <c r="A33" s="130"/>
-      <c r="B33" s="128"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1">
       <c r="A34" s="130"/>
-      <c r="B34" s="128"/>
+      <c r="B34" s="127"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1">
       <c r="A35" s="130"/>
-      <c r="B35" s="128"/>
+      <c r="B35" s="127"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
       <c r="A36" s="130"/>
-      <c r="B36" s="128"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1">
       <c r="A37" s="130"/>
-      <c r="B37" s="128" t="s">
+      <c r="B37" s="127" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -7304,14 +7295,14 @@
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1">
       <c r="A38" s="130"/>
-      <c r="B38" s="128"/>
+      <c r="B38" s="127"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1">
       <c r="A39" s="130"/>
-      <c r="B39" s="128" t="s">
+      <c r="B39" s="127" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -7320,14 +7311,14 @@
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1">
       <c r="A40" s="130"/>
-      <c r="B40" s="128"/>
+      <c r="B40" s="127"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1">
       <c r="A41" s="131"/>
-      <c r="B41" s="128"/>
+      <c r="B41" s="127"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
@@ -7336,7 +7327,7 @@
       <c r="A42" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="128" t="s">
+      <c r="B42" s="127" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -7345,35 +7336,35 @@
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1">
       <c r="A43" s="130"/>
-      <c r="B43" s="128"/>
+      <c r="B43" s="127"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1">
       <c r="A44" s="130"/>
-      <c r="B44" s="128"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1">
       <c r="A45" s="130"/>
-      <c r="B45" s="128"/>
+      <c r="B45" s="127"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1">
       <c r="A46" s="130"/>
-      <c r="B46" s="128"/>
+      <c r="B46" s="127"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1">
       <c r="A47" s="130"/>
-      <c r="B47" s="128" t="s">
+      <c r="B47" s="127" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -7382,14 +7373,14 @@
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1">
       <c r="A48" s="130"/>
-      <c r="B48" s="128"/>
+      <c r="B48" s="127"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1">
       <c r="A49" s="130"/>
-      <c r="B49" s="128" t="s">
+      <c r="B49" s="127" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -7398,56 +7389,56 @@
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1">
       <c r="A50" s="130"/>
-      <c r="B50" s="128"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1">
       <c r="A51" s="130"/>
-      <c r="B51" s="128"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
       <c r="A52" s="130"/>
-      <c r="B52" s="128"/>
+      <c r="B52" s="127"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1">
       <c r="A53" s="130"/>
-      <c r="B53" s="128"/>
+      <c r="B53" s="127"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1">
       <c r="A54" s="130"/>
-      <c r="B54" s="128"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1">
       <c r="A55" s="130"/>
-      <c r="B55" s="128"/>
+      <c r="B55" s="127"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1">
       <c r="A56" s="130"/>
-      <c r="B56" s="128"/>
+      <c r="B56" s="127"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1">
       <c r="A57" s="131"/>
-      <c r="B57" s="128"/>
+      <c r="B57" s="127"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
@@ -7456,7 +7447,7 @@
       <c r="A58" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="128" t="s">
+      <c r="B58" s="127" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -7465,21 +7456,21 @@
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1">
       <c r="A59" s="130"/>
-      <c r="B59" s="128"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1">
       <c r="A60" s="130"/>
-      <c r="B60" s="128"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1">
       <c r="A61" s="130"/>
-      <c r="B61" s="128"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
@@ -7506,7 +7497,7 @@
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1">
       <c r="A64" s="130"/>
-      <c r="B64" s="128" t="s">
+      <c r="B64" s="127" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="s">
@@ -7515,21 +7506,21 @@
     </row>
     <row r="65" spans="1:4" ht="36" customHeight="1">
       <c r="A65" s="130"/>
-      <c r="B65" s="128"/>
+      <c r="B65" s="127"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="36" customHeight="1">
       <c r="A66" s="130"/>
-      <c r="B66" s="128"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="36" customHeight="1">
       <c r="A67" s="130"/>
-      <c r="B67" s="128"/>
+      <c r="B67" s="127"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
@@ -7544,7 +7535,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="36" customHeight="1">
-      <c r="A69" s="135" t="s">
+      <c r="A69" s="128" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7555,8 +7546,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="36" customHeight="1">
-      <c r="A70" s="135"/>
-      <c r="B70" s="128" t="s">
+      <c r="A70" s="128"/>
+      <c r="B70" s="127" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -7564,49 +7555,49 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="36" customHeight="1">
-      <c r="A71" s="135"/>
-      <c r="B71" s="128"/>
+      <c r="A71" s="128"/>
+      <c r="B71" s="127"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="36" customHeight="1">
-      <c r="A72" s="135"/>
-      <c r="B72" s="128"/>
+      <c r="A72" s="128"/>
+      <c r="B72" s="127"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36" customHeight="1">
-      <c r="A73" s="135"/>
-      <c r="B73" s="128"/>
+      <c r="A73" s="128"/>
+      <c r="B73" s="127"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="36" customHeight="1">
-      <c r="A74" s="135"/>
-      <c r="B74" s="128"/>
+      <c r="A74" s="128"/>
+      <c r="B74" s="127"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="36" customHeight="1">
-      <c r="A75" s="135"/>
-      <c r="B75" s="128"/>
+      <c r="A75" s="128"/>
+      <c r="B75" s="127"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="36" customHeight="1">
-      <c r="A76" s="135"/>
-      <c r="B76" s="128"/>
+      <c r="A76" s="128"/>
+      <c r="B76" s="127"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="36" customHeight="1">
-      <c r="A77" s="135"/>
+      <c r="A77" s="128"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7615,7 +7606,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="36" customHeight="1">
-      <c r="A78" s="135"/>
+      <c r="A78" s="128"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -8711,13 +8702,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B48"/>
@@ -8734,6 +8718,13 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A63:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8842,98 +8833,98 @@
       <c r="A1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="157" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="136"/>
+      <c r="D1" s="157"/>
     </row>
     <row r="2" spans="1:6" ht="65" customHeight="1">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="137"/>
+      <c r="D2" s="158"/>
     </row>
     <row r="3" spans="1:6" ht="31" customHeight="1">
-      <c r="A3" s="149"/>
-      <c r="C3" s="138" t="s">
+      <c r="A3" s="143"/>
+      <c r="C3" s="159" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="161" t="s">
+      <c r="E3" s="155" t="s">
         <v>332</v>
       </c>
-      <c r="F3" s="162"/>
+      <c r="F3" s="156"/>
     </row>
     <row r="4" spans="1:6" ht="31" customHeight="1">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="144" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="139"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31" customHeight="1">
-      <c r="A5" s="151"/>
-      <c r="C5" s="140" t="s">
+      <c r="A5" s="145"/>
+      <c r="C5" s="161" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="136" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31" customHeight="1">
-      <c r="A6" s="151"/>
-      <c r="C6" s="141"/>
+      <c r="A6" s="145"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="142"/>
+      <c r="F6" s="136"/>
     </row>
     <row r="7" spans="1:6" ht="31" customHeight="1">
-      <c r="A7" s="151"/>
-      <c r="C7" s="144" t="s">
+      <c r="A7" s="145"/>
+      <c r="C7" s="138" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="142"/>
+      <c r="F7" s="136"/>
     </row>
     <row r="8" spans="1:6" ht="31" customHeight="1">
-      <c r="A8" s="151"/>
-      <c r="C8" s="145"/>
+      <c r="A8" s="145"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="142"/>
+      <c r="F8" s="136"/>
     </row>
     <row r="9" spans="1:6" ht="23">
-      <c r="A9" s="151"/>
-      <c r="C9" s="157" t="s">
+      <c r="A9" s="145"/>
+      <c r="C9" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="F9" s="142"/>
+      <c r="D9" s="152"/>
+      <c r="F9" s="136"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="151"/>
-      <c r="C10" s="153" t="s">
+      <c r="A10" s="145"/>
+      <c r="C10" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="154"/>
-      <c r="F10" s="142"/>
+      <c r="D10" s="148"/>
+      <c r="F10" s="136"/>
     </row>
     <row r="11" spans="1:6" ht="32" customHeight="1">
-      <c r="A11" s="151"/>
+      <c r="A11" s="145"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -8941,22 +8932,22 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="142"/>
+      <c r="F11" s="136"/>
     </row>
     <row r="12" spans="1:6" ht="54" customHeight="1">
-      <c r="A12" s="152"/>
-      <c r="C12" s="155" t="s">
+      <c r="A12" s="146"/>
+      <c r="C12" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="F12" s="142"/>
+      <c r="D12" s="150"/>
+      <c r="F12" s="136"/>
     </row>
     <row r="13" spans="1:6" ht="37" customHeight="1">
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="160"/>
-      <c r="F13" s="142" t="s">
+      <c r="D13" s="154"/>
+      <c r="F13" s="136" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8967,44 +8958,49 @@
       <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="142"/>
+      <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:6" ht="48" customHeight="1">
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="147"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="142"/>
+      <c r="F15" s="136"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="F16" s="142"/>
+      <c r="F16" s="136"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="142"/>
+      <c r="F17" s="136"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="142"/>
+      <c r="F18" s="136"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="142"/>
+      <c r="F19" s="136"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="143" t="s">
+      <c r="F20" s="137" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="143"/>
+      <c r="F21" s="137"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="143"/>
+      <c r="F22" s="137"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="143"/>
+      <c r="F23" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F12"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="C7:C8"/>
@@ -9016,11 +9012,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9032,8 +9023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -11144,7 +11135,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="73" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B242" s="84">
         <v>9.66</v>
@@ -11155,7 +11146,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="73" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B243" s="84">
         <v>9.66</v>
@@ -11166,7 +11157,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B244" s="84">
         <v>9.66</v>
@@ -11177,7 +11168,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="73" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B245" s="84">
         <v>9.6</v>
@@ -11187,20 +11178,36 @@
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="73"/>
-      <c r="B246" s="84"/>
+      <c r="A246" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="B246" s="84">
+        <v>9.61</v>
+      </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="73"/>
-      <c r="B247" s="84"/>
+      <c r="A247" s="63" t="s">
+        <v>436</v>
+      </c>
+      <c r="B247" s="85">
+        <v>108.8</v>
+      </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="73"/>
-      <c r="B248" s="84"/>
+      <c r="A248" s="73" t="s">
+        <v>438</v>
+      </c>
+      <c r="B248" s="84">
+        <v>9.61</v>
+      </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="73"/>
-      <c r="B249" s="84"/>
+      <c r="A249" s="73" t="s">
+        <v>439</v>
+      </c>
+      <c r="B249" s="84">
+        <v>9.61</v>
+      </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="76"/>
@@ -11216,7 +11223,7 @@
     <row r="252" spans="1:4">
       <c r="B252" s="86">
         <f>SUM(B234:B251)</f>
-        <v>115.85999999999997</v>
+        <v>253.49</v>
       </c>
       <c r="C252" s="72">
         <f>SUM(C232:C251)</f>
@@ -11299,21 +11306,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A106:B106"/>
     <mergeCell ref="A233:B233"/>
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="A1:B1"/>
@@ -11330,6 +11322,21 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A106:B106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3590659-A10F-C345-A951-A0B0BBA99CF9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A60BE74E-9D07-244C-9269-A5B7EEA6AB8B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18540" yWindow="5940" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="443">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -3573,13 +3573,6 @@
     <t>GROS        小时鸣人              预定</t>
     <rPh sb="0" eb="4">
       <t>bo's</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪光魅力    兰琪                  预定</t>
-    <rPh sb="0" eb="1">
-      <t>shan'guangyu'din</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4256,6 +4249,37 @@
   </si>
   <si>
     <t xml:space="preserve">Grandista  山治                   预定           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">闪光魅力    兰琪                  </t>
+    <rPh sb="0" eb="1">
+      <t>shan'guangyu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">祖国版SMSP 超四悟空     </t>
+    <rPh sb="0" eb="1">
+      <t>zu'guo'ban</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>bao'zha</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>wu'kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国产路人女主   英莉莉</t>
+    <rPh sb="0" eb="2">
+      <t>guo'cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Grandista  英雄学院     绿谷      预定 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5095,7 +5119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5350,7 +5374,55 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5371,86 +5443,53 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5514,24 +5553,6 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6204,18 +6225,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="1:17" ht="63" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6335,7 +6356,7 @@
         <v>21</v>
       </c>
       <c r="L12" s="91" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6370,32 +6391,32 @@
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="11:14" ht="19" customHeight="1">
-      <c r="K18" s="110" t="s">
+      <c r="K18" s="112" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="119" t="s">
+      <c r="M18" s="108" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="11:14" ht="19" customHeight="1">
-      <c r="K19" s="111"/>
+      <c r="K19" s="113"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="120"/>
+      <c r="M19" s="109"/>
     </row>
     <row r="20" spans="11:14" ht="19" customHeight="1">
-      <c r="K20" s="112"/>
+      <c r="K20" s="114"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="121"/>
+      <c r="M20" s="110"/>
     </row>
     <row r="21" spans="11:14">
-      <c r="K21" s="113" t="s">
+      <c r="K21" s="115" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
@@ -6403,7 +6424,7 @@
       </c>
     </row>
     <row r="22" spans="11:14">
-      <c r="K22" s="114"/>
+      <c r="K22" s="116"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
@@ -6427,7 +6448,7 @@
     </row>
     <row r="25" spans="11:14" ht="21" customHeight="1">
       <c r="K25" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L25" s="42" t="s">
         <v>165</v>
@@ -6435,171 +6456,191 @@
     </row>
     <row r="26" spans="11:14" ht="21" customHeight="1">
       <c r="K26" s="117" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L26" s="118"/>
       <c r="M26" s="89" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="11:14" ht="21" customHeight="1">
-      <c r="K27" s="115" t="s">
+      <c r="K27" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="116"/>
+      <c r="L27" s="105"/>
       <c r="M27" s="89" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="11:14" ht="21" customHeight="1">
-      <c r="K28" s="115" t="s">
+      <c r="K28" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="116"/>
+      <c r="L28" s="105"/>
       <c r="M28" s="89"/>
     </row>
     <row r="29" spans="11:14" ht="21" customHeight="1">
-      <c r="K29" s="115" t="s">
+      <c r="K29" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="116"/>
+      <c r="L29" s="105"/>
     </row>
     <row r="30" spans="11:14" ht="21" customHeight="1">
-      <c r="K30" s="115" t="s">
+      <c r="K30" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="116"/>
+      <c r="L30" s="105"/>
     </row>
     <row r="31" spans="11:14" ht="21" customHeight="1">
-      <c r="K31" s="115" t="s">
+      <c r="K31" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="116"/>
+      <c r="L31" s="105"/>
     </row>
     <row r="32" spans="11:14" ht="21" customHeight="1">
-      <c r="K32" s="115" t="s">
+      <c r="K32" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="116"/>
+      <c r="L32" s="105"/>
     </row>
     <row r="33" spans="11:12" ht="21" customHeight="1">
-      <c r="K33" s="115" t="s">
+      <c r="K33" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="116"/>
+      <c r="L33" s="105"/>
     </row>
     <row r="34" spans="11:12">
-      <c r="K34" s="115" t="s">
+      <c r="K34" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="116"/>
+      <c r="L34" s="105"/>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="115" t="s">
+      <c r="K35" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="116"/>
+      <c r="L35" s="105"/>
     </row>
     <row r="36" spans="11:12">
-      <c r="K36" s="115" t="s">
+      <c r="K36" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="116"/>
+      <c r="L36" s="105"/>
     </row>
     <row r="37" spans="11:12">
-      <c r="K37" s="115" t="s">
+      <c r="K37" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="L37" s="116"/>
+      <c r="L37" s="105"/>
     </row>
     <row r="38" spans="11:12">
-      <c r="K38" s="115" t="s">
+      <c r="K38" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="116"/>
+      <c r="L38" s="105"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="115" t="s">
+      <c r="K39" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="116"/>
+      <c r="L39" s="105"/>
     </row>
     <row r="40" spans="11:12">
-      <c r="K40" s="115" t="s">
+      <c r="K40" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="116"/>
+      <c r="L40" s="105"/>
     </row>
     <row r="41" spans="11:12">
-      <c r="K41" s="115" t="s">
+      <c r="K41" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="116"/>
+      <c r="L41" s="105"/>
     </row>
     <row r="42" spans="11:12">
-      <c r="K42" s="115" t="s">
+      <c r="K42" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="116"/>
+      <c r="L42" s="105"/>
     </row>
     <row r="43" spans="11:12">
-      <c r="K43" s="115" t="s">
+      <c r="K43" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="116"/>
+      <c r="L43" s="105"/>
     </row>
     <row r="44" spans="11:12">
-      <c r="K44" s="115" t="s">
+      <c r="K44" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="116"/>
+      <c r="L44" s="105"/>
     </row>
     <row r="45" spans="11:12">
-      <c r="K45" s="115" t="s">
+      <c r="K45" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="116"/>
+      <c r="L45" s="105"/>
     </row>
     <row r="46" spans="11:12">
-      <c r="K46" s="124"/>
-      <c r="L46" s="125"/>
+      <c r="K46" s="106"/>
+      <c r="L46" s="107"/>
     </row>
     <row r="47" spans="11:12">
-      <c r="K47" s="122"/>
-      <c r="L47" s="123"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="103"/>
     </row>
     <row r="48" spans="11:12" ht="23">
-      <c r="K48" s="103" t="s">
+      <c r="K48" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="104"/>
+      <c r="L48" s="120"/>
     </row>
     <row r="49" spans="11:12">
-      <c r="K49" s="105" t="s">
+      <c r="K49" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="106"/>
+      <c r="L49" s="122"/>
     </row>
     <row r="50" spans="11:12">
-      <c r="K50" s="105" t="s">
+      <c r="K50" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="106"/>
+      <c r="L50" s="122"/>
     </row>
     <row r="51" spans="11:12">
-      <c r="K51" s="105" t="s">
+      <c r="K51" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="106"/>
+      <c r="L51" s="122"/>
     </row>
     <row r="52" spans="11:12" ht="22">
-      <c r="K52" s="107" t="s">
+      <c r="K52" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="108"/>
+      <c r="L52" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
@@ -6611,26 +6652,6 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6663,59 +6684,59 @@
   <sheetData>
     <row r="1" spans="1:28" s="78" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="94" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="C1" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="D1" s="79" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="E1" s="92" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" s="93" t="s">
         <v>365</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>367</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>366</v>
       </c>
       <c r="G1" s="77"/>
       <c r="H1" s="77"/>
       <c r="I1" s="77"/>
       <c r="J1" s="77" t="s">
+        <v>371</v>
+      </c>
+      <c r="K1" s="77" t="s">
         <v>372</v>
       </c>
-      <c r="K1" s="77" t="s">
-        <v>373</v>
-      </c>
-      <c r="L1" s="126" t="s">
-        <v>397</v>
+      <c r="L1" s="125" t="s">
+        <v>396</v>
       </c>
       <c r="M1" s="100" t="s">
+        <v>394</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="S1" s="77"/>
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:28" ht="28" customHeight="1">
       <c r="A2" s="92" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J2" s="77">
         <v>5</v>
@@ -6723,9 +6744,9 @@
       <c r="K2" s="77">
         <v>2</v>
       </c>
-      <c r="L2" s="126"/>
+      <c r="L2" s="125"/>
       <c r="M2" s="98" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N2" s="89">
         <v>500</v>
@@ -6752,10 +6773,10 @@
         <v>90</v>
       </c>
       <c r="B3" s="96" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="97" t="s">
         <v>370</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>371</v>
       </c>
       <c r="D3" s="79">
         <v>200</v>
@@ -6764,7 +6785,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H3" s="77">
         <v>1750</v>
@@ -6772,9 +6793,9 @@
       <c r="I3" s="77">
         <v>437.5</v>
       </c>
-      <c r="L3" s="126"/>
+      <c r="L3" s="125"/>
       <c r="M3" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N3" s="89"/>
       <c r="O3" s="89"/>
@@ -6795,9 +6816,9 @@
       <c r="F4" s="95">
         <v>450</v>
       </c>
-      <c r="L4" s="126"/>
+      <c r="L4" s="125"/>
       <c r="M4" s="98" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N4" s="89">
         <v>50</v>
@@ -6820,9 +6841,9 @@
       </c>
     </row>
     <row r="5" spans="1:28" ht="40" customHeight="1">
-      <c r="L5" s="126"/>
+      <c r="L5" s="125"/>
       <c r="M5" s="98" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N5" s="89">
         <v>30</v>
@@ -6845,9 +6866,9 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="40" customHeight="1">
-      <c r="L6" s="126"/>
+      <c r="L6" s="125"/>
       <c r="M6" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N6" s="89">
         <v>250</v>
@@ -6870,17 +6891,17 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="40" customHeight="1">
-      <c r="L7" s="126"/>
+      <c r="L7" s="125"/>
       <c r="M7" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N7"/>
       <c r="R7" s="89"/>
     </row>
     <row r="8" spans="1:28" ht="40" customHeight="1">
-      <c r="L8" s="126"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="99" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N8" s="89">
         <v>500</v>
@@ -6903,9 +6924,9 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="40" customHeight="1">
-      <c r="L9" s="126"/>
+      <c r="L9" s="125"/>
       <c r="M9" s="99" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N9" s="89">
         <v>200</v>
@@ -6928,9 +6949,9 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="40" customHeight="1">
-      <c r="L10" s="126"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="99" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N10" s="89">
         <v>50</v>
@@ -6954,7 +6975,7 @@
     </row>
     <row r="11" spans="1:28" ht="40" customHeight="1">
       <c r="L11" s="101" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O11" s="77">
         <f>SUM(O2:O10)</f>
@@ -7008,17 +7029,17 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="132" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:7" s="126" customFormat="1" ht="47" customHeight="1">
+      <c r="A1" s="126" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="133"/>
       <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
@@ -7027,7 +7048,7 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="36" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="128" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="127" t="s">
@@ -7038,21 +7059,21 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="36" customHeight="1">
-      <c r="A4" s="130"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="127"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1">
-      <c r="A5" s="130"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="127"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1">
-      <c r="A6" s="130"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="127"/>
       <c r="C6" s="74" t="s">
         <v>78</v>
@@ -7060,7 +7081,7 @@
       <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1">
-      <c r="A7" s="130"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="127"/>
       <c r="C7" s="74" t="s">
         <v>79</v>
@@ -7068,7 +7089,7 @@
       <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1">
-      <c r="A8" s="130"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="127" t="s">
         <v>26</v>
       </c>
@@ -7077,35 +7098,35 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1">
-      <c r="A9" s="130"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="127"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1">
-      <c r="A10" s="130"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="127"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1">
-      <c r="A11" s="130"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="127"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1">
-      <c r="A12" s="130"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="127"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
-      <c r="A13" s="130"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="127" t="s">
         <v>27</v>
       </c>
@@ -7114,49 +7135,49 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" customHeight="1">
-      <c r="A14" s="130"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="127"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1">
-      <c r="A15" s="130"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="127"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
-      <c r="A16" s="130"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="127"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1">
-      <c r="A17" s="130"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="127"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1">
-      <c r="A18" s="130"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="127"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1">
-      <c r="A19" s="131"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="127"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" customHeight="1">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="128" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="127" t="s">
@@ -7167,63 +7188,63 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1">
-      <c r="A21" s="130"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="127"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
-      <c r="A22" s="130"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="127"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1">
-      <c r="A23" s="130"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="127"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
-      <c r="A24" s="130"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="127"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1">
-      <c r="A25" s="130"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="127"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1">
-      <c r="A26" s="130"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="127"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1">
-      <c r="A27" s="130"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="127"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1">
-      <c r="A28" s="130"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="127"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1">
-      <c r="A29" s="130"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="127" t="s">
         <v>33</v>
       </c>
@@ -7232,21 +7253,21 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1">
-      <c r="A30" s="130"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="127"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1">
-      <c r="A31" s="131"/>
+      <c r="A31" s="130"/>
       <c r="B31" s="127"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" customHeight="1">
-      <c r="A32" s="129" t="s">
+      <c r="A32" s="128" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="127" t="s">
@@ -7257,35 +7278,35 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1">
-      <c r="A33" s="130"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="127"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1">
-      <c r="A34" s="130"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="127"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1">
-      <c r="A35" s="130"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="127"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
-      <c r="A36" s="130"/>
+      <c r="A36" s="129"/>
       <c r="B36" s="127"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1">
-      <c r="A37" s="130"/>
+      <c r="A37" s="129"/>
       <c r="B37" s="127" t="s">
         <v>36</v>
       </c>
@@ -7294,14 +7315,14 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1">
-      <c r="A38" s="130"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="127"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1">
-      <c r="A39" s="130"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="127" t="s">
         <v>37</v>
       </c>
@@ -7310,21 +7331,21 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1">
-      <c r="A40" s="130"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="127"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1">
-      <c r="A41" s="131"/>
+      <c r="A41" s="130"/>
       <c r="B41" s="127"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="36" customHeight="1">
-      <c r="A42" s="129" t="s">
+      <c r="A42" s="128" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="127" t="s">
@@ -7335,35 +7356,35 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1">
-      <c r="A43" s="130"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="127"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1">
-      <c r="A44" s="130"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="127"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1">
-      <c r="A45" s="130"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="127"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1">
-      <c r="A46" s="130"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="127"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1">
-      <c r="A47" s="130"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="127" t="s">
         <v>46</v>
       </c>
@@ -7372,14 +7393,14 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1">
-      <c r="A48" s="130"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="127"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1">
-      <c r="A49" s="130"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="127" t="s">
         <v>48</v>
       </c>
@@ -7388,63 +7409,63 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1">
-      <c r="A50" s="130"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="127"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1">
-      <c r="A51" s="130"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="127"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
-      <c r="A52" s="130"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="127"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1">
-      <c r="A53" s="130"/>
+      <c r="A53" s="129"/>
       <c r="B53" s="127"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1">
-      <c r="A54" s="130"/>
+      <c r="A54" s="129"/>
       <c r="B54" s="127"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1">
-      <c r="A55" s="130"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="127"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1">
-      <c r="A56" s="130"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="127"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1">
-      <c r="A57" s="131"/>
+      <c r="A57" s="130"/>
       <c r="B57" s="127"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="36" customHeight="1">
-      <c r="A58" s="129" t="s">
+      <c r="A58" s="128" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="127" t="s">
@@ -7455,28 +7476,28 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1">
-      <c r="A59" s="130"/>
+      <c r="A59" s="129"/>
       <c r="B59" s="127"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1">
-      <c r="A60" s="130"/>
+      <c r="A60" s="129"/>
       <c r="B60" s="127"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1">
-      <c r="A61" s="130"/>
+      <c r="A61" s="129"/>
       <c r="B61" s="127"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="36" customHeight="1">
-      <c r="A62" s="131"/>
+      <c r="A62" s="130"/>
       <c r="B62" s="21" t="s">
         <v>60</v>
       </c>
@@ -7485,7 +7506,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="36" customHeight="1">
-      <c r="A63" s="129" t="s">
+      <c r="A63" s="128" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="21" t="s">
@@ -7496,7 +7517,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1">
-      <c r="A64" s="130"/>
+      <c r="A64" s="129"/>
       <c r="B64" s="127" t="s">
         <v>63</v>
       </c>
@@ -7505,28 +7526,28 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="36" customHeight="1">
-      <c r="A65" s="130"/>
+      <c r="A65" s="129"/>
       <c r="B65" s="127"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="36" customHeight="1">
-      <c r="A66" s="130"/>
+      <c r="A66" s="129"/>
       <c r="B66" s="127"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="36" customHeight="1">
-      <c r="A67" s="130"/>
+      <c r="A67" s="129"/>
       <c r="B67" s="127"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="36" customHeight="1">
-      <c r="A68" s="131"/>
+      <c r="A68" s="130"/>
       <c r="B68" s="21" t="s">
         <v>64</v>
       </c>
@@ -7535,7 +7556,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="36" customHeight="1">
-      <c r="A69" s="128" t="s">
+      <c r="A69" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7546,7 +7567,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="36" customHeight="1">
-      <c r="A70" s="128"/>
+      <c r="A70" s="134"/>
       <c r="B70" s="127" t="s">
         <v>69</v>
       </c>
@@ -7555,49 +7576,49 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="36" customHeight="1">
-      <c r="A71" s="128"/>
+      <c r="A71" s="134"/>
       <c r="B71" s="127"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="36" customHeight="1">
-      <c r="A72" s="128"/>
+      <c r="A72" s="134"/>
       <c r="B72" s="127"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36" customHeight="1">
-      <c r="A73" s="128"/>
+      <c r="A73" s="134"/>
       <c r="B73" s="127"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="36" customHeight="1">
-      <c r="A74" s="128"/>
+      <c r="A74" s="134"/>
       <c r="B74" s="127"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="36" customHeight="1">
-      <c r="A75" s="128"/>
+      <c r="A75" s="134"/>
       <c r="B75" s="127"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="36" customHeight="1">
-      <c r="A76" s="128"/>
+      <c r="A76" s="134"/>
       <c r="B76" s="127"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="36" customHeight="1">
-      <c r="A77" s="128"/>
+      <c r="A77" s="134"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7606,7 +7627,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="36" customHeight="1">
-      <c r="A78" s="128"/>
+      <c r="A78" s="134"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -8702,6 +8723,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B48"/>
@@ -8718,13 +8746,6 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A63:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8833,98 +8854,98 @@
       <c r="A1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="157"/>
+      <c r="D1" s="135"/>
     </row>
     <row r="2" spans="1:6" ht="65" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="158"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="3" spans="1:6" ht="31" customHeight="1">
-      <c r="A3" s="143"/>
-      <c r="C3" s="159" t="s">
+      <c r="A3" s="148"/>
+      <c r="C3" s="137" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="160" t="s">
         <v>332</v>
       </c>
-      <c r="F3" s="156"/>
+      <c r="F3" s="161"/>
     </row>
     <row r="4" spans="1:6" ht="31" customHeight="1">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="149" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31" customHeight="1">
-      <c r="A5" s="145"/>
-      <c r="C5" s="161" t="s">
+      <c r="A5" s="150"/>
+      <c r="C5" s="139" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="136" t="s">
-        <v>355</v>
+      <c r="F5" s="141" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31" customHeight="1">
-      <c r="A6" s="145"/>
-      <c r="C6" s="162"/>
+      <c r="A6" s="150"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="136"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" ht="31" customHeight="1">
-      <c r="A7" s="145"/>
-      <c r="C7" s="138" t="s">
+      <c r="A7" s="150"/>
+      <c r="C7" s="143" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="136"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="1:6" ht="31" customHeight="1">
-      <c r="A8" s="145"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="150"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="136"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="1:6" ht="23">
-      <c r="A9" s="145"/>
-      <c r="C9" s="151" t="s">
+      <c r="A9" s="150"/>
+      <c r="C9" s="156" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="F9" s="136"/>
+      <c r="D9" s="157"/>
+      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="145"/>
-      <c r="C10" s="147" t="s">
+      <c r="A10" s="150"/>
+      <c r="C10" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="F10" s="136"/>
+      <c r="D10" s="153"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:6" ht="32" customHeight="1">
-      <c r="A11" s="145"/>
+      <c r="A11" s="150"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -8932,23 +8953,23 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="136"/>
+      <c r="F11" s="141"/>
     </row>
     <row r="12" spans="1:6" ht="54" customHeight="1">
-      <c r="A12" s="146"/>
-      <c r="C12" s="149" t="s">
+      <c r="A12" s="151"/>
+      <c r="C12" s="154" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="F12" s="136"/>
+      <c r="D12" s="155"/>
+      <c r="F12" s="141"/>
     </row>
     <row r="13" spans="1:6" ht="37" customHeight="1">
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="158" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="154"/>
-      <c r="F13" s="136" t="s">
-        <v>356</v>
+      <c r="D13" s="159"/>
+      <c r="F13" s="141" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1">
@@ -8958,49 +8979,44 @@
       <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="136"/>
+      <c r="F14" s="141"/>
     </row>
     <row r="15" spans="1:6" ht="48" customHeight="1">
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="145" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="141"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="136"/>
+      <c r="F15" s="141"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="F16" s="136"/>
+      <c r="F16" s="141"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="136"/>
+      <c r="F17" s="141"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="136"/>
+      <c r="F18" s="141"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="136"/>
+      <c r="F19" s="141"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="137" t="s">
-        <v>357</v>
+      <c r="F20" s="142" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="137"/>
+      <c r="F21" s="142"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="137"/>
+      <c r="F22" s="142"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="137"/>
+      <c r="F23" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F12"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="C7:C8"/>
@@ -9012,6 +9028,11 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9021,10 +9042,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y684"/>
+  <dimension ref="A1:Y683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -9040,10 +9061,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28">
-      <c r="A1" s="164">
+      <c r="A1" s="163">
         <v>2014.4</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="163"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1">
       <c r="A2" s="63" t="s">
@@ -9071,10 +9092,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28">
-      <c r="A5" s="164">
+      <c r="A5" s="163">
         <v>2014.5</v>
       </c>
-      <c r="B5" s="164"/>
+      <c r="B5" s="163"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="63" t="s">
@@ -9130,10 +9151,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="163" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="164"/>
+      <c r="B12" s="163"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="64" t="s">
@@ -9166,10 +9187,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="163" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="164"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="70">
         <v>324</v>
       </c>
@@ -9187,10 +9208,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1">
-      <c r="A18" s="164" t="s">
+      <c r="A18" s="163" t="s">
         <v>239</v>
       </c>
-      <c r="B18" s="164"/>
+      <c r="B18" s="163"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="63" t="s">
@@ -9230,10 +9251,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1">
-      <c r="A23" s="164" t="s">
+      <c r="A23" s="163" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="164"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="70">
         <v>49.67</v>
       </c>
@@ -9251,10 +9272,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1">
-      <c r="A25" s="164" t="s">
+      <c r="A25" s="163" t="s">
         <v>240</v>
       </c>
-      <c r="B25" s="164"/>
+      <c r="B25" s="163"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="64" t="s">
@@ -9326,10 +9347,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="21" customHeight="1">
-      <c r="A34" s="164" t="s">
+      <c r="A34" s="163" t="s">
         <v>241</v>
       </c>
-      <c r="B34" s="164"/>
+      <c r="B34" s="163"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="63" t="s">
@@ -9418,10 +9439,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="21" customHeight="1">
-      <c r="A45" s="164" t="s">
+      <c r="A45" s="163" t="s">
         <v>242</v>
       </c>
-      <c r="B45" s="164"/>
+      <c r="B45" s="163"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="65" t="s">
@@ -9454,10 +9475,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="21" customHeight="1">
-      <c r="A49" s="164" t="s">
+      <c r="A49" s="163" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="164"/>
+      <c r="B49" s="163"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="65" t="s">
@@ -9506,10 +9527,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="21" customHeight="1">
-      <c r="A55" s="164" t="s">
+      <c r="A55" s="163" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="164"/>
+      <c r="B55" s="163"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="64" t="s">
@@ -9566,10 +9587,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="21" customHeight="1">
-      <c r="A62" s="164" t="s">
+      <c r="A62" s="163" t="s">
         <v>245</v>
       </c>
-      <c r="B62" s="164"/>
+      <c r="B62" s="163"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="65" t="s">
@@ -9610,10 +9631,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="21" customHeight="1">
-      <c r="A67" s="164" t="s">
+      <c r="A67" s="163" t="s">
         <v>219</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="163"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="65" t="s">
@@ -9646,10 +9667,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="21" customHeight="1">
-      <c r="A71" s="164" t="s">
+      <c r="A71" s="163" t="s">
         <v>247</v>
       </c>
-      <c r="B71" s="164"/>
+      <c r="B71" s="163"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="65" t="s">
@@ -9690,10 +9711,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="21" customHeight="1">
-      <c r="A76" s="164" t="s">
+      <c r="A76" s="163" t="s">
         <v>248</v>
       </c>
-      <c r="B76" s="164"/>
+      <c r="B76" s="163"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="65" t="s">
@@ -9742,10 +9763,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="21" customHeight="1">
-      <c r="A82" s="164" t="s">
+      <c r="A82" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="164"/>
+      <c r="B82" s="163"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="65" t="s">
@@ -9794,10 +9815,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="21" customHeight="1">
-      <c r="A88" s="164" t="s">
+      <c r="A88" s="163" t="s">
         <v>249</v>
       </c>
-      <c r="B88" s="164"/>
+      <c r="B88" s="163"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="65" t="s">
@@ -9838,10 +9859,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="21" customHeight="1">
-      <c r="A93" s="164" t="s">
+      <c r="A93" s="163" t="s">
         <v>225</v>
       </c>
-      <c r="B93" s="164"/>
+      <c r="B93" s="163"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="65" t="s">
@@ -9946,10 +9967,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="21" customHeight="1">
-      <c r="A106" s="164" t="s">
+      <c r="A106" s="163" t="s">
         <v>250</v>
       </c>
-      <c r="B106" s="164"/>
+      <c r="B106" s="163"/>
       <c r="C106" s="68"/>
     </row>
     <row r="107" spans="1:3">
@@ -10011,10 +10032,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="21" customHeight="1">
-      <c r="A113" s="164" t="s">
+      <c r="A113" s="163" t="s">
         <v>251</v>
       </c>
-      <c r="B113" s="164"/>
+      <c r="B113" s="163"/>
       <c r="C113" s="68"/>
     </row>
     <row r="114" spans="1:3">
@@ -10054,7 +10075,7 @@
     </row>
     <row r="118" spans="1:3" ht="26" customHeight="1">
       <c r="A118" s="66" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B118" s="85">
         <v>170.6</v>
@@ -10107,10 +10128,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="28">
-      <c r="A124" s="164" t="s">
+      <c r="A124" s="163" t="s">
         <v>288</v>
       </c>
-      <c r="B124" s="164"/>
+      <c r="B124" s="163"/>
     </row>
     <row r="125" spans="1:3" ht="26" customHeight="1">
       <c r="A125" s="66" t="s">
@@ -10146,7 +10167,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B129" s="88">
         <v>145</v>
@@ -10247,7 +10268,7 @@
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B141" s="85">
         <v>86</v>
@@ -10269,10 +10290,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="28">
-      <c r="A143" s="164" t="s">
+      <c r="A143" s="163" t="s">
         <v>302</v>
       </c>
-      <c r="B143" s="164"/>
+      <c r="B143" s="163"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:3">
@@ -10295,7 +10316,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="63" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B146" s="85">
         <v>80</v>
@@ -10303,7 +10324,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="63" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B147" s="85">
         <v>80</v>
@@ -10435,10 +10456,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="28">
-      <c r="A162" s="163">
+      <c r="A162" s="162">
         <v>2018.01</v>
       </c>
-      <c r="B162" s="164"/>
+      <c r="B162" s="163"/>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="65" t="s">
@@ -10514,7 +10535,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="63" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B172" s="85">
         <v>84</v>
@@ -10526,7 +10547,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B173" s="85">
         <v>84</v>
@@ -10546,14 +10567,14 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="28">
-      <c r="A175" s="163">
+      <c r="A175" s="162">
         <v>2018.02</v>
       </c>
-      <c r="B175" s="164"/>
+      <c r="B175" s="163"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B176" s="85">
         <v>84</v>
@@ -10561,7 +10582,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B177" s="85">
         <v>86</v>
@@ -10589,14 +10610,14 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="28">
-      <c r="A180" s="163">
+      <c r="A180" s="162">
         <v>2018.03</v>
       </c>
-      <c r="B180" s="164"/>
+      <c r="B180" s="163"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B181" s="85">
         <v>84.74</v>
@@ -10612,7 +10633,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B183" s="85">
         <v>86</v>
@@ -10647,7 +10668,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B187" s="85">
         <v>83</v>
@@ -10655,7 +10676,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B188" s="85">
         <v>83.1</v>
@@ -10663,7 +10684,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B189" s="85">
         <v>84.4</v>
@@ -10671,7 +10692,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="65" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B190" s="85">
         <v>84</v>
@@ -10716,14 +10737,14 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="28">
-      <c r="A195" s="163">
+      <c r="A195" s="162">
         <v>2018.04</v>
       </c>
-      <c r="B195" s="164"/>
+      <c r="B195" s="163"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="65" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B196" s="85">
         <v>288</v>
@@ -10762,10 +10783,10 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="28">
-      <c r="A201" s="163">
+      <c r="A201" s="162">
         <v>2018.05</v>
       </c>
-      <c r="B201" s="164"/>
+      <c r="B201" s="163"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="63" t="s">
@@ -10795,19 +10816,16 @@
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="73" t="s">
-        <v>346</v>
-      </c>
-      <c r="B205" s="84">
-        <v>9.9</v>
-      </c>
-      <c r="D205" s="82" t="s">
-        <v>344</v>
+      <c r="A205" s="63" t="s">
+        <v>439</v>
+      </c>
+      <c r="B205" s="85">
+        <v>84</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B206" s="84">
         <v>9.9</v>
@@ -10818,7 +10836,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B207" s="84">
         <v>9.9</v>
@@ -10829,7 +10847,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B208" s="84">
         <v>9.9</v>
@@ -10840,36 +10858,36 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B209" s="84">
         <v>10</v>
       </c>
       <c r="D209" s="82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="C210" s="70">
         <f>SUM(B211,0)</f>
-        <v>251.70000000000002</v>
+        <v>325.79999999999995</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="B211" s="86">
         <f>SUM(B202:B210)</f>
-        <v>251.70000000000002</v>
+        <v>325.79999999999995</v>
       </c>
       <c r="C211" s="72">
         <f>SUM(C200:C210)</f>
-        <v>17559.84</v>
+        <v>17633.939999999999</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="28">
-      <c r="A212" s="163" t="s">
-        <v>352</v>
-      </c>
-      <c r="B212" s="164"/>
+      <c r="A212" s="162" t="s">
+        <v>351</v>
+      </c>
+      <c r="B212" s="163"/>
     </row>
     <row r="213" spans="1:4">
       <c r="C213" s="70">
@@ -10883,18 +10901,18 @@
       </c>
       <c r="C214" s="72">
         <f>SUM(C211:C213)</f>
-        <v>17559.84</v>
+        <v>17633.939999999999</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="28">
-      <c r="A215" s="163">
+      <c r="A215" s="162">
         <v>2018.08</v>
       </c>
-      <c r="B215" s="164"/>
+      <c r="B215" s="163"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B216" s="85">
         <v>68</v>
@@ -10902,7 +10920,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B217" s="85">
         <v>155.80000000000001</v>
@@ -10910,7 +10928,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="63" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B218" s="85">
         <v>147.69999999999999</v>
@@ -10918,51 +10936,51 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="73" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B219" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D219" s="82" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B220" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D220" s="82" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="73" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B221" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D221" s="82" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="73" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B222" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D222" s="82" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="63" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B223" s="85">
         <v>70.78</v>
@@ -10970,7 +10988,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="63" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B224" s="85">
         <v>339</v>
@@ -10988,18 +11006,18 @@
       </c>
       <c r="C226" s="72">
         <f>SUM(C214:C225)</f>
-        <v>18379.96</v>
+        <v>18454.059999999998</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="28">
-      <c r="A227" s="163" t="s">
-        <v>413</v>
-      </c>
-      <c r="B227" s="164"/>
+      <c r="A227" s="162" t="s">
+        <v>412</v>
+      </c>
+      <c r="B227" s="163"/>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="63" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B228" s="85">
         <v>177</v>
@@ -11007,7 +11025,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="63" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B229" s="85">
         <v>201</v>
@@ -11015,13 +11033,13 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B230" s="84">
         <v>10</v>
       </c>
       <c r="D230" s="82" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -11036,150 +11054,150 @@
       </c>
       <c r="C232" s="72">
         <f>SUM(C225:C231)</f>
-        <v>19588.079999999998</v>
+        <v>19662.179999999997</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="28">
-      <c r="A233" s="163" t="s">
-        <v>421</v>
-      </c>
-      <c r="B233" s="164"/>
+      <c r="A233" s="162" t="s">
+        <v>420</v>
+      </c>
+      <c r="B233" s="163"/>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="73" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B234" s="84">
         <v>9.66</v>
       </c>
       <c r="D234" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="73" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B235" s="84">
         <v>9.66</v>
       </c>
       <c r="D235" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B236" s="84">
         <v>9.66</v>
       </c>
       <c r="D236" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B237" s="84">
         <v>9.66</v>
       </c>
       <c r="D237" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="73" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B238" s="84">
         <v>9.66</v>
       </c>
       <c r="D238" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="73" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B239" s="84">
         <v>9.66</v>
       </c>
       <c r="D239" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="73" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B240" s="84">
         <v>9.66</v>
       </c>
       <c r="D240" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B241" s="84">
         <v>9.66</v>
       </c>
       <c r="D241" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="73" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B242" s="84">
         <v>9.66</v>
       </c>
       <c r="D242" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B243" s="84">
         <v>9.66</v>
       </c>
       <c r="D243" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="73" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B244" s="84">
         <v>9.66</v>
       </c>
       <c r="D244" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B245" s="84">
         <v>9.6</v>
       </c>
       <c r="D245" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="73" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B246" s="84">
         <v>9.61</v>
@@ -11187,7 +11205,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="63" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B247" s="85">
         <v>108.8</v>
@@ -11195,7 +11213,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B248" s="84">
         <v>9.61</v>
@@ -11203,7 +11221,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="73" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B249" s="84">
         <v>9.61</v>
@@ -11211,116 +11229,145 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="76"/>
-      <c r="B250" s="102"/>
+      <c r="B250" s="70"/>
+      <c r="C250" s="70">
+        <v>253.49</v>
+      </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="76"/>
-      <c r="B251" s="102"/>
-      <c r="C251" s="70">
-        <v>115.86</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="B252" s="86">
-        <f>SUM(B234:B251)</f>
+      <c r="B251" s="86">
+        <f>SUM(B234:B250)</f>
         <v>253.49</v>
       </c>
-      <c r="C252" s="72">
-        <f>SUM(C232:C251)</f>
-        <v>19703.939999999999</v>
-      </c>
-    </row>
-    <row r="269" spans="9:10">
+      <c r="C251" s="72">
+        <f>SUM(C232:C250)</f>
+        <v>19915.669999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="28">
+      <c r="A252" s="162">
+        <v>2018.11</v>
+      </c>
+      <c r="B252" s="163"/>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="73" t="s">
+        <v>442</v>
+      </c>
+      <c r="B253" s="84">
+        <v>9.61</v>
+      </c>
+      <c r="D253" s="82" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="63" t="s">
+        <v>440</v>
+      </c>
+      <c r="B254" s="85">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="B255" s="85">
+        <v>129.69999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10">
+      <c r="C257" s="70">
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10">
+      <c r="B258" s="85">
+        <f>SUM(B253:B257)</f>
+        <v>220.31</v>
+      </c>
+      <c r="C258" s="72">
+        <f>SUM(C251:C257)</f>
+        <v>19925.28</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10">
+      <c r="I268" s="78"/>
+      <c r="J268"/>
+    </row>
+    <row r="269" spans="2:10">
       <c r="I269" s="78"/>
       <c r="J269"/>
     </row>
-    <row r="270" spans="9:10">
-      <c r="I270" s="78"/>
-      <c r="J270"/>
-    </row>
-    <row r="339" spans="10:10">
-      <c r="J339" s="80"/>
-    </row>
-    <row r="381" spans="9:9">
-      <c r="I381" s="79"/>
-    </row>
-    <row r="669" spans="15:15">
-      <c r="O669" s="79"/>
+    <row r="338" spans="10:10">
+      <c r="J338" s="80"/>
+    </row>
+    <row r="380" spans="9:9">
+      <c r="I380" s="79"/>
+    </row>
+    <row r="668" spans="15:15">
+      <c r="O668" s="79"/>
+    </row>
+    <row r="673" spans="14:25">
+      <c r="Y673">
+        <v>9</v>
+      </c>
     </row>
     <row r="674" spans="14:25">
       <c r="Y674">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="675" spans="14:25">
       <c r="Y675">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="676" spans="14:25">
+      <c r="N676" s="79"/>
       <c r="Y676">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="677" spans="14:25">
-      <c r="N677" s="79"/>
       <c r="Y677">
         <v>10</v>
       </c>
     </row>
     <row r="678" spans="14:25">
       <c r="Y678">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="679" spans="14:25">
       <c r="Y679">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="680" spans="14:25">
       <c r="Y680">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="681" spans="14:25">
       <c r="Y681">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="682" spans="14:25">
       <c r="Y682">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="683" spans="14:25">
-      <c r="Y683">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="684" spans="14:25">
-      <c r="Y684" s="81">
-        <f>SUM(Y674:Y683)</f>
+      <c r="Y683" s="81">
+        <f>SUM(Y673:Y682)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
+  <mergeCells count="32">
     <mergeCell ref="A215:B215"/>
     <mergeCell ref="A212:B212"/>
     <mergeCell ref="A201:B201"/>
@@ -11337,6 +11384,22 @@
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A60BE74E-9D07-244C-9269-A5B7EEA6AB8B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50971CA4-7876-3C4C-B3FA-358258FCE15D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18540" yWindow="5940" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5140" yWindow="2120" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="模型花费" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="446">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -4261,13 +4262,7 @@
   <si>
     <t xml:space="preserve">祖国版SMSP 超四悟空     </t>
     <rPh sb="0" eb="1">
-      <t>zu'guo'ban</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>bao'zha</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>wu'kong</t>
+      <t>zu'guo'banbao'zhawu'kong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4280,6 +4275,21 @@
   </si>
   <si>
     <t xml:space="preserve">Grandista  英雄学院     绿谷      预定 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七龙珠 布玛 闪光与魅力 棒球帽      预定</t>
+    <rPh sb="0" eb="3">
+      <t>yu'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海贼王闪光魅力 女帝波雅汉库克 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲原</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5374,93 +5384,96 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5470,8 +5483,68 @@
     <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5490,69 +5563,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6225,18 +6235,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:17" ht="63" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6391,32 +6401,32 @@
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="11:14" ht="19" customHeight="1">
-      <c r="K18" s="112" t="s">
+      <c r="K18" s="109" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="108" t="s">
+      <c r="M18" s="118" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="11:14" ht="19" customHeight="1">
-      <c r="K19" s="113"/>
+      <c r="K19" s="110"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="109"/>
+      <c r="M19" s="119"/>
     </row>
     <row r="20" spans="11:14" ht="19" customHeight="1">
-      <c r="K20" s="114"/>
+      <c r="K20" s="111"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="110"/>
+      <c r="M20" s="120"/>
     </row>
     <row r="21" spans="11:14">
-      <c r="K21" s="115" t="s">
+      <c r="K21" s="112" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
@@ -6424,7 +6434,7 @@
       </c>
     </row>
     <row r="22" spans="11:14">
-      <c r="K22" s="116"/>
+      <c r="K22" s="113"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
@@ -6455,192 +6465,172 @@
       </c>
     </row>
     <row r="26" spans="11:14" ht="21" customHeight="1">
-      <c r="K26" s="117" t="s">
+      <c r="K26" s="116" t="s">
         <v>383</v>
       </c>
-      <c r="L26" s="118"/>
+      <c r="L26" s="117"/>
       <c r="M26" s="89" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="27" spans="11:14" ht="21" customHeight="1">
-      <c r="K27" s="104" t="s">
+      <c r="K27" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="105"/>
+      <c r="L27" s="115"/>
       <c r="M27" s="89" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="28" spans="11:14" ht="21" customHeight="1">
-      <c r="K28" s="104" t="s">
+      <c r="K28" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="105"/>
+      <c r="L28" s="115"/>
       <c r="M28" s="89"/>
     </row>
     <row r="29" spans="11:14" ht="21" customHeight="1">
-      <c r="K29" s="104" t="s">
+      <c r="K29" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="105"/>
+      <c r="L29" s="115"/>
     </row>
     <row r="30" spans="11:14" ht="21" customHeight="1">
-      <c r="K30" s="104" t="s">
+      <c r="K30" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="105"/>
+      <c r="L30" s="115"/>
     </row>
     <row r="31" spans="11:14" ht="21" customHeight="1">
-      <c r="K31" s="104" t="s">
+      <c r="K31" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="105"/>
+      <c r="L31" s="115"/>
     </row>
     <row r="32" spans="11:14" ht="21" customHeight="1">
-      <c r="K32" s="104" t="s">
+      <c r="K32" s="114" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="105"/>
+      <c r="L32" s="115"/>
     </row>
     <row r="33" spans="11:12" ht="21" customHeight="1">
-      <c r="K33" s="104" t="s">
+      <c r="K33" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="105"/>
+      <c r="L33" s="115"/>
     </row>
     <row r="34" spans="11:12">
-      <c r="K34" s="104" t="s">
+      <c r="K34" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="105"/>
+      <c r="L34" s="115"/>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="104" t="s">
+      <c r="K35" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="105"/>
+      <c r="L35" s="115"/>
     </row>
     <row r="36" spans="11:12">
-      <c r="K36" s="104" t="s">
+      <c r="K36" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="105"/>
+      <c r="L36" s="115"/>
     </row>
     <row r="37" spans="11:12">
-      <c r="K37" s="104" t="s">
+      <c r="K37" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="L37" s="105"/>
+      <c r="L37" s="115"/>
     </row>
     <row r="38" spans="11:12">
-      <c r="K38" s="104" t="s">
+      <c r="K38" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="105"/>
+      <c r="L38" s="115"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="104" t="s">
+      <c r="K39" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="105"/>
+      <c r="L39" s="115"/>
     </row>
     <row r="40" spans="11:12">
-      <c r="K40" s="104" t="s">
+      <c r="K40" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="105"/>
+      <c r="L40" s="115"/>
     </row>
     <row r="41" spans="11:12">
-      <c r="K41" s="104" t="s">
+      <c r="K41" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="105"/>
+      <c r="L41" s="115"/>
     </row>
     <row r="42" spans="11:12">
-      <c r="K42" s="104" t="s">
+      <c r="K42" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="105"/>
+      <c r="L42" s="115"/>
     </row>
     <row r="43" spans="11:12">
-      <c r="K43" s="104" t="s">
+      <c r="K43" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="105"/>
+      <c r="L43" s="115"/>
     </row>
     <row r="44" spans="11:12">
-      <c r="K44" s="104" t="s">
+      <c r="K44" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="105"/>
+      <c r="L44" s="115"/>
     </row>
     <row r="45" spans="11:12">
-      <c r="K45" s="104" t="s">
+      <c r="K45" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="105"/>
+      <c r="L45" s="115"/>
     </row>
     <row r="46" spans="11:12">
-      <c r="K46" s="106"/>
-      <c r="L46" s="107"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="124"/>
     </row>
     <row r="47" spans="11:12">
-      <c r="K47" s="102"/>
-      <c r="L47" s="103"/>
+      <c r="K47" s="121"/>
+      <c r="L47" s="122"/>
     </row>
     <row r="48" spans="11:12" ht="23">
-      <c r="K48" s="119" t="s">
+      <c r="K48" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="120"/>
+      <c r="L48" s="103"/>
     </row>
     <row r="49" spans="11:12">
-      <c r="K49" s="121" t="s">
+      <c r="K49" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="122"/>
+      <c r="L49" s="105"/>
     </row>
     <row r="50" spans="11:12">
-      <c r="K50" s="121" t="s">
+      <c r="K50" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="122"/>
+      <c r="L50" s="105"/>
     </row>
     <row r="51" spans="11:12">
-      <c r="K51" s="121" t="s">
+      <c r="K51" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="122"/>
+      <c r="L51" s="105"/>
     </row>
     <row r="52" spans="11:12" ht="22">
-      <c r="K52" s="123" t="s">
+      <c r="K52" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="124"/>
+      <c r="L52" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
@@ -6652,6 +6642,26 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7029,17 +7039,17 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="126" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:7" s="131" customFormat="1" ht="47" customHeight="1">
+      <c r="A1" s="131" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67" customHeight="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
@@ -7051,7 +7061,7 @@
       <c r="A3" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="126" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -7060,21 +7070,21 @@
     </row>
     <row r="4" spans="1:7" ht="36" customHeight="1">
       <c r="A4" s="129"/>
-      <c r="B4" s="127"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1">
       <c r="A5" s="129"/>
-      <c r="B5" s="127"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1">
       <c r="A6" s="129"/>
-      <c r="B6" s="127"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="74" t="s">
         <v>78</v>
       </c>
@@ -7082,7 +7092,7 @@
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1">
       <c r="A7" s="129"/>
-      <c r="B7" s="127"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="74" t="s">
         <v>79</v>
       </c>
@@ -7090,7 +7100,7 @@
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="A8" s="129"/>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="126" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -7099,35 +7109,35 @@
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1">
       <c r="A9" s="129"/>
-      <c r="B9" s="127"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1">
       <c r="A10" s="129"/>
-      <c r="B10" s="127"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1">
       <c r="A11" s="129"/>
-      <c r="B11" s="127"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1">
       <c r="A12" s="129"/>
-      <c r="B12" s="127"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
       <c r="A13" s="129"/>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="126" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -7136,42 +7146,42 @@
     </row>
     <row r="14" spans="1:7" ht="36" customHeight="1">
       <c r="A14" s="129"/>
-      <c r="B14" s="127"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1">
       <c r="A15" s="129"/>
-      <c r="B15" s="127"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
       <c r="A16" s="129"/>
-      <c r="B16" s="127"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1">
       <c r="A17" s="129"/>
-      <c r="B17" s="127"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1">
       <c r="A18" s="129"/>
-      <c r="B18" s="127"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1">
       <c r="A19" s="130"/>
-      <c r="B19" s="127"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
@@ -7180,7 +7190,7 @@
       <c r="A20" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="126" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -7189,63 +7199,63 @@
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1">
       <c r="A21" s="129"/>
-      <c r="B21" s="127"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
       <c r="A22" s="129"/>
-      <c r="B22" s="127"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1">
       <c r="A23" s="129"/>
-      <c r="B23" s="127"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
       <c r="A24" s="129"/>
-      <c r="B24" s="127"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1">
       <c r="A25" s="129"/>
-      <c r="B25" s="127"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1">
       <c r="A26" s="129"/>
-      <c r="B26" s="127"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1">
       <c r="A27" s="129"/>
-      <c r="B27" s="127"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1">
       <c r="A28" s="129"/>
-      <c r="B28" s="127"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1">
       <c r="A29" s="129"/>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="126" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -7254,14 +7264,14 @@
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1">
       <c r="A30" s="129"/>
-      <c r="B30" s="127"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1">
       <c r="A31" s="130"/>
-      <c r="B31" s="127"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
@@ -7270,7 +7280,7 @@
       <c r="A32" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="126" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
@@ -7279,35 +7289,35 @@
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1">
       <c r="A33" s="129"/>
-      <c r="B33" s="127"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1">
       <c r="A34" s="129"/>
-      <c r="B34" s="127"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1">
       <c r="A35" s="129"/>
-      <c r="B35" s="127"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
       <c r="A36" s="129"/>
-      <c r="B36" s="127"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1">
       <c r="A37" s="129"/>
-      <c r="B37" s="127" t="s">
+      <c r="B37" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -7316,14 +7326,14 @@
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1">
       <c r="A38" s="129"/>
-      <c r="B38" s="127"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1">
       <c r="A39" s="129"/>
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="126" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -7332,14 +7342,14 @@
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1">
       <c r="A40" s="129"/>
-      <c r="B40" s="127"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1">
       <c r="A41" s="130"/>
-      <c r="B41" s="127"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
@@ -7348,7 +7358,7 @@
       <c r="A42" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="126" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -7357,35 +7367,35 @@
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1">
       <c r="A43" s="129"/>
-      <c r="B43" s="127"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1">
       <c r="A44" s="129"/>
-      <c r="B44" s="127"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1">
       <c r="A45" s="129"/>
-      <c r="B45" s="127"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1">
       <c r="A46" s="129"/>
-      <c r="B46" s="127"/>
+      <c r="B46" s="126"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1">
       <c r="A47" s="129"/>
-      <c r="B47" s="127" t="s">
+      <c r="B47" s="126" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -7394,14 +7404,14 @@
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1">
       <c r="A48" s="129"/>
-      <c r="B48" s="127"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1">
       <c r="A49" s="129"/>
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="126" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -7410,56 +7420,56 @@
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1">
       <c r="A50" s="129"/>
-      <c r="B50" s="127"/>
+      <c r="B50" s="126"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1">
       <c r="A51" s="129"/>
-      <c r="B51" s="127"/>
+      <c r="B51" s="126"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
       <c r="A52" s="129"/>
-      <c r="B52" s="127"/>
+      <c r="B52" s="126"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1">
       <c r="A53" s="129"/>
-      <c r="B53" s="127"/>
+      <c r="B53" s="126"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1">
       <c r="A54" s="129"/>
-      <c r="B54" s="127"/>
+      <c r="B54" s="126"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1">
       <c r="A55" s="129"/>
-      <c r="B55" s="127"/>
+      <c r="B55" s="126"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1">
       <c r="A56" s="129"/>
-      <c r="B56" s="127"/>
+      <c r="B56" s="126"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1">
       <c r="A57" s="130"/>
-      <c r="B57" s="127"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
@@ -7468,7 +7478,7 @@
       <c r="A58" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="126" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -7477,21 +7487,21 @@
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1">
       <c r="A59" s="129"/>
-      <c r="B59" s="127"/>
+      <c r="B59" s="126"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1">
       <c r="A60" s="129"/>
-      <c r="B60" s="127"/>
+      <c r="B60" s="126"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1">
       <c r="A61" s="129"/>
-      <c r="B61" s="127"/>
+      <c r="B61" s="126"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
@@ -7518,7 +7528,7 @@
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1">
       <c r="A64" s="129"/>
-      <c r="B64" s="127" t="s">
+      <c r="B64" s="126" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="s">
@@ -7527,21 +7537,21 @@
     </row>
     <row r="65" spans="1:4" ht="36" customHeight="1">
       <c r="A65" s="129"/>
-      <c r="B65" s="127"/>
+      <c r="B65" s="126"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="36" customHeight="1">
       <c r="A66" s="129"/>
-      <c r="B66" s="127"/>
+      <c r="B66" s="126"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="36" customHeight="1">
       <c r="A67" s="129"/>
-      <c r="B67" s="127"/>
+      <c r="B67" s="126"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
@@ -7556,7 +7566,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="36" customHeight="1">
-      <c r="A69" s="134" t="s">
+      <c r="A69" s="127" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7567,8 +7577,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="36" customHeight="1">
-      <c r="A70" s="134"/>
-      <c r="B70" s="127" t="s">
+      <c r="A70" s="127"/>
+      <c r="B70" s="126" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -7576,49 +7586,49 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="36" customHeight="1">
-      <c r="A71" s="134"/>
-      <c r="B71" s="127"/>
+      <c r="A71" s="127"/>
+      <c r="B71" s="126"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="36" customHeight="1">
-      <c r="A72" s="134"/>
-      <c r="B72" s="127"/>
+      <c r="A72" s="127"/>
+      <c r="B72" s="126"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36" customHeight="1">
-      <c r="A73" s="134"/>
-      <c r="B73" s="127"/>
+      <c r="A73" s="127"/>
+      <c r="B73" s="126"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="36" customHeight="1">
-      <c r="A74" s="134"/>
-      <c r="B74" s="127"/>
+      <c r="A74" s="127"/>
+      <c r="B74" s="126"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="36" customHeight="1">
-      <c r="A75" s="134"/>
-      <c r="B75" s="127"/>
+      <c r="A75" s="127"/>
+      <c r="B75" s="126"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="36" customHeight="1">
-      <c r="A76" s="134"/>
-      <c r="B76" s="127"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="126"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="36" customHeight="1">
-      <c r="A77" s="134"/>
+      <c r="A77" s="127"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7627,7 +7637,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="36" customHeight="1">
-      <c r="A78" s="134"/>
+      <c r="A78" s="127"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -8723,13 +8733,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B48"/>
@@ -8746,6 +8749,13 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A63:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8854,98 +8864,98 @@
       <c r="A1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="156" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="135"/>
+      <c r="D1" s="156"/>
     </row>
     <row r="2" spans="1:6" ht="65" customHeight="1">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="157" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="136"/>
+      <c r="D2" s="157"/>
     </row>
     <row r="3" spans="1:6" ht="31" customHeight="1">
-      <c r="A3" s="148"/>
-      <c r="C3" s="137" t="s">
+      <c r="A3" s="142"/>
+      <c r="C3" s="158" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="160" t="s">
+      <c r="E3" s="154" t="s">
         <v>332</v>
       </c>
-      <c r="F3" s="161"/>
+      <c r="F3" s="155"/>
     </row>
     <row r="4" spans="1:6" ht="31" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="143" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="138"/>
+      <c r="C4" s="159"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31" customHeight="1">
-      <c r="A5" s="150"/>
-      <c r="C5" s="139" t="s">
+      <c r="A5" s="144"/>
+      <c r="C5" s="160" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="135" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31" customHeight="1">
-      <c r="A6" s="150"/>
-      <c r="C6" s="140"/>
+      <c r="A6" s="144"/>
+      <c r="C6" s="161"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="141"/>
+      <c r="F6" s="135"/>
     </row>
     <row r="7" spans="1:6" ht="31" customHeight="1">
-      <c r="A7" s="150"/>
-      <c r="C7" s="143" t="s">
+      <c r="A7" s="144"/>
+      <c r="C7" s="137" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="141"/>
+      <c r="F7" s="135"/>
     </row>
     <row r="8" spans="1:6" ht="31" customHeight="1">
-      <c r="A8" s="150"/>
-      <c r="C8" s="144"/>
+      <c r="A8" s="144"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="141"/>
+      <c r="F8" s="135"/>
     </row>
     <row r="9" spans="1:6" ht="23">
-      <c r="A9" s="150"/>
-      <c r="C9" s="156" t="s">
+      <c r="A9" s="144"/>
+      <c r="C9" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="F9" s="141"/>
+      <c r="D9" s="151"/>
+      <c r="F9" s="135"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="150"/>
-      <c r="C10" s="152" t="s">
+      <c r="A10" s="144"/>
+      <c r="C10" s="146" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="F10" s="141"/>
+      <c r="D10" s="147"/>
+      <c r="F10" s="135"/>
     </row>
     <row r="11" spans="1:6" ht="32" customHeight="1">
-      <c r="A11" s="150"/>
+      <c r="A11" s="144"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -8953,22 +8963,22 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="141"/>
+      <c r="F11" s="135"/>
     </row>
     <row r="12" spans="1:6" ht="54" customHeight="1">
-      <c r="A12" s="151"/>
-      <c r="C12" s="154" t="s">
+      <c r="A12" s="145"/>
+      <c r="C12" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="F12" s="141"/>
+      <c r="D12" s="149"/>
+      <c r="F12" s="135"/>
     </row>
     <row r="13" spans="1:6" ht="37" customHeight="1">
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="159"/>
-      <c r="F13" s="141" t="s">
+      <c r="D13" s="153"/>
+      <c r="F13" s="135" t="s">
         <v>355</v>
       </c>
     </row>
@@ -8979,44 +8989,49 @@
       <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="141"/>
+      <c r="F14" s="135"/>
     </row>
     <row r="15" spans="1:6" ht="48" customHeight="1">
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="146"/>
+      <c r="D15" s="140"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="141"/>
+      <c r="F15" s="135"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="F16" s="141"/>
+      <c r="F16" s="135"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="141"/>
+      <c r="F17" s="135"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="141"/>
+      <c r="F18" s="135"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="141"/>
+      <c r="F19" s="135"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="142" t="s">
+      <c r="F20" s="136" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="142"/>
+      <c r="F21" s="136"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="142"/>
+      <c r="F22" s="136"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="142"/>
+      <c r="F23" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F12"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="C7:C8"/>
@@ -9028,11 +9043,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9042,10 +9052,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y683"/>
+  <dimension ref="A1:Y687"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="A255" sqref="A255"/>
+      <selection activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -11258,7 +11268,7 @@
         <v>9.61</v>
       </c>
       <c r="D253" s="82" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -11277,97 +11287,132 @@
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="257" spans="2:10">
-      <c r="C257" s="70">
-        <v>9.61</v>
-      </c>
-    </row>
-    <row r="258" spans="2:10">
-      <c r="B258" s="85">
-        <f>SUM(B253:B257)</f>
-        <v>220.31</v>
-      </c>
-      <c r="C258" s="72">
-        <f>SUM(C251:C257)</f>
-        <v>19925.28</v>
-      </c>
-    </row>
-    <row r="268" spans="2:10">
-      <c r="I268" s="78"/>
-      <c r="J268"/>
-    </row>
-    <row r="269" spans="2:10">
-      <c r="I269" s="78"/>
-      <c r="J269"/>
-    </row>
-    <row r="338" spans="10:10">
-      <c r="J338" s="80"/>
-    </row>
-    <row r="380" spans="9:9">
-      <c r="I380" s="79"/>
-    </row>
-    <row r="668" spans="15:15">
-      <c r="O668" s="79"/>
-    </row>
-    <row r="673" spans="14:25">
-      <c r="Y673">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="674" spans="14:25">
-      <c r="Y674">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="675" spans="14:25">
-      <c r="Y675">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="676" spans="14:25">
-      <c r="N676" s="79"/>
-      <c r="Y676">
-        <v>10</v>
-      </c>
+    <row r="256" spans="1:4">
+      <c r="A256" s="73" t="s">
+        <v>443</v>
+      </c>
+      <c r="B256" s="84">
+        <v>9.6</v>
+      </c>
+      <c r="D256" s="82" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257" s="63" t="s">
+        <v>444</v>
+      </c>
+      <c r="B257" s="85">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
+      <c r="C261" s="70">
+        <v>297.91000000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="B262" s="85">
+        <f>SUM(B253:B261)</f>
+        <v>297.90999999999997</v>
+      </c>
+      <c r="C262" s="72">
+        <f>SUM(C251:C261)</f>
+        <v>20213.579999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10">
+      <c r="I272" s="78"/>
+      <c r="J272"/>
+    </row>
+    <row r="273" spans="9:10">
+      <c r="I273" s="78"/>
+      <c r="J273"/>
+    </row>
+    <row r="342" spans="10:10">
+      <c r="J342" s="80"/>
+    </row>
+    <row r="384" spans="9:9">
+      <c r="I384" s="79"/>
+    </row>
+    <row r="672" spans="15:15">
+      <c r="O672" s="79"/>
     </row>
     <row r="677" spans="14:25">
       <c r="Y677">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="678" spans="14:25">
       <c r="Y678">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="679" spans="14:25">
       <c r="Y679">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="680" spans="14:25">
+      <c r="N680" s="79"/>
       <c r="Y680">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="681" spans="14:25">
       <c r="Y681">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="682" spans="14:25">
       <c r="Y682">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="683" spans="14:25">
+      <c r="Y683">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="684" spans="14:25">
+      <c r="Y684">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="685" spans="14:25">
+      <c r="Y685">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="686" spans="14:25">
+      <c r="Y686">
         <v>8</v>
       </c>
     </row>
-    <row r="683" spans="14:25">
-      <c r="Y683" s="81">
-        <f>SUM(Y673:Y682)</f>
+    <row r="687" spans="14:25">
+      <c r="Y687" s="81">
+        <f>SUM(Y677:Y686)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A215:B215"/>
     <mergeCell ref="A212:B212"/>
     <mergeCell ref="A201:B201"/>
@@ -11384,24 +11429,12 @@
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A256" r:id="rId1" display="https://trade.taobao.com/trade/detail/tradeSnap.htm?trade_id=249585580833183409" xr:uid="{4B788E1A-AC18-5E4C-86E8-03EF9C49DD5F}"/>
+    <hyperlink ref="A257" r:id="rId2" display="https://item.taobao.com/item.htm?id=580601742745&amp;_u=grgd7s600d8" xr:uid="{627EF465-712A-4A41-9C01-0A508413E792}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>

--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/RankTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3590659-A10F-C345-A951-A0B0BBA99CF9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="训练计划表" sheetId="3" r:id="rId4"/>
     <sheet name="模型花费" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="440">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -3577,30 +3576,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闪光魅力    兰琪                  预定</t>
-    <rPh sb="0" eb="1">
-      <t>shan'guangyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>龟波气功    悟空                  预定</t>
     <rPh sb="0" eb="2">
       <t>gui'b</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROS        悟饭                  预定</t>
-    <rPh sb="0" eb="34">
-      <t>bo's</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOS         超赛悟空              预定</t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4258,15 +4236,36 @@
     <t xml:space="preserve">Grandista  山治                   预定           </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">BOS         超赛悟空              </t>
+    <rPh sb="0" eb="1">
+      <t>long'zhulan'fabei'ji'teyu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">闪光魅力    兰琪                  </t>
+    <rPh sb="0" eb="1">
+      <t>shan'guangyu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GROS        悟饭                  </t>
+    <rPh sb="0" eb="14">
+      <t>bo's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5353,6 +5352,57 @@
     <xf numFmtId="176" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5371,86 +5421,53 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5514,24 +5531,6 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5577,7 +5576,7 @@
         <xdr:cNvPr id="3" name="直线连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5627,7 +5626,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5703,7 +5702,7 @@
         <xdr:cNvPr id="3" name="直线连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5753,7 +5752,7 @@
         <xdr:cNvPr id="6" name="文本框 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5831,7 +5830,7 @@
         <xdr:cNvPr id="8" name="文本框 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6174,8 +6173,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:Q52"/>
@@ -6184,7 +6183,7 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -6203,21 +6202,21 @@
     <col min="17" max="17" width="17" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31" customHeight="1">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-    </row>
-    <row r="2" spans="1:17" ht="63" customHeight="1">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+    </row>
+    <row r="2" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -6256,7 +6255,7 @@
       <c r="P2"/>
       <c r="Q2"/>
     </row>
-    <row r="3" spans="1:17" ht="19" customHeight="1">
+    <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="K3" s="31" t="s">
         <v>19</v>
@@ -6266,7 +6265,7 @@
       <c r="P3"/>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K4" s="32">
         <v>94</v>
       </c>
@@ -6274,7 +6273,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" ht="19">
+    <row r="5" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="K5" s="33" t="s">
         <v>18</v>
       </c>
@@ -6283,13 +6282,13 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K6" s="34">
         <f>SUM(13.7*K4+726)</f>
         <v>2013.8</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K7" s="29" t="s">
         <v>12</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K8" s="29">
         <v>1.5</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K9" s="30" t="s">
         <v>17</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K10" s="47">
         <f>SUM(K6*K8)</f>
         <v>3020.7</v>
@@ -6322,7 +6321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K11" s="49" t="s">
         <v>20</v>
       </c>
@@ -6330,37 +6329,37 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="21" customHeight="1">
+    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K12" s="50" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="91" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K13" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K14" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="21" customHeight="1">
+    <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K15" s="48" t="s">
         <v>128</v>
       </c>
       <c r="M15" s="45"/>
     </row>
-    <row r="16" spans="1:17" ht="23" customHeight="1">
+    <row r="16" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K16" s="35" t="s">
         <v>129</v>
       </c>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" spans="11:14" ht="21" customHeight="1">
+    <row r="17" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="36" t="s">
         <v>130</v>
       </c>
@@ -6369,46 +6368,46 @@
       </c>
       <c r="M17" s="45"/>
     </row>
-    <row r="18" spans="11:14" ht="19" customHeight="1">
-      <c r="K18" s="110" t="s">
+    <row r="18" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="113" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="119" t="s">
+      <c r="M18" s="109" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="11:14" ht="19" customHeight="1">
-      <c r="K19" s="111"/>
+    <row r="19" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="114"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="120"/>
-    </row>
-    <row r="20" spans="11:14" ht="19" customHeight="1">
-      <c r="K20" s="112"/>
+      <c r="M19" s="110"/>
+    </row>
+    <row r="20" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="115"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="121"/>
-    </row>
-    <row r="21" spans="11:14">
-      <c r="K21" s="113" t="s">
+      <c r="M20" s="111"/>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K21" s="116" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="11:14">
-      <c r="K22" s="114"/>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K22" s="117"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="11:14" ht="21" customHeight="1">
+    <row r="23" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K23" s="39" t="s">
         <v>161</v>
       </c>
@@ -6417,7 +6416,7 @@
       </c>
       <c r="N23" s="90"/>
     </row>
-    <row r="24" spans="11:14" ht="21" customHeight="1">
+    <row r="24" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K24" s="39" t="s">
         <v>163</v>
       </c>
@@ -6425,181 +6424,201 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="11:14" ht="21" customHeight="1">
+    <row r="25" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K25" s="41" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L25" s="42" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="11:14" ht="21" customHeight="1">
-      <c r="K26" s="117" t="s">
-        <v>384</v>
-      </c>
-      <c r="L26" s="118"/>
+    <row r="26" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="118" t="s">
+        <v>381</v>
+      </c>
+      <c r="L26" s="119"/>
       <c r="M26" s="89" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="11:14" ht="21" customHeight="1">
-      <c r="K27" s="115" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="116"/>
+      <c r="L27" s="106"/>
       <c r="M27" s="89" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="28" spans="11:14" ht="21" customHeight="1">
-      <c r="K28" s="115" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="116"/>
+      <c r="L28" s="106"/>
       <c r="M28" s="89"/>
     </row>
-    <row r="29" spans="11:14" ht="21" customHeight="1">
-      <c r="K29" s="115" t="s">
+    <row r="29" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="116"/>
-    </row>
-    <row r="30" spans="11:14" ht="21" customHeight="1">
-      <c r="K30" s="115" t="s">
+      <c r="L29" s="106"/>
+    </row>
+    <row r="30" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="116"/>
-    </row>
-    <row r="31" spans="11:14" ht="21" customHeight="1">
-      <c r="K31" s="115" t="s">
+      <c r="L30" s="106"/>
+    </row>
+    <row r="31" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="116"/>
-    </row>
-    <row r="32" spans="11:14" ht="21" customHeight="1">
-      <c r="K32" s="115" t="s">
+      <c r="L31" s="106"/>
+    </row>
+    <row r="32" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="116"/>
-    </row>
-    <row r="33" spans="11:12" ht="21" customHeight="1">
-      <c r="K33" s="115" t="s">
+      <c r="L32" s="106"/>
+    </row>
+    <row r="33" spans="11:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="116"/>
-    </row>
-    <row r="34" spans="11:12">
-      <c r="K34" s="115" t="s">
+      <c r="L33" s="106"/>
+    </row>
+    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K34" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="116"/>
-    </row>
-    <row r="35" spans="11:12">
-      <c r="K35" s="115" t="s">
+      <c r="L34" s="106"/>
+    </row>
+    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K35" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="116"/>
-    </row>
-    <row r="36" spans="11:12">
-      <c r="K36" s="115" t="s">
+      <c r="L35" s="106"/>
+    </row>
+    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K36" s="105" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="116"/>
-    </row>
-    <row r="37" spans="11:12">
-      <c r="K37" s="115" t="s">
+      <c r="L36" s="106"/>
+    </row>
+    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K37" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="L37" s="116"/>
-    </row>
-    <row r="38" spans="11:12">
-      <c r="K38" s="115" t="s">
+      <c r="L37" s="106"/>
+    </row>
+    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K38" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="116"/>
-    </row>
-    <row r="39" spans="11:12">
-      <c r="K39" s="115" t="s">
+      <c r="L38" s="106"/>
+    </row>
+    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K39" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="116"/>
-    </row>
-    <row r="40" spans="11:12">
-      <c r="K40" s="115" t="s">
+      <c r="L39" s="106"/>
+    </row>
+    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K40" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="116"/>
-    </row>
-    <row r="41" spans="11:12">
-      <c r="K41" s="115" t="s">
+      <c r="L40" s="106"/>
+    </row>
+    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K41" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="116"/>
-    </row>
-    <row r="42" spans="11:12">
-      <c r="K42" s="115" t="s">
+      <c r="L41" s="106"/>
+    </row>
+    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K42" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="116"/>
-    </row>
-    <row r="43" spans="11:12">
-      <c r="K43" s="115" t="s">
+      <c r="L42" s="106"/>
+    </row>
+    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K43" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="116"/>
-    </row>
-    <row r="44" spans="11:12">
-      <c r="K44" s="115" t="s">
+      <c r="L43" s="106"/>
+    </row>
+    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K44" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="116"/>
-    </row>
-    <row r="45" spans="11:12">
-      <c r="K45" s="115" t="s">
+      <c r="L44" s="106"/>
+    </row>
+    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K45" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="116"/>
-    </row>
-    <row r="46" spans="11:12">
-      <c r="K46" s="124"/>
-      <c r="L46" s="125"/>
-    </row>
-    <row r="47" spans="11:12">
-      <c r="K47" s="122"/>
-      <c r="L47" s="123"/>
-    </row>
-    <row r="48" spans="11:12" ht="23">
-      <c r="K48" s="103" t="s">
+      <c r="L45" s="106"/>
+    </row>
+    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K46" s="107"/>
+      <c r="L46" s="108"/>
+    </row>
+    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K47" s="103"/>
+      <c r="L47" s="104"/>
+    </row>
+    <row r="48" spans="11:12" ht="23" x14ac:dyDescent="0.3">
+      <c r="K48" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="104"/>
-    </row>
-    <row r="49" spans="11:12">
-      <c r="K49" s="105" t="s">
+      <c r="L48" s="121"/>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K49" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="106"/>
-    </row>
-    <row r="50" spans="11:12">
-      <c r="K50" s="105" t="s">
+      <c r="L49" s="123"/>
+    </row>
+    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K50" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="106"/>
-    </row>
-    <row r="51" spans="11:12">
-      <c r="K51" s="105" t="s">
+      <c r="L50" s="123"/>
+    </row>
+    <row r="51" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K51" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="106"/>
-    </row>
-    <row r="52" spans="11:12" ht="22">
-      <c r="K52" s="107" t="s">
+      <c r="L51" s="123"/>
+    </row>
+    <row r="52" spans="11:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="K52" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="108"/>
+      <c r="L52" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
@@ -6611,26 +6630,6 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6640,14 +6639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="77" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="77" customWidth="1"/>
@@ -6661,61 +6660,61 @@
     <col min="13" max="18" width="12.6640625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="78" customFormat="1" ht="31" customHeight="1">
+    <row r="1" spans="1:28" s="78" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="E1" s="92" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" s="93" t="s">
         <v>363</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>364</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>367</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>366</v>
       </c>
       <c r="G1" s="77"/>
       <c r="H1" s="77"/>
       <c r="I1" s="77"/>
       <c r="J1" s="77" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K1" s="77" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L1" s="126" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M1" s="100" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="S1" s="77"/>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:28" ht="28" customHeight="1">
+    <row r="2" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J2" s="77">
         <v>5</v>
@@ -6725,7 +6724,7 @@
       </c>
       <c r="L2" s="126"/>
       <c r="M2" s="98" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N2" s="89">
         <v>500</v>
@@ -6747,15 +6746,15 @@
         <v>673</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="40" customHeight="1">
+    <row r="3" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77">
         <v>90</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C3" s="97" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D3" s="79">
         <v>200</v>
@@ -6764,7 +6763,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H3" s="77">
         <v>1750</v>
@@ -6774,7 +6773,7 @@
       </c>
       <c r="L3" s="126"/>
       <c r="M3" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N3" s="89"/>
       <c r="O3" s="89"/>
@@ -6782,7 +6781,7 @@
       <c r="Q3" s="89"/>
       <c r="R3" s="89"/>
     </row>
-    <row r="4" spans="1:28" ht="40" customHeight="1">
+    <row r="4" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="77">
         <v>2200</v>
       </c>
@@ -6797,7 +6796,7 @@
       </c>
       <c r="L4" s="126"/>
       <c r="M4" s="98" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N4" s="89">
         <v>50</v>
@@ -6819,10 +6818,10 @@
         <v>197.75</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="40" customHeight="1">
+    <row r="5" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L5" s="126"/>
       <c r="M5" s="98" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N5" s="89">
         <v>30</v>
@@ -6844,10 +6843,10 @@
         <v>109.32</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="40" customHeight="1">
+    <row r="6" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L6" s="126"/>
       <c r="M6" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N6" s="89">
         <v>250</v>
@@ -6869,18 +6868,18 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="40" customHeight="1">
+    <row r="7" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L7" s="126"/>
       <c r="M7" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N7"/>
       <c r="R7" s="89"/>
     </row>
-    <row r="8" spans="1:28" ht="40" customHeight="1">
+    <row r="8" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L8" s="126"/>
       <c r="M8" s="99" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N8" s="89">
         <v>500</v>
@@ -6902,10 +6901,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="40" customHeight="1">
+    <row r="9" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L9" s="126"/>
       <c r="M9" s="99" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="N9" s="89">
         <v>200</v>
@@ -6927,10 +6926,10 @@
         <v>691.2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="40" customHeight="1">
+    <row r="10" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L10" s="126"/>
       <c r="M10" s="99" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="N10" s="89">
         <v>50</v>
@@ -6952,9 +6951,9 @@
         <v>183.35</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="40" customHeight="1">
+    <row r="11" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L11" s="101" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O11" s="77">
         <f>SUM(O2:O10)</f>
@@ -6973,7 +6972,7 @@
         <v>2054.12</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="40" customHeight="1">
+    <row r="14" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W14" s="98"/>
       <c r="X14" s="89"/>
       <c r="Y14" s="89"/>
@@ -6991,14 +6990,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="90"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="90" x14ac:dyDescent="0.9"/>
   <cols>
     <col min="1" max="1" width="36.5" style="20" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="21" customWidth="1"/>
@@ -7008,17 +7007,17 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="132" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:7" s="127" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="127" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="67" customHeight="1">
-      <c r="A2" s="133" t="s">
+    <row r="2" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
@@ -7026,456 +7025,456 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" ht="36" customHeight="1">
+    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="130"/>
-      <c r="B4" s="127"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="36" customHeight="1">
+    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="130"/>
-      <c r="B5" s="127"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="36" customHeight="1">
+    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="130"/>
-      <c r="B6" s="127"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="74" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="75"/>
     </row>
-    <row r="7" spans="1:7" ht="36" customHeight="1">
+    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="130"/>
-      <c r="B7" s="127"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="74" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="75"/>
     </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1">
+    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="130"/>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="128" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="36" customHeight="1">
+    <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
-      <c r="B9" s="127"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="36" customHeight="1">
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="130"/>
-      <c r="B10" s="127"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="36" customHeight="1">
+    <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="130"/>
-      <c r="B11" s="127"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="36" customHeight="1">
+    <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="130"/>
-      <c r="B12" s="127"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="36" customHeight="1">
+    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="130"/>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="128" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="36" customHeight="1">
+    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="130"/>
-      <c r="B14" s="127"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="36" customHeight="1">
+    <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="130"/>
-      <c r="B15" s="127"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1">
+    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="130"/>
-      <c r="B16" s="127"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="36" customHeight="1">
+    <row r="17" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="130"/>
-      <c r="B17" s="127"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="36" customHeight="1">
+    <row r="18" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="130"/>
-      <c r="B18" s="127"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="36" customHeight="1">
+    <row r="19" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="131"/>
-      <c r="B19" s="127"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="36" customHeight="1">
+    <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="128" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="36" customHeight="1">
+    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="130"/>
-      <c r="B21" s="127"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="36" customHeight="1">
+    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="130"/>
-      <c r="B22" s="127"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="36" customHeight="1">
+    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="130"/>
-      <c r="B23" s="127"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="36" customHeight="1">
+    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="130"/>
-      <c r="B24" s="127"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="36" customHeight="1">
+    <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="130"/>
-      <c r="B25" s="127"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="36" customHeight="1">
+    <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="130"/>
-      <c r="B26" s="127"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="36" customHeight="1">
+    <row r="27" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="130"/>
-      <c r="B27" s="127"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="36" customHeight="1">
+    <row r="28" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="130"/>
-      <c r="B28" s="127"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="36" customHeight="1">
+    <row r="29" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="130"/>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="128" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="36" customHeight="1">
+    <row r="30" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="130"/>
-      <c r="B30" s="127"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="36" customHeight="1">
+    <row r="31" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="131"/>
-      <c r="B31" s="127"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="36" customHeight="1">
+    <row r="32" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="128" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="36" customHeight="1">
+    <row r="33" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="130"/>
-      <c r="B33" s="127"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="36" customHeight="1">
+    <row r="34" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="130"/>
-      <c r="B34" s="127"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="36" customHeight="1">
+    <row r="35" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="130"/>
-      <c r="B35" s="127"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="36" customHeight="1">
+    <row r="36" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="130"/>
-      <c r="B36" s="127"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="36" customHeight="1">
+    <row r="37" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="130"/>
-      <c r="B37" s="127" t="s">
+      <c r="B37" s="128" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="36" customHeight="1">
+    <row r="38" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="130"/>
-      <c r="B38" s="127"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="36" customHeight="1">
+    <row r="39" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="130"/>
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="128" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="36" customHeight="1">
+    <row r="40" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="130"/>
-      <c r="B40" s="127"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="36" customHeight="1">
+    <row r="41" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="131"/>
-      <c r="B41" s="127"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36" customHeight="1">
+    <row r="42" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="128" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="36" customHeight="1">
+    <row r="43" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="130"/>
-      <c r="B43" s="127"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="36" customHeight="1">
+    <row r="44" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="130"/>
-      <c r="B44" s="127"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="36" customHeight="1">
+    <row r="45" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="130"/>
-      <c r="B45" s="127"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="36" customHeight="1">
+    <row r="46" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="130"/>
-      <c r="B46" s="127"/>
+      <c r="B46" s="128"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="36" customHeight="1">
+    <row r="47" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="130"/>
-      <c r="B47" s="127" t="s">
+      <c r="B47" s="128" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="36" customHeight="1">
+    <row r="48" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="130"/>
-      <c r="B48" s="127"/>
+      <c r="B48" s="128"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="36" customHeight="1">
+    <row r="49" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="130"/>
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="128" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="36" customHeight="1">
+    <row r="50" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="130"/>
-      <c r="B50" s="127"/>
+      <c r="B50" s="128"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="36" customHeight="1">
+    <row r="51" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="130"/>
-      <c r="B51" s="127"/>
+      <c r="B51" s="128"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="36" customHeight="1">
+    <row r="52" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="130"/>
-      <c r="B52" s="127"/>
+      <c r="B52" s="128"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="36" customHeight="1">
+    <row r="53" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="130"/>
-      <c r="B53" s="127"/>
+      <c r="B53" s="128"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="36" customHeight="1">
+    <row r="54" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="130"/>
-      <c r="B54" s="127"/>
+      <c r="B54" s="128"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="36" customHeight="1">
+    <row r="55" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="130"/>
-      <c r="B55" s="127"/>
+      <c r="B55" s="128"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="36" customHeight="1">
+    <row r="56" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="130"/>
-      <c r="B56" s="127"/>
+      <c r="B56" s="128"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="36" customHeight="1">
+    <row r="57" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="131"/>
-      <c r="B57" s="127"/>
+      <c r="B57" s="128"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="36" customHeight="1">
+    <row r="58" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="128" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="36" customHeight="1">
+    <row r="59" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="130"/>
-      <c r="B59" s="127"/>
+      <c r="B59" s="128"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="36" customHeight="1">
+    <row r="60" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="130"/>
-      <c r="B60" s="127"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="36" customHeight="1">
+    <row r="61" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="130"/>
-      <c r="B61" s="127"/>
+      <c r="B61" s="128"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="36" customHeight="1">
+    <row r="62" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="131"/>
       <c r="B62" s="21" t="s">
         <v>60</v>
@@ -7484,7 +7483,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="36" customHeight="1">
+    <row r="63" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="129" t="s">
         <v>61</v>
       </c>
@@ -7495,37 +7494,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="36" customHeight="1">
+    <row r="64" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="130"/>
-      <c r="B64" s="127" t="s">
+      <c r="B64" s="128" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="36" customHeight="1">
+    <row r="65" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="130"/>
-      <c r="B65" s="127"/>
+      <c r="B65" s="128"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="36" customHeight="1">
+    <row r="66" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="130"/>
-      <c r="B66" s="127"/>
+      <c r="B66" s="128"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="36" customHeight="1">
+    <row r="67" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="130"/>
-      <c r="B67" s="127"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="36" customHeight="1">
+    <row r="68" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="131"/>
       <c r="B68" s="21" t="s">
         <v>64</v>
@@ -7534,8 +7533,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="36" customHeight="1">
-      <c r="A69" s="128" t="s">
+    <row r="69" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="135" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7545,59 +7544,59 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="36" customHeight="1">
-      <c r="A70" s="128"/>
-      <c r="B70" s="127" t="s">
+    <row r="70" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="135"/>
+      <c r="B70" s="128" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="36" customHeight="1">
-      <c r="A71" s="128"/>
-      <c r="B71" s="127"/>
+    <row r="71" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="135"/>
+      <c r="B71" s="128"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="36" customHeight="1">
-      <c r="A72" s="128"/>
-      <c r="B72" s="127"/>
+    <row r="72" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="135"/>
+      <c r="B72" s="128"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="36" customHeight="1">
-      <c r="A73" s="128"/>
-      <c r="B73" s="127"/>
+    <row r="73" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="135"/>
+      <c r="B73" s="128"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="36" customHeight="1">
-      <c r="A74" s="128"/>
-      <c r="B74" s="127"/>
+    <row r="74" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="135"/>
+      <c r="B74" s="128"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="36" customHeight="1">
-      <c r="A75" s="128"/>
-      <c r="B75" s="127"/>
+    <row r="75" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="135"/>
+      <c r="B75" s="128"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="36" customHeight="1">
-      <c r="A76" s="128"/>
-      <c r="B76" s="127"/>
+    <row r="76" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="135"/>
+      <c r="B76" s="128"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="36" customHeight="1">
-      <c r="A77" s="128"/>
+    <row r="77" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="135"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7605,8 +7604,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="36" customHeight="1">
-      <c r="A78" s="128"/>
+    <row r="78" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="135"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -7614,1087 +7613,1087 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="36" customHeight="1">
+    <row r="79" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A79" s="18"/>
       <c r="B79" s="23"/>
       <c r="C79" s="14"/>
       <c r="D79" s="26"/>
     </row>
-    <row r="80" spans="1:4" ht="36" customHeight="1">
+    <row r="80" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A80" s="18"/>
       <c r="B80" s="23"/>
       <c r="C80" s="14"/>
       <c r="D80" s="26"/>
     </row>
-    <row r="81" spans="1:4" ht="36" customHeight="1">
+    <row r="81" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A81" s="18"/>
       <c r="B81" s="23"/>
       <c r="C81" s="14"/>
       <c r="D81" s="26"/>
     </row>
-    <row r="82" spans="1:4" ht="36" customHeight="1">
+    <row r="82" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A82" s="18"/>
       <c r="B82" s="23"/>
       <c r="C82" s="14"/>
       <c r="D82" s="26"/>
     </row>
-    <row r="83" spans="1:4" ht="36" customHeight="1">
+    <row r="83" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A83" s="18"/>
       <c r="B83" s="23"/>
       <c r="C83" s="14"/>
       <c r="D83" s="26"/>
     </row>
-    <row r="84" spans="1:4" ht="36" customHeight="1">
+    <row r="84" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A84" s="18"/>
       <c r="B84" s="23"/>
       <c r="C84" s="14"/>
       <c r="D84" s="26"/>
     </row>
-    <row r="85" spans="1:4" ht="36" customHeight="1">
+    <row r="85" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="18"/>
       <c r="B85" s="23"/>
       <c r="C85" s="14"/>
       <c r="D85" s="26"/>
     </row>
-    <row r="86" spans="1:4" ht="36" customHeight="1">
+    <row r="86" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A86" s="18"/>
       <c r="B86" s="23"/>
       <c r="C86" s="14"/>
       <c r="D86" s="26"/>
     </row>
-    <row r="87" spans="1:4" ht="36" customHeight="1">
+    <row r="87" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A87" s="18"/>
       <c r="B87" s="23"/>
       <c r="C87" s="14"/>
       <c r="D87" s="26"/>
     </row>
-    <row r="88" spans="1:4" ht="36" customHeight="1">
+    <row r="88" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A88" s="18"/>
       <c r="B88" s="23"/>
       <c r="C88" s="14"/>
       <c r="D88" s="26"/>
     </row>
-    <row r="89" spans="1:4" ht="36" customHeight="1">
+    <row r="89" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A89" s="18"/>
       <c r="B89" s="23"/>
       <c r="C89" s="14"/>
       <c r="D89" s="27"/>
     </row>
-    <row r="90" spans="1:4" ht="36" customHeight="1">
+    <row r="90" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A90" s="18"/>
       <c r="B90" s="23"/>
       <c r="C90" s="14"/>
       <c r="D90" s="27"/>
     </row>
-    <row r="91" spans="1:4" ht="36" customHeight="1">
+    <row r="91" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A91" s="18"/>
       <c r="B91" s="23"/>
       <c r="C91" s="14"/>
       <c r="D91" s="27"/>
     </row>
-    <row r="92" spans="1:4" ht="36" customHeight="1">
+    <row r="92" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A92" s="18"/>
       <c r="B92" s="23"/>
       <c r="C92" s="14"/>
       <c r="D92" s="27"/>
     </row>
-    <row r="93" spans="1:4" ht="36" customHeight="1">
+    <row r="93" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A93" s="18"/>
       <c r="B93" s="23"/>
       <c r="C93" s="14"/>
       <c r="D93" s="27"/>
     </row>
-    <row r="94" spans="1:4" ht="36" customHeight="1">
+    <row r="94" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A94" s="18"/>
       <c r="B94" s="23"/>
       <c r="C94" s="14"/>
       <c r="D94" s="27"/>
     </row>
-    <row r="95" spans="1:4" ht="36" customHeight="1">
+    <row r="95" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A95" s="18"/>
       <c r="B95" s="23"/>
       <c r="C95" s="14"/>
       <c r="D95" s="27"/>
     </row>
-    <row r="96" spans="1:4" ht="36" customHeight="1">
+    <row r="96" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A96" s="18"/>
       <c r="B96" s="23"/>
       <c r="C96" s="14"/>
       <c r="D96" s="27"/>
     </row>
-    <row r="97" spans="1:4" ht="36" customHeight="1">
+    <row r="97" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A97" s="18"/>
       <c r="B97" s="23"/>
       <c r="C97" s="14"/>
       <c r="D97" s="27"/>
     </row>
-    <row r="98" spans="1:4" ht="36" customHeight="1">
+    <row r="98" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A98" s="18"/>
       <c r="B98" s="23"/>
       <c r="C98" s="14"/>
       <c r="D98" s="27"/>
     </row>
-    <row r="99" spans="1:4" ht="36" customHeight="1">
+    <row r="99" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="18"/>
       <c r="B99" s="23"/>
       <c r="C99" s="14"/>
       <c r="D99" s="27"/>
     </row>
-    <row r="100" spans="1:4" ht="36" customHeight="1">
+    <row r="100" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A100" s="18"/>
       <c r="B100" s="23"/>
       <c r="C100" s="14"/>
       <c r="D100" s="27"/>
     </row>
-    <row r="101" spans="1:4" ht="36" customHeight="1">
+    <row r="101" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A101" s="18"/>
       <c r="B101" s="23"/>
       <c r="C101" s="14"/>
       <c r="D101" s="27"/>
     </row>
-    <row r="102" spans="1:4" ht="36" customHeight="1">
+    <row r="102" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A102" s="18"/>
       <c r="B102" s="23"/>
       <c r="C102" s="14"/>
       <c r="D102" s="27"/>
     </row>
-    <row r="103" spans="1:4" ht="36" customHeight="1">
+    <row r="103" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A103" s="18"/>
       <c r="B103" s="23"/>
       <c r="C103" s="14"/>
       <c r="D103" s="27"/>
     </row>
-    <row r="104" spans="1:4" ht="36" customHeight="1">
+    <row r="104" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A104" s="18"/>
       <c r="B104" s="23"/>
       <c r="C104" s="14"/>
       <c r="D104" s="27"/>
     </row>
-    <row r="105" spans="1:4" ht="36" customHeight="1">
+    <row r="105" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A105" s="18"/>
       <c r="B105" s="23"/>
       <c r="C105" s="14"/>
       <c r="D105" s="27"/>
     </row>
-    <row r="106" spans="1:4" ht="36" customHeight="1">
+    <row r="106" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A106" s="18"/>
       <c r="B106" s="23"/>
       <c r="C106" s="14"/>
       <c r="D106" s="27"/>
     </row>
-    <row r="107" spans="1:4" ht="36" customHeight="1">
+    <row r="107" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A107" s="18"/>
       <c r="B107" s="23"/>
       <c r="C107" s="14"/>
       <c r="D107" s="27"/>
     </row>
-    <row r="108" spans="1:4" ht="36" customHeight="1">
+    <row r="108" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A108" s="18"/>
       <c r="B108" s="23"/>
       <c r="C108" s="14"/>
       <c r="D108" s="27"/>
     </row>
-    <row r="109" spans="1:4" ht="36" customHeight="1">
+    <row r="109" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A109" s="18"/>
       <c r="B109" s="23"/>
       <c r="C109" s="14"/>
       <c r="D109" s="27"/>
     </row>
-    <row r="110" spans="1:4" ht="36" customHeight="1">
+    <row r="110" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A110" s="18"/>
       <c r="B110" s="23"/>
       <c r="C110" s="14"/>
       <c r="D110" s="27"/>
     </row>
-    <row r="111" spans="1:4" ht="36" customHeight="1">
+    <row r="111" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A111" s="18"/>
       <c r="B111" s="23"/>
       <c r="C111" s="14"/>
       <c r="D111" s="27"/>
     </row>
-    <row r="112" spans="1:4" ht="36" customHeight="1">
+    <row r="112" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A112" s="18"/>
       <c r="B112" s="23"/>
       <c r="C112" s="14"/>
       <c r="D112" s="27"/>
     </row>
-    <row r="113" spans="1:4" ht="36" customHeight="1">
+    <row r="113" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="18"/>
       <c r="B113" s="23"/>
       <c r="C113" s="14"/>
       <c r="D113" s="27"/>
     </row>
-    <row r="114" spans="1:4" ht="36" customHeight="1">
+    <row r="114" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A114" s="18"/>
       <c r="B114" s="23"/>
       <c r="C114" s="14"/>
       <c r="D114" s="27"/>
     </row>
-    <row r="115" spans="1:4" ht="36" customHeight="1">
+    <row r="115" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A115" s="18"/>
       <c r="B115" s="23"/>
       <c r="C115" s="14"/>
       <c r="D115" s="27"/>
     </row>
-    <row r="116" spans="1:4" ht="36" customHeight="1">
+    <row r="116" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A116" s="18"/>
       <c r="B116" s="23"/>
       <c r="C116" s="14"/>
       <c r="D116" s="27"/>
     </row>
-    <row r="117" spans="1:4" ht="36" customHeight="1">
+    <row r="117" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A117" s="18"/>
       <c r="B117" s="23"/>
       <c r="C117" s="14"/>
       <c r="D117" s="27"/>
     </row>
-    <row r="118" spans="1:4" ht="36" customHeight="1">
+    <row r="118" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A118" s="18"/>
       <c r="B118" s="23"/>
       <c r="C118" s="14"/>
       <c r="D118" s="27"/>
     </row>
-    <row r="119" spans="1:4" ht="36" customHeight="1">
+    <row r="119" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A119" s="18"/>
       <c r="B119" s="23"/>
       <c r="C119" s="14"/>
       <c r="D119" s="27"/>
     </row>
-    <row r="120" spans="1:4" ht="36" customHeight="1">
+    <row r="120" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A120" s="18"/>
       <c r="B120" s="23"/>
       <c r="C120" s="14"/>
       <c r="D120" s="27"/>
     </row>
-    <row r="121" spans="1:4" ht="36" customHeight="1">
+    <row r="121" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A121" s="18"/>
       <c r="B121" s="23"/>
       <c r="C121" s="14"/>
       <c r="D121" s="27"/>
     </row>
-    <row r="122" spans="1:4" ht="36" customHeight="1">
+    <row r="122" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A122" s="18"/>
       <c r="B122" s="23"/>
       <c r="C122" s="14"/>
       <c r="D122" s="27"/>
     </row>
-    <row r="123" spans="1:4" ht="36" customHeight="1">
+    <row r="123" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A123" s="18"/>
       <c r="B123" s="23"/>
       <c r="C123" s="14"/>
       <c r="D123" s="27"/>
     </row>
-    <row r="124" spans="1:4" ht="36" customHeight="1">
+    <row r="124" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A124" s="18"/>
       <c r="B124" s="23"/>
       <c r="C124" s="14"/>
       <c r="D124" s="27"/>
     </row>
-    <row r="125" spans="1:4" ht="36" customHeight="1">
+    <row r="125" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A125" s="18"/>
       <c r="B125" s="23"/>
       <c r="C125" s="14"/>
       <c r="D125" s="27"/>
     </row>
-    <row r="126" spans="1:4" ht="36" customHeight="1">
+    <row r="126" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A126" s="18"/>
       <c r="B126" s="23"/>
       <c r="C126" s="14"/>
       <c r="D126" s="27"/>
     </row>
-    <row r="127" spans="1:4" ht="36" customHeight="1">
+    <row r="127" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="18"/>
       <c r="B127" s="23"/>
       <c r="C127" s="14"/>
       <c r="D127" s="27"/>
     </row>
-    <row r="128" spans="1:4" ht="36" customHeight="1">
+    <row r="128" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A128" s="18"/>
       <c r="B128" s="23"/>
       <c r="C128" s="14"/>
       <c r="D128" s="27"/>
     </row>
-    <row r="129" spans="1:4" ht="36" customHeight="1">
+    <row r="129" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A129" s="18"/>
       <c r="B129" s="23"/>
       <c r="C129" s="14"/>
       <c r="D129" s="27"/>
     </row>
-    <row r="130" spans="1:4" ht="36" customHeight="1">
+    <row r="130" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A130" s="18"/>
       <c r="B130" s="23"/>
       <c r="C130" s="14"/>
       <c r="D130" s="27"/>
     </row>
-    <row r="131" spans="1:4" ht="36" customHeight="1">
+    <row r="131" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A131" s="18"/>
       <c r="B131" s="23"/>
       <c r="C131" s="14"/>
       <c r="D131" s="27"/>
     </row>
-    <row r="132" spans="1:4" ht="36" customHeight="1">
+    <row r="132" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A132" s="18"/>
       <c r="B132" s="23"/>
       <c r="C132" s="14"/>
       <c r="D132" s="27"/>
     </row>
-    <row r="133" spans="1:4" ht="36" customHeight="1">
+    <row r="133" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A133" s="18"/>
       <c r="B133" s="23"/>
       <c r="C133" s="14"/>
       <c r="D133" s="27"/>
     </row>
-    <row r="134" spans="1:4" ht="36" customHeight="1">
+    <row r="134" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A134" s="18"/>
       <c r="B134" s="23"/>
       <c r="C134" s="14"/>
       <c r="D134" s="27"/>
     </row>
-    <row r="135" spans="1:4" ht="36" customHeight="1">
+    <row r="135" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A135" s="18"/>
       <c r="B135" s="23"/>
       <c r="C135" s="14"/>
       <c r="D135" s="27"/>
     </row>
-    <row r="136" spans="1:4" ht="36" customHeight="1">
+    <row r="136" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A136" s="18"/>
       <c r="B136" s="23"/>
       <c r="C136" s="14"/>
       <c r="D136" s="27"/>
     </row>
-    <row r="137" spans="1:4" ht="36" customHeight="1">
+    <row r="137" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A137" s="18"/>
       <c r="B137" s="23"/>
       <c r="C137" s="14"/>
       <c r="D137" s="27"/>
     </row>
-    <row r="138" spans="1:4" ht="36" customHeight="1">
+    <row r="138" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A138" s="18"/>
       <c r="B138" s="23"/>
       <c r="C138" s="14"/>
       <c r="D138" s="27"/>
     </row>
-    <row r="139" spans="1:4" ht="36" customHeight="1">
+    <row r="139" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A139" s="18"/>
       <c r="B139" s="23"/>
       <c r="C139" s="14"/>
       <c r="D139" s="27"/>
     </row>
-    <row r="140" spans="1:4" ht="36" customHeight="1">
+    <row r="140" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A140" s="18"/>
       <c r="B140" s="23"/>
       <c r="C140" s="14"/>
       <c r="D140" s="27"/>
     </row>
-    <row r="141" spans="1:4" ht="36" customHeight="1">
+    <row r="141" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A141" s="18"/>
       <c r="B141" s="23"/>
       <c r="C141" s="14"/>
       <c r="D141" s="27"/>
     </row>
-    <row r="142" spans="1:4" ht="36" customHeight="1">
+    <row r="142" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A142" s="18"/>
       <c r="B142" s="23"/>
       <c r="C142" s="14"/>
       <c r="D142" s="27"/>
     </row>
-    <row r="143" spans="1:4" ht="36" customHeight="1">
+    <row r="143" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A143" s="18"/>
       <c r="B143" s="23"/>
       <c r="C143" s="14"/>
       <c r="D143" s="27"/>
     </row>
-    <row r="144" spans="1:4" ht="36" customHeight="1">
+    <row r="144" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A144" s="18"/>
       <c r="B144" s="23"/>
       <c r="C144" s="14"/>
       <c r="D144" s="27"/>
     </row>
-    <row r="145" spans="1:4" ht="36" customHeight="1">
+    <row r="145" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A145" s="18"/>
       <c r="B145" s="23"/>
       <c r="C145" s="14"/>
       <c r="D145" s="27"/>
     </row>
-    <row r="146" spans="1:4" ht="36" customHeight="1">
+    <row r="146" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A146" s="18"/>
       <c r="B146" s="23"/>
       <c r="C146" s="14"/>
       <c r="D146" s="27"/>
     </row>
-    <row r="147" spans="1:4" ht="36" customHeight="1">
+    <row r="147" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A147" s="18"/>
       <c r="B147" s="23"/>
       <c r="C147" s="14"/>
       <c r="D147" s="27"/>
     </row>
-    <row r="148" spans="1:4" ht="36" customHeight="1">
+    <row r="148" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A148" s="18"/>
       <c r="B148" s="23"/>
       <c r="C148" s="14"/>
       <c r="D148" s="27"/>
     </row>
-    <row r="149" spans="1:4" ht="36" customHeight="1">
+    <row r="149" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A149" s="18"/>
       <c r="B149" s="23"/>
       <c r="C149" s="14"/>
       <c r="D149" s="27"/>
     </row>
-    <row r="150" spans="1:4" ht="36" customHeight="1">
+    <row r="150" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A150" s="18"/>
       <c r="B150" s="23"/>
       <c r="C150" s="14"/>
       <c r="D150" s="27"/>
     </row>
-    <row r="151" spans="1:4" ht="36" customHeight="1">
+    <row r="151" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A151" s="18"/>
       <c r="B151" s="23"/>
       <c r="C151" s="14"/>
       <c r="D151" s="27"/>
     </row>
-    <row r="152" spans="1:4" ht="36" customHeight="1">
+    <row r="152" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A152" s="18"/>
       <c r="B152" s="23"/>
       <c r="C152" s="14"/>
       <c r="D152" s="27"/>
     </row>
-    <row r="153" spans="1:4" ht="36" customHeight="1">
+    <row r="153" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A153" s="18"/>
       <c r="B153" s="23"/>
       <c r="C153" s="14"/>
       <c r="D153" s="27"/>
     </row>
-    <row r="154" spans="1:4" ht="36" customHeight="1">
+    <row r="154" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A154" s="18"/>
       <c r="B154" s="23"/>
       <c r="C154" s="14"/>
       <c r="D154" s="27"/>
     </row>
-    <row r="155" spans="1:4" ht="36" customHeight="1">
+    <row r="155" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A155" s="18"/>
       <c r="B155" s="23"/>
       <c r="C155" s="14"/>
       <c r="D155" s="27"/>
     </row>
-    <row r="156" spans="1:4" ht="36" customHeight="1">
+    <row r="156" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A156" s="18"/>
       <c r="B156" s="23"/>
       <c r="C156" s="14"/>
       <c r="D156" s="27"/>
     </row>
-    <row r="157" spans="1:4" ht="36" customHeight="1">
+    <row r="157" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A157" s="18"/>
       <c r="B157" s="23"/>
       <c r="C157" s="14"/>
       <c r="D157" s="27"/>
     </row>
-    <row r="158" spans="1:4" ht="36" customHeight="1">
+    <row r="158" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A158" s="18"/>
       <c r="B158" s="23"/>
       <c r="C158" s="14"/>
       <c r="D158" s="27"/>
     </row>
-    <row r="159" spans="1:4" ht="36" customHeight="1">
+    <row r="159" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A159" s="18"/>
       <c r="B159" s="23"/>
       <c r="C159" s="14"/>
       <c r="D159" s="27"/>
     </row>
-    <row r="160" spans="1:4" ht="36" customHeight="1">
+    <row r="160" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A160" s="18"/>
       <c r="B160" s="23"/>
       <c r="C160" s="14"/>
       <c r="D160" s="27"/>
     </row>
-    <row r="161" spans="1:4" ht="36" customHeight="1">
+    <row r="161" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A161" s="18"/>
       <c r="B161" s="23"/>
       <c r="C161" s="14"/>
       <c r="D161" s="27"/>
     </row>
-    <row r="162" spans="1:4" ht="36" customHeight="1">
+    <row r="162" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A162" s="18"/>
       <c r="B162" s="23"/>
       <c r="C162" s="14"/>
       <c r="D162" s="27"/>
     </row>
-    <row r="163" spans="1:4" ht="36" customHeight="1">
+    <row r="163" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A163" s="18"/>
       <c r="B163" s="23"/>
       <c r="C163" s="14"/>
       <c r="D163" s="27"/>
     </row>
-    <row r="164" spans="1:4" ht="36" customHeight="1">
+    <row r="164" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A164" s="18"/>
       <c r="B164" s="23"/>
       <c r="C164" s="14"/>
       <c r="D164" s="27"/>
     </row>
-    <row r="165" spans="1:4" ht="36" customHeight="1">
+    <row r="165" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A165" s="18"/>
       <c r="B165" s="23"/>
       <c r="C165" s="14"/>
       <c r="D165" s="27"/>
     </row>
-    <row r="166" spans="1:4" ht="36" customHeight="1">
+    <row r="166" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A166" s="18"/>
       <c r="B166" s="23"/>
       <c r="C166" s="14"/>
       <c r="D166" s="27"/>
     </row>
-    <row r="167" spans="1:4" ht="36" customHeight="1">
+    <row r="167" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A167" s="18"/>
       <c r="B167" s="23"/>
       <c r="C167" s="14"/>
       <c r="D167" s="27"/>
     </row>
-    <row r="168" spans="1:4" ht="36" customHeight="1">
+    <row r="168" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A168" s="18"/>
       <c r="B168" s="23"/>
       <c r="C168" s="14"/>
       <c r="D168" s="27"/>
     </row>
-    <row r="169" spans="1:4" ht="36" customHeight="1">
+    <row r="169" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A169" s="18"/>
       <c r="B169" s="23"/>
       <c r="C169" s="14"/>
       <c r="D169" s="27"/>
     </row>
-    <row r="170" spans="1:4" ht="36" customHeight="1">
+    <row r="170" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A170" s="18"/>
       <c r="B170" s="23"/>
       <c r="C170" s="14"/>
       <c r="D170" s="27"/>
     </row>
-    <row r="171" spans="1:4" ht="36" customHeight="1">
+    <row r="171" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A171" s="18"/>
       <c r="B171" s="23"/>
       <c r="C171" s="14"/>
       <c r="D171" s="27"/>
     </row>
-    <row r="172" spans="1:4" ht="36" customHeight="1">
+    <row r="172" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A172" s="18"/>
       <c r="B172" s="23"/>
       <c r="C172" s="14"/>
       <c r="D172" s="27"/>
     </row>
-    <row r="173" spans="1:4" ht="36" customHeight="1">
+    <row r="173" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A173" s="18"/>
       <c r="B173" s="23"/>
       <c r="C173" s="14"/>
       <c r="D173" s="27"/>
     </row>
-    <row r="174" spans="1:4" ht="36" customHeight="1">
+    <row r="174" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A174" s="18"/>
       <c r="B174" s="23"/>
       <c r="C174" s="14"/>
       <c r="D174" s="27"/>
     </row>
-    <row r="175" spans="1:4" ht="36" customHeight="1">
+    <row r="175" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A175" s="18"/>
       <c r="B175" s="23"/>
       <c r="C175" s="14"/>
       <c r="D175" s="27"/>
     </row>
-    <row r="176" spans="1:4" ht="36" customHeight="1">
+    <row r="176" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A176" s="18"/>
       <c r="B176" s="23"/>
       <c r="C176" s="14"/>
       <c r="D176" s="27"/>
     </row>
-    <row r="177" spans="1:4" ht="36" customHeight="1">
+    <row r="177" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A177" s="18"/>
       <c r="B177" s="23"/>
       <c r="C177" s="14"/>
       <c r="D177" s="27"/>
     </row>
-    <row r="178" spans="1:4" ht="36" customHeight="1">
+    <row r="178" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A178" s="18"/>
       <c r="B178" s="23"/>
       <c r="C178" s="14"/>
       <c r="D178" s="27"/>
     </row>
-    <row r="179" spans="1:4" ht="36" customHeight="1">
+    <row r="179" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A179" s="18"/>
       <c r="B179" s="23"/>
       <c r="C179" s="14"/>
       <c r="D179" s="27"/>
     </row>
-    <row r="180" spans="1:4" ht="36" customHeight="1">
+    <row r="180" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A180" s="18"/>
       <c r="B180" s="23"/>
       <c r="C180" s="14"/>
       <c r="D180" s="27"/>
     </row>
-    <row r="181" spans="1:4" ht="36" customHeight="1">
+    <row r="181" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A181" s="18"/>
       <c r="B181" s="23"/>
       <c r="C181" s="14"/>
       <c r="D181" s="27"/>
     </row>
-    <row r="182" spans="1:4" ht="36" customHeight="1">
+    <row r="182" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A182" s="18"/>
       <c r="B182" s="23"/>
       <c r="C182" s="14"/>
       <c r="D182" s="27"/>
     </row>
-    <row r="183" spans="1:4" ht="36" customHeight="1">
+    <row r="183" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A183" s="18"/>
       <c r="B183" s="23"/>
       <c r="C183" s="14"/>
       <c r="D183" s="27"/>
     </row>
-    <row r="184" spans="1:4" ht="36" customHeight="1">
+    <row r="184" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A184" s="18"/>
       <c r="B184" s="23"/>
       <c r="C184" s="14"/>
       <c r="D184" s="27"/>
     </row>
-    <row r="185" spans="1:4" ht="36" customHeight="1">
+    <row r="185" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A185" s="18"/>
       <c r="B185" s="23"/>
       <c r="C185" s="14"/>
       <c r="D185" s="27"/>
     </row>
-    <row r="186" spans="1:4" ht="36" customHeight="1">
+    <row r="186" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A186" s="18"/>
       <c r="B186" s="23"/>
       <c r="C186" s="14"/>
       <c r="D186" s="27"/>
     </row>
-    <row r="187" spans="1:4" ht="36" customHeight="1">
+    <row r="187" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A187" s="18"/>
       <c r="B187" s="23"/>
       <c r="C187" s="14"/>
       <c r="D187" s="27"/>
     </row>
-    <row r="188" spans="1:4" ht="36" customHeight="1">
+    <row r="188" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A188" s="18"/>
       <c r="B188" s="23"/>
       <c r="C188" s="14"/>
       <c r="D188" s="27"/>
     </row>
-    <row r="189" spans="1:4" ht="36" customHeight="1">
+    <row r="189" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A189" s="18"/>
       <c r="B189" s="23"/>
       <c r="C189" s="14"/>
       <c r="D189" s="27"/>
     </row>
-    <row r="190" spans="1:4" ht="36" customHeight="1">
+    <row r="190" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A190" s="18"/>
       <c r="B190" s="23"/>
       <c r="C190" s="14"/>
       <c r="D190" s="27"/>
     </row>
-    <row r="191" spans="1:4" ht="36" customHeight="1">
+    <row r="191" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A191" s="18"/>
       <c r="B191" s="23"/>
       <c r="C191" s="14"/>
       <c r="D191" s="27"/>
     </row>
-    <row r="192" spans="1:4" ht="36" customHeight="1">
+    <row r="192" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A192" s="18"/>
       <c r="B192" s="23"/>
       <c r="C192" s="14"/>
       <c r="D192" s="27"/>
     </row>
-    <row r="193" spans="1:4" ht="36" customHeight="1">
+    <row r="193" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A193" s="18"/>
       <c r="B193" s="23"/>
       <c r="C193" s="14"/>
       <c r="D193" s="27"/>
     </row>
-    <row r="194" spans="1:4" ht="36" customHeight="1">
+    <row r="194" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A194" s="18"/>
       <c r="B194" s="23"/>
       <c r="C194" s="14"/>
       <c r="D194" s="27"/>
     </row>
-    <row r="195" spans="1:4" ht="36" customHeight="1">
+    <row r="195" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A195" s="18"/>
       <c r="B195" s="23"/>
       <c r="C195" s="14"/>
       <c r="D195" s="27"/>
     </row>
-    <row r="196" spans="1:4" ht="36" customHeight="1">
+    <row r="196" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A196" s="18"/>
       <c r="B196" s="23"/>
       <c r="C196" s="14"/>
       <c r="D196" s="27"/>
     </row>
-    <row r="197" spans="1:4" ht="36" customHeight="1">
+    <row r="197" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A197" s="18"/>
       <c r="B197" s="23"/>
       <c r="C197" s="14"/>
       <c r="D197" s="27"/>
     </row>
-    <row r="198" spans="1:4" ht="36" customHeight="1">
+    <row r="198" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A198" s="18"/>
       <c r="B198" s="23"/>
       <c r="C198" s="14"/>
       <c r="D198" s="27"/>
     </row>
-    <row r="199" spans="1:4" ht="36" customHeight="1">
+    <row r="199" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A199" s="18"/>
       <c r="B199" s="23"/>
       <c r="C199" s="14"/>
       <c r="D199" s="27"/>
     </row>
-    <row r="200" spans="1:4" ht="36" customHeight="1">
+    <row r="200" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A200" s="18"/>
       <c r="B200" s="23"/>
       <c r="C200" s="14"/>
       <c r="D200" s="27"/>
     </row>
-    <row r="201" spans="1:4" ht="36" customHeight="1">
+    <row r="201" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A201" s="18"/>
       <c r="B201" s="23"/>
       <c r="C201" s="14"/>
       <c r="D201" s="27"/>
     </row>
-    <row r="202" spans="1:4" ht="36" customHeight="1">
+    <row r="202" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A202" s="18"/>
       <c r="B202" s="23"/>
       <c r="C202" s="14"/>
       <c r="D202" s="27"/>
     </row>
-    <row r="203" spans="1:4" ht="36" customHeight="1">
+    <row r="203" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A203" s="18"/>
       <c r="B203" s="23"/>
       <c r="C203" s="14"/>
       <c r="D203" s="27"/>
     </row>
-    <row r="204" spans="1:4" ht="36" customHeight="1">
+    <row r="204" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A204" s="18"/>
       <c r="B204" s="23"/>
       <c r="C204" s="14"/>
       <c r="D204" s="27"/>
     </row>
-    <row r="205" spans="1:4" ht="36" customHeight="1">
+    <row r="205" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A205" s="18"/>
       <c r="B205" s="23"/>
       <c r="C205" s="14"/>
       <c r="D205" s="27"/>
     </row>
-    <row r="206" spans="1:4" ht="36" customHeight="1">
+    <row r="206" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A206" s="18"/>
       <c r="B206" s="23"/>
       <c r="C206" s="14"/>
       <c r="D206" s="27"/>
     </row>
-    <row r="207" spans="1:4" ht="36" customHeight="1">
+    <row r="207" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A207" s="18"/>
       <c r="B207" s="23"/>
       <c r="C207" s="14"/>
       <c r="D207" s="27"/>
     </row>
-    <row r="208" spans="1:4" ht="36" customHeight="1">
+    <row r="208" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A208" s="18"/>
       <c r="B208" s="23"/>
       <c r="C208" s="14"/>
       <c r="D208" s="27"/>
     </row>
-    <row r="209" spans="1:4" ht="36" customHeight="1">
+    <row r="209" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A209" s="18"/>
       <c r="B209" s="23"/>
       <c r="C209" s="14"/>
       <c r="D209" s="27"/>
     </row>
-    <row r="210" spans="1:4" ht="36" customHeight="1">
+    <row r="210" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A210" s="18"/>
       <c r="B210" s="23"/>
       <c r="C210" s="14"/>
       <c r="D210" s="27"/>
     </row>
-    <row r="211" spans="1:4" ht="36" customHeight="1">
+    <row r="211" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A211" s="18"/>
       <c r="B211" s="23"/>
       <c r="C211" s="14"/>
       <c r="D211" s="27"/>
     </row>
-    <row r="212" spans="1:4" ht="36" customHeight="1">
+    <row r="212" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A212" s="18"/>
       <c r="B212" s="23"/>
       <c r="C212" s="14"/>
       <c r="D212" s="27"/>
     </row>
-    <row r="213" spans="1:4" ht="36" customHeight="1">
+    <row r="213" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A213" s="18"/>
       <c r="B213" s="23"/>
       <c r="C213" s="14"/>
       <c r="D213" s="27"/>
     </row>
-    <row r="214" spans="1:4" ht="36" customHeight="1">
+    <row r="214" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A214" s="18"/>
       <c r="B214" s="23"/>
       <c r="C214" s="14"/>
       <c r="D214" s="27"/>
     </row>
-    <row r="215" spans="1:4" ht="36" customHeight="1">
+    <row r="215" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A215" s="18"/>
       <c r="B215" s="23"/>
       <c r="C215" s="14"/>
       <c r="D215" s="27"/>
     </row>
-    <row r="216" spans="1:4" ht="36" customHeight="1">
+    <row r="216" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A216" s="18"/>
       <c r="B216" s="23"/>
       <c r="C216" s="14"/>
       <c r="D216" s="27"/>
     </row>
-    <row r="217" spans="1:4" ht="36" customHeight="1">
+    <row r="217" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A217" s="18"/>
       <c r="B217" s="23"/>
       <c r="C217" s="14"/>
       <c r="D217" s="27"/>
     </row>
-    <row r="218" spans="1:4" ht="36" customHeight="1">
+    <row r="218" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A218" s="18"/>
       <c r="B218" s="23"/>
       <c r="C218" s="14"/>
       <c r="D218" s="27"/>
     </row>
-    <row r="219" spans="1:4" ht="36" customHeight="1">
+    <row r="219" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A219" s="18"/>
       <c r="B219" s="23"/>
       <c r="C219" s="14"/>
       <c r="D219" s="27"/>
     </row>
-    <row r="220" spans="1:4" ht="36" customHeight="1">
+    <row r="220" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A220" s="18"/>
       <c r="B220" s="23"/>
       <c r="C220" s="14"/>
       <c r="D220" s="27"/>
     </row>
-    <row r="221" spans="1:4" ht="36" customHeight="1">
+    <row r="221" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A221" s="18"/>
       <c r="B221" s="23"/>
       <c r="C221" s="14"/>
       <c r="D221" s="27"/>
     </row>
-    <row r="222" spans="1:4" ht="36" customHeight="1">
+    <row r="222" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A222" s="18"/>
       <c r="B222" s="23"/>
       <c r="C222" s="14"/>
       <c r="D222" s="27"/>
     </row>
-    <row r="223" spans="1:4" ht="36" customHeight="1">
+    <row r="223" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A223" s="18"/>
       <c r="B223" s="23"/>
       <c r="C223" s="14"/>
       <c r="D223" s="27"/>
     </row>
-    <row r="224" spans="1:4" ht="36" customHeight="1">
+    <row r="224" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A224" s="18"/>
       <c r="B224" s="23"/>
       <c r="C224" s="14"/>
       <c r="D224" s="27"/>
     </row>
-    <row r="225" spans="1:4" ht="36" customHeight="1">
+    <row r="225" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A225" s="18"/>
       <c r="B225" s="23"/>
       <c r="C225" s="14"/>
       <c r="D225" s="27"/>
     </row>
-    <row r="226" spans="1:4" ht="36" customHeight="1">
+    <row r="226" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A226" s="18"/>
       <c r="B226" s="23"/>
       <c r="C226" s="14"/>
       <c r="D226" s="27"/>
     </row>
-    <row r="227" spans="1:4" ht="36" customHeight="1">
+    <row r="227" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A227" s="18"/>
       <c r="B227" s="23"/>
       <c r="C227" s="14"/>
       <c r="D227" s="27"/>
     </row>
-    <row r="228" spans="1:4" ht="36" customHeight="1">
+    <row r="228" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A228" s="18"/>
       <c r="B228" s="23"/>
       <c r="C228" s="14"/>
       <c r="D228" s="27"/>
     </row>
-    <row r="229" spans="1:4" ht="36" customHeight="1">
+    <row r="229" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A229" s="18"/>
       <c r="B229" s="23"/>
       <c r="C229" s="14"/>
       <c r="D229" s="27"/>
     </row>
-    <row r="230" spans="1:4" ht="36" customHeight="1">
+    <row r="230" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A230" s="18"/>
       <c r="B230" s="23"/>
       <c r="C230" s="14"/>
       <c r="D230" s="27"/>
     </row>
-    <row r="231" spans="1:4" ht="36" customHeight="1">
+    <row r="231" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A231" s="18"/>
       <c r="B231" s="23"/>
       <c r="C231" s="14"/>
       <c r="D231" s="27"/>
     </row>
-    <row r="232" spans="1:4" ht="36" customHeight="1">
+    <row r="232" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A232" s="18"/>
       <c r="B232" s="23"/>
       <c r="C232" s="14"/>
       <c r="D232" s="27"/>
     </row>
-    <row r="233" spans="1:4" ht="36" customHeight="1">
+    <row r="233" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A233" s="18"/>
       <c r="B233" s="23"/>
       <c r="C233" s="14"/>
       <c r="D233" s="27"/>
     </row>
-    <row r="234" spans="1:4" ht="36" customHeight="1">
+    <row r="234" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A234" s="18"/>
       <c r="B234" s="23"/>
       <c r="C234" s="14"/>
       <c r="D234" s="27"/>
     </row>
-    <row r="235" spans="1:4" ht="36" customHeight="1">
+    <row r="235" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A235" s="18"/>
       <c r="B235" s="23"/>
       <c r="C235" s="14"/>
       <c r="D235" s="27"/>
     </row>
-    <row r="236" spans="1:4" ht="36" customHeight="1">
+    <row r="236" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A236" s="18"/>
       <c r="B236" s="23"/>
       <c r="C236" s="14"/>
       <c r="D236" s="27"/>
     </row>
-    <row r="237" spans="1:4" ht="36" customHeight="1">
+    <row r="237" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A237" s="18"/>
       <c r="B237" s="23"/>
       <c r="C237" s="14"/>
       <c r="D237" s="27"/>
     </row>
-    <row r="238" spans="1:4" ht="36" customHeight="1">
+    <row r="238" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A238" s="18"/>
       <c r="B238" s="23"/>
       <c r="C238" s="14"/>
       <c r="D238" s="27"/>
     </row>
-    <row r="239" spans="1:4" ht="36" customHeight="1">
+    <row r="239" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A239" s="18"/>
       <c r="B239" s="23"/>
       <c r="C239" s="14"/>
       <c r="D239" s="27"/>
     </row>
-    <row r="240" spans="1:4" ht="36" customHeight="1">
+    <row r="240" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A240" s="18"/>
       <c r="B240" s="23"/>
       <c r="C240" s="14"/>
       <c r="D240" s="27"/>
     </row>
-    <row r="241" spans="1:4" ht="36" customHeight="1">
+    <row r="241" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A241" s="18"/>
       <c r="B241" s="23"/>
       <c r="C241" s="14"/>
       <c r="D241" s="27"/>
     </row>
-    <row r="242" spans="1:4" ht="36" customHeight="1">
+    <row r="242" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A242" s="18"/>
       <c r="B242" s="23"/>
       <c r="C242" s="14"/>
       <c r="D242" s="27"/>
     </row>
-    <row r="243" spans="1:4" ht="36" customHeight="1">
+    <row r="243" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A243" s="18"/>
       <c r="B243" s="23"/>
       <c r="C243" s="14"/>
       <c r="D243" s="27"/>
     </row>
-    <row r="244" spans="1:4" ht="36" customHeight="1">
+    <row r="244" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A244" s="18"/>
       <c r="B244" s="23"/>
       <c r="C244" s="14"/>
       <c r="D244" s="27"/>
     </row>
-    <row r="245" spans="1:4" ht="36" customHeight="1">
+    <row r="245" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A245" s="18"/>
       <c r="B245" s="23"/>
       <c r="C245" s="14"/>
       <c r="D245" s="27"/>
     </row>
-    <row r="246" spans="1:4" ht="36" customHeight="1">
+    <row r="246" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A246" s="18"/>
       <c r="B246" s="23"/>
       <c r="C246" s="14"/>
       <c r="D246" s="27"/>
     </row>
-    <row r="247" spans="1:4" ht="36" customHeight="1">
+    <row r="247" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A247" s="18"/>
       <c r="B247" s="23"/>
       <c r="C247" s="14"/>
       <c r="D247" s="27"/>
     </row>
-    <row r="248" spans="1:4" ht="36" customHeight="1">
+    <row r="248" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A248" s="18"/>
       <c r="B248" s="23"/>
       <c r="C248" s="14"/>
       <c r="D248" s="27"/>
     </row>
-    <row r="249" spans="1:4" ht="36" customHeight="1">
+    <row r="249" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A249" s="18"/>
       <c r="B249" s="23"/>
       <c r="C249" s="14"/>
       <c r="D249" s="27"/>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A250" s="18"/>
       <c r="B250" s="23"/>
       <c r="C250" s="14"/>
       <c r="D250" s="27"/>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A251" s="18"/>
       <c r="B251" s="23"/>
       <c r="C251" s="14"/>
       <c r="D251" s="27"/>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A252" s="18"/>
       <c r="B252" s="23"/>
       <c r="C252" s="14"/>
       <c r="D252" s="27"/>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A253" s="18"/>
       <c r="B253" s="23"/>
       <c r="C253" s="14"/>
       <c r="D253" s="27"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A254" s="19"/>
       <c r="B254" s="24"/>
       <c r="C254" s="15"/>
       <c r="D254" s="26"/>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A255" s="19"/>
       <c r="B255" s="24"/>
       <c r="C255" s="15"/>
       <c r="D255" s="26"/>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A256" s="19"/>
       <c r="B256" s="24"/>
       <c r="C256" s="15"/>
       <c r="D256" s="26"/>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A257" s="19"/>
       <c r="B257" s="24"/>
       <c r="C257" s="15"/>
       <c r="D257" s="26"/>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A258" s="19"/>
       <c r="B258" s="24"/>
       <c r="C258" s="15"/>
       <c r="D258" s="26"/>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A259" s="19"/>
       <c r="B259" s="24"/>
       <c r="C259" s="15"/>
@@ -8702,6 +8701,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B48"/>
@@ -8718,92 +8724,85 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A63:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="推举" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" display="坐姿推举" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" display="阿诺德推举" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C6" r:id="rId4" display="双臂前平举" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C7" r:id="rId5" display="单臂前平举" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C8" r:id="rId6" display="侧平举" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C9" r:id="rId7" display="直拉" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C10" r:id="rId8" display="坐姿侧平举" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C11" r:id="rId9" display="侧卧侧平举" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C12" r:id="rId10" display="侧斜侧平举" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C13" r:id="rId11" display="俯身侧平举" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C14" r:id="rId12" display="俯身摆臂" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C15" r:id="rId13" display="俯身上拉" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C16" r:id="rId14" display="斜躺侧平举" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="C17" r:id="rId15" display="斜板侧平举" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C18" r:id="rId16" display="坐姿俯身侧平举" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="C19" r:id="rId17" display="侧卧侧平举" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="C42" r:id="rId18" display="半蹲单臂弯举" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="C43" r:id="rId19" display="垂式弯举" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="C44" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="C45" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="C46" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="C47" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="C48" r:id="rId24" display="直板托臂弯举" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="C49" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="C50" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="C51" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="C52" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="C53" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="C54" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="C55" r:id="rId31" display="站姿屈臂伸(单)" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="C56" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="C57" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="C58" r:id="rId34" display="臂弯举" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="C59" r:id="rId35" display="臂弯举(腕翻转)" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="C60" r:id="rId36" display="臂弯举(锤式)" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="C61" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="C62" r:id="rId38" display="腕弯举" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="C20" r:id="rId39" display="仰卧屈臂上提(单)" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="C21" r:id="rId40" display="仰卧屈臂上拉" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="C22" r:id="rId41" display="下斜飞鸟" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="C23" r:id="rId42" display="高腿位飞鸟" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="C24" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="C25" r:id="rId44" display="下斜卧推" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="C26" r:id="rId45" display="卧推" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="C27" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="C28" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="C29" r:id="rId48" display="上斜飞鸟" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="C30" r:id="rId49" display="上斜卧推" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="C31" r:id="rId50" display="旋转上斜卧推" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="C32" r:id="rId51" display="斜板划船" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="C33" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="C34" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="C35" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="C36" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="C37" r:id="rId56" display="绕肩" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="C38" r:id="rId57" display="耸肩" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="C39" r:id="rId58" display="俯身摆肩" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="C40" r:id="rId59" display="侧卧侧拉" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="C41" r:id="rId60" display="侧卧支撑侧拉" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="C63" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="C64" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="C65" r:id="rId63" display="双臂侧屈体" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="C66" r:id="rId64" display="单臂侧屈" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="C67" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="C68" r:id="rId66" display="直腿硬拉" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="C69" r:id="rId67" display="侧弓步" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="C77" r:id="rId68" display="硬拉" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="C70" r:id="rId69" display="深蹲" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="C72" r:id="rId71" display="提箱式深蹲" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
-    <hyperlink ref="C73" r:id="rId72" display="弓步蹲" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
-    <hyperlink ref="C74" r:id="rId73" display="侧弓步" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
-    <hyperlink ref="C75" r:id="rId74" display="前弓步" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="C76" r:id="rId75" display="后弓步" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="C78" r:id="rId76" display="坐姿提踵" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="C3" r:id="rId1" display="推举"/>
+    <hyperlink ref="C4" r:id="rId2" display="坐姿推举"/>
+    <hyperlink ref="C5" r:id="rId3" display="阿诺德推举"/>
+    <hyperlink ref="C6" r:id="rId4" display="双臂前平举"/>
+    <hyperlink ref="C7" r:id="rId5" display="单臂前平举"/>
+    <hyperlink ref="C8" r:id="rId6" display="侧平举"/>
+    <hyperlink ref="C9" r:id="rId7" display="直拉"/>
+    <hyperlink ref="C10" r:id="rId8" display="坐姿侧平举"/>
+    <hyperlink ref="C11" r:id="rId9" display="侧卧侧平举"/>
+    <hyperlink ref="C12" r:id="rId10" display="侧斜侧平举"/>
+    <hyperlink ref="C13" r:id="rId11" display="俯身侧平举"/>
+    <hyperlink ref="C14" r:id="rId12" display="俯身摆臂"/>
+    <hyperlink ref="C15" r:id="rId13" display="俯身上拉"/>
+    <hyperlink ref="C16" r:id="rId14" display="斜躺侧平举"/>
+    <hyperlink ref="C17" r:id="rId15" display="斜板侧平举"/>
+    <hyperlink ref="C18" r:id="rId16" display="坐姿俯身侧平举"/>
+    <hyperlink ref="C19" r:id="rId17" display="侧卧侧平举"/>
+    <hyperlink ref="C42" r:id="rId18" display="半蹲单臂弯举"/>
+    <hyperlink ref="C43" r:id="rId19" display="垂式弯举"/>
+    <hyperlink ref="C44" r:id="rId20"/>
+    <hyperlink ref="C45" r:id="rId21"/>
+    <hyperlink ref="C46" r:id="rId22"/>
+    <hyperlink ref="C47" r:id="rId23"/>
+    <hyperlink ref="C48" r:id="rId24" display="直板托臂弯举"/>
+    <hyperlink ref="C49" r:id="rId25"/>
+    <hyperlink ref="C50" r:id="rId26"/>
+    <hyperlink ref="C51" r:id="rId27"/>
+    <hyperlink ref="C52" r:id="rId28"/>
+    <hyperlink ref="C53" r:id="rId29"/>
+    <hyperlink ref="C54" r:id="rId30"/>
+    <hyperlink ref="C55" r:id="rId31" display="站姿屈臂伸(单)"/>
+    <hyperlink ref="C56" r:id="rId32"/>
+    <hyperlink ref="C57" r:id="rId33"/>
+    <hyperlink ref="C58" r:id="rId34" display="臂弯举"/>
+    <hyperlink ref="C59" r:id="rId35" display="臂弯举(腕翻转)"/>
+    <hyperlink ref="C60" r:id="rId36" display="臂弯举(锤式)"/>
+    <hyperlink ref="C61" r:id="rId37"/>
+    <hyperlink ref="C62" r:id="rId38" display="腕弯举"/>
+    <hyperlink ref="C20" r:id="rId39" display="仰卧屈臂上提(单)"/>
+    <hyperlink ref="C21" r:id="rId40" display="仰卧屈臂上拉"/>
+    <hyperlink ref="C22" r:id="rId41" display="下斜飞鸟"/>
+    <hyperlink ref="C23" r:id="rId42" display="高腿位飞鸟"/>
+    <hyperlink ref="C24" r:id="rId43"/>
+    <hyperlink ref="C25" r:id="rId44" display="下斜卧推"/>
+    <hyperlink ref="C26" r:id="rId45" display="卧推"/>
+    <hyperlink ref="C27" r:id="rId46"/>
+    <hyperlink ref="C28" r:id="rId47"/>
+    <hyperlink ref="C29" r:id="rId48" display="上斜飞鸟"/>
+    <hyperlink ref="C30" r:id="rId49" display="上斜卧推"/>
+    <hyperlink ref="C31" r:id="rId50" display="旋转上斜卧推"/>
+    <hyperlink ref="C32" r:id="rId51" display="斜板划船"/>
+    <hyperlink ref="C33" r:id="rId52"/>
+    <hyperlink ref="C34" r:id="rId53"/>
+    <hyperlink ref="C35" r:id="rId54"/>
+    <hyperlink ref="C36" r:id="rId55"/>
+    <hyperlink ref="C37" r:id="rId56" display="绕肩"/>
+    <hyperlink ref="C38" r:id="rId57" display="耸肩"/>
+    <hyperlink ref="C39" r:id="rId58" display="俯身摆肩"/>
+    <hyperlink ref="C40" r:id="rId59" display="侧卧侧拉"/>
+    <hyperlink ref="C41" r:id="rId60" display="侧卧支撑侧拉"/>
+    <hyperlink ref="C63" r:id="rId61"/>
+    <hyperlink ref="C64" r:id="rId62"/>
+    <hyperlink ref="C65" r:id="rId63" display="双臂侧屈体"/>
+    <hyperlink ref="C66" r:id="rId64" display="单臂侧屈"/>
+    <hyperlink ref="C67" r:id="rId65"/>
+    <hyperlink ref="C68" r:id="rId66" display="直腿硬拉"/>
+    <hyperlink ref="C69" r:id="rId67" display="侧弓步"/>
+    <hyperlink ref="C77" r:id="rId68" display="硬拉"/>
+    <hyperlink ref="C70" r:id="rId69" display="深蹲"/>
+    <hyperlink ref="C71" r:id="rId70"/>
+    <hyperlink ref="C72" r:id="rId71" display="提箱式深蹲"/>
+    <hyperlink ref="C73" r:id="rId72" display="弓步蹲"/>
+    <hyperlink ref="C74" r:id="rId73" display="侧弓步"/>
+    <hyperlink ref="C75" r:id="rId74" display="前弓步"/>
+    <hyperlink ref="C76" r:id="rId75" display="后弓步"/>
+    <hyperlink ref="C78" r:id="rId76" display="坐姿提踵"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8812,14 +8811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="62" customWidth="1"/>
@@ -8829,102 +8828,102 @@
     <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35">
+    <row r="1" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="157"/>
-    </row>
-    <row r="2" spans="1:6" ht="65" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="D1" s="136"/>
+    </row>
+    <row r="2" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="158"/>
-    </row>
-    <row r="3" spans="1:6" ht="31" customHeight="1">
-      <c r="A3" s="143"/>
-      <c r="C3" s="159" t="s">
+      <c r="D2" s="137"/>
+    </row>
+    <row r="3" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="149"/>
+      <c r="C3" s="138" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="161" t="s">
         <v>332</v>
       </c>
-      <c r="F3" s="156"/>
-    </row>
-    <row r="4" spans="1:6" ht="31" customHeight="1">
-      <c r="A4" s="144" t="s">
+      <c r="F3" s="162"/>
+    </row>
+    <row r="4" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="150" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31" customHeight="1">
-      <c r="A5" s="145"/>
-      <c r="C5" s="161" t="s">
+    <row r="5" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="151"/>
+      <c r="C5" s="140" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="136" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31" customHeight="1">
-      <c r="A6" s="145"/>
-      <c r="C6" s="162"/>
+      <c r="F5" s="142" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="151"/>
+      <c r="C6" s="141"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="136"/>
-    </row>
-    <row r="7" spans="1:6" ht="31" customHeight="1">
-      <c r="A7" s="145"/>
-      <c r="C7" s="138" t="s">
+      <c r="F6" s="142"/>
+    </row>
+    <row r="7" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="151"/>
+      <c r="C7" s="144" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="136"/>
-    </row>
-    <row r="8" spans="1:6" ht="31" customHeight="1">
-      <c r="A8" s="145"/>
-      <c r="C8" s="139"/>
+      <c r="F7" s="142"/>
+    </row>
+    <row r="8" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="151"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="136"/>
-    </row>
-    <row r="9" spans="1:6" ht="23">
-      <c r="A9" s="145"/>
-      <c r="C9" s="151" t="s">
+      <c r="F8" s="142"/>
+    </row>
+    <row r="9" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+      <c r="A9" s="151"/>
+      <c r="C9" s="157" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="F9" s="136"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="145"/>
-      <c r="C10" s="147" t="s">
+      <c r="D9" s="158"/>
+      <c r="F9" s="142"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="151"/>
+      <c r="C10" s="153" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="F10" s="136"/>
-    </row>
-    <row r="11" spans="1:6" ht="32" customHeight="1">
-      <c r="A11" s="145"/>
+      <c r="D10" s="154"/>
+      <c r="F10" s="142"/>
+    </row>
+    <row r="11" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="151"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -8932,75 +8931,70 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="136"/>
-    </row>
-    <row r="12" spans="1:6" ht="54" customHeight="1">
-      <c r="A12" s="146"/>
-      <c r="C12" s="149" t="s">
+      <c r="F11" s="142"/>
+    </row>
+    <row r="12" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="152"/>
+      <c r="C12" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="F12" s="136"/>
-    </row>
-    <row r="13" spans="1:6" ht="37" customHeight="1">
-      <c r="C13" s="153" t="s">
+      <c r="D12" s="156"/>
+      <c r="F12" s="142"/>
+    </row>
+    <row r="13" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="159" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="154"/>
-      <c r="F13" s="136" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" customHeight="1">
+      <c r="D13" s="160"/>
+      <c r="F13" s="142" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="57" t="s">
         <v>187</v>
       </c>
       <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="136"/>
-    </row>
-    <row r="15" spans="1:6" ht="48" customHeight="1">
-      <c r="C15" s="140" t="s">
+      <c r="F14" s="142"/>
+    </row>
+    <row r="15" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="141"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="136"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="F16" s="136"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="136"/>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="136"/>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="136"/>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="137" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="137"/>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" s="137"/>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" s="137"/>
+      <c r="F15" s="142"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16" s="142"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="142"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="142"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F19" s="142"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F20" s="143" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="143"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="143"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F23" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F12"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="C7:C8"/>
@@ -9012,6 +9006,11 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9020,14 +9019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="C211" sqref="C211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72.5" style="63" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="85" customWidth="1"/>
@@ -9039,13 +9038,13 @@
     <col min="15" max="15" width="34.6640625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28">
+    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="164">
         <v>2014.4</v>
       </c>
       <c r="B1" s="164"/>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1">
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>191</v>
       </c>
@@ -9053,7 +9052,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
         <v>192</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="86">
         <f>SUM(B2:B3)</f>
         <v>163.80000000000001</v>
@@ -9070,13 +9069,13 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28">
+    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="164">
         <v>2014.5</v>
       </c>
       <c r="B5" s="164"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
         <v>193</v>
       </c>
@@ -9084,7 +9083,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
         <v>252</v>
       </c>
@@ -9092,7 +9091,7 @@
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
         <v>253</v>
       </c>
@@ -9100,7 +9099,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
         <v>254</v>
       </c>
@@ -9108,7 +9107,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
         <v>255</v>
       </c>
@@ -9119,7 +9118,7 @@
         <v>623.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="86">
         <f>SUM(B6:B10)</f>
         <v>623.35</v>
@@ -9129,13 +9128,13 @@
         <v>787.15000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1">
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="164" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="164"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>195</v>
       </c>
@@ -9143,7 +9142,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="s">
         <v>196</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="64"/>
       <c r="B15" s="86">
         <f>SUM(B13:B14)</f>
@@ -9165,7 +9164,7 @@
         <v>919.90000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1">
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="164" t="s">
         <v>238</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="s">
         <v>197</v>
       </c>
@@ -9186,13 +9185,13 @@
         <v>1243.9000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1">
+    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="164" t="s">
         <v>239</v>
       </c>
       <c r="B18" s="164"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
         <v>198</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>109.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
         <v>199</v>
       </c>
@@ -9208,7 +9207,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
         <v>198</v>
       </c>
@@ -9219,7 +9218,7 @@
         <v>305.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="86">
         <f>SUM(B19:B21)</f>
         <v>305.31</v>
@@ -9229,7 +9228,7 @@
         <v>1549.21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1">
+    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="164" t="s">
         <v>200</v>
       </c>
@@ -9238,7 +9237,7 @@
         <v>49.67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
         <v>201</v>
       </c>
@@ -9250,13 +9249,13 @@
         <v>1598.88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1">
+    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="164" t="s">
         <v>240</v>
       </c>
       <c r="B25" s="164"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="64" t="s">
         <v>202</v>
       </c>
@@ -9264,7 +9263,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="63" t="s">
         <v>203</v>
       </c>
@@ -9272,7 +9271,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="63" t="s">
         <v>203</v>
       </c>
@@ -9280,7 +9279,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
         <v>204</v>
       </c>
@@ -9288,7 +9287,7 @@
         <v>308.70999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="63" t="s">
         <v>205</v>
       </c>
@@ -9296,7 +9295,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="63" t="s">
         <v>206</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="63" t="s">
         <v>207</v>
       </c>
@@ -9315,7 +9314,7 @@
         <v>1098.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="86">
         <f>SUM(B26:B32)</f>
         <v>1098.43</v>
@@ -9325,13 +9324,13 @@
         <v>2697.3100000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21" customHeight="1">
+    <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="164" t="s">
         <v>241</v>
       </c>
       <c r="B34" s="164"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="63" t="s">
         <v>208</v>
       </c>
@@ -9339,7 +9338,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="63" t="s">
         <v>209</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="63" t="s">
         <v>256</v>
       </c>
@@ -9355,7 +9354,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="63" t="s">
         <v>257</v>
       </c>
@@ -9363,7 +9362,7 @@
         <v>35.64</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="63" t="s">
         <v>258</v>
       </c>
@@ -9371,7 +9370,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="63" t="s">
         <v>210</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>178.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="63" t="s">
         <v>211</v>
       </c>
@@ -9387,7 +9386,7 @@
         <v>51.27</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="63" t="s">
         <v>211</v>
       </c>
@@ -9395,7 +9394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="41" customHeight="1">
+    <row r="43" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="65" t="s">
         <v>212</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v>826.03</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="65"/>
       <c r="B44" s="86">
         <f>SUM(B35:B43)</f>
@@ -9417,13 +9416,13 @@
         <v>3523.34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21" customHeight="1">
+    <row r="45" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="164" t="s">
         <v>242</v>
       </c>
       <c r="B45" s="164"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="65" t="s">
         <v>213</v>
       </c>
@@ -9431,7 +9430,7 @@
         <v>309.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="65" t="s">
         <v>214</v>
       </c>
@@ -9442,7 +9441,7 @@
         <v>500.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
       <c r="B48" s="86">
         <f>SUM(B46:B47)</f>
@@ -9453,13 +9452,13 @@
         <v>4024.04</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" customHeight="1">
+    <row r="49" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="164" t="s">
         <v>243</v>
       </c>
       <c r="B49" s="164"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="65" t="s">
         <v>259</v>
       </c>
@@ -9467,7 +9466,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="63" t="s">
         <v>215</v>
       </c>
@@ -9475,7 +9474,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="63" t="s">
         <v>216</v>
       </c>
@@ -9483,7 +9482,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="65" t="s">
         <v>260</v>
       </c>
@@ -9494,7 +9493,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="65"/>
       <c r="B54" s="86">
         <f>SUM(B50:B53)</f>
@@ -9505,13 +9504,13 @@
         <v>4539.54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21" customHeight="1">
+    <row r="55" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="164" t="s">
         <v>244</v>
       </c>
       <c r="B55" s="164"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="s">
         <v>217</v>
       </c>
@@ -9519,7 +9518,7 @@
         <v>199.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="65" t="s">
         <v>261</v>
       </c>
@@ -9527,7 +9526,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="65" t="s">
         <v>218</v>
       </c>
@@ -9535,7 +9534,7 @@
         <v>238.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="63" t="s">
         <v>222</v>
       </c>
@@ -9543,7 +9542,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="65" t="s">
         <v>262</v>
       </c>
@@ -9554,7 +9553,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="65"/>
       <c r="B61" s="86">
         <f>SUM(B56:B60)</f>
@@ -9565,13 +9564,13 @@
         <v>5521.54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21" customHeight="1">
+    <row r="62" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="164" t="s">
         <v>245</v>
       </c>
       <c r="B62" s="164"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="65" t="s">
         <v>263</v>
       </c>
@@ -9579,7 +9578,7 @@
         <v>75.239999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="65" t="s">
         <v>264</v>
       </c>
@@ -9587,7 +9586,7 @@
         <v>85.84</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="65" t="s">
         <v>265</v>
       </c>
@@ -9598,7 +9597,7 @@
         <v>207.14</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="65"/>
       <c r="B66" s="86">
         <f>SUM(B63:B65)</f>
@@ -9609,13 +9608,13 @@
         <v>5728.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21" customHeight="1">
+    <row r="67" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="164" t="s">
         <v>219</v>
       </c>
       <c r="B67" s="164"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="65" t="s">
         <v>266</v>
       </c>
@@ -9623,7 +9622,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="65" t="s">
         <v>220</v>
       </c>
@@ -9634,7 +9633,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="65"/>
       <c r="B70" s="86">
         <f>SUM(B68:B69)</f>
@@ -9645,13 +9644,13 @@
         <v>5926.9800000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21" customHeight="1">
+    <row r="71" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="164" t="s">
         <v>247</v>
       </c>
       <c r="B71" s="164"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="65" t="s">
         <v>246</v>
       </c>
@@ -9659,7 +9658,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="65" t="s">
         <v>223</v>
       </c>
@@ -9667,7 +9666,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="65" t="s">
         <v>267</v>
       </c>
@@ -9678,7 +9677,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="65"/>
       <c r="B75" s="86">
         <f>SUM(B72:B74)</f>
@@ -9689,13 +9688,13 @@
         <v>6341.9800000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21" customHeight="1">
+    <row r="76" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="164" t="s">
         <v>248</v>
       </c>
       <c r="B76" s="164"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="65" t="s">
         <v>268</v>
       </c>
@@ -9703,7 +9702,7 @@
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="65" t="s">
         <v>269</v>
       </c>
@@ -9711,7 +9710,7 @@
         <v>98.99</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="65" t="s">
         <v>270</v>
       </c>
@@ -9719,7 +9718,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="65" t="s">
         <v>271</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>386.53</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="65"/>
       <c r="B81" s="86">
         <f>SUM(B77:B80)</f>
@@ -9741,13 +9740,13 @@
         <v>6728.51</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21" customHeight="1">
+    <row r="82" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="164" t="s">
         <v>221</v>
       </c>
       <c r="B82" s="164"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="65" t="s">
         <v>272</v>
       </c>
@@ -9755,7 +9754,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="65" t="s">
         <v>273</v>
       </c>
@@ -9763,7 +9762,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="65" t="s">
         <v>274</v>
       </c>
@@ -9771,7 +9770,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="65" t="s">
         <v>275</v>
       </c>
@@ -9782,7 +9781,7 @@
         <v>579.15</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="65"/>
       <c r="B87" s="86">
         <f>SUM(B83:B86)</f>
@@ -9793,13 +9792,13 @@
         <v>7307.66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21" customHeight="1">
+    <row r="88" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="164" t="s">
         <v>249</v>
       </c>
       <c r="B88" s="164"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="65" t="s">
         <v>224</v>
       </c>
@@ -9807,7 +9806,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="65" t="s">
         <v>276</v>
       </c>
@@ -9815,7 +9814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="65" t="s">
         <v>277</v>
       </c>
@@ -9826,7 +9825,7 @@
         <v>229.26</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="65"/>
       <c r="B92" s="86">
         <f>SUM(B89:B91)</f>
@@ -9837,13 +9836,13 @@
         <v>7536.92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21" customHeight="1">
+    <row r="93" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="164" t="s">
         <v>225</v>
       </c>
       <c r="B93" s="164"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="65" t="s">
         <v>278</v>
       </c>
@@ -9851,7 +9850,7 @@
         <v>143.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="65" t="s">
         <v>226</v>
       </c>
@@ -9859,7 +9858,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="65" t="s">
         <v>279</v>
       </c>
@@ -9867,7 +9866,7 @@
         <v>166.32</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="65" t="s">
         <v>227</v>
       </c>
@@ -9875,7 +9874,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="65" t="s">
         <v>280</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="65" t="s">
         <v>228</v>
       </c>
@@ -9891,7 +9890,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="65" t="s">
         <v>281</v>
       </c>
@@ -9899,7 +9898,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="65" t="s">
         <v>282</v>
       </c>
@@ -9907,7 +9906,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="65" t="s">
         <v>283</v>
       </c>
@@ -9915,7 +9914,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="65" t="s">
         <v>284</v>
       </c>
@@ -9923,7 +9922,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="65" t="s">
         <v>285</v>
       </c>
@@ -9934,7 +9933,7 @@
         <v>1068.92</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="65"/>
       <c r="B105" s="86">
         <f>SUM(B94:B104)</f>
@@ -9945,14 +9944,14 @@
         <v>8605.84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21" customHeight="1">
+    <row r="106" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="164" t="s">
         <v>250</v>
       </c>
       <c r="B106" s="164"/>
       <c r="C106" s="68"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="66" t="s">
         <v>229</v>
       </c>
@@ -9961,7 +9960,7 @@
       </c>
       <c r="C107" s="68"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="63" t="s">
         <v>226</v>
       </c>
@@ -9970,7 +9969,7 @@
       </c>
       <c r="C108" s="68"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="66" t="s">
         <v>230</v>
       </c>
@@ -9979,7 +9978,7 @@
       </c>
       <c r="C109" s="68"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="66" t="s">
         <v>231</v>
       </c>
@@ -9988,7 +9987,7 @@
       </c>
       <c r="C110" s="68"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="66" t="s">
         <v>232</v>
       </c>
@@ -9999,7 +9998,7 @@
         <v>365.99</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="66"/>
       <c r="B112" s="86">
         <f>SUM(B107:B111)</f>
@@ -10010,14 +10009,14 @@
         <v>8971.83</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21" customHeight="1">
+    <row r="113" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="164" t="s">
         <v>251</v>
       </c>
       <c r="B113" s="164"/>
       <c r="C113" s="68"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="66" t="s">
         <v>233</v>
       </c>
@@ -10026,7 +10025,7 @@
       </c>
       <c r="C114" s="68"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="66" t="s">
         <v>234</v>
       </c>
@@ -10035,7 +10034,7 @@
       </c>
       <c r="C115" s="68"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="66" t="s">
         <v>235</v>
       </c>
@@ -10044,7 +10043,7 @@
       </c>
       <c r="C116" s="68"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="66" t="s">
         <v>301</v>
       </c>
@@ -10052,15 +10051,15 @@
         <v>112.7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="26" customHeight="1">
+    <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="66" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B118" s="85">
         <v>170.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="66" t="s">
         <v>236</v>
       </c>
@@ -10068,7 +10067,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="66" t="s">
         <v>237</v>
       </c>
@@ -10076,7 +10075,7 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="66" t="s">
         <v>286</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="63" t="s">
         <v>287</v>
       </c>
@@ -10096,7 +10095,7 @@
         <v>835.33999999999992</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B123" s="86">
         <f>SUM(B114:B122)</f>
         <v>835.33999999999992</v>
@@ -10106,13 +10105,13 @@
         <v>9807.17</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28">
+    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="164" t="s">
         <v>288</v>
       </c>
       <c r="B124" s="164"/>
     </row>
-    <row r="125" spans="1:3" ht="26" customHeight="1">
+    <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="66" t="s">
         <v>289</v>
       </c>
@@ -10120,7 +10119,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
+    <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="63" t="s">
         <v>290</v>
       </c>
@@ -10128,7 +10127,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="63" t="s">
         <v>292</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="63" t="s">
         <v>291</v>
       </c>
@@ -10144,15 +10143,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="63" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B129" s="88">
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="76" t="s">
         <v>293</v>
       </c>
@@ -10160,7 +10159,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="76" t="s">
         <v>296</v>
       </c>
@@ -10168,7 +10167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="63" t="s">
         <v>295</v>
       </c>
@@ -10176,7 +10175,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="63" t="s">
         <v>300</v>
       </c>
@@ -10184,7 +10183,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="63" t="s">
         <v>294</v>
       </c>
@@ -10192,7 +10191,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="63" t="s">
         <v>337</v>
       </c>
@@ -10200,7 +10199,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="63" t="s">
         <v>338</v>
       </c>
@@ -10209,7 +10208,7 @@
       </c>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="63" t="s">
         <v>335</v>
       </c>
@@ -10218,7 +10217,7 @@
       </c>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="63" t="s">
         <v>297</v>
       </c>
@@ -10227,7 +10226,7 @@
       </c>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="63" t="s">
         <v>298</v>
       </c>
@@ -10236,7 +10235,7 @@
       </c>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="63" t="s">
         <v>299</v>
       </c>
@@ -10245,9 +10244,9 @@
       </c>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
+    <row r="141" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="63" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B141" s="85">
         <v>86</v>
@@ -10257,7 +10256,7 @@
         <v>1349.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
+    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142"/>
       <c r="B142" s="86">
         <f>SUM(B125:B141)</f>
@@ -10268,14 +10267,14 @@
         <v>11156.77</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28">
+    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A143" s="164" t="s">
         <v>302</v>
       </c>
       <c r="B143" s="164"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="63" t="s">
         <v>303</v>
       </c>
@@ -10284,7 +10283,7 @@
       </c>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="63" t="s">
         <v>304</v>
       </c>
@@ -10293,23 +10292,23 @@
       </c>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="63" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B146" s="85">
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="63" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B147" s="85">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="63" t="s">
         <v>334</v>
       </c>
@@ -10317,7 +10316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="63" t="s">
         <v>321</v>
       </c>
@@ -10325,7 +10324,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="63" t="s">
         <v>305</v>
       </c>
@@ -10333,7 +10332,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="63" t="s">
         <v>306</v>
       </c>
@@ -10341,7 +10340,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="63" t="s">
         <v>307</v>
       </c>
@@ -10349,7 +10348,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="63" t="s">
         <v>324</v>
       </c>
@@ -10357,7 +10356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="65" t="s">
         <v>308</v>
       </c>
@@ -10365,7 +10364,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="65" t="s">
         <v>309</v>
       </c>
@@ -10373,7 +10372,7 @@
         <v>158.88</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="65" t="s">
         <v>310</v>
       </c>
@@ -10381,7 +10380,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="65" t="s">
         <v>311</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="65" t="s">
         <v>336</v>
       </c>
@@ -10397,7 +10396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="65" t="s">
         <v>320</v>
       </c>
@@ -10410,7 +10409,7 @@
       <c r="M159" s="77"/>
       <c r="O159"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="65" t="s">
         <v>312</v>
       </c>
@@ -10423,7 +10422,7 @@
       <c r="D160" s="83"/>
       <c r="E160" s="86"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="65"/>
       <c r="B161" s="86">
         <f>SUM(B144:B160)</f>
@@ -10434,13 +10433,13 @@
         <v>12618.25</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="28">
+    <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
       <c r="A162" s="163">
         <v>2018.01</v>
       </c>
       <c r="B162" s="164"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="65" t="s">
         <v>342</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="63" t="s">
         <v>313</v>
       </c>
@@ -10456,7 +10455,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="63" t="s">
         <v>314</v>
       </c>
@@ -10464,7 +10463,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="63" t="s">
         <v>315</v>
       </c>
@@ -10472,7 +10471,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="63" t="s">
         <v>316</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="63" t="s">
         <v>317</v>
       </c>
@@ -10488,7 +10487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="65" t="s">
         <v>318</v>
       </c>
@@ -10496,7 +10495,7 @@
         <v>84.83</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="63" t="s">
         <v>319</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="63" t="s">
         <v>322</v>
       </c>
@@ -10512,9 +10511,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="63" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B172" s="85">
         <v>84</v>
@@ -10524,9 +10523,9 @@
       <c r="M172" s="77"/>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="63" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B173" s="85">
         <v>84</v>
@@ -10535,7 +10534,7 @@
         <v>1262.6300000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B174" s="86">
         <f>SUM(B163:B173)</f>
         <v>1262.6300000000001</v>
@@ -10545,29 +10544,29 @@
         <v>13880.880000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="28">
+    <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
       <c r="A175" s="163">
         <v>2018.02</v>
       </c>
       <c r="B175" s="164"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="63" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B176" s="85">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="63" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B177" s="85">
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="63" t="s">
         <v>323</v>
       </c>
@@ -10578,7 +10577,7 @@
         <v>285.64</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B179" s="85">
         <f>SUM(B176:B178)</f>
         <v>285.64</v>
@@ -10588,21 +10587,21 @@
         <v>14166.52</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="28">
+    <row r="180" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A180" s="163">
         <v>2018.03</v>
       </c>
       <c r="B180" s="164"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="63" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B181" s="85">
         <v>84.74</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="63" t="s">
         <v>325</v>
       </c>
@@ -10610,9 +10609,9 @@
         <v>115.64</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="63" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B183" s="85">
         <v>86</v>
@@ -10621,7 +10620,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="63" t="s">
         <v>326</v>
       </c>
@@ -10629,7 +10628,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="63" t="s">
         <v>327</v>
       </c>
@@ -10637,7 +10636,7 @@
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="48">
+    <row r="186" spans="1:4" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="65" t="s">
         <v>328</v>
       </c>
@@ -10645,39 +10644,39 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="65" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B187" s="85">
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="65" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B188" s="85">
         <v>83.1</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="65" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B189" s="85">
         <v>84.4</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="65" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B190" s="85">
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="65" t="s">
         <v>330</v>
       </c>
@@ -10685,7 +10684,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="65" t="s">
         <v>331</v>
       </c>
@@ -10693,7 +10692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="65" t="s">
         <v>333</v>
       </c>
@@ -10704,7 +10703,7 @@
         <v>1328.56</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="65"/>
       <c r="B194" s="86">
         <f>SUM(B181:B193)</f>
@@ -10715,21 +10714,21 @@
         <v>15495.08</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="28">
+    <row r="195" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A195" s="163">
         <v>2018.04</v>
       </c>
       <c r="B195" s="164"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="65" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B196" s="85">
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="65" t="s">
         <v>339</v>
       </c>
@@ -10737,7 +10736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="63" t="s">
         <v>340</v>
       </c>
@@ -10745,13 +10744,13 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C199" s="70">
         <f>SUM(B200,0)</f>
         <v>484.5</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B200" s="86">
         <f>SUM(B196:B199)</f>
         <v>484.5</v>
@@ -10761,13 +10760,13 @@
         <v>17308.14</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="28">
+    <row r="201" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A201" s="163">
         <v>2018.05</v>
       </c>
       <c r="B201" s="164"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="63" t="s">
         <v>341</v>
       </c>
@@ -10775,7 +10774,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="63" t="s">
         <v>343</v>
       </c>
@@ -10783,7 +10782,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="73" t="s">
         <v>345</v>
       </c>
@@ -10794,20 +10793,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="73" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="B205" s="85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="73" t="s">
         <v>346</v>
-      </c>
-      <c r="B205" s="84">
-        <v>9.9</v>
-      </c>
-      <c r="D205" s="82" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="73" t="s">
-        <v>347</v>
       </c>
       <c r="B206" s="84">
         <v>9.9</v>
@@ -10816,489 +10812,482 @@
         <v>344</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="73" t="s">
-        <v>348</v>
-      </c>
-      <c r="B207" s="84">
-        <v>9.9</v>
-      </c>
-      <c r="D207" s="82" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="73" t="s">
-        <v>349</v>
-      </c>
-      <c r="B208" s="84">
-        <v>9.9</v>
-      </c>
-      <c r="D208" s="82" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="63" t="s">
+        <v>439</v>
+      </c>
+      <c r="B207" s="85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="63" t="s">
+        <v>437</v>
+      </c>
+      <c r="B208" s="85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="73" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B209" s="84">
         <v>10</v>
       </c>
       <c r="D209" s="82" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C210" s="70">
         <f>SUM(B211,0)</f>
-        <v>251.70000000000002</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B211" s="86">
         <f>SUM(B202:B210)</f>
-        <v>251.70000000000002</v>
+        <v>474</v>
       </c>
       <c r="C211" s="72">
         <f>SUM(C200:C210)</f>
-        <v>17559.84</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="28">
+        <v>17782.14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A212" s="163" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B212" s="164"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C213" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B214" s="86">
         <f>SUM(B213:B213)</f>
         <v>0</v>
       </c>
       <c r="C214" s="72">
         <f>SUM(C211:C213)</f>
-        <v>17559.84</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="28">
+        <v>17782.14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A215" s="163">
         <v>2018.08</v>
       </c>
       <c r="B215" s="164"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="63" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B216" s="85">
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="63" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B217" s="85">
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="63" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B218" s="85">
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="73" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B219" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D219" s="82" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="73" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B220" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D220" s="82" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="73" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B221" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D221" s="82" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="73" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="73" t="s">
-        <v>406</v>
       </c>
       <c r="B222" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D222" s="82" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="63" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B223" s="85">
         <v>70.78</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="63" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B224" s="85">
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C225" s="70">
         <v>820.12</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B226" s="86">
         <f>SUM(B216:B225)</f>
         <v>820.11999999999989</v>
       </c>
       <c r="C226" s="72">
         <f>SUM(C214:C225)</f>
-        <v>18379.96</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="28">
+        <v>18602.259999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A227" s="163" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B227" s="164"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="63" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B228" s="85">
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="63" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B229" s="85">
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="73" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B230" s="84">
         <v>10</v>
       </c>
       <c r="D230" s="82" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C231" s="70">
         <v>388</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B232" s="86">
         <f>SUM(B228:B231)</f>
         <v>388</v>
       </c>
       <c r="C232" s="72">
         <f>SUM(C225:C231)</f>
-        <v>19588.079999999998</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="28">
+        <v>19810.379999999997</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A233" s="163" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B233" s="164"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="73" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B234" s="84">
         <v>9.66</v>
       </c>
       <c r="D234" s="82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="73" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B235" s="84">
         <v>9.66</v>
       </c>
       <c r="D235" s="82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B236" s="84">
         <v>9.66</v>
       </c>
       <c r="D236" s="82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="73" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B237" s="84">
         <v>9.66</v>
       </c>
       <c r="D237" s="82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="73" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B238" s="84">
         <v>9.66</v>
       </c>
       <c r="D238" s="82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B239" s="84">
         <v>9.66</v>
       </c>
       <c r="D239" s="82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="73" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B240" s="84">
         <v>9.66</v>
       </c>
       <c r="D240" s="82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B241" s="84">
         <v>9.66</v>
       </c>
       <c r="D241" s="82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="73" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B242" s="84">
         <v>9.66</v>
       </c>
       <c r="D242" s="82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="73" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B243" s="84">
         <v>9.66</v>
       </c>
       <c r="D243" s="82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="73" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B244" s="84">
         <v>9.66</v>
       </c>
       <c r="D244" s="82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="73" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B245" s="84">
         <v>9.6</v>
       </c>
       <c r="D245" s="82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="73" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B246" s="84">
         <v>9.61</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="63" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B247" s="85">
         <v>108.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="73" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B248" s="84">
         <v>9.61</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="73" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B249" s="84">
         <v>9.61</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="76"/>
       <c r="B250" s="102"/>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="76"/>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="102"/>
       <c r="C251" s="70">
         <v>115.86</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="86">
         <f>SUM(B234:B251)</f>
         <v>253.49</v>
       </c>
       <c r="C252" s="72">
         <f>SUM(C232:C251)</f>
-        <v>19703.939999999999</v>
-      </c>
-    </row>
-    <row r="269" spans="9:10">
+        <v>19926.239999999998</v>
+      </c>
+    </row>
+    <row r="269" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I269" s="78"/>
       <c r="J269"/>
     </row>
-    <row r="270" spans="9:10">
+    <row r="270" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I270" s="78"/>
       <c r="J270"/>
     </row>
-    <row r="339" spans="10:10">
+    <row r="339" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J339" s="80"/>
     </row>
-    <row r="381" spans="9:9">
+    <row r="381" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I381" s="79"/>
     </row>
-    <row r="669" spans="15:15">
+    <row r="669" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O669" s="79"/>
     </row>
-    <row r="674" spans="14:25">
+    <row r="674" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y674">
         <v>9</v>
       </c>
     </row>
-    <row r="675" spans="14:25">
+    <row r="675" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y675">
         <v>12</v>
       </c>
     </row>
-    <row r="676" spans="14:25">
+    <row r="676" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y676">
         <v>8</v>
       </c>
     </row>
-    <row r="677" spans="14:25">
+    <row r="677" spans="14:25" x14ac:dyDescent="0.3">
       <c r="N677" s="79"/>
       <c r="Y677">
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="14:25">
+    <row r="678" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y678">
         <v>10</v>
       </c>
     </row>
-    <row r="679" spans="14:25">
+    <row r="679" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y679">
         <v>9</v>
       </c>
     </row>
-    <row r="680" spans="14:25">
+    <row r="680" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y680">
         <v>16</v>
       </c>
     </row>
-    <row r="681" spans="14:25">
+    <row r="681" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y681">
         <v>9</v>
       </c>
     </row>
-    <row r="682" spans="14:25">
+    <row r="682" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y682">
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="14:25">
+    <row r="683" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y683">
         <v>8</v>
       </c>
     </row>
-    <row r="684" spans="14:25">
+    <row r="684" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y684" s="81">
         <f>SUM(Y674:Y683)</f>
         <v>97</v>
@@ -11306,6 +11295,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A106:B106"/>
     <mergeCell ref="A233:B233"/>
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="A1:B1"/>
@@ -11322,21 +11326,6 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A106:B106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/RankTest/健身文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3DD4E924-A15B-4847-BAC9-C086AC15EBF3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="10980" yWindow="1780" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="训练计划表" sheetId="3" r:id="rId4"/>
     <sheet name="模型花费" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="446">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -4257,15 +4258,45 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>闪光与魅力      布尔玛            预定</t>
+    <rPh sb="0" eb="2">
+      <t>shan'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪光与魅力      女帝</t>
+    <rPh sb="0" eb="5">
+      <t>nv'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSP            祖国超四悟空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4             路人女主 英梨梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROS            绿谷              预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOH       欧尔麦特                预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="60">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5352,93 +5383,96 @@
     <xf numFmtId="176" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5448,8 +5482,68 @@
     <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5468,69 +5562,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5576,7 +5607,7 @@
         <xdr:cNvPr id="3" name="直线连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5626,7 +5657,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5702,7 +5733,7 @@
         <xdr:cNvPr id="3" name="直线连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5752,7 +5783,7 @@
         <xdr:cNvPr id="6" name="文本框 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5830,7 +5861,7 @@
         <xdr:cNvPr id="8" name="文本框 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6173,8 +6204,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:Q52"/>
@@ -6183,7 +6214,7 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -6202,21 +6233,21 @@
     <col min="17" max="17" width="17" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:17" ht="31" customHeight="1">
+      <c r="A1" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-    </row>
-    <row r="2" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+    </row>
+    <row r="2" spans="1:17" ht="63" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -6255,7 +6286,7 @@
       <c r="P2"/>
       <c r="Q2"/>
     </row>
-    <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="19" customHeight="1">
       <c r="A3" s="1"/>
       <c r="K3" s="31" t="s">
         <v>19</v>
@@ -6265,7 +6296,7 @@
       <c r="P3"/>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="K4" s="32">
         <v>94</v>
       </c>
@@ -6273,7 +6304,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="19">
       <c r="K5" s="33" t="s">
         <v>18</v>
       </c>
@@ -6282,13 +6313,13 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="K6" s="34">
         <f>SUM(13.7*K4+726)</f>
         <v>2013.8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="K7" s="29" t="s">
         <v>12</v>
       </c>
@@ -6296,7 +6327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="K8" s="29">
         <v>1.5</v>
       </c>
@@ -6304,7 +6335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="K9" s="30" t="s">
         <v>17</v>
       </c>
@@ -6312,7 +6343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="K10" s="47">
         <f>SUM(K6*K8)</f>
         <v>3020.7</v>
@@ -6321,7 +6352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="K11" s="49" t="s">
         <v>20</v>
       </c>
@@ -6329,7 +6360,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="21" customHeight="1">
       <c r="K12" s="50" t="s">
         <v>21</v>
       </c>
@@ -6337,29 +6368,29 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="K13" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="K14" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="21" customHeight="1">
       <c r="K15" s="48" t="s">
         <v>128</v>
       </c>
       <c r="M15" s="45"/>
     </row>
-    <row r="16" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="23" customHeight="1">
       <c r="K16" s="35" t="s">
         <v>129</v>
       </c>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:14" ht="21" customHeight="1">
       <c r="K17" s="36" t="s">
         <v>130</v>
       </c>
@@ -6368,46 +6399,46 @@
       </c>
       <c r="M17" s="45"/>
     </row>
-    <row r="18" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K18" s="113" t="s">
+    <row r="18" spans="11:14" ht="19" customHeight="1">
+      <c r="K18" s="110" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="109" t="s">
+      <c r="M18" s="119" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K19" s="114"/>
+    <row r="19" spans="11:14" ht="19" customHeight="1">
+      <c r="K19" s="111"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="110"/>
-    </row>
-    <row r="20" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K20" s="115"/>
+      <c r="M19" s="120"/>
+    </row>
+    <row r="20" spans="11:14" ht="19" customHeight="1">
+      <c r="K20" s="112"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="111"/>
-    </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K21" s="116" t="s">
+      <c r="M20" s="121"/>
+    </row>
+    <row r="21" spans="11:14">
+      <c r="K21" s="113" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K22" s="117"/>
+    <row r="22" spans="11:14">
+      <c r="K22" s="114"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:14" ht="21" customHeight="1">
       <c r="K23" s="39" t="s">
         <v>161</v>
       </c>
@@ -6416,7 +6447,7 @@
       </c>
       <c r="N23" s="90"/>
     </row>
-    <row r="24" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:14" ht="21" customHeight="1">
       <c r="K24" s="39" t="s">
         <v>163</v>
       </c>
@@ -6424,7 +6455,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:14" ht="21" customHeight="1">
       <c r="K25" s="41" t="s">
         <v>396</v>
       </c>
@@ -6432,193 +6463,173 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="118" t="s">
+    <row r="26" spans="11:14" ht="21" customHeight="1">
+      <c r="K26" s="117" t="s">
         <v>381</v>
       </c>
-      <c r="L26" s="119"/>
+      <c r="L26" s="118"/>
       <c r="M26" s="89" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K27" s="105" t="s">
+    <row r="27" spans="11:14" ht="21" customHeight="1">
+      <c r="K27" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="106"/>
+      <c r="L27" s="116"/>
       <c r="M27" s="89" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K28" s="105" t="s">
+    <row r="28" spans="11:14" ht="21" customHeight="1">
+      <c r="K28" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="106"/>
+      <c r="L28" s="116"/>
       <c r="M28" s="89"/>
     </row>
-    <row r="29" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K29" s="105" t="s">
+    <row r="29" spans="11:14" ht="21" customHeight="1">
+      <c r="K29" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="106"/>
-    </row>
-    <row r="30" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K30" s="105" t="s">
+      <c r="L29" s="116"/>
+    </row>
+    <row r="30" spans="11:14" ht="21" customHeight="1">
+      <c r="K30" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="106"/>
-    </row>
-    <row r="31" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K31" s="105" t="s">
+      <c r="L30" s="116"/>
+    </row>
+    <row r="31" spans="11:14" ht="21" customHeight="1">
+      <c r="K31" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="106"/>
-    </row>
-    <row r="32" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K32" s="105" t="s">
+      <c r="L31" s="116"/>
+    </row>
+    <row r="32" spans="11:14" ht="21" customHeight="1">
+      <c r="K32" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="106"/>
-    </row>
-    <row r="33" spans="11:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K33" s="105" t="s">
+      <c r="L32" s="116"/>
+    </row>
+    <row r="33" spans="11:12" ht="21" customHeight="1">
+      <c r="K33" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="106"/>
-    </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K34" s="105" t="s">
+      <c r="L33" s="116"/>
+    </row>
+    <row r="34" spans="11:12">
+      <c r="K34" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="106"/>
-    </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K35" s="105" t="s">
+      <c r="L34" s="116"/>
+    </row>
+    <row r="35" spans="11:12">
+      <c r="K35" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="106"/>
-    </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K36" s="105" t="s">
+      <c r="L35" s="116"/>
+    </row>
+    <row r="36" spans="11:12">
+      <c r="K36" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="106"/>
-    </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K37" s="105" t="s">
+      <c r="L36" s="116"/>
+    </row>
+    <row r="37" spans="11:12">
+      <c r="K37" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="L37" s="106"/>
-    </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K38" s="105" t="s">
+      <c r="L37" s="116"/>
+    </row>
+    <row r="38" spans="11:12">
+      <c r="K38" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="106"/>
-    </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K39" s="105" t="s">
+      <c r="L38" s="116"/>
+    </row>
+    <row r="39" spans="11:12">
+      <c r="K39" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="106"/>
-    </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K40" s="105" t="s">
+      <c r="L39" s="116"/>
+    </row>
+    <row r="40" spans="11:12">
+      <c r="K40" s="115" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="106"/>
-    </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K41" s="105" t="s">
+      <c r="L40" s="116"/>
+    </row>
+    <row r="41" spans="11:12">
+      <c r="K41" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="106"/>
-    </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K42" s="105" t="s">
+      <c r="L41" s="116"/>
+    </row>
+    <row r="42" spans="11:12">
+      <c r="K42" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="106"/>
-    </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K43" s="105" t="s">
+      <c r="L42" s="116"/>
+    </row>
+    <row r="43" spans="11:12">
+      <c r="K43" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="106"/>
-    </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K44" s="105" t="s">
+      <c r="L43" s="116"/>
+    </row>
+    <row r="44" spans="11:12">
+      <c r="K44" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="106"/>
-    </row>
-    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K45" s="105" t="s">
+      <c r="L44" s="116"/>
+    </row>
+    <row r="45" spans="11:12">
+      <c r="K45" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="106"/>
-    </row>
-    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K46" s="107"/>
-      <c r="L46" s="108"/>
-    </row>
-    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K47" s="103"/>
-      <c r="L47" s="104"/>
-    </row>
-    <row r="48" spans="11:12" ht="23" x14ac:dyDescent="0.3">
-      <c r="K48" s="120" t="s">
+      <c r="L45" s="116"/>
+    </row>
+    <row r="46" spans="11:12">
+      <c r="K46" s="124"/>
+      <c r="L46" s="125"/>
+    </row>
+    <row r="47" spans="11:12">
+      <c r="K47" s="122"/>
+      <c r="L47" s="123"/>
+    </row>
+    <row r="48" spans="11:12" ht="23">
+      <c r="K48" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="121"/>
-    </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K49" s="122" t="s">
+      <c r="L48" s="104"/>
+    </row>
+    <row r="49" spans="11:12">
+      <c r="K49" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="123"/>
-    </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K50" s="122" t="s">
+      <c r="L49" s="106"/>
+    </row>
+    <row r="50" spans="11:12">
+      <c r="K50" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="123"/>
-    </row>
-    <row r="51" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K51" s="122" t="s">
+      <c r="L50" s="106"/>
+    </row>
+    <row r="51" spans="11:12">
+      <c r="K51" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="123"/>
-    </row>
-    <row r="52" spans="11:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="K52" s="124" t="s">
+      <c r="L51" s="106"/>
+    </row>
+    <row r="52" spans="11:12" ht="22">
+      <c r="K52" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="125"/>
+      <c r="L52" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
@@ -6630,6 +6641,26 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6639,14 +6670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="77" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="77" customWidth="1"/>
@@ -6660,7 +6691,7 @@
     <col min="13" max="18" width="12.6640625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="78" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="78" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>359</v>
       </c>
@@ -6712,7 +6743,7 @@
       <c r="S1" s="77"/>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="28" customHeight="1">
       <c r="A2" s="92" t="s">
         <v>365</v>
       </c>
@@ -6746,7 +6777,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="40" customHeight="1">
       <c r="A3" s="77">
         <v>90</v>
       </c>
@@ -6781,7 +6812,7 @@
       <c r="Q3" s="89"/>
       <c r="R3" s="89"/>
     </row>
-    <row r="4" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="40" customHeight="1">
       <c r="C4" s="77">
         <v>2200</v>
       </c>
@@ -6818,7 +6849,7 @@
         <v>197.75</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="40" customHeight="1">
       <c r="L5" s="126"/>
       <c r="M5" s="98" t="s">
         <v>379</v>
@@ -6843,7 +6874,7 @@
         <v>109.32</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="40" customHeight="1">
       <c r="L6" s="126"/>
       <c r="M6" s="6" t="s">
         <v>374</v>
@@ -6868,7 +6899,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="40" customHeight="1">
       <c r="L7" s="126"/>
       <c r="M7" s="6" t="s">
         <v>378</v>
@@ -6876,7 +6907,7 @@
       <c r="N7"/>
       <c r="R7" s="89"/>
     </row>
-    <row r="8" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="40" customHeight="1">
       <c r="L8" s="126"/>
       <c r="M8" s="99" t="s">
         <v>375</v>
@@ -6901,7 +6932,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="40" customHeight="1">
       <c r="L9" s="126"/>
       <c r="M9" s="99" t="s">
         <v>376</v>
@@ -6926,7 +6957,7 @@
         <v>691.2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="40" customHeight="1">
       <c r="L10" s="126"/>
       <c r="M10" s="99" t="s">
         <v>377</v>
@@ -6951,7 +6982,7 @@
         <v>183.35</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="40" customHeight="1">
       <c r="L11" s="101" t="s">
         <v>395</v>
       </c>
@@ -6972,7 +7003,7 @@
         <v>2054.12</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="40" customHeight="1">
       <c r="W14" s="98"/>
       <c r="X14" s="89"/>
       <c r="Y14" s="89"/>
@@ -6990,14 +7021,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="90" x14ac:dyDescent="0.9"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="90"/>
   <cols>
     <col min="1" max="1" width="36.5" style="20" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="21" customWidth="1"/>
@@ -7007,17 +7038,17 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="127" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:7" s="132" customFormat="1" ht="47" customHeight="1">
+      <c r="A1" s="132" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+    <row r="2" spans="1:7" ht="67" customHeight="1">
+      <c r="A2" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
@@ -7025,456 +7056,456 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="36" customHeight="1">
       <c r="A3" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="127" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="36" customHeight="1">
       <c r="A4" s="130"/>
-      <c r="B4" s="128"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="36" customHeight="1">
       <c r="A5" s="130"/>
-      <c r="B5" s="128"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="36" customHeight="1">
       <c r="A6" s="130"/>
-      <c r="B6" s="128"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="74" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="75"/>
     </row>
-    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="36" customHeight="1">
       <c r="A7" s="130"/>
-      <c r="B7" s="128"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="74" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="75"/>
     </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="A8" s="130"/>
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="127" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="36" customHeight="1">
       <c r="A9" s="130"/>
-      <c r="B9" s="128"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="36" customHeight="1">
       <c r="A10" s="130"/>
-      <c r="B10" s="128"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="36" customHeight="1">
       <c r="A11" s="130"/>
-      <c r="B11" s="128"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="36" customHeight="1">
       <c r="A12" s="130"/>
-      <c r="B12" s="128"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="36" customHeight="1">
       <c r="A13" s="130"/>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="36" customHeight="1">
       <c r="A14" s="130"/>
-      <c r="B14" s="128"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="36" customHeight="1">
       <c r="A15" s="130"/>
-      <c r="B15" s="128"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="36" customHeight="1">
       <c r="A16" s="130"/>
-      <c r="B16" s="128"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="36" customHeight="1">
       <c r="A17" s="130"/>
-      <c r="B17" s="128"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="36" customHeight="1">
       <c r="A18" s="130"/>
-      <c r="B18" s="128"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="36" customHeight="1">
       <c r="A19" s="131"/>
-      <c r="B19" s="128"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="36" customHeight="1">
       <c r="A20" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="127" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="36" customHeight="1">
       <c r="A21" s="130"/>
-      <c r="B21" s="128"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="36" customHeight="1">
       <c r="A22" s="130"/>
-      <c r="B22" s="128"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="36" customHeight="1">
       <c r="A23" s="130"/>
-      <c r="B23" s="128"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="36" customHeight="1">
       <c r="A24" s="130"/>
-      <c r="B24" s="128"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="36" customHeight="1">
       <c r="A25" s="130"/>
-      <c r="B25" s="128"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="36" customHeight="1">
       <c r="A26" s="130"/>
-      <c r="B26" s="128"/>
+      <c r="B26" s="127"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="36" customHeight="1">
       <c r="A27" s="130"/>
-      <c r="B27" s="128"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="36" customHeight="1">
       <c r="A28" s="130"/>
-      <c r="B28" s="128"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="36" customHeight="1">
       <c r="A29" s="130"/>
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="127" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="36" customHeight="1">
       <c r="A30" s="130"/>
-      <c r="B30" s="128"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="36" customHeight="1">
       <c r="A31" s="131"/>
-      <c r="B31" s="128"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="36" customHeight="1">
       <c r="A32" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="127" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="36" customHeight="1">
       <c r="A33" s="130"/>
-      <c r="B33" s="128"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="36" customHeight="1">
       <c r="A34" s="130"/>
-      <c r="B34" s="128"/>
+      <c r="B34" s="127"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="36" customHeight="1">
       <c r="A35" s="130"/>
-      <c r="B35" s="128"/>
+      <c r="B35" s="127"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="36" customHeight="1">
       <c r="A36" s="130"/>
-      <c r="B36" s="128"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="36" customHeight="1">
       <c r="A37" s="130"/>
-      <c r="B37" s="128" t="s">
+      <c r="B37" s="127" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="36" customHeight="1">
       <c r="A38" s="130"/>
-      <c r="B38" s="128"/>
+      <c r="B38" s="127"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="36" customHeight="1">
       <c r="A39" s="130"/>
-      <c r="B39" s="128" t="s">
+      <c r="B39" s="127" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="36" customHeight="1">
       <c r="A40" s="130"/>
-      <c r="B40" s="128"/>
+      <c r="B40" s="127"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="36" customHeight="1">
       <c r="A41" s="131"/>
-      <c r="B41" s="128"/>
+      <c r="B41" s="127"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="36" customHeight="1">
       <c r="A42" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="128" t="s">
+      <c r="B42" s="127" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="36" customHeight="1">
       <c r="A43" s="130"/>
-      <c r="B43" s="128"/>
+      <c r="B43" s="127"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="36" customHeight="1">
       <c r="A44" s="130"/>
-      <c r="B44" s="128"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="36" customHeight="1">
       <c r="A45" s="130"/>
-      <c r="B45" s="128"/>
+      <c r="B45" s="127"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="36" customHeight="1">
       <c r="A46" s="130"/>
-      <c r="B46" s="128"/>
+      <c r="B46" s="127"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="36" customHeight="1">
       <c r="A47" s="130"/>
-      <c r="B47" s="128" t="s">
+      <c r="B47" s="127" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="36" customHeight="1">
       <c r="A48" s="130"/>
-      <c r="B48" s="128"/>
+      <c r="B48" s="127"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="36" customHeight="1">
       <c r="A49" s="130"/>
-      <c r="B49" s="128" t="s">
+      <c r="B49" s="127" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="36" customHeight="1">
       <c r="A50" s="130"/>
-      <c r="B50" s="128"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="36" customHeight="1">
       <c r="A51" s="130"/>
-      <c r="B51" s="128"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="36" customHeight="1">
       <c r="A52" s="130"/>
-      <c r="B52" s="128"/>
+      <c r="B52" s="127"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="36" customHeight="1">
       <c r="A53" s="130"/>
-      <c r="B53" s="128"/>
+      <c r="B53" s="127"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="36" customHeight="1">
       <c r="A54" s="130"/>
-      <c r="B54" s="128"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="36" customHeight="1">
       <c r="A55" s="130"/>
-      <c r="B55" s="128"/>
+      <c r="B55" s="127"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="36" customHeight="1">
       <c r="A56" s="130"/>
-      <c r="B56" s="128"/>
+      <c r="B56" s="127"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="36" customHeight="1">
       <c r="A57" s="131"/>
-      <c r="B57" s="128"/>
+      <c r="B57" s="127"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="36" customHeight="1">
       <c r="A58" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="128" t="s">
+      <c r="B58" s="127" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="36" customHeight="1">
       <c r="A59" s="130"/>
-      <c r="B59" s="128"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="36" customHeight="1">
       <c r="A60" s="130"/>
-      <c r="B60" s="128"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="36" customHeight="1">
       <c r="A61" s="130"/>
-      <c r="B61" s="128"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="36" customHeight="1">
       <c r="A62" s="131"/>
       <c r="B62" s="21" t="s">
         <v>60</v>
@@ -7483,7 +7514,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="36" customHeight="1">
       <c r="A63" s="129" t="s">
         <v>61</v>
       </c>
@@ -7494,37 +7525,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="36" customHeight="1">
       <c r="A64" s="130"/>
-      <c r="B64" s="128" t="s">
+      <c r="B64" s="127" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="36" customHeight="1">
       <c r="A65" s="130"/>
-      <c r="B65" s="128"/>
+      <c r="B65" s="127"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="36" customHeight="1">
       <c r="A66" s="130"/>
-      <c r="B66" s="128"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="36" customHeight="1">
       <c r="A67" s="130"/>
-      <c r="B67" s="128"/>
+      <c r="B67" s="127"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="36" customHeight="1">
       <c r="A68" s="131"/>
       <c r="B68" s="21" t="s">
         <v>64</v>
@@ -7533,8 +7564,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="135" t="s">
+    <row r="69" spans="1:4" ht="36" customHeight="1">
+      <c r="A69" s="128" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7544,59 +7575,59 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="135"/>
-      <c r="B70" s="128" t="s">
+    <row r="70" spans="1:4" ht="36" customHeight="1">
+      <c r="A70" s="128"/>
+      <c r="B70" s="127" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="135"/>
-      <c r="B71" s="128"/>
+    <row r="71" spans="1:4" ht="36" customHeight="1">
+      <c r="A71" s="128"/>
+      <c r="B71" s="127"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="135"/>
-      <c r="B72" s="128"/>
+    <row r="72" spans="1:4" ht="36" customHeight="1">
+      <c r="A72" s="128"/>
+      <c r="B72" s="127"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="135"/>
-      <c r="B73" s="128"/>
+    <row r="73" spans="1:4" ht="36" customHeight="1">
+      <c r="A73" s="128"/>
+      <c r="B73" s="127"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="135"/>
-      <c r="B74" s="128"/>
+    <row r="74" spans="1:4" ht="36" customHeight="1">
+      <c r="A74" s="128"/>
+      <c r="B74" s="127"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="135"/>
-      <c r="B75" s="128"/>
+    <row r="75" spans="1:4" ht="36" customHeight="1">
+      <c r="A75" s="128"/>
+      <c r="B75" s="127"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="135"/>
-      <c r="B76" s="128"/>
+    <row r="76" spans="1:4" ht="36" customHeight="1">
+      <c r="A76" s="128"/>
+      <c r="B76" s="127"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="135"/>
+    <row r="77" spans="1:4" ht="36" customHeight="1">
+      <c r="A77" s="128"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7604,8 +7635,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="135"/>
+    <row r="78" spans="1:4" ht="36" customHeight="1">
+      <c r="A78" s="128"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -7613,1087 +7644,1087 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="79" spans="1:4" ht="36" customHeight="1">
       <c r="A79" s="18"/>
       <c r="B79" s="23"/>
       <c r="C79" s="14"/>
       <c r="D79" s="26"/>
     </row>
-    <row r="80" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="80" spans="1:4" ht="36" customHeight="1">
       <c r="A80" s="18"/>
       <c r="B80" s="23"/>
       <c r="C80" s="14"/>
       <c r="D80" s="26"/>
     </row>
-    <row r="81" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="81" spans="1:4" ht="36" customHeight="1">
       <c r="A81" s="18"/>
       <c r="B81" s="23"/>
       <c r="C81" s="14"/>
       <c r="D81" s="26"/>
     </row>
-    <row r="82" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="82" spans="1:4" ht="36" customHeight="1">
       <c r="A82" s="18"/>
       <c r="B82" s="23"/>
       <c r="C82" s="14"/>
       <c r="D82" s="26"/>
     </row>
-    <row r="83" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="83" spans="1:4" ht="36" customHeight="1">
       <c r="A83" s="18"/>
       <c r="B83" s="23"/>
       <c r="C83" s="14"/>
       <c r="D83" s="26"/>
     </row>
-    <row r="84" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="84" spans="1:4" ht="36" customHeight="1">
       <c r="A84" s="18"/>
       <c r="B84" s="23"/>
       <c r="C84" s="14"/>
       <c r="D84" s="26"/>
     </row>
-    <row r="85" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="85" spans="1:4" ht="36" customHeight="1">
       <c r="A85" s="18"/>
       <c r="B85" s="23"/>
       <c r="C85" s="14"/>
       <c r="D85" s="26"/>
     </row>
-    <row r="86" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="86" spans="1:4" ht="36" customHeight="1">
       <c r="A86" s="18"/>
       <c r="B86" s="23"/>
       <c r="C86" s="14"/>
       <c r="D86" s="26"/>
     </row>
-    <row r="87" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="87" spans="1:4" ht="36" customHeight="1">
       <c r="A87" s="18"/>
       <c r="B87" s="23"/>
       <c r="C87" s="14"/>
       <c r="D87" s="26"/>
     </row>
-    <row r="88" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="88" spans="1:4" ht="36" customHeight="1">
       <c r="A88" s="18"/>
       <c r="B88" s="23"/>
       <c r="C88" s="14"/>
       <c r="D88" s="26"/>
     </row>
-    <row r="89" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="89" spans="1:4" ht="36" customHeight="1">
       <c r="A89" s="18"/>
       <c r="B89" s="23"/>
       <c r="C89" s="14"/>
       <c r="D89" s="27"/>
     </row>
-    <row r="90" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="90" spans="1:4" ht="36" customHeight="1">
       <c r="A90" s="18"/>
       <c r="B90" s="23"/>
       <c r="C90" s="14"/>
       <c r="D90" s="27"/>
     </row>
-    <row r="91" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="91" spans="1:4" ht="36" customHeight="1">
       <c r="A91" s="18"/>
       <c r="B91" s="23"/>
       <c r="C91" s="14"/>
       <c r="D91" s="27"/>
     </row>
-    <row r="92" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="92" spans="1:4" ht="36" customHeight="1">
       <c r="A92" s="18"/>
       <c r="B92" s="23"/>
       <c r="C92" s="14"/>
       <c r="D92" s="27"/>
     </row>
-    <row r="93" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="93" spans="1:4" ht="36" customHeight="1">
       <c r="A93" s="18"/>
       <c r="B93" s="23"/>
       <c r="C93" s="14"/>
       <c r="D93" s="27"/>
     </row>
-    <row r="94" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="94" spans="1:4" ht="36" customHeight="1">
       <c r="A94" s="18"/>
       <c r="B94" s="23"/>
       <c r="C94" s="14"/>
       <c r="D94" s="27"/>
     </row>
-    <row r="95" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="95" spans="1:4" ht="36" customHeight="1">
       <c r="A95" s="18"/>
       <c r="B95" s="23"/>
       <c r="C95" s="14"/>
       <c r="D95" s="27"/>
     </row>
-    <row r="96" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="96" spans="1:4" ht="36" customHeight="1">
       <c r="A96" s="18"/>
       <c r="B96" s="23"/>
       <c r="C96" s="14"/>
       <c r="D96" s="27"/>
     </row>
-    <row r="97" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="97" spans="1:4" ht="36" customHeight="1">
       <c r="A97" s="18"/>
       <c r="B97" s="23"/>
       <c r="C97" s="14"/>
       <c r="D97" s="27"/>
     </row>
-    <row r="98" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="98" spans="1:4" ht="36" customHeight="1">
       <c r="A98" s="18"/>
       <c r="B98" s="23"/>
       <c r="C98" s="14"/>
       <c r="D98" s="27"/>
     </row>
-    <row r="99" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="99" spans="1:4" ht="36" customHeight="1">
       <c r="A99" s="18"/>
       <c r="B99" s="23"/>
       <c r="C99" s="14"/>
       <c r="D99" s="27"/>
     </row>
-    <row r="100" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="100" spans="1:4" ht="36" customHeight="1">
       <c r="A100" s="18"/>
       <c r="B100" s="23"/>
       <c r="C100" s="14"/>
       <c r="D100" s="27"/>
     </row>
-    <row r="101" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="101" spans="1:4" ht="36" customHeight="1">
       <c r="A101" s="18"/>
       <c r="B101" s="23"/>
       <c r="C101" s="14"/>
       <c r="D101" s="27"/>
     </row>
-    <row r="102" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="102" spans="1:4" ht="36" customHeight="1">
       <c r="A102" s="18"/>
       <c r="B102" s="23"/>
       <c r="C102" s="14"/>
       <c r="D102" s="27"/>
     </row>
-    <row r="103" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="103" spans="1:4" ht="36" customHeight="1">
       <c r="A103" s="18"/>
       <c r="B103" s="23"/>
       <c r="C103" s="14"/>
       <c r="D103" s="27"/>
     </row>
-    <row r="104" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="104" spans="1:4" ht="36" customHeight="1">
       <c r="A104" s="18"/>
       <c r="B104" s="23"/>
       <c r="C104" s="14"/>
       <c r="D104" s="27"/>
     </row>
-    <row r="105" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="105" spans="1:4" ht="36" customHeight="1">
       <c r="A105" s="18"/>
       <c r="B105" s="23"/>
       <c r="C105" s="14"/>
       <c r="D105" s="27"/>
     </row>
-    <row r="106" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="106" spans="1:4" ht="36" customHeight="1">
       <c r="A106" s="18"/>
       <c r="B106" s="23"/>
       <c r="C106" s="14"/>
       <c r="D106" s="27"/>
     </row>
-    <row r="107" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="107" spans="1:4" ht="36" customHeight="1">
       <c r="A107" s="18"/>
       <c r="B107" s="23"/>
       <c r="C107" s="14"/>
       <c r="D107" s="27"/>
     </row>
-    <row r="108" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="108" spans="1:4" ht="36" customHeight="1">
       <c r="A108" s="18"/>
       <c r="B108" s="23"/>
       <c r="C108" s="14"/>
       <c r="D108" s="27"/>
     </row>
-    <row r="109" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="109" spans="1:4" ht="36" customHeight="1">
       <c r="A109" s="18"/>
       <c r="B109" s="23"/>
       <c r="C109" s="14"/>
       <c r="D109" s="27"/>
     </row>
-    <row r="110" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="110" spans="1:4" ht="36" customHeight="1">
       <c r="A110" s="18"/>
       <c r="B110" s="23"/>
       <c r="C110" s="14"/>
       <c r="D110" s="27"/>
     </row>
-    <row r="111" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="111" spans="1:4" ht="36" customHeight="1">
       <c r="A111" s="18"/>
       <c r="B111" s="23"/>
       <c r="C111" s="14"/>
       <c r="D111" s="27"/>
     </row>
-    <row r="112" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="112" spans="1:4" ht="36" customHeight="1">
       <c r="A112" s="18"/>
       <c r="B112" s="23"/>
       <c r="C112" s="14"/>
       <c r="D112" s="27"/>
     </row>
-    <row r="113" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="113" spans="1:4" ht="36" customHeight="1">
       <c r="A113" s="18"/>
       <c r="B113" s="23"/>
       <c r="C113" s="14"/>
       <c r="D113" s="27"/>
     </row>
-    <row r="114" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="114" spans="1:4" ht="36" customHeight="1">
       <c r="A114" s="18"/>
       <c r="B114" s="23"/>
       <c r="C114" s="14"/>
       <c r="D114" s="27"/>
     </row>
-    <row r="115" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="115" spans="1:4" ht="36" customHeight="1">
       <c r="A115" s="18"/>
       <c r="B115" s="23"/>
       <c r="C115" s="14"/>
       <c r="D115" s="27"/>
     </row>
-    <row r="116" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="116" spans="1:4" ht="36" customHeight="1">
       <c r="A116" s="18"/>
       <c r="B116" s="23"/>
       <c r="C116" s="14"/>
       <c r="D116" s="27"/>
     </row>
-    <row r="117" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="117" spans="1:4" ht="36" customHeight="1">
       <c r="A117" s="18"/>
       <c r="B117" s="23"/>
       <c r="C117" s="14"/>
       <c r="D117" s="27"/>
     </row>
-    <row r="118" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="118" spans="1:4" ht="36" customHeight="1">
       <c r="A118" s="18"/>
       <c r="B118" s="23"/>
       <c r="C118" s="14"/>
       <c r="D118" s="27"/>
     </row>
-    <row r="119" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="119" spans="1:4" ht="36" customHeight="1">
       <c r="A119" s="18"/>
       <c r="B119" s="23"/>
       <c r="C119" s="14"/>
       <c r="D119" s="27"/>
     </row>
-    <row r="120" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="120" spans="1:4" ht="36" customHeight="1">
       <c r="A120" s="18"/>
       <c r="B120" s="23"/>
       <c r="C120" s="14"/>
       <c r="D120" s="27"/>
     </row>
-    <row r="121" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="121" spans="1:4" ht="36" customHeight="1">
       <c r="A121" s="18"/>
       <c r="B121" s="23"/>
       <c r="C121" s="14"/>
       <c r="D121" s="27"/>
     </row>
-    <row r="122" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="122" spans="1:4" ht="36" customHeight="1">
       <c r="A122" s="18"/>
       <c r="B122" s="23"/>
       <c r="C122" s="14"/>
       <c r="D122" s="27"/>
     </row>
-    <row r="123" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="123" spans="1:4" ht="36" customHeight="1">
       <c r="A123" s="18"/>
       <c r="B123" s="23"/>
       <c r="C123" s="14"/>
       <c r="D123" s="27"/>
     </row>
-    <row r="124" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="124" spans="1:4" ht="36" customHeight="1">
       <c r="A124" s="18"/>
       <c r="B124" s="23"/>
       <c r="C124" s="14"/>
       <c r="D124" s="27"/>
     </row>
-    <row r="125" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="125" spans="1:4" ht="36" customHeight="1">
       <c r="A125" s="18"/>
       <c r="B125" s="23"/>
       <c r="C125" s="14"/>
       <c r="D125" s="27"/>
     </row>
-    <row r="126" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="126" spans="1:4" ht="36" customHeight="1">
       <c r="A126" s="18"/>
       <c r="B126" s="23"/>
       <c r="C126" s="14"/>
       <c r="D126" s="27"/>
     </row>
-    <row r="127" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="127" spans="1:4" ht="36" customHeight="1">
       <c r="A127" s="18"/>
       <c r="B127" s="23"/>
       <c r="C127" s="14"/>
       <c r="D127" s="27"/>
     </row>
-    <row r="128" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="128" spans="1:4" ht="36" customHeight="1">
       <c r="A128" s="18"/>
       <c r="B128" s="23"/>
       <c r="C128" s="14"/>
       <c r="D128" s="27"/>
     </row>
-    <row r="129" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="129" spans="1:4" ht="36" customHeight="1">
       <c r="A129" s="18"/>
       <c r="B129" s="23"/>
       <c r="C129" s="14"/>
       <c r="D129" s="27"/>
     </row>
-    <row r="130" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="130" spans="1:4" ht="36" customHeight="1">
       <c r="A130" s="18"/>
       <c r="B130" s="23"/>
       <c r="C130" s="14"/>
       <c r="D130" s="27"/>
     </row>
-    <row r="131" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="131" spans="1:4" ht="36" customHeight="1">
       <c r="A131" s="18"/>
       <c r="B131" s="23"/>
       <c r="C131" s="14"/>
       <c r="D131" s="27"/>
     </row>
-    <row r="132" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="132" spans="1:4" ht="36" customHeight="1">
       <c r="A132" s="18"/>
       <c r="B132" s="23"/>
       <c r="C132" s="14"/>
       <c r="D132" s="27"/>
     </row>
-    <row r="133" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="133" spans="1:4" ht="36" customHeight="1">
       <c r="A133" s="18"/>
       <c r="B133" s="23"/>
       <c r="C133" s="14"/>
       <c r="D133" s="27"/>
     </row>
-    <row r="134" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="134" spans="1:4" ht="36" customHeight="1">
       <c r="A134" s="18"/>
       <c r="B134" s="23"/>
       <c r="C134" s="14"/>
       <c r="D134" s="27"/>
     </row>
-    <row r="135" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="135" spans="1:4" ht="36" customHeight="1">
       <c r="A135" s="18"/>
       <c r="B135" s="23"/>
       <c r="C135" s="14"/>
       <c r="D135" s="27"/>
     </row>
-    <row r="136" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="136" spans="1:4" ht="36" customHeight="1">
       <c r="A136" s="18"/>
       <c r="B136" s="23"/>
       <c r="C136" s="14"/>
       <c r="D136" s="27"/>
     </row>
-    <row r="137" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="137" spans="1:4" ht="36" customHeight="1">
       <c r="A137" s="18"/>
       <c r="B137" s="23"/>
       <c r="C137" s="14"/>
       <c r="D137" s="27"/>
     </row>
-    <row r="138" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="138" spans="1:4" ht="36" customHeight="1">
       <c r="A138" s="18"/>
       <c r="B138" s="23"/>
       <c r="C138" s="14"/>
       <c r="D138" s="27"/>
     </row>
-    <row r="139" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="139" spans="1:4" ht="36" customHeight="1">
       <c r="A139" s="18"/>
       <c r="B139" s="23"/>
       <c r="C139" s="14"/>
       <c r="D139" s="27"/>
     </row>
-    <row r="140" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="140" spans="1:4" ht="36" customHeight="1">
       <c r="A140" s="18"/>
       <c r="B140" s="23"/>
       <c r="C140" s="14"/>
       <c r="D140" s="27"/>
     </row>
-    <row r="141" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="141" spans="1:4" ht="36" customHeight="1">
       <c r="A141" s="18"/>
       <c r="B141" s="23"/>
       <c r="C141" s="14"/>
       <c r="D141" s="27"/>
     </row>
-    <row r="142" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="142" spans="1:4" ht="36" customHeight="1">
       <c r="A142" s="18"/>
       <c r="B142" s="23"/>
       <c r="C142" s="14"/>
       <c r="D142" s="27"/>
     </row>
-    <row r="143" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="143" spans="1:4" ht="36" customHeight="1">
       <c r="A143" s="18"/>
       <c r="B143" s="23"/>
       <c r="C143" s="14"/>
       <c r="D143" s="27"/>
     </row>
-    <row r="144" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="144" spans="1:4" ht="36" customHeight="1">
       <c r="A144" s="18"/>
       <c r="B144" s="23"/>
       <c r="C144" s="14"/>
       <c r="D144" s="27"/>
     </row>
-    <row r="145" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="145" spans="1:4" ht="36" customHeight="1">
       <c r="A145" s="18"/>
       <c r="B145" s="23"/>
       <c r="C145" s="14"/>
       <c r="D145" s="27"/>
     </row>
-    <row r="146" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="146" spans="1:4" ht="36" customHeight="1">
       <c r="A146" s="18"/>
       <c r="B146" s="23"/>
       <c r="C146" s="14"/>
       <c r="D146" s="27"/>
     </row>
-    <row r="147" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="147" spans="1:4" ht="36" customHeight="1">
       <c r="A147" s="18"/>
       <c r="B147" s="23"/>
       <c r="C147" s="14"/>
       <c r="D147" s="27"/>
     </row>
-    <row r="148" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="148" spans="1:4" ht="36" customHeight="1">
       <c r="A148" s="18"/>
       <c r="B148" s="23"/>
       <c r="C148" s="14"/>
       <c r="D148" s="27"/>
     </row>
-    <row r="149" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="149" spans="1:4" ht="36" customHeight="1">
       <c r="A149" s="18"/>
       <c r="B149" s="23"/>
       <c r="C149" s="14"/>
       <c r="D149" s="27"/>
     </row>
-    <row r="150" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="150" spans="1:4" ht="36" customHeight="1">
       <c r="A150" s="18"/>
       <c r="B150" s="23"/>
       <c r="C150" s="14"/>
       <c r="D150" s="27"/>
     </row>
-    <row r="151" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="151" spans="1:4" ht="36" customHeight="1">
       <c r="A151" s="18"/>
       <c r="B151" s="23"/>
       <c r="C151" s="14"/>
       <c r="D151" s="27"/>
     </row>
-    <row r="152" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="152" spans="1:4" ht="36" customHeight="1">
       <c r="A152" s="18"/>
       <c r="B152" s="23"/>
       <c r="C152" s="14"/>
       <c r="D152" s="27"/>
     </row>
-    <row r="153" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="153" spans="1:4" ht="36" customHeight="1">
       <c r="A153" s="18"/>
       <c r="B153" s="23"/>
       <c r="C153" s="14"/>
       <c r="D153" s="27"/>
     </row>
-    <row r="154" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="154" spans="1:4" ht="36" customHeight="1">
       <c r="A154" s="18"/>
       <c r="B154" s="23"/>
       <c r="C154" s="14"/>
       <c r="D154" s="27"/>
     </row>
-    <row r="155" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="155" spans="1:4" ht="36" customHeight="1">
       <c r="A155" s="18"/>
       <c r="B155" s="23"/>
       <c r="C155" s="14"/>
       <c r="D155" s="27"/>
     </row>
-    <row r="156" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="156" spans="1:4" ht="36" customHeight="1">
       <c r="A156" s="18"/>
       <c r="B156" s="23"/>
       <c r="C156" s="14"/>
       <c r="D156" s="27"/>
     </row>
-    <row r="157" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="157" spans="1:4" ht="36" customHeight="1">
       <c r="A157" s="18"/>
       <c r="B157" s="23"/>
       <c r="C157" s="14"/>
       <c r="D157" s="27"/>
     </row>
-    <row r="158" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="158" spans="1:4" ht="36" customHeight="1">
       <c r="A158" s="18"/>
       <c r="B158" s="23"/>
       <c r="C158" s="14"/>
       <c r="D158" s="27"/>
     </row>
-    <row r="159" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="159" spans="1:4" ht="36" customHeight="1">
       <c r="A159" s="18"/>
       <c r="B159" s="23"/>
       <c r="C159" s="14"/>
       <c r="D159" s="27"/>
     </row>
-    <row r="160" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="160" spans="1:4" ht="36" customHeight="1">
       <c r="A160" s="18"/>
       <c r="B160" s="23"/>
       <c r="C160" s="14"/>
       <c r="D160" s="27"/>
     </row>
-    <row r="161" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="161" spans="1:4" ht="36" customHeight="1">
       <c r="A161" s="18"/>
       <c r="B161" s="23"/>
       <c r="C161" s="14"/>
       <c r="D161" s="27"/>
     </row>
-    <row r="162" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="162" spans="1:4" ht="36" customHeight="1">
       <c r="A162" s="18"/>
       <c r="B162" s="23"/>
       <c r="C162" s="14"/>
       <c r="D162" s="27"/>
     </row>
-    <row r="163" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="163" spans="1:4" ht="36" customHeight="1">
       <c r="A163" s="18"/>
       <c r="B163" s="23"/>
       <c r="C163" s="14"/>
       <c r="D163" s="27"/>
     </row>
-    <row r="164" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="164" spans="1:4" ht="36" customHeight="1">
       <c r="A164" s="18"/>
       <c r="B164" s="23"/>
       <c r="C164" s="14"/>
       <c r="D164" s="27"/>
     </row>
-    <row r="165" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="165" spans="1:4" ht="36" customHeight="1">
       <c r="A165" s="18"/>
       <c r="B165" s="23"/>
       <c r="C165" s="14"/>
       <c r="D165" s="27"/>
     </row>
-    <row r="166" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="166" spans="1:4" ht="36" customHeight="1">
       <c r="A166" s="18"/>
       <c r="B166" s="23"/>
       <c r="C166" s="14"/>
       <c r="D166" s="27"/>
     </row>
-    <row r="167" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="167" spans="1:4" ht="36" customHeight="1">
       <c r="A167" s="18"/>
       <c r="B167" s="23"/>
       <c r="C167" s="14"/>
       <c r="D167" s="27"/>
     </row>
-    <row r="168" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="168" spans="1:4" ht="36" customHeight="1">
       <c r="A168" s="18"/>
       <c r="B168" s="23"/>
       <c r="C168" s="14"/>
       <c r="D168" s="27"/>
     </row>
-    <row r="169" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="169" spans="1:4" ht="36" customHeight="1">
       <c r="A169" s="18"/>
       <c r="B169" s="23"/>
       <c r="C169" s="14"/>
       <c r="D169" s="27"/>
     </row>
-    <row r="170" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="170" spans="1:4" ht="36" customHeight="1">
       <c r="A170" s="18"/>
       <c r="B170" s="23"/>
       <c r="C170" s="14"/>
       <c r="D170" s="27"/>
     </row>
-    <row r="171" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="171" spans="1:4" ht="36" customHeight="1">
       <c r="A171" s="18"/>
       <c r="B171" s="23"/>
       <c r="C171" s="14"/>
       <c r="D171" s="27"/>
     </row>
-    <row r="172" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="172" spans="1:4" ht="36" customHeight="1">
       <c r="A172" s="18"/>
       <c r="B172" s="23"/>
       <c r="C172" s="14"/>
       <c r="D172" s="27"/>
     </row>
-    <row r="173" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="173" spans="1:4" ht="36" customHeight="1">
       <c r="A173" s="18"/>
       <c r="B173" s="23"/>
       <c r="C173" s="14"/>
       <c r="D173" s="27"/>
     </row>
-    <row r="174" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="174" spans="1:4" ht="36" customHeight="1">
       <c r="A174" s="18"/>
       <c r="B174" s="23"/>
       <c r="C174" s="14"/>
       <c r="D174" s="27"/>
     </row>
-    <row r="175" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="175" spans="1:4" ht="36" customHeight="1">
       <c r="A175" s="18"/>
       <c r="B175" s="23"/>
       <c r="C175" s="14"/>
       <c r="D175" s="27"/>
     </row>
-    <row r="176" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="176" spans="1:4" ht="36" customHeight="1">
       <c r="A176" s="18"/>
       <c r="B176" s="23"/>
       <c r="C176" s="14"/>
       <c r="D176" s="27"/>
     </row>
-    <row r="177" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="177" spans="1:4" ht="36" customHeight="1">
       <c r="A177" s="18"/>
       <c r="B177" s="23"/>
       <c r="C177" s="14"/>
       <c r="D177" s="27"/>
     </row>
-    <row r="178" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="178" spans="1:4" ht="36" customHeight="1">
       <c r="A178" s="18"/>
       <c r="B178" s="23"/>
       <c r="C178" s="14"/>
       <c r="D178" s="27"/>
     </row>
-    <row r="179" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="179" spans="1:4" ht="36" customHeight="1">
       <c r="A179" s="18"/>
       <c r="B179" s="23"/>
       <c r="C179" s="14"/>
       <c r="D179" s="27"/>
     </row>
-    <row r="180" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="180" spans="1:4" ht="36" customHeight="1">
       <c r="A180" s="18"/>
       <c r="B180" s="23"/>
       <c r="C180" s="14"/>
       <c r="D180" s="27"/>
     </row>
-    <row r="181" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="181" spans="1:4" ht="36" customHeight="1">
       <c r="A181" s="18"/>
       <c r="B181" s="23"/>
       <c r="C181" s="14"/>
       <c r="D181" s="27"/>
     </row>
-    <row r="182" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="182" spans="1:4" ht="36" customHeight="1">
       <c r="A182" s="18"/>
       <c r="B182" s="23"/>
       <c r="C182" s="14"/>
       <c r="D182" s="27"/>
     </row>
-    <row r="183" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="183" spans="1:4" ht="36" customHeight="1">
       <c r="A183" s="18"/>
       <c r="B183" s="23"/>
       <c r="C183" s="14"/>
       <c r="D183" s="27"/>
     </row>
-    <row r="184" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="184" spans="1:4" ht="36" customHeight="1">
       <c r="A184" s="18"/>
       <c r="B184" s="23"/>
       <c r="C184" s="14"/>
       <c r="D184" s="27"/>
     </row>
-    <row r="185" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="185" spans="1:4" ht="36" customHeight="1">
       <c r="A185" s="18"/>
       <c r="B185" s="23"/>
       <c r="C185" s="14"/>
       <c r="D185" s="27"/>
     </row>
-    <row r="186" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="186" spans="1:4" ht="36" customHeight="1">
       <c r="A186" s="18"/>
       <c r="B186" s="23"/>
       <c r="C186" s="14"/>
       <c r="D186" s="27"/>
     </row>
-    <row r="187" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="187" spans="1:4" ht="36" customHeight="1">
       <c r="A187" s="18"/>
       <c r="B187" s="23"/>
       <c r="C187" s="14"/>
       <c r="D187" s="27"/>
     </row>
-    <row r="188" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="188" spans="1:4" ht="36" customHeight="1">
       <c r="A188" s="18"/>
       <c r="B188" s="23"/>
       <c r="C188" s="14"/>
       <c r="D188" s="27"/>
     </row>
-    <row r="189" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="189" spans="1:4" ht="36" customHeight="1">
       <c r="A189" s="18"/>
       <c r="B189" s="23"/>
       <c r="C189" s="14"/>
       <c r="D189" s="27"/>
     </row>
-    <row r="190" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="190" spans="1:4" ht="36" customHeight="1">
       <c r="A190" s="18"/>
       <c r="B190" s="23"/>
       <c r="C190" s="14"/>
       <c r="D190" s="27"/>
     </row>
-    <row r="191" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="191" spans="1:4" ht="36" customHeight="1">
       <c r="A191" s="18"/>
       <c r="B191" s="23"/>
       <c r="C191" s="14"/>
       <c r="D191" s="27"/>
     </row>
-    <row r="192" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="192" spans="1:4" ht="36" customHeight="1">
       <c r="A192" s="18"/>
       <c r="B192" s="23"/>
       <c r="C192" s="14"/>
       <c r="D192" s="27"/>
     </row>
-    <row r="193" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="193" spans="1:4" ht="36" customHeight="1">
       <c r="A193" s="18"/>
       <c r="B193" s="23"/>
       <c r="C193" s="14"/>
       <c r="D193" s="27"/>
     </row>
-    <row r="194" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="194" spans="1:4" ht="36" customHeight="1">
       <c r="A194" s="18"/>
       <c r="B194" s="23"/>
       <c r="C194" s="14"/>
       <c r="D194" s="27"/>
     </row>
-    <row r="195" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="195" spans="1:4" ht="36" customHeight="1">
       <c r="A195" s="18"/>
       <c r="B195" s="23"/>
       <c r="C195" s="14"/>
       <c r="D195" s="27"/>
     </row>
-    <row r="196" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="196" spans="1:4" ht="36" customHeight="1">
       <c r="A196" s="18"/>
       <c r="B196" s="23"/>
       <c r="C196" s="14"/>
       <c r="D196" s="27"/>
     </row>
-    <row r="197" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="197" spans="1:4" ht="36" customHeight="1">
       <c r="A197" s="18"/>
       <c r="B197" s="23"/>
       <c r="C197" s="14"/>
       <c r="D197" s="27"/>
     </row>
-    <row r="198" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="198" spans="1:4" ht="36" customHeight="1">
       <c r="A198" s="18"/>
       <c r="B198" s="23"/>
       <c r="C198" s="14"/>
       <c r="D198" s="27"/>
     </row>
-    <row r="199" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="199" spans="1:4" ht="36" customHeight="1">
       <c r="A199" s="18"/>
       <c r="B199" s="23"/>
       <c r="C199" s="14"/>
       <c r="D199" s="27"/>
     </row>
-    <row r="200" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="200" spans="1:4" ht="36" customHeight="1">
       <c r="A200" s="18"/>
       <c r="B200" s="23"/>
       <c r="C200" s="14"/>
       <c r="D200" s="27"/>
     </row>
-    <row r="201" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="201" spans="1:4" ht="36" customHeight="1">
       <c r="A201" s="18"/>
       <c r="B201" s="23"/>
       <c r="C201" s="14"/>
       <c r="D201" s="27"/>
     </row>
-    <row r="202" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="202" spans="1:4" ht="36" customHeight="1">
       <c r="A202" s="18"/>
       <c r="B202" s="23"/>
       <c r="C202" s="14"/>
       <c r="D202" s="27"/>
     </row>
-    <row r="203" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="203" spans="1:4" ht="36" customHeight="1">
       <c r="A203" s="18"/>
       <c r="B203" s="23"/>
       <c r="C203" s="14"/>
       <c r="D203" s="27"/>
     </row>
-    <row r="204" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="204" spans="1:4" ht="36" customHeight="1">
       <c r="A204" s="18"/>
       <c r="B204" s="23"/>
       <c r="C204" s="14"/>
       <c r="D204" s="27"/>
     </row>
-    <row r="205" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="205" spans="1:4" ht="36" customHeight="1">
       <c r="A205" s="18"/>
       <c r="B205" s="23"/>
       <c r="C205" s="14"/>
       <c r="D205" s="27"/>
     </row>
-    <row r="206" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="206" spans="1:4" ht="36" customHeight="1">
       <c r="A206" s="18"/>
       <c r="B206" s="23"/>
       <c r="C206" s="14"/>
       <c r="D206" s="27"/>
     </row>
-    <row r="207" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="207" spans="1:4" ht="36" customHeight="1">
       <c r="A207" s="18"/>
       <c r="B207" s="23"/>
       <c r="C207" s="14"/>
       <c r="D207" s="27"/>
     </row>
-    <row r="208" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="208" spans="1:4" ht="36" customHeight="1">
       <c r="A208" s="18"/>
       <c r="B208" s="23"/>
       <c r="C208" s="14"/>
       <c r="D208" s="27"/>
     </row>
-    <row r="209" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="209" spans="1:4" ht="36" customHeight="1">
       <c r="A209" s="18"/>
       <c r="B209" s="23"/>
       <c r="C209" s="14"/>
       <c r="D209" s="27"/>
     </row>
-    <row r="210" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="210" spans="1:4" ht="36" customHeight="1">
       <c r="A210" s="18"/>
       <c r="B210" s="23"/>
       <c r="C210" s="14"/>
       <c r="D210" s="27"/>
     </row>
-    <row r="211" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="211" spans="1:4" ht="36" customHeight="1">
       <c r="A211" s="18"/>
       <c r="B211" s="23"/>
       <c r="C211" s="14"/>
       <c r="D211" s="27"/>
     </row>
-    <row r="212" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="212" spans="1:4" ht="36" customHeight="1">
       <c r="A212" s="18"/>
       <c r="B212" s="23"/>
       <c r="C212" s="14"/>
       <c r="D212" s="27"/>
     </row>
-    <row r="213" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="213" spans="1:4" ht="36" customHeight="1">
       <c r="A213" s="18"/>
       <c r="B213" s="23"/>
       <c r="C213" s="14"/>
       <c r="D213" s="27"/>
     </row>
-    <row r="214" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="214" spans="1:4" ht="36" customHeight="1">
       <c r="A214" s="18"/>
       <c r="B214" s="23"/>
       <c r="C214" s="14"/>
       <c r="D214" s="27"/>
     </row>
-    <row r="215" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="215" spans="1:4" ht="36" customHeight="1">
       <c r="A215" s="18"/>
       <c r="B215" s="23"/>
       <c r="C215" s="14"/>
       <c r="D215" s="27"/>
     </row>
-    <row r="216" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="216" spans="1:4" ht="36" customHeight="1">
       <c r="A216" s="18"/>
       <c r="B216" s="23"/>
       <c r="C216" s="14"/>
       <c r="D216" s="27"/>
     </row>
-    <row r="217" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="217" spans="1:4" ht="36" customHeight="1">
       <c r="A217" s="18"/>
       <c r="B217" s="23"/>
       <c r="C217" s="14"/>
       <c r="D217" s="27"/>
     </row>
-    <row r="218" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="218" spans="1:4" ht="36" customHeight="1">
       <c r="A218" s="18"/>
       <c r="B218" s="23"/>
       <c r="C218" s="14"/>
       <c r="D218" s="27"/>
     </row>
-    <row r="219" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="219" spans="1:4" ht="36" customHeight="1">
       <c r="A219" s="18"/>
       <c r="B219" s="23"/>
       <c r="C219" s="14"/>
       <c r="D219" s="27"/>
     </row>
-    <row r="220" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="220" spans="1:4" ht="36" customHeight="1">
       <c r="A220" s="18"/>
       <c r="B220" s="23"/>
       <c r="C220" s="14"/>
       <c r="D220" s="27"/>
     </row>
-    <row r="221" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="221" spans="1:4" ht="36" customHeight="1">
       <c r="A221" s="18"/>
       <c r="B221" s="23"/>
       <c r="C221" s="14"/>
       <c r="D221" s="27"/>
     </row>
-    <row r="222" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="222" spans="1:4" ht="36" customHeight="1">
       <c r="A222" s="18"/>
       <c r="B222" s="23"/>
       <c r="C222" s="14"/>
       <c r="D222" s="27"/>
     </row>
-    <row r="223" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="223" spans="1:4" ht="36" customHeight="1">
       <c r="A223" s="18"/>
       <c r="B223" s="23"/>
       <c r="C223" s="14"/>
       <c r="D223" s="27"/>
     </row>
-    <row r="224" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="224" spans="1:4" ht="36" customHeight="1">
       <c r="A224" s="18"/>
       <c r="B224" s="23"/>
       <c r="C224" s="14"/>
       <c r="D224" s="27"/>
     </row>
-    <row r="225" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="225" spans="1:4" ht="36" customHeight="1">
       <c r="A225" s="18"/>
       <c r="B225" s="23"/>
       <c r="C225" s="14"/>
       <c r="D225" s="27"/>
     </row>
-    <row r="226" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="226" spans="1:4" ht="36" customHeight="1">
       <c r="A226" s="18"/>
       <c r="B226" s="23"/>
       <c r="C226" s="14"/>
       <c r="D226" s="27"/>
     </row>
-    <row r="227" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="227" spans="1:4" ht="36" customHeight="1">
       <c r="A227" s="18"/>
       <c r="B227" s="23"/>
       <c r="C227" s="14"/>
       <c r="D227" s="27"/>
     </row>
-    <row r="228" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="228" spans="1:4" ht="36" customHeight="1">
       <c r="A228" s="18"/>
       <c r="B228" s="23"/>
       <c r="C228" s="14"/>
       <c r="D228" s="27"/>
     </row>
-    <row r="229" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="229" spans="1:4" ht="36" customHeight="1">
       <c r="A229" s="18"/>
       <c r="B229" s="23"/>
       <c r="C229" s="14"/>
       <c r="D229" s="27"/>
     </row>
-    <row r="230" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="230" spans="1:4" ht="36" customHeight="1">
       <c r="A230" s="18"/>
       <c r="B230" s="23"/>
       <c r="C230" s="14"/>
       <c r="D230" s="27"/>
     </row>
-    <row r="231" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="231" spans="1:4" ht="36" customHeight="1">
       <c r="A231" s="18"/>
       <c r="B231" s="23"/>
       <c r="C231" s="14"/>
       <c r="D231" s="27"/>
     </row>
-    <row r="232" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="232" spans="1:4" ht="36" customHeight="1">
       <c r="A232" s="18"/>
       <c r="B232" s="23"/>
       <c r="C232" s="14"/>
       <c r="D232" s="27"/>
     </row>
-    <row r="233" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="233" spans="1:4" ht="36" customHeight="1">
       <c r="A233" s="18"/>
       <c r="B233" s="23"/>
       <c r="C233" s="14"/>
       <c r="D233" s="27"/>
     </row>
-    <row r="234" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="234" spans="1:4" ht="36" customHeight="1">
       <c r="A234" s="18"/>
       <c r="B234" s="23"/>
       <c r="C234" s="14"/>
       <c r="D234" s="27"/>
     </row>
-    <row r="235" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="235" spans="1:4" ht="36" customHeight="1">
       <c r="A235" s="18"/>
       <c r="B235" s="23"/>
       <c r="C235" s="14"/>
       <c r="D235" s="27"/>
     </row>
-    <row r="236" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="236" spans="1:4" ht="36" customHeight="1">
       <c r="A236" s="18"/>
       <c r="B236" s="23"/>
       <c r="C236" s="14"/>
       <c r="D236" s="27"/>
     </row>
-    <row r="237" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="237" spans="1:4" ht="36" customHeight="1">
       <c r="A237" s="18"/>
       <c r="B237" s="23"/>
       <c r="C237" s="14"/>
       <c r="D237" s="27"/>
     </row>
-    <row r="238" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="238" spans="1:4" ht="36" customHeight="1">
       <c r="A238" s="18"/>
       <c r="B238" s="23"/>
       <c r="C238" s="14"/>
       <c r="D238" s="27"/>
     </row>
-    <row r="239" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="239" spans="1:4" ht="36" customHeight="1">
       <c r="A239" s="18"/>
       <c r="B239" s="23"/>
       <c r="C239" s="14"/>
       <c r="D239" s="27"/>
     </row>
-    <row r="240" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="240" spans="1:4" ht="36" customHeight="1">
       <c r="A240" s="18"/>
       <c r="B240" s="23"/>
       <c r="C240" s="14"/>
       <c r="D240" s="27"/>
     </row>
-    <row r="241" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="241" spans="1:4" ht="36" customHeight="1">
       <c r="A241" s="18"/>
       <c r="B241" s="23"/>
       <c r="C241" s="14"/>
       <c r="D241" s="27"/>
     </row>
-    <row r="242" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="242" spans="1:4" ht="36" customHeight="1">
       <c r="A242" s="18"/>
       <c r="B242" s="23"/>
       <c r="C242" s="14"/>
       <c r="D242" s="27"/>
     </row>
-    <row r="243" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="243" spans="1:4" ht="36" customHeight="1">
       <c r="A243" s="18"/>
       <c r="B243" s="23"/>
       <c r="C243" s="14"/>
       <c r="D243" s="27"/>
     </row>
-    <row r="244" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="244" spans="1:4" ht="36" customHeight="1">
       <c r="A244" s="18"/>
       <c r="B244" s="23"/>
       <c r="C244" s="14"/>
       <c r="D244" s="27"/>
     </row>
-    <row r="245" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="245" spans="1:4" ht="36" customHeight="1">
       <c r="A245" s="18"/>
       <c r="B245" s="23"/>
       <c r="C245" s="14"/>
       <c r="D245" s="27"/>
     </row>
-    <row r="246" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="246" spans="1:4" ht="36" customHeight="1">
       <c r="A246" s="18"/>
       <c r="B246" s="23"/>
       <c r="C246" s="14"/>
       <c r="D246" s="27"/>
     </row>
-    <row r="247" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="247" spans="1:4" ht="36" customHeight="1">
       <c r="A247" s="18"/>
       <c r="B247" s="23"/>
       <c r="C247" s="14"/>
       <c r="D247" s="27"/>
     </row>
-    <row r="248" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="248" spans="1:4" ht="36" customHeight="1">
       <c r="A248" s="18"/>
       <c r="B248" s="23"/>
       <c r="C248" s="14"/>
       <c r="D248" s="27"/>
     </row>
-    <row r="249" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="249" spans="1:4" ht="36" customHeight="1">
       <c r="A249" s="18"/>
       <c r="B249" s="23"/>
       <c r="C249" s="14"/>
       <c r="D249" s="27"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="250" spans="1:4">
       <c r="A250" s="18"/>
       <c r="B250" s="23"/>
       <c r="C250" s="14"/>
       <c r="D250" s="27"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="251" spans="1:4">
       <c r="A251" s="18"/>
       <c r="B251" s="23"/>
       <c r="C251" s="14"/>
       <c r="D251" s="27"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="252" spans="1:4">
       <c r="A252" s="18"/>
       <c r="B252" s="23"/>
       <c r="C252" s="14"/>
       <c r="D252" s="27"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="253" spans="1:4">
       <c r="A253" s="18"/>
       <c r="B253" s="23"/>
       <c r="C253" s="14"/>
       <c r="D253" s="27"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="254" spans="1:4">
       <c r="A254" s="19"/>
       <c r="B254" s="24"/>
       <c r="C254" s="15"/>
       <c r="D254" s="26"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="255" spans="1:4">
       <c r="A255" s="19"/>
       <c r="B255" s="24"/>
       <c r="C255" s="15"/>
       <c r="D255" s="26"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="256" spans="1:4">
       <c r="A256" s="19"/>
       <c r="B256" s="24"/>
       <c r="C256" s="15"/>
       <c r="D256" s="26"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="257" spans="1:4">
       <c r="A257" s="19"/>
       <c r="B257" s="24"/>
       <c r="C257" s="15"/>
       <c r="D257" s="26"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="258" spans="1:4">
       <c r="A258" s="19"/>
       <c r="B258" s="24"/>
       <c r="C258" s="15"/>
       <c r="D258" s="26"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.9">
+    <row r="259" spans="1:4">
       <c r="A259" s="19"/>
       <c r="B259" s="24"/>
       <c r="C259" s="15"/>
@@ -8701,13 +8732,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B48"/>
@@ -8724,85 +8748,92 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A63:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="推举"/>
-    <hyperlink ref="C4" r:id="rId2" display="坐姿推举"/>
-    <hyperlink ref="C5" r:id="rId3" display="阿诺德推举"/>
-    <hyperlink ref="C6" r:id="rId4" display="双臂前平举"/>
-    <hyperlink ref="C7" r:id="rId5" display="单臂前平举"/>
-    <hyperlink ref="C8" r:id="rId6" display="侧平举"/>
-    <hyperlink ref="C9" r:id="rId7" display="直拉"/>
-    <hyperlink ref="C10" r:id="rId8" display="坐姿侧平举"/>
-    <hyperlink ref="C11" r:id="rId9" display="侧卧侧平举"/>
-    <hyperlink ref="C12" r:id="rId10" display="侧斜侧平举"/>
-    <hyperlink ref="C13" r:id="rId11" display="俯身侧平举"/>
-    <hyperlink ref="C14" r:id="rId12" display="俯身摆臂"/>
-    <hyperlink ref="C15" r:id="rId13" display="俯身上拉"/>
-    <hyperlink ref="C16" r:id="rId14" display="斜躺侧平举"/>
-    <hyperlink ref="C17" r:id="rId15" display="斜板侧平举"/>
-    <hyperlink ref="C18" r:id="rId16" display="坐姿俯身侧平举"/>
-    <hyperlink ref="C19" r:id="rId17" display="侧卧侧平举"/>
-    <hyperlink ref="C42" r:id="rId18" display="半蹲单臂弯举"/>
-    <hyperlink ref="C43" r:id="rId19" display="垂式弯举"/>
-    <hyperlink ref="C44" r:id="rId20"/>
-    <hyperlink ref="C45" r:id="rId21"/>
-    <hyperlink ref="C46" r:id="rId22"/>
-    <hyperlink ref="C47" r:id="rId23"/>
-    <hyperlink ref="C48" r:id="rId24" display="直板托臂弯举"/>
-    <hyperlink ref="C49" r:id="rId25"/>
-    <hyperlink ref="C50" r:id="rId26"/>
-    <hyperlink ref="C51" r:id="rId27"/>
-    <hyperlink ref="C52" r:id="rId28"/>
-    <hyperlink ref="C53" r:id="rId29"/>
-    <hyperlink ref="C54" r:id="rId30"/>
-    <hyperlink ref="C55" r:id="rId31" display="站姿屈臂伸(单)"/>
-    <hyperlink ref="C56" r:id="rId32"/>
-    <hyperlink ref="C57" r:id="rId33"/>
-    <hyperlink ref="C58" r:id="rId34" display="臂弯举"/>
-    <hyperlink ref="C59" r:id="rId35" display="臂弯举(腕翻转)"/>
-    <hyperlink ref="C60" r:id="rId36" display="臂弯举(锤式)"/>
-    <hyperlink ref="C61" r:id="rId37"/>
-    <hyperlink ref="C62" r:id="rId38" display="腕弯举"/>
-    <hyperlink ref="C20" r:id="rId39" display="仰卧屈臂上提(单)"/>
-    <hyperlink ref="C21" r:id="rId40" display="仰卧屈臂上拉"/>
-    <hyperlink ref="C22" r:id="rId41" display="下斜飞鸟"/>
-    <hyperlink ref="C23" r:id="rId42" display="高腿位飞鸟"/>
-    <hyperlink ref="C24" r:id="rId43"/>
-    <hyperlink ref="C25" r:id="rId44" display="下斜卧推"/>
-    <hyperlink ref="C26" r:id="rId45" display="卧推"/>
-    <hyperlink ref="C27" r:id="rId46"/>
-    <hyperlink ref="C28" r:id="rId47"/>
-    <hyperlink ref="C29" r:id="rId48" display="上斜飞鸟"/>
-    <hyperlink ref="C30" r:id="rId49" display="上斜卧推"/>
-    <hyperlink ref="C31" r:id="rId50" display="旋转上斜卧推"/>
-    <hyperlink ref="C32" r:id="rId51" display="斜板划船"/>
-    <hyperlink ref="C33" r:id="rId52"/>
-    <hyperlink ref="C34" r:id="rId53"/>
-    <hyperlink ref="C35" r:id="rId54"/>
-    <hyperlink ref="C36" r:id="rId55"/>
-    <hyperlink ref="C37" r:id="rId56" display="绕肩"/>
-    <hyperlink ref="C38" r:id="rId57" display="耸肩"/>
-    <hyperlink ref="C39" r:id="rId58" display="俯身摆肩"/>
-    <hyperlink ref="C40" r:id="rId59" display="侧卧侧拉"/>
-    <hyperlink ref="C41" r:id="rId60" display="侧卧支撑侧拉"/>
-    <hyperlink ref="C63" r:id="rId61"/>
-    <hyperlink ref="C64" r:id="rId62"/>
-    <hyperlink ref="C65" r:id="rId63" display="双臂侧屈体"/>
-    <hyperlink ref="C66" r:id="rId64" display="单臂侧屈"/>
-    <hyperlink ref="C67" r:id="rId65"/>
-    <hyperlink ref="C68" r:id="rId66" display="直腿硬拉"/>
-    <hyperlink ref="C69" r:id="rId67" display="侧弓步"/>
-    <hyperlink ref="C77" r:id="rId68" display="硬拉"/>
-    <hyperlink ref="C70" r:id="rId69" display="深蹲"/>
-    <hyperlink ref="C71" r:id="rId70"/>
-    <hyperlink ref="C72" r:id="rId71" display="提箱式深蹲"/>
-    <hyperlink ref="C73" r:id="rId72" display="弓步蹲"/>
-    <hyperlink ref="C74" r:id="rId73" display="侧弓步"/>
-    <hyperlink ref="C75" r:id="rId74" display="前弓步"/>
-    <hyperlink ref="C76" r:id="rId75" display="后弓步"/>
-    <hyperlink ref="C78" r:id="rId76" display="坐姿提踵"/>
+    <hyperlink ref="C3" r:id="rId1" display="推举" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" display="坐姿推举" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" display="阿诺德推举" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" display="双臂前平举" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" display="单臂前平举" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" display="侧平举" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C9" r:id="rId7" display="直拉" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" display="坐姿侧平举" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C11" r:id="rId9" display="侧卧侧平举" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C12" r:id="rId10" display="侧斜侧平举" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C13" r:id="rId11" display="俯身侧平举" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C14" r:id="rId12" display="俯身摆臂" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C15" r:id="rId13" display="俯身上拉" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C16" r:id="rId14" display="斜躺侧平举" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="C17" r:id="rId15" display="斜板侧平举" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C18" r:id="rId16" display="坐姿俯身侧平举" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="C19" r:id="rId17" display="侧卧侧平举" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C42" r:id="rId18" display="半蹲单臂弯举" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="C43" r:id="rId19" display="垂式弯举" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C44" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="C45" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="C46" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="C47" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="C48" r:id="rId24" display="直板托臂弯举" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="C49" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="C50" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="C51" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="C52" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="C53" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="C54" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="C55" r:id="rId31" display="站姿屈臂伸(单)" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="C56" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="C57" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="C58" r:id="rId34" display="臂弯举" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="C59" r:id="rId35" display="臂弯举(腕翻转)" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="C60" r:id="rId36" display="臂弯举(锤式)" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="C61" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="C62" r:id="rId38" display="腕弯举" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="C20" r:id="rId39" display="仰卧屈臂上提(单)" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="C21" r:id="rId40" display="仰卧屈臂上拉" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="C22" r:id="rId41" display="下斜飞鸟" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="C23" r:id="rId42" display="高腿位飞鸟" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="C24" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="C25" r:id="rId44" display="下斜卧推" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="C26" r:id="rId45" display="卧推" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="C27" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="C28" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="C29" r:id="rId48" display="上斜飞鸟" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="C30" r:id="rId49" display="上斜卧推" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="C31" r:id="rId50" display="旋转上斜卧推" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="C32" r:id="rId51" display="斜板划船" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="C33" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="C34" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="C35" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="C36" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="C37" r:id="rId56" display="绕肩" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="C38" r:id="rId57" display="耸肩" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="C39" r:id="rId58" display="俯身摆肩" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="C40" r:id="rId59" display="侧卧侧拉" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="C41" r:id="rId60" display="侧卧支撑侧拉" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="C63" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="C64" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="C65" r:id="rId63" display="双臂侧屈体" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="C66" r:id="rId64" display="单臂侧屈" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="C67" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="C68" r:id="rId66" display="直腿硬拉" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="C69" r:id="rId67" display="侧弓步" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="C77" r:id="rId68" display="硬拉" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="C70" r:id="rId69" display="深蹲" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="C72" r:id="rId71" display="提箱式深蹲" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="C73" r:id="rId72" display="弓步蹲" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="C74" r:id="rId73" display="侧弓步" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="C75" r:id="rId74" display="前弓步" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="C76" r:id="rId75" display="后弓步" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="C78" r:id="rId76" display="坐姿提踵" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8811,14 +8842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="62" customWidth="1"/>
@@ -8828,102 +8859,102 @@
     <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="35">
       <c r="A1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="157" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="136"/>
-    </row>
-    <row r="2" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="148" t="s">
+      <c r="D1" s="157"/>
+    </row>
+    <row r="2" spans="1:6" ht="65" customHeight="1">
+      <c r="A2" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="137"/>
-    </row>
-    <row r="3" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="149"/>
-      <c r="C3" s="138" t="s">
+      <c r="D2" s="158"/>
+    </row>
+    <row r="3" spans="1:6" ht="31" customHeight="1">
+      <c r="A3" s="143"/>
+      <c r="C3" s="159" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="161" t="s">
+      <c r="E3" s="155" t="s">
         <v>332</v>
       </c>
-      <c r="F3" s="162"/>
-    </row>
-    <row r="4" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="150" t="s">
+      <c r="F3" s="156"/>
+    </row>
+    <row r="4" spans="1:6" ht="31" customHeight="1">
+      <c r="A4" s="144" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="139"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="151"/>
-      <c r="C5" s="140" t="s">
+    <row r="5" spans="1:6" ht="31" customHeight="1">
+      <c r="A5" s="145"/>
+      <c r="C5" s="161" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="136" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="151"/>
-      <c r="C6" s="141"/>
+    <row r="6" spans="1:6" ht="31" customHeight="1">
+      <c r="A6" s="145"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="142"/>
-    </row>
-    <row r="7" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="151"/>
-      <c r="C7" s="144" t="s">
+      <c r="F6" s="136"/>
+    </row>
+    <row r="7" spans="1:6" ht="31" customHeight="1">
+      <c r="A7" s="145"/>
+      <c r="C7" s="138" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="142"/>
-    </row>
-    <row r="8" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="151"/>
-      <c r="C8" s="145"/>
+      <c r="F7" s="136"/>
+    </row>
+    <row r="8" spans="1:6" ht="31" customHeight="1">
+      <c r="A8" s="145"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="142"/>
-    </row>
-    <row r="9" spans="1:6" ht="23" x14ac:dyDescent="0.2">
-      <c r="A9" s="151"/>
-      <c r="C9" s="157" t="s">
+      <c r="F8" s="136"/>
+    </row>
+    <row r="9" spans="1:6" ht="23">
+      <c r="A9" s="145"/>
+      <c r="C9" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="F9" s="142"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="151"/>
-      <c r="C10" s="153" t="s">
+      <c r="D9" s="152"/>
+      <c r="F9" s="136"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="145"/>
+      <c r="C10" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="154"/>
-      <c r="F10" s="142"/>
-    </row>
-    <row r="11" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="151"/>
+      <c r="D10" s="148"/>
+      <c r="F10" s="136"/>
+    </row>
+    <row r="11" spans="1:6" ht="32" customHeight="1">
+      <c r="A11" s="145"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -8931,70 +8962,75 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="142"/>
-    </row>
-    <row r="12" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="152"/>
-      <c r="C12" s="155" t="s">
+      <c r="F11" s="136"/>
+    </row>
+    <row r="12" spans="1:6" ht="54" customHeight="1">
+      <c r="A12" s="146"/>
+      <c r="C12" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="F12" s="142"/>
-    </row>
-    <row r="13" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="159" t="s">
+      <c r="D12" s="150"/>
+      <c r="F12" s="136"/>
+    </row>
+    <row r="13" spans="1:6" ht="37" customHeight="1">
+      <c r="C13" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="160"/>
-      <c r="F13" s="142" t="s">
+      <c r="D13" s="154"/>
+      <c r="F13" s="136" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="45" customHeight="1">
       <c r="C14" s="57" t="s">
         <v>187</v>
       </c>
       <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="142"/>
-    </row>
-    <row r="15" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="146" t="s">
+      <c r="F14" s="136"/>
+    </row>
+    <row r="15" spans="1:6" ht="48" customHeight="1">
+      <c r="C15" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="147"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="142"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F16" s="142"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F17" s="142"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="142"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F19" s="142"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F20" s="143" t="s">
+      <c r="F15" s="136"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="F16" s="136"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="136"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="136"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="136"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="137" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F21" s="143"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F22" s="143"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F23" s="143"/>
+    <row r="21" spans="6:6">
+      <c r="F21" s="137"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="137"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F12"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="C7:C8"/>
@@ -9006,11 +9042,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9019,14 +9050,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="C211" sqref="C211"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
     <col min="1" max="1" width="72.5" style="63" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="85" customWidth="1"/>
@@ -9038,13 +9069,13 @@
     <col min="15" max="15" width="34.6640625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28">
       <c r="A1" s="164">
         <v>2014.4</v>
       </c>
       <c r="B1" s="164"/>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" customHeight="1">
       <c r="A2" s="63" t="s">
         <v>191</v>
       </c>
@@ -9052,7 +9083,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="63" t="s">
         <v>192</v>
       </c>
@@ -9060,7 +9091,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="B4" s="86">
         <f>SUM(B2:B3)</f>
         <v>163.80000000000001</v>
@@ -9069,13 +9100,13 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28">
       <c r="A5" s="164">
         <v>2014.5</v>
       </c>
       <c r="B5" s="164"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="63" t="s">
         <v>193</v>
       </c>
@@ -9083,7 +9114,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="63" t="s">
         <v>252</v>
       </c>
@@ -9091,7 +9122,7 @@
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="63" t="s">
         <v>253</v>
       </c>
@@ -9099,7 +9130,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="63" t="s">
         <v>254</v>
       </c>
@@ -9107,7 +9138,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="63" t="s">
         <v>255</v>
       </c>
@@ -9118,7 +9149,7 @@
         <v>623.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="B11" s="86">
         <f>SUM(B6:B10)</f>
         <v>623.35</v>
@@ -9128,13 +9159,13 @@
         <v>787.15000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="21" customHeight="1">
       <c r="A12" s="164" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="164"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="64" t="s">
         <v>195</v>
       </c>
@@ -9142,7 +9173,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="64" t="s">
         <v>196</v>
       </c>
@@ -9153,7 +9184,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="64"/>
       <c r="B15" s="86">
         <f>SUM(B13:B14)</f>
@@ -9164,7 +9195,7 @@
         <v>919.90000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="21" customHeight="1">
       <c r="A16" s="164" t="s">
         <v>238</v>
       </c>
@@ -9173,7 +9204,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="64" t="s">
         <v>197</v>
       </c>
@@ -9185,13 +9216,13 @@
         <v>1243.9000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="21" customHeight="1">
       <c r="A18" s="164" t="s">
         <v>239</v>
       </c>
       <c r="B18" s="164"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="63" t="s">
         <v>198</v>
       </c>
@@ -9199,7 +9230,7 @@
         <v>109.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="63" t="s">
         <v>199</v>
       </c>
@@ -9207,7 +9238,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="63" t="s">
         <v>198</v>
       </c>
@@ -9218,7 +9249,7 @@
         <v>305.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="B22" s="86">
         <f>SUM(B19:B21)</f>
         <v>305.31</v>
@@ -9228,7 +9259,7 @@
         <v>1549.21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="21" customHeight="1">
       <c r="A23" s="164" t="s">
         <v>200</v>
       </c>
@@ -9237,7 +9268,7 @@
         <v>49.67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="63" t="s">
         <v>201</v>
       </c>
@@ -9249,13 +9280,13 @@
         <v>1598.88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="21" customHeight="1">
       <c r="A25" s="164" t="s">
         <v>240</v>
       </c>
       <c r="B25" s="164"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="64" t="s">
         <v>202</v>
       </c>
@@ -9263,7 +9294,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="63" t="s">
         <v>203</v>
       </c>
@@ -9271,7 +9302,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="63" t="s">
         <v>203</v>
       </c>
@@ -9279,7 +9310,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="63" t="s">
         <v>204</v>
       </c>
@@ -9287,7 +9318,7 @@
         <v>308.70999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="63" t="s">
         <v>205</v>
       </c>
@@ -9295,7 +9326,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="63" t="s">
         <v>206</v>
       </c>
@@ -9303,7 +9334,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="63" t="s">
         <v>207</v>
       </c>
@@ -9314,7 +9345,7 @@
         <v>1098.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="B33" s="86">
         <f>SUM(B26:B32)</f>
         <v>1098.43</v>
@@ -9324,13 +9355,13 @@
         <v>2697.3100000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="21" customHeight="1">
       <c r="A34" s="164" t="s">
         <v>241</v>
       </c>
       <c r="B34" s="164"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="63" t="s">
         <v>208</v>
       </c>
@@ -9338,7 +9369,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="63" t="s">
         <v>209</v>
       </c>
@@ -9346,7 +9377,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="63" t="s">
         <v>256</v>
       </c>
@@ -9354,7 +9385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="63" t="s">
         <v>257</v>
       </c>
@@ -9362,7 +9393,7 @@
         <v>35.64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="63" t="s">
         <v>258</v>
       </c>
@@ -9370,7 +9401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="63" t="s">
         <v>210</v>
       </c>
@@ -9378,7 +9409,7 @@
         <v>178.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="63" t="s">
         <v>211</v>
       </c>
@@ -9386,7 +9417,7 @@
         <v>51.27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="63" t="s">
         <v>211</v>
       </c>
@@ -9394,7 +9425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="41" customHeight="1">
       <c r="A43" s="65" t="s">
         <v>212</v>
       </c>
@@ -9405,7 +9436,7 @@
         <v>826.03</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="65"/>
       <c r="B44" s="86">
         <f>SUM(B35:B43)</f>
@@ -9416,13 +9447,13 @@
         <v>3523.34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="21" customHeight="1">
       <c r="A45" s="164" t="s">
         <v>242</v>
       </c>
       <c r="B45" s="164"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" s="65" t="s">
         <v>213</v>
       </c>
@@ -9430,7 +9461,7 @@
         <v>309.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="65" t="s">
         <v>214</v>
       </c>
@@ -9441,7 +9472,7 @@
         <v>500.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="65"/>
       <c r="B48" s="86">
         <f>SUM(B46:B47)</f>
@@ -9452,13 +9483,13 @@
         <v>4024.04</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="21" customHeight="1">
       <c r="A49" s="164" t="s">
         <v>243</v>
       </c>
       <c r="B49" s="164"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="65" t="s">
         <v>259</v>
       </c>
@@ -9466,7 +9497,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="63" t="s">
         <v>215</v>
       </c>
@@ -9474,7 +9505,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="63" t="s">
         <v>216</v>
       </c>
@@ -9482,7 +9513,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="65" t="s">
         <v>260</v>
       </c>
@@ -9493,7 +9524,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="65"/>
       <c r="B54" s="86">
         <f>SUM(B50:B53)</f>
@@ -9504,13 +9535,13 @@
         <v>4539.54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="21" customHeight="1">
       <c r="A55" s="164" t="s">
         <v>244</v>
       </c>
       <c r="B55" s="164"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" s="64" t="s">
         <v>217</v>
       </c>
@@ -9518,7 +9549,7 @@
         <v>199.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="65" t="s">
         <v>261</v>
       </c>
@@ -9526,7 +9557,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="65" t="s">
         <v>218</v>
       </c>
@@ -9534,7 +9565,7 @@
         <v>238.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="63" t="s">
         <v>222</v>
       </c>
@@ -9542,7 +9573,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="65" t="s">
         <v>262</v>
       </c>
@@ -9553,7 +9584,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="65"/>
       <c r="B61" s="86">
         <f>SUM(B56:B60)</f>
@@ -9564,13 +9595,13 @@
         <v>5521.54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="21" customHeight="1">
       <c r="A62" s="164" t="s">
         <v>245</v>
       </c>
       <c r="B62" s="164"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" s="65" t="s">
         <v>263</v>
       </c>
@@ -9578,7 +9609,7 @@
         <v>75.239999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="65" t="s">
         <v>264</v>
       </c>
@@ -9586,7 +9617,7 @@
         <v>85.84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="65" t="s">
         <v>265</v>
       </c>
@@ -9597,7 +9628,7 @@
         <v>207.14</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="65"/>
       <c r="B66" s="86">
         <f>SUM(B63:B65)</f>
@@ -9608,13 +9639,13 @@
         <v>5728.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="21" customHeight="1">
       <c r="A67" s="164" t="s">
         <v>219</v>
       </c>
       <c r="B67" s="164"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" s="65" t="s">
         <v>266</v>
       </c>
@@ -9622,7 +9653,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="65" t="s">
         <v>220</v>
       </c>
@@ -9633,7 +9664,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="65"/>
       <c r="B70" s="86">
         <f>SUM(B68:B69)</f>
@@ -9644,13 +9675,13 @@
         <v>5926.9800000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="21" customHeight="1">
       <c r="A71" s="164" t="s">
         <v>247</v>
       </c>
       <c r="B71" s="164"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="65" t="s">
         <v>246</v>
       </c>
@@ -9658,7 +9689,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="65" t="s">
         <v>223</v>
       </c>
@@ -9666,7 +9697,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="65" t="s">
         <v>267</v>
       </c>
@@ -9677,7 +9708,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="65"/>
       <c r="B75" s="86">
         <f>SUM(B72:B74)</f>
@@ -9688,13 +9719,13 @@
         <v>6341.9800000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="21" customHeight="1">
       <c r="A76" s="164" t="s">
         <v>248</v>
       </c>
       <c r="B76" s="164"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="65" t="s">
         <v>268</v>
       </c>
@@ -9702,7 +9733,7 @@
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="65" t="s">
         <v>269</v>
       </c>
@@ -9710,7 +9741,7 @@
         <v>98.99</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="65" t="s">
         <v>270</v>
       </c>
@@ -9718,7 +9749,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="65" t="s">
         <v>271</v>
       </c>
@@ -9729,7 +9760,7 @@
         <v>386.53</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="65"/>
       <c r="B81" s="86">
         <f>SUM(B77:B80)</f>
@@ -9740,13 +9771,13 @@
         <v>6728.51</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="21" customHeight="1">
       <c r="A82" s="164" t="s">
         <v>221</v>
       </c>
       <c r="B82" s="164"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" s="65" t="s">
         <v>272</v>
       </c>
@@ -9754,7 +9785,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="65" t="s">
         <v>273</v>
       </c>
@@ -9762,7 +9793,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="65" t="s">
         <v>274</v>
       </c>
@@ -9770,7 +9801,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="65" t="s">
         <v>275</v>
       </c>
@@ -9781,7 +9812,7 @@
         <v>579.15</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" s="65"/>
       <c r="B87" s="86">
         <f>SUM(B83:B86)</f>
@@ -9792,13 +9823,13 @@
         <v>7307.66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="21" customHeight="1">
       <c r="A88" s="164" t="s">
         <v>249</v>
       </c>
       <c r="B88" s="164"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" s="65" t="s">
         <v>224</v>
       </c>
@@ -9806,7 +9837,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="65" t="s">
         <v>276</v>
       </c>
@@ -9814,7 +9845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="65" t="s">
         <v>277</v>
       </c>
@@ -9825,7 +9856,7 @@
         <v>229.26</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="65"/>
       <c r="B92" s="86">
         <f>SUM(B89:B91)</f>
@@ -9836,13 +9867,13 @@
         <v>7536.92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="21" customHeight="1">
       <c r="A93" s="164" t="s">
         <v>225</v>
       </c>
       <c r="B93" s="164"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" s="65" t="s">
         <v>278</v>
       </c>
@@ -9850,7 +9881,7 @@
         <v>143.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="65" t="s">
         <v>226</v>
       </c>
@@ -9858,7 +9889,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" s="65" t="s">
         <v>279</v>
       </c>
@@ -9866,7 +9897,7 @@
         <v>166.32</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="65" t="s">
         <v>227</v>
       </c>
@@ -9874,7 +9905,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="65" t="s">
         <v>280</v>
       </c>
@@ -9882,7 +9913,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="65" t="s">
         <v>228</v>
       </c>
@@ -9890,7 +9921,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" s="65" t="s">
         <v>281</v>
       </c>
@@ -9898,7 +9929,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" s="65" t="s">
         <v>282</v>
       </c>
@@ -9906,7 +9937,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" s="65" t="s">
         <v>283</v>
       </c>
@@ -9914,7 +9945,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="65" t="s">
         <v>284</v>
       </c>
@@ -9922,7 +9953,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" s="65" t="s">
         <v>285</v>
       </c>
@@ -9933,7 +9964,7 @@
         <v>1068.92</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="65"/>
       <c r="B105" s="86">
         <f>SUM(B94:B104)</f>
@@ -9944,14 +9975,14 @@
         <v>8605.84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="21" customHeight="1">
       <c r="A106" s="164" t="s">
         <v>250</v>
       </c>
       <c r="B106" s="164"/>
       <c r="C106" s="68"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="66" t="s">
         <v>229</v>
       </c>
@@ -9960,7 +9991,7 @@
       </c>
       <c r="C107" s="68"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" s="63" t="s">
         <v>226</v>
       </c>
@@ -9969,7 +10000,7 @@
       </c>
       <c r="C108" s="68"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" s="66" t="s">
         <v>230</v>
       </c>
@@ -9978,7 +10009,7 @@
       </c>
       <c r="C109" s="68"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" s="66" t="s">
         <v>231</v>
       </c>
@@ -9987,7 +10018,7 @@
       </c>
       <c r="C110" s="68"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="66" t="s">
         <v>232</v>
       </c>
@@ -9998,7 +10029,7 @@
         <v>365.99</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="66"/>
       <c r="B112" s="86">
         <f>SUM(B107:B111)</f>
@@ -10009,14 +10040,14 @@
         <v>8971.83</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="21" customHeight="1">
       <c r="A113" s="164" t="s">
         <v>251</v>
       </c>
       <c r="B113" s="164"/>
       <c r="C113" s="68"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" s="66" t="s">
         <v>233</v>
       </c>
@@ -10025,7 +10056,7 @@
       </c>
       <c r="C114" s="68"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" s="66" t="s">
         <v>234</v>
       </c>
@@ -10034,7 +10065,7 @@
       </c>
       <c r="C115" s="68"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" s="66" t="s">
         <v>235</v>
       </c>
@@ -10043,7 +10074,7 @@
       </c>
       <c r="C116" s="68"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" s="66" t="s">
         <v>301</v>
       </c>
@@ -10051,7 +10082,7 @@
         <v>112.7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="26" customHeight="1">
       <c r="A118" s="66" t="s">
         <v>397</v>
       </c>
@@ -10059,7 +10090,7 @@
         <v>170.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" s="66" t="s">
         <v>236</v>
       </c>
@@ -10067,7 +10098,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" s="66" t="s">
         <v>237</v>
       </c>
@@ -10075,7 +10106,7 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" s="66" t="s">
         <v>286</v>
       </c>
@@ -10083,7 +10114,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" s="63" t="s">
         <v>287</v>
       </c>
@@ -10095,7 +10126,7 @@
         <v>835.33999999999992</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="B123" s="86">
         <f>SUM(B114:B122)</f>
         <v>835.33999999999992</v>
@@ -10105,13 +10136,13 @@
         <v>9807.17</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="28">
       <c r="A124" s="164" t="s">
         <v>288</v>
       </c>
       <c r="B124" s="164"/>
     </row>
-    <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="26" customHeight="1">
       <c r="A125" s="66" t="s">
         <v>289</v>
       </c>
@@ -10119,7 +10150,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="63" t="s">
         <v>290</v>
       </c>
@@ -10127,7 +10158,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="63" t="s">
         <v>292</v>
       </c>
@@ -10135,7 +10166,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="63" t="s">
         <v>291</v>
       </c>
@@ -10143,7 +10174,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" s="63" t="s">
         <v>356</v>
       </c>
@@ -10151,7 +10182,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" s="76" t="s">
         <v>293</v>
       </c>
@@ -10159,7 +10190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" s="76" t="s">
         <v>296</v>
       </c>
@@ -10167,7 +10198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" s="63" t="s">
         <v>295</v>
       </c>
@@ -10175,7 +10206,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" s="63" t="s">
         <v>300</v>
       </c>
@@ -10183,7 +10214,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" s="63" t="s">
         <v>294</v>
       </c>
@@ -10191,7 +10222,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" s="63" t="s">
         <v>337</v>
       </c>
@@ -10199,7 +10230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" s="63" t="s">
         <v>338</v>
       </c>
@@ -10208,7 +10239,7 @@
       </c>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" s="63" t="s">
         <v>335</v>
       </c>
@@ -10217,7 +10248,7 @@
       </c>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" s="63" t="s">
         <v>297</v>
       </c>
@@ -10226,7 +10257,7 @@
       </c>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" s="63" t="s">
         <v>298</v>
       </c>
@@ -10235,7 +10266,7 @@
       </c>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="63" t="s">
         <v>299</v>
       </c>
@@ -10244,7 +10275,7 @@
       </c>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="63" t="s">
         <v>383</v>
       </c>
@@ -10256,7 +10287,7 @@
         <v>1349.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142"/>
       <c r="B142" s="86">
         <f>SUM(B125:B141)</f>
@@ -10267,14 +10298,14 @@
         <v>11156.77</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="28">
       <c r="A143" s="164" t="s">
         <v>302</v>
       </c>
       <c r="B143" s="164"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" s="63" t="s">
         <v>303</v>
       </c>
@@ -10283,7 +10314,7 @@
       </c>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15">
       <c r="A145" s="63" t="s">
         <v>304</v>
       </c>
@@ -10292,7 +10323,7 @@
       </c>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15">
       <c r="A146" s="63" t="s">
         <v>382</v>
       </c>
@@ -10300,7 +10331,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15">
       <c r="A147" s="63" t="s">
         <v>385</v>
       </c>
@@ -10308,7 +10339,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15">
       <c r="A148" s="63" t="s">
         <v>334</v>
       </c>
@@ -10316,7 +10347,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15">
       <c r="A149" s="63" t="s">
         <v>321</v>
       </c>
@@ -10324,7 +10355,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15">
       <c r="A150" s="63" t="s">
         <v>305</v>
       </c>
@@ -10332,7 +10363,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15">
       <c r="A151" s="63" t="s">
         <v>306</v>
       </c>
@@ -10340,7 +10371,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15">
       <c r="A152" s="63" t="s">
         <v>307</v>
       </c>
@@ -10348,7 +10379,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15">
       <c r="A153" s="63" t="s">
         <v>324</v>
       </c>
@@ -10356,7 +10387,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15">
       <c r="A154" s="65" t="s">
         <v>308</v>
       </c>
@@ -10364,7 +10395,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15">
       <c r="A155" s="65" t="s">
         <v>309</v>
       </c>
@@ -10372,7 +10403,7 @@
         <v>158.88</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15">
       <c r="A156" s="65" t="s">
         <v>310</v>
       </c>
@@ -10380,7 +10411,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15">
       <c r="A157" s="65" t="s">
         <v>311</v>
       </c>
@@ -10388,7 +10419,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15">
       <c r="A158" s="65" t="s">
         <v>336</v>
       </c>
@@ -10396,7 +10427,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15">
       <c r="A159" s="65" t="s">
         <v>320</v>
       </c>
@@ -10409,7 +10440,7 @@
       <c r="M159" s="77"/>
       <c r="O159"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15">
       <c r="A160" s="65" t="s">
         <v>312</v>
       </c>
@@ -10422,7 +10453,7 @@
       <c r="D160" s="83"/>
       <c r="E160" s="86"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15">
       <c r="A161" s="65"/>
       <c r="B161" s="86">
         <f>SUM(B144:B160)</f>
@@ -10433,13 +10464,13 @@
         <v>12618.25</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="28">
       <c r="A162" s="163">
         <v>2018.01</v>
       </c>
       <c r="B162" s="164"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15">
       <c r="A163" s="65" t="s">
         <v>342</v>
       </c>
@@ -10447,7 +10478,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15">
       <c r="A164" s="63" t="s">
         <v>313</v>
       </c>
@@ -10455,7 +10486,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15">
       <c r="A165" s="63" t="s">
         <v>314</v>
       </c>
@@ -10463,7 +10494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15">
       <c r="A166" s="63" t="s">
         <v>315</v>
       </c>
@@ -10471,7 +10502,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15">
       <c r="A167" s="63" t="s">
         <v>316</v>
       </c>
@@ -10479,7 +10510,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15">
       <c r="A168" s="63" t="s">
         <v>317</v>
       </c>
@@ -10487,7 +10518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15">
       <c r="A169" s="65" t="s">
         <v>318</v>
       </c>
@@ -10495,7 +10526,7 @@
         <v>84.83</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15">
       <c r="A170" s="63" t="s">
         <v>319</v>
       </c>
@@ -10503,7 +10534,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15">
       <c r="A171" s="63" t="s">
         <v>322</v>
       </c>
@@ -10511,7 +10542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15">
       <c r="A172" s="63" t="s">
         <v>413</v>
       </c>
@@ -10523,7 +10554,7 @@
       <c r="M172" s="77"/>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15">
       <c r="A173" s="63" t="s">
         <v>406</v>
       </c>
@@ -10534,7 +10565,7 @@
         <v>1262.6300000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15">
       <c r="B174" s="86">
         <f>SUM(B163:B173)</f>
         <v>1262.6300000000001</v>
@@ -10544,13 +10575,13 @@
         <v>13880.880000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="28">
       <c r="A175" s="163">
         <v>2018.02</v>
       </c>
       <c r="B175" s="164"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15">
       <c r="A176" s="63" t="s">
         <v>355</v>
       </c>
@@ -10558,7 +10589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" s="63" t="s">
         <v>350</v>
       </c>
@@ -10566,7 +10597,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4">
       <c r="A178" s="63" t="s">
         <v>323</v>
       </c>
@@ -10577,7 +10608,7 @@
         <v>285.64</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="B179" s="85">
         <f>SUM(B176:B178)</f>
         <v>285.64</v>
@@ -10587,13 +10618,13 @@
         <v>14166.52</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="28">
       <c r="A180" s="163">
         <v>2018.03</v>
       </c>
       <c r="B180" s="164"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4">
       <c r="A181" s="63" t="s">
         <v>384</v>
       </c>
@@ -10601,7 +10632,7 @@
         <v>84.74</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" s="63" t="s">
         <v>325</v>
       </c>
@@ -10609,7 +10640,7 @@
         <v>115.64</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4">
       <c r="A183" s="63" t="s">
         <v>407</v>
       </c>
@@ -10620,7 +10651,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4">
       <c r="A184" s="63" t="s">
         <v>326</v>
       </c>
@@ -10628,7 +10659,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4">
       <c r="A185" s="63" t="s">
         <v>327</v>
       </c>
@@ -10636,7 +10667,7 @@
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="48" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="48">
       <c r="A186" s="65" t="s">
         <v>328</v>
       </c>
@@ -10644,7 +10675,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4">
       <c r="A187" s="65" t="s">
         <v>357</v>
       </c>
@@ -10652,7 +10683,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4">
       <c r="A188" s="65" t="s">
         <v>387</v>
       </c>
@@ -10660,7 +10691,7 @@
         <v>83.1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4">
       <c r="A189" s="65" t="s">
         <v>404</v>
       </c>
@@ -10668,7 +10699,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4">
       <c r="A190" s="65" t="s">
         <v>412</v>
       </c>
@@ -10676,7 +10707,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4">
       <c r="A191" s="65" t="s">
         <v>330</v>
       </c>
@@ -10684,7 +10715,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4">
       <c r="A192" s="65" t="s">
         <v>331</v>
       </c>
@@ -10692,7 +10723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4">
       <c r="A193" s="65" t="s">
         <v>333</v>
       </c>
@@ -10703,7 +10734,7 @@
         <v>1328.56</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4">
       <c r="A194" s="65"/>
       <c r="B194" s="86">
         <f>SUM(B181:B193)</f>
@@ -10714,13 +10745,13 @@
         <v>15495.08</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="28">
       <c r="A195" s="163">
         <v>2018.04</v>
       </c>
       <c r="B195" s="164"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4">
       <c r="A196" s="65" t="s">
         <v>415</v>
       </c>
@@ -10728,7 +10759,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4">
       <c r="A197" s="65" t="s">
         <v>339</v>
       </c>
@@ -10736,7 +10767,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4">
       <c r="A198" s="63" t="s">
         <v>340</v>
       </c>
@@ -10744,13 +10775,13 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4">
       <c r="C199" s="70">
         <f>SUM(B200,0)</f>
         <v>484.5</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4">
       <c r="B200" s="86">
         <f>SUM(B196:B199)</f>
         <v>484.5</v>
@@ -10760,13 +10791,13 @@
         <v>17308.14</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="28">
       <c r="A201" s="163">
         <v>2018.05</v>
       </c>
       <c r="B201" s="164"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4">
       <c r="A202" s="63" t="s">
         <v>341</v>
       </c>
@@ -10774,7 +10805,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4">
       <c r="A203" s="63" t="s">
         <v>343</v>
       </c>
@@ -10782,7 +10813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4">
       <c r="A204" s="73" t="s">
         <v>345</v>
       </c>
@@ -10793,7 +10824,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4">
       <c r="A205" s="63" t="s">
         <v>438</v>
       </c>
@@ -10801,7 +10832,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4">
       <c r="A206" s="73" t="s">
         <v>346</v>
       </c>
@@ -10812,7 +10843,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4">
       <c r="A207" s="63" t="s">
         <v>439</v>
       </c>
@@ -10820,7 +10851,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4">
       <c r="A208" s="63" t="s">
         <v>437</v>
       </c>
@@ -10828,7 +10859,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4">
       <c r="A209" s="73" t="s">
         <v>347</v>
       </c>
@@ -10839,13 +10870,13 @@
         <v>348</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4">
       <c r="C210" s="70">
         <f>SUM(B211,0)</f>
         <v>474</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4">
       <c r="B211" s="86">
         <f>SUM(B202:B210)</f>
         <v>474</v>
@@ -10855,18 +10886,18 @@
         <v>17782.14</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" ht="28">
       <c r="A212" s="163" t="s">
         <v>349</v>
       </c>
       <c r="B212" s="164"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4">
       <c r="C213" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4">
       <c r="B214" s="86">
         <f>SUM(B213:B213)</f>
         <v>0</v>
@@ -10876,13 +10907,13 @@
         <v>17782.14</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" ht="28">
       <c r="A215" s="163">
         <v>2018.08</v>
       </c>
       <c r="B215" s="164"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4">
       <c r="A216" s="63" t="s">
         <v>386</v>
       </c>
@@ -10890,7 +10921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4">
       <c r="A217" s="63" t="s">
         <v>405</v>
       </c>
@@ -10898,7 +10929,7 @@
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4">
       <c r="A218" s="63" t="s">
         <v>416</v>
       </c>
@@ -10906,7 +10937,7 @@
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4">
       <c r="A219" s="73" t="s">
         <v>398</v>
       </c>
@@ -10917,7 +10948,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4">
       <c r="A220" s="73" t="s">
         <v>401</v>
       </c>
@@ -10928,7 +10959,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4">
       <c r="A221" s="73" t="s">
         <v>402</v>
       </c>
@@ -10939,7 +10970,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4">
       <c r="A222" s="73" t="s">
         <v>403</v>
       </c>
@@ -10950,7 +10981,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4">
       <c r="A223" s="63" t="s">
         <v>408</v>
       </c>
@@ -10958,7 +10989,7 @@
         <v>70.78</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4">
       <c r="A224" s="63" t="s">
         <v>409</v>
       </c>
@@ -10966,12 +10997,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="C225" s="70">
         <v>820.12</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="B226" s="86">
         <f>SUM(B216:B225)</f>
         <v>820.11999999999989</v>
@@ -10981,13 +11012,13 @@
         <v>18602.259999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" ht="28">
       <c r="A227" s="163" t="s">
         <v>410</v>
       </c>
       <c r="B227" s="164"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4">
       <c r="A228" s="63" t="s">
         <v>411</v>
       </c>
@@ -10995,7 +11026,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" s="63" t="s">
         <v>425</v>
       </c>
@@ -11003,7 +11034,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" s="73" t="s">
         <v>417</v>
       </c>
@@ -11014,12 +11045,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="C231" s="70">
         <v>388</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="B232" s="86">
         <f>SUM(B228:B231)</f>
         <v>388</v>
@@ -11029,13 +11060,13 @@
         <v>19810.379999999997</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" ht="28">
       <c r="A233" s="163" t="s">
         <v>418</v>
       </c>
       <c r="B233" s="164"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4">
       <c r="A234" s="73" t="s">
         <v>423</v>
       </c>
@@ -11046,7 +11077,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" s="73" t="s">
         <v>419</v>
       </c>
@@ -11057,7 +11088,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" s="73" t="s">
         <v>424</v>
       </c>
@@ -11068,7 +11099,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" s="73" t="s">
         <v>420</v>
       </c>
@@ -11079,7 +11110,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" s="73" t="s">
         <v>421</v>
       </c>
@@ -11090,7 +11121,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" s="73" t="s">
         <v>426</v>
       </c>
@@ -11101,7 +11132,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" s="73" t="s">
         <v>427</v>
       </c>
@@ -11112,7 +11143,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" s="73" t="s">
         <v>428</v>
       </c>
@@ -11123,7 +11154,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" s="73" t="s">
         <v>434</v>
       </c>
@@ -11134,7 +11165,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" s="73" t="s">
         <v>429</v>
       </c>
@@ -11145,7 +11176,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" s="73" t="s">
         <v>430</v>
       </c>
@@ -11156,7 +11187,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" s="73" t="s">
         <v>431</v>
       </c>
@@ -11167,15 +11198,18 @@
         <v>422</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" s="73" t="s">
         <v>432</v>
       </c>
       <c r="B246" s="84">
         <v>9.61</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D246" s="82" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" s="63" t="s">
         <v>433</v>
       </c>
@@ -11183,133 +11217,199 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" s="73" t="s">
         <v>435</v>
       </c>
       <c r="B248" s="84">
         <v>9.61</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D248" s="82" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" s="73" t="s">
         <v>436</v>
       </c>
       <c r="B249" s="84">
         <v>9.61</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="76"/>
-      <c r="B250" s="102"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D249" s="82" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="73" t="s">
+        <v>445</v>
+      </c>
+      <c r="B250" s="84">
+        <v>9.61</v>
+      </c>
+      <c r="D250" s="82" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="B251" s="102"/>
       <c r="C251" s="70">
         <v>115.86</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="B252" s="86">
         <f>SUM(B234:B251)</f>
-        <v>253.49</v>
+        <v>263.10000000000002</v>
       </c>
       <c r="C252" s="72">
         <f>SUM(C232:C251)</f>
         <v>19926.239999999998</v>
       </c>
     </row>
-    <row r="269" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" ht="28">
+      <c r="A253" s="163">
+        <v>2018.11</v>
+      </c>
+      <c r="B253" s="164"/>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="73" t="s">
+        <v>440</v>
+      </c>
+      <c r="B254" s="84">
+        <v>9.61</v>
+      </c>
+      <c r="D254" s="82" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="B255" s="85">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="63" t="s">
+        <v>442</v>
+      </c>
+      <c r="B256" s="85">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257" s="63" t="s">
+        <v>443</v>
+      </c>
+      <c r="B257" s="85">
+        <v>129.69999999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="A258" s="73" t="s">
+        <v>444</v>
+      </c>
+      <c r="B258" s="84">
+        <v>9.61</v>
+      </c>
+      <c r="D258" s="82" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
+      <c r="C260" s="70">
+        <v>297.22000000000003</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
+      <c r="B261" s="85">
+        <f>SUM(B254:B260)</f>
+        <v>297.22000000000003</v>
+      </c>
+      <c r="C261" s="72">
+        <f>SUM(C252:C260)</f>
+        <v>20223.46</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
       <c r="I269" s="78"/>
       <c r="J269"/>
     </row>
-    <row r="270" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10">
       <c r="I270" s="78"/>
       <c r="J270"/>
     </row>
-    <row r="339" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="10:10">
       <c r="J339" s="80"/>
     </row>
-    <row r="381" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="9:9">
       <c r="I381" s="79"/>
     </row>
-    <row r="669" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="669" spans="15:15">
       <c r="O669" s="79"/>
     </row>
-    <row r="674" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="674" spans="14:25">
       <c r="Y674">
         <v>9</v>
       </c>
     </row>
-    <row r="675" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="675" spans="14:25">
       <c r="Y675">
         <v>12</v>
       </c>
     </row>
-    <row r="676" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="676" spans="14:25">
       <c r="Y676">
         <v>8</v>
       </c>
     </row>
-    <row r="677" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="677" spans="14:25">
       <c r="N677" s="79"/>
       <c r="Y677">
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="678" spans="14:25">
       <c r="Y678">
         <v>10</v>
       </c>
     </row>
-    <row r="679" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="679" spans="14:25">
       <c r="Y679">
         <v>9</v>
       </c>
     </row>
-    <row r="680" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="680" spans="14:25">
       <c r="Y680">
         <v>16</v>
       </c>
     </row>
-    <row r="681" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="681" spans="14:25">
       <c r="Y681">
         <v>9</v>
       </c>
     </row>
-    <row r="682" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="682" spans="14:25">
       <c r="Y682">
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="683" spans="14:25">
       <c r="Y683">
         <v>8</v>
       </c>
     </row>
-    <row r="684" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="684" spans="14:25">
       <c r="Y684" s="81">
         <f>SUM(Y674:Y683)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A106:B106"/>
+  <mergeCells count="32">
+    <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="A1:B1"/>
@@ -11326,6 +11426,21 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A106:B106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlq/RankTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3DD4E924-A15B-4847-BAC9-C086AC15EBF3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="1780" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="1780" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="训练计划表" sheetId="3" r:id="rId4"/>
     <sheet name="模型花费" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="450">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -3573,13 +3572,6 @@
     <t>GROS        小时鸣人              预定</t>
     <rPh sb="0" eb="4">
       <t>bo's</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龟波气功    悟空                  预定</t>
-    <rPh sb="0" eb="2">
-      <t>gui'b</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4288,15 +4280,77 @@
     <t>AOH       欧尔麦特                预定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">龟波气功    悟空                  </t>
+    <rPh sb="0" eb="2">
+      <t>gui'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOA   造型王   路飞四档           预定</t>
+    <rPh sb="6" eb="7">
+      <t>zao'xin'wang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lu'fei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>si'dang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXQ     叛逆的鲁路修 CC           预定</t>
+    <rPh sb="8" eb="9">
+      <t>pan'ni</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lu'lu'xiu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DXF   一拳超人   琦玉             预定</t>
+    <rPh sb="6" eb="7">
+      <t>yi'quan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chao'ren</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qi'yu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5383,6 +5437,57 @@
     <xf numFmtId="176" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5401,86 +5506,53 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5544,24 +5616,6 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5607,7 +5661,7 @@
         <xdr:cNvPr id="3" name="直线连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5657,7 +5711,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5733,7 +5787,7 @@
         <xdr:cNvPr id="3" name="直线连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5783,7 +5837,7 @@
         <xdr:cNvPr id="6" name="文本框 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5861,7 +5915,7 @@
         <xdr:cNvPr id="8" name="文本框 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6204,8 +6258,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:Q52"/>
@@ -6214,7 +6268,7 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -6233,21 +6287,21 @@
     <col min="17" max="17" width="17" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31" customHeight="1">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-    </row>
-    <row r="2" spans="1:17" ht="63" customHeight="1">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+    </row>
+    <row r="2" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -6286,7 +6340,7 @@
       <c r="P2"/>
       <c r="Q2"/>
     </row>
-    <row r="3" spans="1:17" ht="19" customHeight="1">
+    <row r="3" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="K3" s="31" t="s">
         <v>19</v>
@@ -6296,7 +6350,7 @@
       <c r="P3"/>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K4" s="32">
         <v>94</v>
       </c>
@@ -6304,7 +6358,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" ht="19">
+    <row r="5" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="K5" s="33" t="s">
         <v>18</v>
       </c>
@@ -6313,13 +6367,13 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K6" s="34">
         <f>SUM(13.7*K4+726)</f>
         <v>2013.8</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K7" s="29" t="s">
         <v>12</v>
       </c>
@@ -6327,7 +6381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K8" s="29">
         <v>1.5</v>
       </c>
@@ -6335,7 +6389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K9" s="30" t="s">
         <v>17</v>
       </c>
@@ -6343,7 +6397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K10" s="47">
         <f>SUM(K6*K8)</f>
         <v>3020.7</v>
@@ -6352,7 +6406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K11" s="49" t="s">
         <v>20</v>
       </c>
@@ -6360,37 +6414,37 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="21" customHeight="1">
+    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K12" s="50" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="91" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K13" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K14" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="21" customHeight="1">
+    <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K15" s="48" t="s">
         <v>128</v>
       </c>
       <c r="M15" s="45"/>
     </row>
-    <row r="16" spans="1:17" ht="23" customHeight="1">
+    <row r="16" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K16" s="35" t="s">
         <v>129</v>
       </c>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" spans="11:14" ht="21" customHeight="1">
+    <row r="17" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="36" t="s">
         <v>130</v>
       </c>
@@ -6399,46 +6453,46 @@
       </c>
       <c r="M17" s="45"/>
     </row>
-    <row r="18" spans="11:14" ht="19" customHeight="1">
-      <c r="K18" s="110" t="s">
+    <row r="18" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="113" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="119" t="s">
+      <c r="M18" s="109" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="11:14" ht="19" customHeight="1">
-      <c r="K19" s="111"/>
+    <row r="19" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="114"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="120"/>
-    </row>
-    <row r="20" spans="11:14" ht="19" customHeight="1">
-      <c r="K20" s="112"/>
+      <c r="M19" s="110"/>
+    </row>
+    <row r="20" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="115"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="121"/>
-    </row>
-    <row r="21" spans="11:14">
-      <c r="K21" s="113" t="s">
+      <c r="M20" s="111"/>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K21" s="116" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="11:14">
-      <c r="K22" s="114"/>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K22" s="117"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="11:14" ht="21" customHeight="1">
+    <row r="23" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K23" s="39" t="s">
         <v>161</v>
       </c>
@@ -6447,7 +6501,7 @@
       </c>
       <c r="N23" s="90"/>
     </row>
-    <row r="24" spans="11:14" ht="21" customHeight="1">
+    <row r="24" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K24" s="39" t="s">
         <v>163</v>
       </c>
@@ -6455,181 +6509,201 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="11:14" ht="21" customHeight="1">
+    <row r="25" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K25" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L25" s="42" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="11:14" ht="21" customHeight="1">
-      <c r="K26" s="117" t="s">
-        <v>381</v>
-      </c>
-      <c r="L26" s="118"/>
+    <row r="26" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="118" t="s">
+        <v>380</v>
+      </c>
+      <c r="L26" s="119"/>
       <c r="M26" s="89" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="27" spans="11:14" ht="21" customHeight="1">
-      <c r="K27" s="115" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="116"/>
+      <c r="L27" s="106"/>
       <c r="M27" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="28" spans="11:14" ht="21" customHeight="1">
-      <c r="K28" s="115" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="116"/>
+      <c r="L28" s="106"/>
       <c r="M28" s="89"/>
     </row>
-    <row r="29" spans="11:14" ht="21" customHeight="1">
-      <c r="K29" s="115" t="s">
+    <row r="29" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="116"/>
-    </row>
-    <row r="30" spans="11:14" ht="21" customHeight="1">
-      <c r="K30" s="115" t="s">
+      <c r="L29" s="106"/>
+    </row>
+    <row r="30" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="116"/>
-    </row>
-    <row r="31" spans="11:14" ht="21" customHeight="1">
-      <c r="K31" s="115" t="s">
+      <c r="L30" s="106"/>
+    </row>
+    <row r="31" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="116"/>
-    </row>
-    <row r="32" spans="11:14" ht="21" customHeight="1">
-      <c r="K32" s="115" t="s">
+      <c r="L31" s="106"/>
+    </row>
+    <row r="32" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="116"/>
-    </row>
-    <row r="33" spans="11:12" ht="21" customHeight="1">
-      <c r="K33" s="115" t="s">
+      <c r="L32" s="106"/>
+    </row>
+    <row r="33" spans="11:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="116"/>
-    </row>
-    <row r="34" spans="11:12">
-      <c r="K34" s="115" t="s">
+      <c r="L33" s="106"/>
+    </row>
+    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K34" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="116"/>
-    </row>
-    <row r="35" spans="11:12">
-      <c r="K35" s="115" t="s">
+      <c r="L34" s="106"/>
+    </row>
+    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K35" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="116"/>
-    </row>
-    <row r="36" spans="11:12">
-      <c r="K36" s="115" t="s">
+      <c r="L35" s="106"/>
+    </row>
+    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K36" s="105" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="116"/>
-    </row>
-    <row r="37" spans="11:12">
-      <c r="K37" s="115" t="s">
+      <c r="L36" s="106"/>
+    </row>
+    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K37" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="L37" s="116"/>
-    </row>
-    <row r="38" spans="11:12">
-      <c r="K38" s="115" t="s">
+      <c r="L37" s="106"/>
+    </row>
+    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K38" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="116"/>
-    </row>
-    <row r="39" spans="11:12">
-      <c r="K39" s="115" t="s">
+      <c r="L38" s="106"/>
+    </row>
+    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K39" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="116"/>
-    </row>
-    <row r="40" spans="11:12">
-      <c r="K40" s="115" t="s">
+      <c r="L39" s="106"/>
+    </row>
+    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K40" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="116"/>
-    </row>
-    <row r="41" spans="11:12">
-      <c r="K41" s="115" t="s">
+      <c r="L40" s="106"/>
+    </row>
+    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K41" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="116"/>
-    </row>
-    <row r="42" spans="11:12">
-      <c r="K42" s="115" t="s">
+      <c r="L41" s="106"/>
+    </row>
+    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K42" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="116"/>
-    </row>
-    <row r="43" spans="11:12">
-      <c r="K43" s="115" t="s">
+      <c r="L42" s="106"/>
+    </row>
+    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K43" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="116"/>
-    </row>
-    <row r="44" spans="11:12">
-      <c r="K44" s="115" t="s">
+      <c r="L43" s="106"/>
+    </row>
+    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K44" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="116"/>
-    </row>
-    <row r="45" spans="11:12">
-      <c r="K45" s="115" t="s">
+      <c r="L44" s="106"/>
+    </row>
+    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K45" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="116"/>
-    </row>
-    <row r="46" spans="11:12">
-      <c r="K46" s="124"/>
-      <c r="L46" s="125"/>
-    </row>
-    <row r="47" spans="11:12">
-      <c r="K47" s="122"/>
-      <c r="L47" s="123"/>
-    </row>
-    <row r="48" spans="11:12" ht="23">
-      <c r="K48" s="103" t="s">
+      <c r="L45" s="106"/>
+    </row>
+    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K46" s="107"/>
+      <c r="L46" s="108"/>
+    </row>
+    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K47" s="103"/>
+      <c r="L47" s="104"/>
+    </row>
+    <row r="48" spans="11:12" ht="23" x14ac:dyDescent="0.3">
+      <c r="K48" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="104"/>
-    </row>
-    <row r="49" spans="11:12">
-      <c r="K49" s="105" t="s">
+      <c r="L48" s="121"/>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K49" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="106"/>
-    </row>
-    <row r="50" spans="11:12">
-      <c r="K50" s="105" t="s">
+      <c r="L49" s="123"/>
+    </row>
+    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K50" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="106"/>
-    </row>
-    <row r="51" spans="11:12">
-      <c r="K51" s="105" t="s">
+      <c r="L50" s="123"/>
+    </row>
+    <row r="51" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K51" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="106"/>
-    </row>
-    <row r="52" spans="11:12" ht="22">
-      <c r="K52" s="107" t="s">
+      <c r="L51" s="123"/>
+    </row>
+    <row r="52" spans="11:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="K52" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="108"/>
+      <c r="L52" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
@@ -6641,26 +6715,6 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6670,14 +6724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="77" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="77" customWidth="1"/>
@@ -6691,61 +6745,61 @@
     <col min="13" max="18" width="12.6640625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="78" customFormat="1" ht="31" customHeight="1">
+    <row r="1" spans="1:28" s="78" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="C1" s="77" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="D1" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="E1" s="92" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="93" t="s">
         <v>362</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>364</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>363</v>
       </c>
       <c r="G1" s="77"/>
       <c r="H1" s="77"/>
       <c r="I1" s="77"/>
       <c r="J1" s="77" t="s">
+        <v>368</v>
+      </c>
+      <c r="K1" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="K1" s="77" t="s">
-        <v>370</v>
-      </c>
       <c r="L1" s="126" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M1" s="100" t="s">
+        <v>391</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="S1" s="77"/>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:28" ht="28" customHeight="1">
+    <row r="2" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J2" s="77">
         <v>5</v>
@@ -6755,7 +6809,7 @@
       </c>
       <c r="L2" s="126"/>
       <c r="M2" s="98" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N2" s="89">
         <v>500</v>
@@ -6777,15 +6831,15 @@
         <v>673</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="40" customHeight="1">
+    <row r="3" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77">
         <v>90</v>
       </c>
       <c r="B3" s="96" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="97" t="s">
         <v>367</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>368</v>
       </c>
       <c r="D3" s="79">
         <v>200</v>
@@ -6794,7 +6848,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H3" s="77">
         <v>1750</v>
@@ -6804,7 +6858,7 @@
       </c>
       <c r="L3" s="126"/>
       <c r="M3" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N3" s="89"/>
       <c r="O3" s="89"/>
@@ -6812,7 +6866,7 @@
       <c r="Q3" s="89"/>
       <c r="R3" s="89"/>
     </row>
-    <row r="4" spans="1:28" ht="40" customHeight="1">
+    <row r="4" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="77">
         <v>2200</v>
       </c>
@@ -6827,7 +6881,7 @@
       </c>
       <c r="L4" s="126"/>
       <c r="M4" s="98" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N4" s="89">
         <v>50</v>
@@ -6849,10 +6903,10 @@
         <v>197.75</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="40" customHeight="1">
+    <row r="5" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L5" s="126"/>
       <c r="M5" s="98" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N5" s="89">
         <v>30</v>
@@ -6874,10 +6928,10 @@
         <v>109.32</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="40" customHeight="1">
+    <row r="6" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L6" s="126"/>
       <c r="M6" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N6" s="89">
         <v>250</v>
@@ -6899,18 +6953,18 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="40" customHeight="1">
+    <row r="7" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L7" s="126"/>
       <c r="M7" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N7"/>
       <c r="R7" s="89"/>
     </row>
-    <row r="8" spans="1:28" ht="40" customHeight="1">
+    <row r="8" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L8" s="126"/>
       <c r="M8" s="99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N8" s="89">
         <v>500</v>
@@ -6932,10 +6986,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="40" customHeight="1">
+    <row r="9" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L9" s="126"/>
       <c r="M9" s="99" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N9" s="89">
         <v>200</v>
@@ -6957,10 +7011,10 @@
         <v>691.2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="40" customHeight="1">
+    <row r="10" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L10" s="126"/>
       <c r="M10" s="99" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N10" s="89">
         <v>50</v>
@@ -6982,9 +7036,9 @@
         <v>183.35</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="40" customHeight="1">
+    <row r="11" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L11" s="101" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O11" s="77">
         <f>SUM(O2:O10)</f>
@@ -7003,7 +7057,7 @@
         <v>2054.12</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="40" customHeight="1">
+    <row r="14" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W14" s="98"/>
       <c r="X14" s="89"/>
       <c r="Y14" s="89"/>
@@ -7021,14 +7075,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="90"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="90" x14ac:dyDescent="0.9"/>
   <cols>
     <col min="1" max="1" width="36.5" style="20" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="21" customWidth="1"/>
@@ -7038,17 +7092,17 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="132" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:7" s="127" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="127" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="67" customHeight="1">
-      <c r="A2" s="133" t="s">
+    <row r="2" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
@@ -7056,456 +7110,456 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" ht="36" customHeight="1">
+    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="130"/>
-      <c r="B4" s="127"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="36" customHeight="1">
+    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="130"/>
-      <c r="B5" s="127"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="36" customHeight="1">
+    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="130"/>
-      <c r="B6" s="127"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="74" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="75"/>
     </row>
-    <row r="7" spans="1:7" ht="36" customHeight="1">
+    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="130"/>
-      <c r="B7" s="127"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="74" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="75"/>
     </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1">
+    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="130"/>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="128" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="36" customHeight="1">
+    <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
-      <c r="B9" s="127"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="36" customHeight="1">
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="130"/>
-      <c r="B10" s="127"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="36" customHeight="1">
+    <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="130"/>
-      <c r="B11" s="127"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="36" customHeight="1">
+    <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="130"/>
-      <c r="B12" s="127"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="36" customHeight="1">
+    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="130"/>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="128" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="36" customHeight="1">
+    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="130"/>
-      <c r="B14" s="127"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="36" customHeight="1">
+    <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="130"/>
-      <c r="B15" s="127"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1">
+    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="130"/>
-      <c r="B16" s="127"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="36" customHeight="1">
+    <row r="17" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="130"/>
-      <c r="B17" s="127"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="36" customHeight="1">
+    <row r="18" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="130"/>
-      <c r="B18" s="127"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="36" customHeight="1">
+    <row r="19" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="131"/>
-      <c r="B19" s="127"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="36" customHeight="1">
+    <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="128" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="36" customHeight="1">
+    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="130"/>
-      <c r="B21" s="127"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="36" customHeight="1">
+    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="130"/>
-      <c r="B22" s="127"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="36" customHeight="1">
+    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="130"/>
-      <c r="B23" s="127"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="36" customHeight="1">
+    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="130"/>
-      <c r="B24" s="127"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="36" customHeight="1">
+    <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="130"/>
-      <c r="B25" s="127"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="36" customHeight="1">
+    <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="130"/>
-      <c r="B26" s="127"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="36" customHeight="1">
+    <row r="27" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="130"/>
-      <c r="B27" s="127"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="36" customHeight="1">
+    <row r="28" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="130"/>
-      <c r="B28" s="127"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="36" customHeight="1">
+    <row r="29" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="130"/>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="128" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="36" customHeight="1">
+    <row r="30" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="130"/>
-      <c r="B30" s="127"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="36" customHeight="1">
+    <row r="31" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="131"/>
-      <c r="B31" s="127"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="36" customHeight="1">
+    <row r="32" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="128" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="36" customHeight="1">
+    <row r="33" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="130"/>
-      <c r="B33" s="127"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="36" customHeight="1">
+    <row r="34" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="130"/>
-      <c r="B34" s="127"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="36" customHeight="1">
+    <row r="35" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="130"/>
-      <c r="B35" s="127"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="36" customHeight="1">
+    <row r="36" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="130"/>
-      <c r="B36" s="127"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="36" customHeight="1">
+    <row r="37" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="130"/>
-      <c r="B37" s="127" t="s">
+      <c r="B37" s="128" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="36" customHeight="1">
+    <row r="38" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="130"/>
-      <c r="B38" s="127"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="36" customHeight="1">
+    <row r="39" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="130"/>
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="128" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="36" customHeight="1">
+    <row r="40" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="130"/>
-      <c r="B40" s="127"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="36" customHeight="1">
+    <row r="41" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="131"/>
-      <c r="B41" s="127"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36" customHeight="1">
+    <row r="42" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="128" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="36" customHeight="1">
+    <row r="43" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="130"/>
-      <c r="B43" s="127"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="36" customHeight="1">
+    <row r="44" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="130"/>
-      <c r="B44" s="127"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="36" customHeight="1">
+    <row r="45" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="130"/>
-      <c r="B45" s="127"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="36" customHeight="1">
+    <row r="46" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="130"/>
-      <c r="B46" s="127"/>
+      <c r="B46" s="128"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="36" customHeight="1">
+    <row r="47" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="130"/>
-      <c r="B47" s="127" t="s">
+      <c r="B47" s="128" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="36" customHeight="1">
+    <row r="48" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="130"/>
-      <c r="B48" s="127"/>
+      <c r="B48" s="128"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="36" customHeight="1">
+    <row r="49" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="130"/>
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="128" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="36" customHeight="1">
+    <row r="50" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="130"/>
-      <c r="B50" s="127"/>
+      <c r="B50" s="128"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="36" customHeight="1">
+    <row r="51" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="130"/>
-      <c r="B51" s="127"/>
+      <c r="B51" s="128"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="36" customHeight="1">
+    <row r="52" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="130"/>
-      <c r="B52" s="127"/>
+      <c r="B52" s="128"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="36" customHeight="1">
+    <row r="53" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="130"/>
-      <c r="B53" s="127"/>
+      <c r="B53" s="128"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="36" customHeight="1">
+    <row r="54" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="130"/>
-      <c r="B54" s="127"/>
+      <c r="B54" s="128"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="36" customHeight="1">
+    <row r="55" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="130"/>
-      <c r="B55" s="127"/>
+      <c r="B55" s="128"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="36" customHeight="1">
+    <row r="56" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="130"/>
-      <c r="B56" s="127"/>
+      <c r="B56" s="128"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="36" customHeight="1">
+    <row r="57" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="131"/>
-      <c r="B57" s="127"/>
+      <c r="B57" s="128"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="36" customHeight="1">
+    <row r="58" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="128" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="36" customHeight="1">
+    <row r="59" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="130"/>
-      <c r="B59" s="127"/>
+      <c r="B59" s="128"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="36" customHeight="1">
+    <row r="60" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="130"/>
-      <c r="B60" s="127"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="36" customHeight="1">
+    <row r="61" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="130"/>
-      <c r="B61" s="127"/>
+      <c r="B61" s="128"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="36" customHeight="1">
+    <row r="62" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="131"/>
       <c r="B62" s="21" t="s">
         <v>60</v>
@@ -7514,7 +7568,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="36" customHeight="1">
+    <row r="63" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="129" t="s">
         <v>61</v>
       </c>
@@ -7525,37 +7579,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="36" customHeight="1">
+    <row r="64" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="130"/>
-      <c r="B64" s="127" t="s">
+      <c r="B64" s="128" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="36" customHeight="1">
+    <row r="65" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="130"/>
-      <c r="B65" s="127"/>
+      <c r="B65" s="128"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="36" customHeight="1">
+    <row r="66" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="130"/>
-      <c r="B66" s="127"/>
+      <c r="B66" s="128"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="36" customHeight="1">
+    <row r="67" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="130"/>
-      <c r="B67" s="127"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="36" customHeight="1">
+    <row r="68" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="131"/>
       <c r="B68" s="21" t="s">
         <v>64</v>
@@ -7564,8 +7618,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="36" customHeight="1">
-      <c r="A69" s="128" t="s">
+    <row r="69" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="135" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7575,59 +7629,59 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="36" customHeight="1">
-      <c r="A70" s="128"/>
-      <c r="B70" s="127" t="s">
+    <row r="70" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="135"/>
+      <c r="B70" s="128" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="36" customHeight="1">
-      <c r="A71" s="128"/>
-      <c r="B71" s="127"/>
+    <row r="71" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="135"/>
+      <c r="B71" s="128"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="36" customHeight="1">
-      <c r="A72" s="128"/>
-      <c r="B72" s="127"/>
+    <row r="72" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="135"/>
+      <c r="B72" s="128"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="36" customHeight="1">
-      <c r="A73" s="128"/>
-      <c r="B73" s="127"/>
+    <row r="73" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="135"/>
+      <c r="B73" s="128"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="36" customHeight="1">
-      <c r="A74" s="128"/>
-      <c r="B74" s="127"/>
+    <row r="74" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="135"/>
+      <c r="B74" s="128"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="36" customHeight="1">
-      <c r="A75" s="128"/>
-      <c r="B75" s="127"/>
+    <row r="75" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="135"/>
+      <c r="B75" s="128"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="36" customHeight="1">
-      <c r="A76" s="128"/>
-      <c r="B76" s="127"/>
+    <row r="76" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="135"/>
+      <c r="B76" s="128"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="36" customHeight="1">
-      <c r="A77" s="128"/>
+    <row r="77" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="135"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7635,8 +7689,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="36" customHeight="1">
-      <c r="A78" s="128"/>
+    <row r="78" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="135"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -7644,1087 +7698,1087 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="36" customHeight="1">
+    <row r="79" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A79" s="18"/>
       <c r="B79" s="23"/>
       <c r="C79" s="14"/>
       <c r="D79" s="26"/>
     </row>
-    <row r="80" spans="1:4" ht="36" customHeight="1">
+    <row r="80" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A80" s="18"/>
       <c r="B80" s="23"/>
       <c r="C80" s="14"/>
       <c r="D80" s="26"/>
     </row>
-    <row r="81" spans="1:4" ht="36" customHeight="1">
+    <row r="81" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A81" s="18"/>
       <c r="B81" s="23"/>
       <c r="C81" s="14"/>
       <c r="D81" s="26"/>
     </row>
-    <row r="82" spans="1:4" ht="36" customHeight="1">
+    <row r="82" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A82" s="18"/>
       <c r="B82" s="23"/>
       <c r="C82" s="14"/>
       <c r="D82" s="26"/>
     </row>
-    <row r="83" spans="1:4" ht="36" customHeight="1">
+    <row r="83" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A83" s="18"/>
       <c r="B83" s="23"/>
       <c r="C83" s="14"/>
       <c r="D83" s="26"/>
     </row>
-    <row r="84" spans="1:4" ht="36" customHeight="1">
+    <row r="84" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A84" s="18"/>
       <c r="B84" s="23"/>
       <c r="C84" s="14"/>
       <c r="D84" s="26"/>
     </row>
-    <row r="85" spans="1:4" ht="36" customHeight="1">
+    <row r="85" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="18"/>
       <c r="B85" s="23"/>
       <c r="C85" s="14"/>
       <c r="D85" s="26"/>
     </row>
-    <row r="86" spans="1:4" ht="36" customHeight="1">
+    <row r="86" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A86" s="18"/>
       <c r="B86" s="23"/>
       <c r="C86" s="14"/>
       <c r="D86" s="26"/>
     </row>
-    <row r="87" spans="1:4" ht="36" customHeight="1">
+    <row r="87" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A87" s="18"/>
       <c r="B87" s="23"/>
       <c r="C87" s="14"/>
       <c r="D87" s="26"/>
     </row>
-    <row r="88" spans="1:4" ht="36" customHeight="1">
+    <row r="88" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A88" s="18"/>
       <c r="B88" s="23"/>
       <c r="C88" s="14"/>
       <c r="D88" s="26"/>
     </row>
-    <row r="89" spans="1:4" ht="36" customHeight="1">
+    <row r="89" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A89" s="18"/>
       <c r="B89" s="23"/>
       <c r="C89" s="14"/>
       <c r="D89" s="27"/>
     </row>
-    <row r="90" spans="1:4" ht="36" customHeight="1">
+    <row r="90" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A90" s="18"/>
       <c r="B90" s="23"/>
       <c r="C90" s="14"/>
       <c r="D90" s="27"/>
     </row>
-    <row r="91" spans="1:4" ht="36" customHeight="1">
+    <row r="91" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A91" s="18"/>
       <c r="B91" s="23"/>
       <c r="C91" s="14"/>
       <c r="D91" s="27"/>
     </row>
-    <row r="92" spans="1:4" ht="36" customHeight="1">
+    <row r="92" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A92" s="18"/>
       <c r="B92" s="23"/>
       <c r="C92" s="14"/>
       <c r="D92" s="27"/>
     </row>
-    <row r="93" spans="1:4" ht="36" customHeight="1">
+    <row r="93" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A93" s="18"/>
       <c r="B93" s="23"/>
       <c r="C93" s="14"/>
       <c r="D93" s="27"/>
     </row>
-    <row r="94" spans="1:4" ht="36" customHeight="1">
+    <row r="94" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A94" s="18"/>
       <c r="B94" s="23"/>
       <c r="C94" s="14"/>
       <c r="D94" s="27"/>
     </row>
-    <row r="95" spans="1:4" ht="36" customHeight="1">
+    <row r="95" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A95" s="18"/>
       <c r="B95" s="23"/>
       <c r="C95" s="14"/>
       <c r="D95" s="27"/>
     </row>
-    <row r="96" spans="1:4" ht="36" customHeight="1">
+    <row r="96" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A96" s="18"/>
       <c r="B96" s="23"/>
       <c r="C96" s="14"/>
       <c r="D96" s="27"/>
     </row>
-    <row r="97" spans="1:4" ht="36" customHeight="1">
+    <row r="97" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A97" s="18"/>
       <c r="B97" s="23"/>
       <c r="C97" s="14"/>
       <c r="D97" s="27"/>
     </row>
-    <row r="98" spans="1:4" ht="36" customHeight="1">
+    <row r="98" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A98" s="18"/>
       <c r="B98" s="23"/>
       <c r="C98" s="14"/>
       <c r="D98" s="27"/>
     </row>
-    <row r="99" spans="1:4" ht="36" customHeight="1">
+    <row r="99" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="18"/>
       <c r="B99" s="23"/>
       <c r="C99" s="14"/>
       <c r="D99" s="27"/>
     </row>
-    <row r="100" spans="1:4" ht="36" customHeight="1">
+    <row r="100" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A100" s="18"/>
       <c r="B100" s="23"/>
       <c r="C100" s="14"/>
       <c r="D100" s="27"/>
     </row>
-    <row r="101" spans="1:4" ht="36" customHeight="1">
+    <row r="101" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A101" s="18"/>
       <c r="B101" s="23"/>
       <c r="C101" s="14"/>
       <c r="D101" s="27"/>
     </row>
-    <row r="102" spans="1:4" ht="36" customHeight="1">
+    <row r="102" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A102" s="18"/>
       <c r="B102" s="23"/>
       <c r="C102" s="14"/>
       <c r="D102" s="27"/>
     </row>
-    <row r="103" spans="1:4" ht="36" customHeight="1">
+    <row r="103" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A103" s="18"/>
       <c r="B103" s="23"/>
       <c r="C103" s="14"/>
       <c r="D103" s="27"/>
     </row>
-    <row r="104" spans="1:4" ht="36" customHeight="1">
+    <row r="104" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A104" s="18"/>
       <c r="B104" s="23"/>
       <c r="C104" s="14"/>
       <c r="D104" s="27"/>
     </row>
-    <row r="105" spans="1:4" ht="36" customHeight="1">
+    <row r="105" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A105" s="18"/>
       <c r="B105" s="23"/>
       <c r="C105" s="14"/>
       <c r="D105" s="27"/>
     </row>
-    <row r="106" spans="1:4" ht="36" customHeight="1">
+    <row r="106" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A106" s="18"/>
       <c r="B106" s="23"/>
       <c r="C106" s="14"/>
       <c r="D106" s="27"/>
     </row>
-    <row r="107" spans="1:4" ht="36" customHeight="1">
+    <row r="107" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A107" s="18"/>
       <c r="B107" s="23"/>
       <c r="C107" s="14"/>
       <c r="D107" s="27"/>
     </row>
-    <row r="108" spans="1:4" ht="36" customHeight="1">
+    <row r="108" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A108" s="18"/>
       <c r="B108" s="23"/>
       <c r="C108" s="14"/>
       <c r="D108" s="27"/>
     </row>
-    <row r="109" spans="1:4" ht="36" customHeight="1">
+    <row r="109" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A109" s="18"/>
       <c r="B109" s="23"/>
       <c r="C109" s="14"/>
       <c r="D109" s="27"/>
     </row>
-    <row r="110" spans="1:4" ht="36" customHeight="1">
+    <row r="110" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A110" s="18"/>
       <c r="B110" s="23"/>
       <c r="C110" s="14"/>
       <c r="D110" s="27"/>
     </row>
-    <row r="111" spans="1:4" ht="36" customHeight="1">
+    <row r="111" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A111" s="18"/>
       <c r="B111" s="23"/>
       <c r="C111" s="14"/>
       <c r="D111" s="27"/>
     </row>
-    <row r="112" spans="1:4" ht="36" customHeight="1">
+    <row r="112" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A112" s="18"/>
       <c r="B112" s="23"/>
       <c r="C112" s="14"/>
       <c r="D112" s="27"/>
     </row>
-    <row r="113" spans="1:4" ht="36" customHeight="1">
+    <row r="113" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="18"/>
       <c r="B113" s="23"/>
       <c r="C113" s="14"/>
       <c r="D113" s="27"/>
     </row>
-    <row r="114" spans="1:4" ht="36" customHeight="1">
+    <row r="114" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A114" s="18"/>
       <c r="B114" s="23"/>
       <c r="C114" s="14"/>
       <c r="D114" s="27"/>
     </row>
-    <row r="115" spans="1:4" ht="36" customHeight="1">
+    <row r="115" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A115" s="18"/>
       <c r="B115" s="23"/>
       <c r="C115" s="14"/>
       <c r="D115" s="27"/>
     </row>
-    <row r="116" spans="1:4" ht="36" customHeight="1">
+    <row r="116" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A116" s="18"/>
       <c r="B116" s="23"/>
       <c r="C116" s="14"/>
       <c r="D116" s="27"/>
     </row>
-    <row r="117" spans="1:4" ht="36" customHeight="1">
+    <row r="117" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A117" s="18"/>
       <c r="B117" s="23"/>
       <c r="C117" s="14"/>
       <c r="D117" s="27"/>
     </row>
-    <row r="118" spans="1:4" ht="36" customHeight="1">
+    <row r="118" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A118" s="18"/>
       <c r="B118" s="23"/>
       <c r="C118" s="14"/>
       <c r="D118" s="27"/>
     </row>
-    <row r="119" spans="1:4" ht="36" customHeight="1">
+    <row r="119" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A119" s="18"/>
       <c r="B119" s="23"/>
       <c r="C119" s="14"/>
       <c r="D119" s="27"/>
     </row>
-    <row r="120" spans="1:4" ht="36" customHeight="1">
+    <row r="120" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A120" s="18"/>
       <c r="B120" s="23"/>
       <c r="C120" s="14"/>
       <c r="D120" s="27"/>
     </row>
-    <row r="121" spans="1:4" ht="36" customHeight="1">
+    <row r="121" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A121" s="18"/>
       <c r="B121" s="23"/>
       <c r="C121" s="14"/>
       <c r="D121" s="27"/>
     </row>
-    <row r="122" spans="1:4" ht="36" customHeight="1">
+    <row r="122" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A122" s="18"/>
       <c r="B122" s="23"/>
       <c r="C122" s="14"/>
       <c r="D122" s="27"/>
     </row>
-    <row r="123" spans="1:4" ht="36" customHeight="1">
+    <row r="123" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A123" s="18"/>
       <c r="B123" s="23"/>
       <c r="C123" s="14"/>
       <c r="D123" s="27"/>
     </row>
-    <row r="124" spans="1:4" ht="36" customHeight="1">
+    <row r="124" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A124" s="18"/>
       <c r="B124" s="23"/>
       <c r="C124" s="14"/>
       <c r="D124" s="27"/>
     </row>
-    <row r="125" spans="1:4" ht="36" customHeight="1">
+    <row r="125" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A125" s="18"/>
       <c r="B125" s="23"/>
       <c r="C125" s="14"/>
       <c r="D125" s="27"/>
     </row>
-    <row r="126" spans="1:4" ht="36" customHeight="1">
+    <row r="126" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A126" s="18"/>
       <c r="B126" s="23"/>
       <c r="C126" s="14"/>
       <c r="D126" s="27"/>
     </row>
-    <row r="127" spans="1:4" ht="36" customHeight="1">
+    <row r="127" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="18"/>
       <c r="B127" s="23"/>
       <c r="C127" s="14"/>
       <c r="D127" s="27"/>
     </row>
-    <row r="128" spans="1:4" ht="36" customHeight="1">
+    <row r="128" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A128" s="18"/>
       <c r="B128" s="23"/>
       <c r="C128" s="14"/>
       <c r="D128" s="27"/>
     </row>
-    <row r="129" spans="1:4" ht="36" customHeight="1">
+    <row r="129" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A129" s="18"/>
       <c r="B129" s="23"/>
       <c r="C129" s="14"/>
       <c r="D129" s="27"/>
     </row>
-    <row r="130" spans="1:4" ht="36" customHeight="1">
+    <row r="130" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A130" s="18"/>
       <c r="B130" s="23"/>
       <c r="C130" s="14"/>
       <c r="D130" s="27"/>
     </row>
-    <row r="131" spans="1:4" ht="36" customHeight="1">
+    <row r="131" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A131" s="18"/>
       <c r="B131" s="23"/>
       <c r="C131" s="14"/>
       <c r="D131" s="27"/>
     </row>
-    <row r="132" spans="1:4" ht="36" customHeight="1">
+    <row r="132" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A132" s="18"/>
       <c r="B132" s="23"/>
       <c r="C132" s="14"/>
       <c r="D132" s="27"/>
     </row>
-    <row r="133" spans="1:4" ht="36" customHeight="1">
+    <row r="133" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A133" s="18"/>
       <c r="B133" s="23"/>
       <c r="C133" s="14"/>
       <c r="D133" s="27"/>
     </row>
-    <row r="134" spans="1:4" ht="36" customHeight="1">
+    <row r="134" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A134" s="18"/>
       <c r="B134" s="23"/>
       <c r="C134" s="14"/>
       <c r="D134" s="27"/>
     </row>
-    <row r="135" spans="1:4" ht="36" customHeight="1">
+    <row r="135" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A135" s="18"/>
       <c r="B135" s="23"/>
       <c r="C135" s="14"/>
       <c r="D135" s="27"/>
     </row>
-    <row r="136" spans="1:4" ht="36" customHeight="1">
+    <row r="136" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A136" s="18"/>
       <c r="B136" s="23"/>
       <c r="C136" s="14"/>
       <c r="D136" s="27"/>
     </row>
-    <row r="137" spans="1:4" ht="36" customHeight="1">
+    <row r="137" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A137" s="18"/>
       <c r="B137" s="23"/>
       <c r="C137" s="14"/>
       <c r="D137" s="27"/>
     </row>
-    <row r="138" spans="1:4" ht="36" customHeight="1">
+    <row r="138" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A138" s="18"/>
       <c r="B138" s="23"/>
       <c r="C138" s="14"/>
       <c r="D138" s="27"/>
     </row>
-    <row r="139" spans="1:4" ht="36" customHeight="1">
+    <row r="139" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A139" s="18"/>
       <c r="B139" s="23"/>
       <c r="C139" s="14"/>
       <c r="D139" s="27"/>
     </row>
-    <row r="140" spans="1:4" ht="36" customHeight="1">
+    <row r="140" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A140" s="18"/>
       <c r="B140" s="23"/>
       <c r="C140" s="14"/>
       <c r="D140" s="27"/>
     </row>
-    <row r="141" spans="1:4" ht="36" customHeight="1">
+    <row r="141" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A141" s="18"/>
       <c r="B141" s="23"/>
       <c r="C141" s="14"/>
       <c r="D141" s="27"/>
     </row>
-    <row r="142" spans="1:4" ht="36" customHeight="1">
+    <row r="142" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A142" s="18"/>
       <c r="B142" s="23"/>
       <c r="C142" s="14"/>
       <c r="D142" s="27"/>
     </row>
-    <row r="143" spans="1:4" ht="36" customHeight="1">
+    <row r="143" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A143" s="18"/>
       <c r="B143" s="23"/>
       <c r="C143" s="14"/>
       <c r="D143" s="27"/>
     </row>
-    <row r="144" spans="1:4" ht="36" customHeight="1">
+    <row r="144" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A144" s="18"/>
       <c r="B144" s="23"/>
       <c r="C144" s="14"/>
       <c r="D144" s="27"/>
     </row>
-    <row r="145" spans="1:4" ht="36" customHeight="1">
+    <row r="145" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A145" s="18"/>
       <c r="B145" s="23"/>
       <c r="C145" s="14"/>
       <c r="D145" s="27"/>
     </row>
-    <row r="146" spans="1:4" ht="36" customHeight="1">
+    <row r="146" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A146" s="18"/>
       <c r="B146" s="23"/>
       <c r="C146" s="14"/>
       <c r="D146" s="27"/>
     </row>
-    <row r="147" spans="1:4" ht="36" customHeight="1">
+    <row r="147" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A147" s="18"/>
       <c r="B147" s="23"/>
       <c r="C147" s="14"/>
       <c r="D147" s="27"/>
     </row>
-    <row r="148" spans="1:4" ht="36" customHeight="1">
+    <row r="148" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A148" s="18"/>
       <c r="B148" s="23"/>
       <c r="C148" s="14"/>
       <c r="D148" s="27"/>
     </row>
-    <row r="149" spans="1:4" ht="36" customHeight="1">
+    <row r="149" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A149" s="18"/>
       <c r="B149" s="23"/>
       <c r="C149" s="14"/>
       <c r="D149" s="27"/>
     </row>
-    <row r="150" spans="1:4" ht="36" customHeight="1">
+    <row r="150" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A150" s="18"/>
       <c r="B150" s="23"/>
       <c r="C150" s="14"/>
       <c r="D150" s="27"/>
     </row>
-    <row r="151" spans="1:4" ht="36" customHeight="1">
+    <row r="151" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A151" s="18"/>
       <c r="B151" s="23"/>
       <c r="C151" s="14"/>
       <c r="D151" s="27"/>
     </row>
-    <row r="152" spans="1:4" ht="36" customHeight="1">
+    <row r="152" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A152" s="18"/>
       <c r="B152" s="23"/>
       <c r="C152" s="14"/>
       <c r="D152" s="27"/>
     </row>
-    <row r="153" spans="1:4" ht="36" customHeight="1">
+    <row r="153" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A153" s="18"/>
       <c r="B153" s="23"/>
       <c r="C153" s="14"/>
       <c r="D153" s="27"/>
     </row>
-    <row r="154" spans="1:4" ht="36" customHeight="1">
+    <row r="154" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A154" s="18"/>
       <c r="B154" s="23"/>
       <c r="C154" s="14"/>
       <c r="D154" s="27"/>
     </row>
-    <row r="155" spans="1:4" ht="36" customHeight="1">
+    <row r="155" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A155" s="18"/>
       <c r="B155" s="23"/>
       <c r="C155" s="14"/>
       <c r="D155" s="27"/>
     </row>
-    <row r="156" spans="1:4" ht="36" customHeight="1">
+    <row r="156" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A156" s="18"/>
       <c r="B156" s="23"/>
       <c r="C156" s="14"/>
       <c r="D156" s="27"/>
     </row>
-    <row r="157" spans="1:4" ht="36" customHeight="1">
+    <row r="157" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A157" s="18"/>
       <c r="B157" s="23"/>
       <c r="C157" s="14"/>
       <c r="D157" s="27"/>
     </row>
-    <row r="158" spans="1:4" ht="36" customHeight="1">
+    <row r="158" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A158" s="18"/>
       <c r="B158" s="23"/>
       <c r="C158" s="14"/>
       <c r="D158" s="27"/>
     </row>
-    <row r="159" spans="1:4" ht="36" customHeight="1">
+    <row r="159" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A159" s="18"/>
       <c r="B159" s="23"/>
       <c r="C159" s="14"/>
       <c r="D159" s="27"/>
     </row>
-    <row r="160" spans="1:4" ht="36" customHeight="1">
+    <row r="160" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A160" s="18"/>
       <c r="B160" s="23"/>
       <c r="C160" s="14"/>
       <c r="D160" s="27"/>
     </row>
-    <row r="161" spans="1:4" ht="36" customHeight="1">
+    <row r="161" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A161" s="18"/>
       <c r="B161" s="23"/>
       <c r="C161" s="14"/>
       <c r="D161" s="27"/>
     </row>
-    <row r="162" spans="1:4" ht="36" customHeight="1">
+    <row r="162" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A162" s="18"/>
       <c r="B162" s="23"/>
       <c r="C162" s="14"/>
       <c r="D162" s="27"/>
     </row>
-    <row r="163" spans="1:4" ht="36" customHeight="1">
+    <row r="163" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A163" s="18"/>
       <c r="B163" s="23"/>
       <c r="C163" s="14"/>
       <c r="D163" s="27"/>
     </row>
-    <row r="164" spans="1:4" ht="36" customHeight="1">
+    <row r="164" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A164" s="18"/>
       <c r="B164" s="23"/>
       <c r="C164" s="14"/>
       <c r="D164" s="27"/>
     </row>
-    <row r="165" spans="1:4" ht="36" customHeight="1">
+    <row r="165" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A165" s="18"/>
       <c r="B165" s="23"/>
       <c r="C165" s="14"/>
       <c r="D165" s="27"/>
     </row>
-    <row r="166" spans="1:4" ht="36" customHeight="1">
+    <row r="166" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A166" s="18"/>
       <c r="B166" s="23"/>
       <c r="C166" s="14"/>
       <c r="D166" s="27"/>
     </row>
-    <row r="167" spans="1:4" ht="36" customHeight="1">
+    <row r="167" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A167" s="18"/>
       <c r="B167" s="23"/>
       <c r="C167" s="14"/>
       <c r="D167" s="27"/>
     </row>
-    <row r="168" spans="1:4" ht="36" customHeight="1">
+    <row r="168" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A168" s="18"/>
       <c r="B168" s="23"/>
       <c r="C168" s="14"/>
       <c r="D168" s="27"/>
     </row>
-    <row r="169" spans="1:4" ht="36" customHeight="1">
+    <row r="169" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A169" s="18"/>
       <c r="B169" s="23"/>
       <c r="C169" s="14"/>
       <c r="D169" s="27"/>
     </row>
-    <row r="170" spans="1:4" ht="36" customHeight="1">
+    <row r="170" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A170" s="18"/>
       <c r="B170" s="23"/>
       <c r="C170" s="14"/>
       <c r="D170" s="27"/>
     </row>
-    <row r="171" spans="1:4" ht="36" customHeight="1">
+    <row r="171" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A171" s="18"/>
       <c r="B171" s="23"/>
       <c r="C171" s="14"/>
       <c r="D171" s="27"/>
     </row>
-    <row r="172" spans="1:4" ht="36" customHeight="1">
+    <row r="172" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A172" s="18"/>
       <c r="B172" s="23"/>
       <c r="C172" s="14"/>
       <c r="D172" s="27"/>
     </row>
-    <row r="173" spans="1:4" ht="36" customHeight="1">
+    <row r="173" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A173" s="18"/>
       <c r="B173" s="23"/>
       <c r="C173" s="14"/>
       <c r="D173" s="27"/>
     </row>
-    <row r="174" spans="1:4" ht="36" customHeight="1">
+    <row r="174" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A174" s="18"/>
       <c r="B174" s="23"/>
       <c r="C174" s="14"/>
       <c r="D174" s="27"/>
     </row>
-    <row r="175" spans="1:4" ht="36" customHeight="1">
+    <row r="175" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A175" s="18"/>
       <c r="B175" s="23"/>
       <c r="C175" s="14"/>
       <c r="D175" s="27"/>
     </row>
-    <row r="176" spans="1:4" ht="36" customHeight="1">
+    <row r="176" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A176" s="18"/>
       <c r="B176" s="23"/>
       <c r="C176" s="14"/>
       <c r="D176" s="27"/>
     </row>
-    <row r="177" spans="1:4" ht="36" customHeight="1">
+    <row r="177" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A177" s="18"/>
       <c r="B177" s="23"/>
       <c r="C177" s="14"/>
       <c r="D177" s="27"/>
     </row>
-    <row r="178" spans="1:4" ht="36" customHeight="1">
+    <row r="178" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A178" s="18"/>
       <c r="B178" s="23"/>
       <c r="C178" s="14"/>
       <c r="D178" s="27"/>
     </row>
-    <row r="179" spans="1:4" ht="36" customHeight="1">
+    <row r="179" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A179" s="18"/>
       <c r="B179" s="23"/>
       <c r="C179" s="14"/>
       <c r="D179" s="27"/>
     </row>
-    <row r="180" spans="1:4" ht="36" customHeight="1">
+    <row r="180" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A180" s="18"/>
       <c r="B180" s="23"/>
       <c r="C180" s="14"/>
       <c r="D180" s="27"/>
     </row>
-    <row r="181" spans="1:4" ht="36" customHeight="1">
+    <row r="181" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A181" s="18"/>
       <c r="B181" s="23"/>
       <c r="C181" s="14"/>
       <c r="D181" s="27"/>
     </row>
-    <row r="182" spans="1:4" ht="36" customHeight="1">
+    <row r="182" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A182" s="18"/>
       <c r="B182" s="23"/>
       <c r="C182" s="14"/>
       <c r="D182" s="27"/>
     </row>
-    <row r="183" spans="1:4" ht="36" customHeight="1">
+    <row r="183" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A183" s="18"/>
       <c r="B183" s="23"/>
       <c r="C183" s="14"/>
       <c r="D183" s="27"/>
     </row>
-    <row r="184" spans="1:4" ht="36" customHeight="1">
+    <row r="184" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A184" s="18"/>
       <c r="B184" s="23"/>
       <c r="C184" s="14"/>
       <c r="D184" s="27"/>
     </row>
-    <row r="185" spans="1:4" ht="36" customHeight="1">
+    <row r="185" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A185" s="18"/>
       <c r="B185" s="23"/>
       <c r="C185" s="14"/>
       <c r="D185" s="27"/>
     </row>
-    <row r="186" spans="1:4" ht="36" customHeight="1">
+    <row r="186" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A186" s="18"/>
       <c r="B186" s="23"/>
       <c r="C186" s="14"/>
       <c r="D186" s="27"/>
     </row>
-    <row r="187" spans="1:4" ht="36" customHeight="1">
+    <row r="187" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A187" s="18"/>
       <c r="B187" s="23"/>
       <c r="C187" s="14"/>
       <c r="D187" s="27"/>
     </row>
-    <row r="188" spans="1:4" ht="36" customHeight="1">
+    <row r="188" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A188" s="18"/>
       <c r="B188" s="23"/>
       <c r="C188" s="14"/>
       <c r="D188" s="27"/>
     </row>
-    <row r="189" spans="1:4" ht="36" customHeight="1">
+    <row r="189" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A189" s="18"/>
       <c r="B189" s="23"/>
       <c r="C189" s="14"/>
       <c r="D189" s="27"/>
     </row>
-    <row r="190" spans="1:4" ht="36" customHeight="1">
+    <row r="190" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A190" s="18"/>
       <c r="B190" s="23"/>
       <c r="C190" s="14"/>
       <c r="D190" s="27"/>
     </row>
-    <row r="191" spans="1:4" ht="36" customHeight="1">
+    <row r="191" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A191" s="18"/>
       <c r="B191" s="23"/>
       <c r="C191" s="14"/>
       <c r="D191" s="27"/>
     </row>
-    <row r="192" spans="1:4" ht="36" customHeight="1">
+    <row r="192" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A192" s="18"/>
       <c r="B192" s="23"/>
       <c r="C192" s="14"/>
       <c r="D192" s="27"/>
     </row>
-    <row r="193" spans="1:4" ht="36" customHeight="1">
+    <row r="193" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A193" s="18"/>
       <c r="B193" s="23"/>
       <c r="C193" s="14"/>
       <c r="D193" s="27"/>
     </row>
-    <row r="194" spans="1:4" ht="36" customHeight="1">
+    <row r="194" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A194" s="18"/>
       <c r="B194" s="23"/>
       <c r="C194" s="14"/>
       <c r="D194" s="27"/>
     </row>
-    <row r="195" spans="1:4" ht="36" customHeight="1">
+    <row r="195" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A195" s="18"/>
       <c r="B195" s="23"/>
       <c r="C195" s="14"/>
       <c r="D195" s="27"/>
     </row>
-    <row r="196" spans="1:4" ht="36" customHeight="1">
+    <row r="196" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A196" s="18"/>
       <c r="B196" s="23"/>
       <c r="C196" s="14"/>
       <c r="D196" s="27"/>
     </row>
-    <row r="197" spans="1:4" ht="36" customHeight="1">
+    <row r="197" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A197" s="18"/>
       <c r="B197" s="23"/>
       <c r="C197" s="14"/>
       <c r="D197" s="27"/>
     </row>
-    <row r="198" spans="1:4" ht="36" customHeight="1">
+    <row r="198" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A198" s="18"/>
       <c r="B198" s="23"/>
       <c r="C198" s="14"/>
       <c r="D198" s="27"/>
     </row>
-    <row r="199" spans="1:4" ht="36" customHeight="1">
+    <row r="199" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A199" s="18"/>
       <c r="B199" s="23"/>
       <c r="C199" s="14"/>
       <c r="D199" s="27"/>
     </row>
-    <row r="200" spans="1:4" ht="36" customHeight="1">
+    <row r="200" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A200" s="18"/>
       <c r="B200" s="23"/>
       <c r="C200" s="14"/>
       <c r="D200" s="27"/>
     </row>
-    <row r="201" spans="1:4" ht="36" customHeight="1">
+    <row r="201" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A201" s="18"/>
       <c r="B201" s="23"/>
       <c r="C201" s="14"/>
       <c r="D201" s="27"/>
     </row>
-    <row r="202" spans="1:4" ht="36" customHeight="1">
+    <row r="202" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A202" s="18"/>
       <c r="B202" s="23"/>
       <c r="C202" s="14"/>
       <c r="D202" s="27"/>
     </row>
-    <row r="203" spans="1:4" ht="36" customHeight="1">
+    <row r="203" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A203" s="18"/>
       <c r="B203" s="23"/>
       <c r="C203" s="14"/>
       <c r="D203" s="27"/>
     </row>
-    <row r="204" spans="1:4" ht="36" customHeight="1">
+    <row r="204" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A204" s="18"/>
       <c r="B204" s="23"/>
       <c r="C204" s="14"/>
       <c r="D204" s="27"/>
     </row>
-    <row r="205" spans="1:4" ht="36" customHeight="1">
+    <row r="205" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A205" s="18"/>
       <c r="B205" s="23"/>
       <c r="C205" s="14"/>
       <c r="D205" s="27"/>
     </row>
-    <row r="206" spans="1:4" ht="36" customHeight="1">
+    <row r="206" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A206" s="18"/>
       <c r="B206" s="23"/>
       <c r="C206" s="14"/>
       <c r="D206" s="27"/>
     </row>
-    <row r="207" spans="1:4" ht="36" customHeight="1">
+    <row r="207" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A207" s="18"/>
       <c r="B207" s="23"/>
       <c r="C207" s="14"/>
       <c r="D207" s="27"/>
     </row>
-    <row r="208" spans="1:4" ht="36" customHeight="1">
+    <row r="208" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A208" s="18"/>
       <c r="B208" s="23"/>
       <c r="C208" s="14"/>
       <c r="D208" s="27"/>
     </row>
-    <row r="209" spans="1:4" ht="36" customHeight="1">
+    <row r="209" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A209" s="18"/>
       <c r="B209" s="23"/>
       <c r="C209" s="14"/>
       <c r="D209" s="27"/>
     </row>
-    <row r="210" spans="1:4" ht="36" customHeight="1">
+    <row r="210" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A210" s="18"/>
       <c r="B210" s="23"/>
       <c r="C210" s="14"/>
       <c r="D210" s="27"/>
     </row>
-    <row r="211" spans="1:4" ht="36" customHeight="1">
+    <row r="211" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A211" s="18"/>
       <c r="B211" s="23"/>
       <c r="C211" s="14"/>
       <c r="D211" s="27"/>
     </row>
-    <row r="212" spans="1:4" ht="36" customHeight="1">
+    <row r="212" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A212" s="18"/>
       <c r="B212" s="23"/>
       <c r="C212" s="14"/>
       <c r="D212" s="27"/>
     </row>
-    <row r="213" spans="1:4" ht="36" customHeight="1">
+    <row r="213" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A213" s="18"/>
       <c r="B213" s="23"/>
       <c r="C213" s="14"/>
       <c r="D213" s="27"/>
     </row>
-    <row r="214" spans="1:4" ht="36" customHeight="1">
+    <row r="214" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A214" s="18"/>
       <c r="B214" s="23"/>
       <c r="C214" s="14"/>
       <c r="D214" s="27"/>
     </row>
-    <row r="215" spans="1:4" ht="36" customHeight="1">
+    <row r="215" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A215" s="18"/>
       <c r="B215" s="23"/>
       <c r="C215" s="14"/>
       <c r="D215" s="27"/>
     </row>
-    <row r="216" spans="1:4" ht="36" customHeight="1">
+    <row r="216" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A216" s="18"/>
       <c r="B216" s="23"/>
       <c r="C216" s="14"/>
       <c r="D216" s="27"/>
     </row>
-    <row r="217" spans="1:4" ht="36" customHeight="1">
+    <row r="217" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A217" s="18"/>
       <c r="B217" s="23"/>
       <c r="C217" s="14"/>
       <c r="D217" s="27"/>
     </row>
-    <row r="218" spans="1:4" ht="36" customHeight="1">
+    <row r="218" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A218" s="18"/>
       <c r="B218" s="23"/>
       <c r="C218" s="14"/>
       <c r="D218" s="27"/>
     </row>
-    <row r="219" spans="1:4" ht="36" customHeight="1">
+    <row r="219" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A219" s="18"/>
       <c r="B219" s="23"/>
       <c r="C219" s="14"/>
       <c r="D219" s="27"/>
     </row>
-    <row r="220" spans="1:4" ht="36" customHeight="1">
+    <row r="220" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A220" s="18"/>
       <c r="B220" s="23"/>
       <c r="C220" s="14"/>
       <c r="D220" s="27"/>
     </row>
-    <row r="221" spans="1:4" ht="36" customHeight="1">
+    <row r="221" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A221" s="18"/>
       <c r="B221" s="23"/>
       <c r="C221" s="14"/>
       <c r="D221" s="27"/>
     </row>
-    <row r="222" spans="1:4" ht="36" customHeight="1">
+    <row r="222" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A222" s="18"/>
       <c r="B222" s="23"/>
       <c r="C222" s="14"/>
       <c r="D222" s="27"/>
     </row>
-    <row r="223" spans="1:4" ht="36" customHeight="1">
+    <row r="223" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A223" s="18"/>
       <c r="B223" s="23"/>
       <c r="C223" s="14"/>
       <c r="D223" s="27"/>
     </row>
-    <row r="224" spans="1:4" ht="36" customHeight="1">
+    <row r="224" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A224" s="18"/>
       <c r="B224" s="23"/>
       <c r="C224" s="14"/>
       <c r="D224" s="27"/>
     </row>
-    <row r="225" spans="1:4" ht="36" customHeight="1">
+    <row r="225" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A225" s="18"/>
       <c r="B225" s="23"/>
       <c r="C225" s="14"/>
       <c r="D225" s="27"/>
     </row>
-    <row r="226" spans="1:4" ht="36" customHeight="1">
+    <row r="226" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A226" s="18"/>
       <c r="B226" s="23"/>
       <c r="C226" s="14"/>
       <c r="D226" s="27"/>
     </row>
-    <row r="227" spans="1:4" ht="36" customHeight="1">
+    <row r="227" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A227" s="18"/>
       <c r="B227" s="23"/>
       <c r="C227" s="14"/>
       <c r="D227" s="27"/>
     </row>
-    <row r="228" spans="1:4" ht="36" customHeight="1">
+    <row r="228" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A228" s="18"/>
       <c r="B228" s="23"/>
       <c r="C228" s="14"/>
       <c r="D228" s="27"/>
     </row>
-    <row r="229" spans="1:4" ht="36" customHeight="1">
+    <row r="229" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A229" s="18"/>
       <c r="B229" s="23"/>
       <c r="C229" s="14"/>
       <c r="D229" s="27"/>
     </row>
-    <row r="230" spans="1:4" ht="36" customHeight="1">
+    <row r="230" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A230" s="18"/>
       <c r="B230" s="23"/>
       <c r="C230" s="14"/>
       <c r="D230" s="27"/>
     </row>
-    <row r="231" spans="1:4" ht="36" customHeight="1">
+    <row r="231" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A231" s="18"/>
       <c r="B231" s="23"/>
       <c r="C231" s="14"/>
       <c r="D231" s="27"/>
     </row>
-    <row r="232" spans="1:4" ht="36" customHeight="1">
+    <row r="232" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A232" s="18"/>
       <c r="B232" s="23"/>
       <c r="C232" s="14"/>
       <c r="D232" s="27"/>
     </row>
-    <row r="233" spans="1:4" ht="36" customHeight="1">
+    <row r="233" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A233" s="18"/>
       <c r="B233" s="23"/>
       <c r="C233" s="14"/>
       <c r="D233" s="27"/>
     </row>
-    <row r="234" spans="1:4" ht="36" customHeight="1">
+    <row r="234" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A234" s="18"/>
       <c r="B234" s="23"/>
       <c r="C234" s="14"/>
       <c r="D234" s="27"/>
     </row>
-    <row r="235" spans="1:4" ht="36" customHeight="1">
+    <row r="235" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A235" s="18"/>
       <c r="B235" s="23"/>
       <c r="C235" s="14"/>
       <c r="D235" s="27"/>
     </row>
-    <row r="236" spans="1:4" ht="36" customHeight="1">
+    <row r="236" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A236" s="18"/>
       <c r="B236" s="23"/>
       <c r="C236" s="14"/>
       <c r="D236" s="27"/>
     </row>
-    <row r="237" spans="1:4" ht="36" customHeight="1">
+    <row r="237" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A237" s="18"/>
       <c r="B237" s="23"/>
       <c r="C237" s="14"/>
       <c r="D237" s="27"/>
     </row>
-    <row r="238" spans="1:4" ht="36" customHeight="1">
+    <row r="238" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A238" s="18"/>
       <c r="B238" s="23"/>
       <c r="C238" s="14"/>
       <c r="D238" s="27"/>
     </row>
-    <row r="239" spans="1:4" ht="36" customHeight="1">
+    <row r="239" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A239" s="18"/>
       <c r="B239" s="23"/>
       <c r="C239" s="14"/>
       <c r="D239" s="27"/>
     </row>
-    <row r="240" spans="1:4" ht="36" customHeight="1">
+    <row r="240" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A240" s="18"/>
       <c r="B240" s="23"/>
       <c r="C240" s="14"/>
       <c r="D240" s="27"/>
     </row>
-    <row r="241" spans="1:4" ht="36" customHeight="1">
+    <row r="241" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A241" s="18"/>
       <c r="B241" s="23"/>
       <c r="C241" s="14"/>
       <c r="D241" s="27"/>
     </row>
-    <row r="242" spans="1:4" ht="36" customHeight="1">
+    <row r="242" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A242" s="18"/>
       <c r="B242" s="23"/>
       <c r="C242" s="14"/>
       <c r="D242" s="27"/>
     </row>
-    <row r="243" spans="1:4" ht="36" customHeight="1">
+    <row r="243" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A243" s="18"/>
       <c r="B243" s="23"/>
       <c r="C243" s="14"/>
       <c r="D243" s="27"/>
     </row>
-    <row r="244" spans="1:4" ht="36" customHeight="1">
+    <row r="244" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A244" s="18"/>
       <c r="B244" s="23"/>
       <c r="C244" s="14"/>
       <c r="D244" s="27"/>
     </row>
-    <row r="245" spans="1:4" ht="36" customHeight="1">
+    <row r="245" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A245" s="18"/>
       <c r="B245" s="23"/>
       <c r="C245" s="14"/>
       <c r="D245" s="27"/>
     </row>
-    <row r="246" spans="1:4" ht="36" customHeight="1">
+    <row r="246" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A246" s="18"/>
       <c r="B246" s="23"/>
       <c r="C246" s="14"/>
       <c r="D246" s="27"/>
     </row>
-    <row r="247" spans="1:4" ht="36" customHeight="1">
+    <row r="247" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A247" s="18"/>
       <c r="B247" s="23"/>
       <c r="C247" s="14"/>
       <c r="D247" s="27"/>
     </row>
-    <row r="248" spans="1:4" ht="36" customHeight="1">
+    <row r="248" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A248" s="18"/>
       <c r="B248" s="23"/>
       <c r="C248" s="14"/>
       <c r="D248" s="27"/>
     </row>
-    <row r="249" spans="1:4" ht="36" customHeight="1">
+    <row r="249" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A249" s="18"/>
       <c r="B249" s="23"/>
       <c r="C249" s="14"/>
       <c r="D249" s="27"/>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A250" s="18"/>
       <c r="B250" s="23"/>
       <c r="C250" s="14"/>
       <c r="D250" s="27"/>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A251" s="18"/>
       <c r="B251" s="23"/>
       <c r="C251" s="14"/>
       <c r="D251" s="27"/>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A252" s="18"/>
       <c r="B252" s="23"/>
       <c r="C252" s="14"/>
       <c r="D252" s="27"/>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A253" s="18"/>
       <c r="B253" s="23"/>
       <c r="C253" s="14"/>
       <c r="D253" s="27"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A254" s="19"/>
       <c r="B254" s="24"/>
       <c r="C254" s="15"/>
       <c r="D254" s="26"/>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A255" s="19"/>
       <c r="B255" s="24"/>
       <c r="C255" s="15"/>
       <c r="D255" s="26"/>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A256" s="19"/>
       <c r="B256" s="24"/>
       <c r="C256" s="15"/>
       <c r="D256" s="26"/>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A257" s="19"/>
       <c r="B257" s="24"/>
       <c r="C257" s="15"/>
       <c r="D257" s="26"/>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A258" s="19"/>
       <c r="B258" s="24"/>
       <c r="C258" s="15"/>
       <c r="D258" s="26"/>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A259" s="19"/>
       <c r="B259" s="24"/>
       <c r="C259" s="15"/>
@@ -8732,6 +8786,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B48"/>
@@ -8748,92 +8809,85 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A63:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="推举" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" display="坐姿推举" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" display="阿诺德推举" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C6" r:id="rId4" display="双臂前平举" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C7" r:id="rId5" display="单臂前平举" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C8" r:id="rId6" display="侧平举" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C9" r:id="rId7" display="直拉" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C10" r:id="rId8" display="坐姿侧平举" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C11" r:id="rId9" display="侧卧侧平举" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C12" r:id="rId10" display="侧斜侧平举" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C13" r:id="rId11" display="俯身侧平举" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C14" r:id="rId12" display="俯身摆臂" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C15" r:id="rId13" display="俯身上拉" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C16" r:id="rId14" display="斜躺侧平举" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="C17" r:id="rId15" display="斜板侧平举" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C18" r:id="rId16" display="坐姿俯身侧平举" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="C19" r:id="rId17" display="侧卧侧平举" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="C42" r:id="rId18" display="半蹲单臂弯举" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="C43" r:id="rId19" display="垂式弯举" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="C44" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="C45" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="C46" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="C47" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="C48" r:id="rId24" display="直板托臂弯举" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="C49" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="C50" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="C51" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="C52" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="C53" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="C54" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="C55" r:id="rId31" display="站姿屈臂伸(单)" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="C56" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="C57" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="C58" r:id="rId34" display="臂弯举" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="C59" r:id="rId35" display="臂弯举(腕翻转)" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="C60" r:id="rId36" display="臂弯举(锤式)" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="C61" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="C62" r:id="rId38" display="腕弯举" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="C20" r:id="rId39" display="仰卧屈臂上提(单)" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="C21" r:id="rId40" display="仰卧屈臂上拉" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="C22" r:id="rId41" display="下斜飞鸟" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="C23" r:id="rId42" display="高腿位飞鸟" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="C24" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="C25" r:id="rId44" display="下斜卧推" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="C26" r:id="rId45" display="卧推" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="C27" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="C28" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="C29" r:id="rId48" display="上斜飞鸟" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="C30" r:id="rId49" display="上斜卧推" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="C31" r:id="rId50" display="旋转上斜卧推" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="C32" r:id="rId51" display="斜板划船" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="C33" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="C34" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="C35" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="C36" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="C37" r:id="rId56" display="绕肩" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="C38" r:id="rId57" display="耸肩" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="C39" r:id="rId58" display="俯身摆肩" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="C40" r:id="rId59" display="侧卧侧拉" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="C41" r:id="rId60" display="侧卧支撑侧拉" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="C63" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="C64" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="C65" r:id="rId63" display="双臂侧屈体" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="C66" r:id="rId64" display="单臂侧屈" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="C67" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="C68" r:id="rId66" display="直腿硬拉" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="C69" r:id="rId67" display="侧弓步" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="C77" r:id="rId68" display="硬拉" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="C70" r:id="rId69" display="深蹲" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="C72" r:id="rId71" display="提箱式深蹲" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
-    <hyperlink ref="C73" r:id="rId72" display="弓步蹲" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
-    <hyperlink ref="C74" r:id="rId73" display="侧弓步" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
-    <hyperlink ref="C75" r:id="rId74" display="前弓步" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="C76" r:id="rId75" display="后弓步" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="C78" r:id="rId76" display="坐姿提踵" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="C3" r:id="rId1" display="推举"/>
+    <hyperlink ref="C4" r:id="rId2" display="坐姿推举"/>
+    <hyperlink ref="C5" r:id="rId3" display="阿诺德推举"/>
+    <hyperlink ref="C6" r:id="rId4" display="双臂前平举"/>
+    <hyperlink ref="C7" r:id="rId5" display="单臂前平举"/>
+    <hyperlink ref="C8" r:id="rId6" display="侧平举"/>
+    <hyperlink ref="C9" r:id="rId7" display="直拉"/>
+    <hyperlink ref="C10" r:id="rId8" display="坐姿侧平举"/>
+    <hyperlink ref="C11" r:id="rId9" display="侧卧侧平举"/>
+    <hyperlink ref="C12" r:id="rId10" display="侧斜侧平举"/>
+    <hyperlink ref="C13" r:id="rId11" display="俯身侧平举"/>
+    <hyperlink ref="C14" r:id="rId12" display="俯身摆臂"/>
+    <hyperlink ref="C15" r:id="rId13" display="俯身上拉"/>
+    <hyperlink ref="C16" r:id="rId14" display="斜躺侧平举"/>
+    <hyperlink ref="C17" r:id="rId15" display="斜板侧平举"/>
+    <hyperlink ref="C18" r:id="rId16" display="坐姿俯身侧平举"/>
+    <hyperlink ref="C19" r:id="rId17" display="侧卧侧平举"/>
+    <hyperlink ref="C42" r:id="rId18" display="半蹲单臂弯举"/>
+    <hyperlink ref="C43" r:id="rId19" display="垂式弯举"/>
+    <hyperlink ref="C44" r:id="rId20"/>
+    <hyperlink ref="C45" r:id="rId21"/>
+    <hyperlink ref="C46" r:id="rId22"/>
+    <hyperlink ref="C47" r:id="rId23"/>
+    <hyperlink ref="C48" r:id="rId24" display="直板托臂弯举"/>
+    <hyperlink ref="C49" r:id="rId25"/>
+    <hyperlink ref="C50" r:id="rId26"/>
+    <hyperlink ref="C51" r:id="rId27"/>
+    <hyperlink ref="C52" r:id="rId28"/>
+    <hyperlink ref="C53" r:id="rId29"/>
+    <hyperlink ref="C54" r:id="rId30"/>
+    <hyperlink ref="C55" r:id="rId31" display="站姿屈臂伸(单)"/>
+    <hyperlink ref="C56" r:id="rId32"/>
+    <hyperlink ref="C57" r:id="rId33"/>
+    <hyperlink ref="C58" r:id="rId34" display="臂弯举"/>
+    <hyperlink ref="C59" r:id="rId35" display="臂弯举(腕翻转)"/>
+    <hyperlink ref="C60" r:id="rId36" display="臂弯举(锤式)"/>
+    <hyperlink ref="C61" r:id="rId37"/>
+    <hyperlink ref="C62" r:id="rId38" display="腕弯举"/>
+    <hyperlink ref="C20" r:id="rId39" display="仰卧屈臂上提(单)"/>
+    <hyperlink ref="C21" r:id="rId40" display="仰卧屈臂上拉"/>
+    <hyperlink ref="C22" r:id="rId41" display="下斜飞鸟"/>
+    <hyperlink ref="C23" r:id="rId42" display="高腿位飞鸟"/>
+    <hyperlink ref="C24" r:id="rId43"/>
+    <hyperlink ref="C25" r:id="rId44" display="下斜卧推"/>
+    <hyperlink ref="C26" r:id="rId45" display="卧推"/>
+    <hyperlink ref="C27" r:id="rId46"/>
+    <hyperlink ref="C28" r:id="rId47"/>
+    <hyperlink ref="C29" r:id="rId48" display="上斜飞鸟"/>
+    <hyperlink ref="C30" r:id="rId49" display="上斜卧推"/>
+    <hyperlink ref="C31" r:id="rId50" display="旋转上斜卧推"/>
+    <hyperlink ref="C32" r:id="rId51" display="斜板划船"/>
+    <hyperlink ref="C33" r:id="rId52"/>
+    <hyperlink ref="C34" r:id="rId53"/>
+    <hyperlink ref="C35" r:id="rId54"/>
+    <hyperlink ref="C36" r:id="rId55"/>
+    <hyperlink ref="C37" r:id="rId56" display="绕肩"/>
+    <hyperlink ref="C38" r:id="rId57" display="耸肩"/>
+    <hyperlink ref="C39" r:id="rId58" display="俯身摆肩"/>
+    <hyperlink ref="C40" r:id="rId59" display="侧卧侧拉"/>
+    <hyperlink ref="C41" r:id="rId60" display="侧卧支撑侧拉"/>
+    <hyperlink ref="C63" r:id="rId61"/>
+    <hyperlink ref="C64" r:id="rId62"/>
+    <hyperlink ref="C65" r:id="rId63" display="双臂侧屈体"/>
+    <hyperlink ref="C66" r:id="rId64" display="单臂侧屈"/>
+    <hyperlink ref="C67" r:id="rId65"/>
+    <hyperlink ref="C68" r:id="rId66" display="直腿硬拉"/>
+    <hyperlink ref="C69" r:id="rId67" display="侧弓步"/>
+    <hyperlink ref="C77" r:id="rId68" display="硬拉"/>
+    <hyperlink ref="C70" r:id="rId69" display="深蹲"/>
+    <hyperlink ref="C71" r:id="rId70"/>
+    <hyperlink ref="C72" r:id="rId71" display="提箱式深蹲"/>
+    <hyperlink ref="C73" r:id="rId72" display="弓步蹲"/>
+    <hyperlink ref="C74" r:id="rId73" display="侧弓步"/>
+    <hyperlink ref="C75" r:id="rId74" display="前弓步"/>
+    <hyperlink ref="C76" r:id="rId75" display="后弓步"/>
+    <hyperlink ref="C78" r:id="rId76" display="坐姿提踵"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8842,14 +8896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="62" customWidth="1"/>
@@ -8859,102 +8913,102 @@
     <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35">
+    <row r="1" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="157"/>
-    </row>
-    <row r="2" spans="1:6" ht="65" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="D1" s="136"/>
+    </row>
+    <row r="2" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="158"/>
-    </row>
-    <row r="3" spans="1:6" ht="31" customHeight="1">
-      <c r="A3" s="143"/>
-      <c r="C3" s="159" t="s">
+      <c r="D2" s="137"/>
+    </row>
+    <row r="3" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="149"/>
+      <c r="C3" s="138" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="161" t="s">
         <v>332</v>
       </c>
-      <c r="F3" s="156"/>
-    </row>
-    <row r="4" spans="1:6" ht="31" customHeight="1">
-      <c r="A4" s="144" t="s">
+      <c r="F3" s="162"/>
+    </row>
+    <row r="4" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="150" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31" customHeight="1">
-      <c r="A5" s="145"/>
-      <c r="C5" s="161" t="s">
+    <row r="5" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="151"/>
+      <c r="C5" s="140" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="136" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31" customHeight="1">
-      <c r="A6" s="145"/>
-      <c r="C6" s="162"/>
+      <c r="F5" s="142" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="151"/>
+      <c r="C6" s="141"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="136"/>
-    </row>
-    <row r="7" spans="1:6" ht="31" customHeight="1">
-      <c r="A7" s="145"/>
-      <c r="C7" s="138" t="s">
+      <c r="F6" s="142"/>
+    </row>
+    <row r="7" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="151"/>
+      <c r="C7" s="144" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="136"/>
-    </row>
-    <row r="8" spans="1:6" ht="31" customHeight="1">
-      <c r="A8" s="145"/>
-      <c r="C8" s="139"/>
+      <c r="F7" s="142"/>
+    </row>
+    <row r="8" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="151"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="136"/>
-    </row>
-    <row r="9" spans="1:6" ht="23">
-      <c r="A9" s="145"/>
-      <c r="C9" s="151" t="s">
+      <c r="F8" s="142"/>
+    </row>
+    <row r="9" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+      <c r="A9" s="151"/>
+      <c r="C9" s="157" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="F9" s="136"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="145"/>
-      <c r="C10" s="147" t="s">
+      <c r="D9" s="158"/>
+      <c r="F9" s="142"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="151"/>
+      <c r="C10" s="153" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="F10" s="136"/>
-    </row>
-    <row r="11" spans="1:6" ht="32" customHeight="1">
-      <c r="A11" s="145"/>
+      <c r="D10" s="154"/>
+      <c r="F10" s="142"/>
+    </row>
+    <row r="11" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="151"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -8962,75 +9016,70 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="136"/>
-    </row>
-    <row r="12" spans="1:6" ht="54" customHeight="1">
-      <c r="A12" s="146"/>
-      <c r="C12" s="149" t="s">
+      <c r="F11" s="142"/>
+    </row>
+    <row r="12" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="152"/>
+      <c r="C12" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="F12" s="136"/>
-    </row>
-    <row r="13" spans="1:6" ht="37" customHeight="1">
-      <c r="C13" s="153" t="s">
+      <c r="D12" s="156"/>
+      <c r="F12" s="142"/>
+    </row>
+    <row r="13" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="159" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="154"/>
-      <c r="F13" s="136" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" customHeight="1">
+      <c r="D13" s="160"/>
+      <c r="F13" s="142" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="57" t="s">
         <v>187</v>
       </c>
       <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="136"/>
-    </row>
-    <row r="15" spans="1:6" ht="48" customHeight="1">
-      <c r="C15" s="140" t="s">
+      <c r="F14" s="142"/>
+    </row>
+    <row r="15" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="141"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="136"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="F16" s="136"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="136"/>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="136"/>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="136"/>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="137" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="137"/>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" s="137"/>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" s="137"/>
+      <c r="F15" s="142"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16" s="142"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="142"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="142"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F19" s="142"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F20" s="143" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="143"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="143"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F23" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F12"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="C7:C8"/>
@@ -9042,6 +9091,11 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9050,14 +9104,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="B260" sqref="B260"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="A266" sqref="A266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72.5" style="63" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="85" customWidth="1"/>
@@ -9069,13 +9123,13 @@
     <col min="15" max="15" width="34.6640625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28">
+    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="164">
         <v>2014.4</v>
       </c>
       <c r="B1" s="164"/>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1">
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>191</v>
       </c>
@@ -9083,7 +9137,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
         <v>192</v>
       </c>
@@ -9091,7 +9145,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="86">
         <f>SUM(B2:B3)</f>
         <v>163.80000000000001</v>
@@ -9100,13 +9154,13 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28">
+    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="164">
         <v>2014.5</v>
       </c>
       <c r="B5" s="164"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
         <v>193</v>
       </c>
@@ -9114,7 +9168,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
         <v>252</v>
       </c>
@@ -9122,7 +9176,7 @@
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
         <v>253</v>
       </c>
@@ -9130,7 +9184,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
         <v>254</v>
       </c>
@@ -9138,7 +9192,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
         <v>255</v>
       </c>
@@ -9149,7 +9203,7 @@
         <v>623.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="86">
         <f>SUM(B6:B10)</f>
         <v>623.35</v>
@@ -9159,13 +9213,13 @@
         <v>787.15000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1">
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="164" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="164"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>195</v>
       </c>
@@ -9173,7 +9227,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="s">
         <v>196</v>
       </c>
@@ -9184,7 +9238,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="64"/>
       <c r="B15" s="86">
         <f>SUM(B13:B14)</f>
@@ -9195,7 +9249,7 @@
         <v>919.90000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1">
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="164" t="s">
         <v>238</v>
       </c>
@@ -9204,7 +9258,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="s">
         <v>197</v>
       </c>
@@ -9216,13 +9270,13 @@
         <v>1243.9000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1">
+    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="164" t="s">
         <v>239</v>
       </c>
       <c r="B18" s="164"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
         <v>198</v>
       </c>
@@ -9230,7 +9284,7 @@
         <v>109.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
         <v>199</v>
       </c>
@@ -9238,7 +9292,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
         <v>198</v>
       </c>
@@ -9249,7 +9303,7 @@
         <v>305.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="86">
         <f>SUM(B19:B21)</f>
         <v>305.31</v>
@@ -9259,7 +9313,7 @@
         <v>1549.21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1">
+    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="164" t="s">
         <v>200</v>
       </c>
@@ -9268,7 +9322,7 @@
         <v>49.67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
         <v>201</v>
       </c>
@@ -9280,13 +9334,13 @@
         <v>1598.88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1">
+    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="164" t="s">
         <v>240</v>
       </c>
       <c r="B25" s="164"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="64" t="s">
         <v>202</v>
       </c>
@@ -9294,7 +9348,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="63" t="s">
         <v>203</v>
       </c>
@@ -9302,7 +9356,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="63" t="s">
         <v>203</v>
       </c>
@@ -9310,7 +9364,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
         <v>204</v>
       </c>
@@ -9318,7 +9372,7 @@
         <v>308.70999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="63" t="s">
         <v>205</v>
       </c>
@@ -9326,7 +9380,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="63" t="s">
         <v>206</v>
       </c>
@@ -9334,7 +9388,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="63" t="s">
         <v>207</v>
       </c>
@@ -9345,7 +9399,7 @@
         <v>1098.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="86">
         <f>SUM(B26:B32)</f>
         <v>1098.43</v>
@@ -9355,13 +9409,13 @@
         <v>2697.3100000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21" customHeight="1">
+    <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="164" t="s">
         <v>241</v>
       </c>
       <c r="B34" s="164"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="63" t="s">
         <v>208</v>
       </c>
@@ -9369,7 +9423,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="63" t="s">
         <v>209</v>
       </c>
@@ -9377,7 +9431,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="63" t="s">
         <v>256</v>
       </c>
@@ -9385,7 +9439,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="63" t="s">
         <v>257</v>
       </c>
@@ -9393,7 +9447,7 @@
         <v>35.64</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="63" t="s">
         <v>258</v>
       </c>
@@ -9401,7 +9455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="63" t="s">
         <v>210</v>
       </c>
@@ -9409,7 +9463,7 @@
         <v>178.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="63" t="s">
         <v>211</v>
       </c>
@@ -9417,7 +9471,7 @@
         <v>51.27</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="63" t="s">
         <v>211</v>
       </c>
@@ -9425,7 +9479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="41" customHeight="1">
+    <row r="43" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="65" t="s">
         <v>212</v>
       </c>
@@ -9436,7 +9490,7 @@
         <v>826.03</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="65"/>
       <c r="B44" s="86">
         <f>SUM(B35:B43)</f>
@@ -9447,13 +9501,13 @@
         <v>3523.34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21" customHeight="1">
+    <row r="45" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="164" t="s">
         <v>242</v>
       </c>
       <c r="B45" s="164"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="65" t="s">
         <v>213</v>
       </c>
@@ -9461,7 +9515,7 @@
         <v>309.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="65" t="s">
         <v>214</v>
       </c>
@@ -9472,7 +9526,7 @@
         <v>500.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
       <c r="B48" s="86">
         <f>SUM(B46:B47)</f>
@@ -9483,13 +9537,13 @@
         <v>4024.04</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" customHeight="1">
+    <row r="49" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="164" t="s">
         <v>243</v>
       </c>
       <c r="B49" s="164"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="65" t="s">
         <v>259</v>
       </c>
@@ -9497,7 +9551,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="63" t="s">
         <v>215</v>
       </c>
@@ -9505,7 +9559,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="63" t="s">
         <v>216</v>
       </c>
@@ -9513,7 +9567,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="65" t="s">
         <v>260</v>
       </c>
@@ -9524,7 +9578,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="65"/>
       <c r="B54" s="86">
         <f>SUM(B50:B53)</f>
@@ -9535,13 +9589,13 @@
         <v>4539.54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21" customHeight="1">
+    <row r="55" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="164" t="s">
         <v>244</v>
       </c>
       <c r="B55" s="164"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="s">
         <v>217</v>
       </c>
@@ -9549,7 +9603,7 @@
         <v>199.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="65" t="s">
         <v>261</v>
       </c>
@@ -9557,7 +9611,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="65" t="s">
         <v>218</v>
       </c>
@@ -9565,7 +9619,7 @@
         <v>238.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="63" t="s">
         <v>222</v>
       </c>
@@ -9573,7 +9627,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="65" t="s">
         <v>262</v>
       </c>
@@ -9584,7 +9638,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="65"/>
       <c r="B61" s="86">
         <f>SUM(B56:B60)</f>
@@ -9595,13 +9649,13 @@
         <v>5521.54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21" customHeight="1">
+    <row r="62" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="164" t="s">
         <v>245</v>
       </c>
       <c r="B62" s="164"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="65" t="s">
         <v>263</v>
       </c>
@@ -9609,7 +9663,7 @@
         <v>75.239999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="65" t="s">
         <v>264</v>
       </c>
@@ -9617,7 +9671,7 @@
         <v>85.84</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="65" t="s">
         <v>265</v>
       </c>
@@ -9628,7 +9682,7 @@
         <v>207.14</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="65"/>
       <c r="B66" s="86">
         <f>SUM(B63:B65)</f>
@@ -9639,13 +9693,13 @@
         <v>5728.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21" customHeight="1">
+    <row r="67" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="164" t="s">
         <v>219</v>
       </c>
       <c r="B67" s="164"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="65" t="s">
         <v>266</v>
       </c>
@@ -9653,7 +9707,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="65" t="s">
         <v>220</v>
       </c>
@@ -9664,7 +9718,7 @@
         <v>198.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="65"/>
       <c r="B70" s="86">
         <f>SUM(B68:B69)</f>
@@ -9675,13 +9729,13 @@
         <v>5926.9800000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21" customHeight="1">
+    <row r="71" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="164" t="s">
         <v>247</v>
       </c>
       <c r="B71" s="164"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="65" t="s">
         <v>246</v>
       </c>
@@ -9689,7 +9743,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="65" t="s">
         <v>223</v>
       </c>
@@ -9697,7 +9751,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="65" t="s">
         <v>267</v>
       </c>
@@ -9708,7 +9762,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="65"/>
       <c r="B75" s="86">
         <f>SUM(B72:B74)</f>
@@ -9719,13 +9773,13 @@
         <v>6341.9800000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21" customHeight="1">
+    <row r="76" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="164" t="s">
         <v>248</v>
       </c>
       <c r="B76" s="164"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="65" t="s">
         <v>268</v>
       </c>
@@ -9733,7 +9787,7 @@
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="65" t="s">
         <v>269</v>
       </c>
@@ -9741,7 +9795,7 @@
         <v>98.99</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="65" t="s">
         <v>270</v>
       </c>
@@ -9749,7 +9803,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="65" t="s">
         <v>271</v>
       </c>
@@ -9760,7 +9814,7 @@
         <v>386.53</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="65"/>
       <c r="B81" s="86">
         <f>SUM(B77:B80)</f>
@@ -9771,13 +9825,13 @@
         <v>6728.51</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21" customHeight="1">
+    <row r="82" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="164" t="s">
         <v>221</v>
       </c>
       <c r="B82" s="164"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="65" t="s">
         <v>272</v>
       </c>
@@ -9785,7 +9839,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="65" t="s">
         <v>273</v>
       </c>
@@ -9793,7 +9847,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="65" t="s">
         <v>274</v>
       </c>
@@ -9801,7 +9855,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="65" t="s">
         <v>275</v>
       </c>
@@ -9812,7 +9866,7 @@
         <v>579.15</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="65"/>
       <c r="B87" s="86">
         <f>SUM(B83:B86)</f>
@@ -9823,13 +9877,13 @@
         <v>7307.66</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21" customHeight="1">
+    <row r="88" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="164" t="s">
         <v>249</v>
       </c>
       <c r="B88" s="164"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="65" t="s">
         <v>224</v>
       </c>
@@ -9837,7 +9891,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="65" t="s">
         <v>276</v>
       </c>
@@ -9845,7 +9899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="65" t="s">
         <v>277</v>
       </c>
@@ -9856,7 +9910,7 @@
         <v>229.26</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="65"/>
       <c r="B92" s="86">
         <f>SUM(B89:B91)</f>
@@ -9867,13 +9921,13 @@
         <v>7536.92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21" customHeight="1">
+    <row r="93" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="164" t="s">
         <v>225</v>
       </c>
       <c r="B93" s="164"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="65" t="s">
         <v>278</v>
       </c>
@@ -9881,7 +9935,7 @@
         <v>143.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="65" t="s">
         <v>226</v>
       </c>
@@ -9889,7 +9943,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="65" t="s">
         <v>279</v>
       </c>
@@ -9897,7 +9951,7 @@
         <v>166.32</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="65" t="s">
         <v>227</v>
       </c>
@@ -9905,7 +9959,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="65" t="s">
         <v>280</v>
       </c>
@@ -9913,7 +9967,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="65" t="s">
         <v>228</v>
       </c>
@@ -9921,7 +9975,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="65" t="s">
         <v>281</v>
       </c>
@@ -9929,7 +9983,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="65" t="s">
         <v>282</v>
       </c>
@@ -9937,7 +9991,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="65" t="s">
         <v>283</v>
       </c>
@@ -9945,7 +9999,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="65" t="s">
         <v>284</v>
       </c>
@@ -9953,7 +10007,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="65" t="s">
         <v>285</v>
       </c>
@@ -9964,7 +10018,7 @@
         <v>1068.92</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="65"/>
       <c r="B105" s="86">
         <f>SUM(B94:B104)</f>
@@ -9975,14 +10029,14 @@
         <v>8605.84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21" customHeight="1">
+    <row r="106" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="164" t="s">
         <v>250</v>
       </c>
       <c r="B106" s="164"/>
       <c r="C106" s="68"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="66" t="s">
         <v>229</v>
       </c>
@@ -9991,7 +10045,7 @@
       </c>
       <c r="C107" s="68"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="63" t="s">
         <v>226</v>
       </c>
@@ -10000,7 +10054,7 @@
       </c>
       <c r="C108" s="68"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="66" t="s">
         <v>230</v>
       </c>
@@ -10009,7 +10063,7 @@
       </c>
       <c r="C109" s="68"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="66" t="s">
         <v>231</v>
       </c>
@@ -10018,7 +10072,7 @@
       </c>
       <c r="C110" s="68"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="66" t="s">
         <v>232</v>
       </c>
@@ -10029,7 +10083,7 @@
         <v>365.99</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="66"/>
       <c r="B112" s="86">
         <f>SUM(B107:B111)</f>
@@ -10040,14 +10094,14 @@
         <v>8971.83</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21" customHeight="1">
+    <row r="113" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="164" t="s">
         <v>251</v>
       </c>
       <c r="B113" s="164"/>
       <c r="C113" s="68"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="66" t="s">
         <v>233</v>
       </c>
@@ -10056,7 +10110,7 @@
       </c>
       <c r="C114" s="68"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="66" t="s">
         <v>234</v>
       </c>
@@ -10065,7 +10119,7 @@
       </c>
       <c r="C115" s="68"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="66" t="s">
         <v>235</v>
       </c>
@@ -10074,7 +10128,7 @@
       </c>
       <c r="C116" s="68"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="66" t="s">
         <v>301</v>
       </c>
@@ -10082,15 +10136,15 @@
         <v>112.7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="26" customHeight="1">
+    <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="66" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B118" s="85">
         <v>170.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="66" t="s">
         <v>236</v>
       </c>
@@ -10098,7 +10152,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="66" t="s">
         <v>237</v>
       </c>
@@ -10106,7 +10160,7 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="66" t="s">
         <v>286</v>
       </c>
@@ -10114,7 +10168,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="63" t="s">
         <v>287</v>
       </c>
@@ -10126,7 +10180,7 @@
         <v>835.33999999999992</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B123" s="86">
         <f>SUM(B114:B122)</f>
         <v>835.33999999999992</v>
@@ -10136,13 +10190,13 @@
         <v>9807.17</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28">
+    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="164" t="s">
         <v>288</v>
       </c>
       <c r="B124" s="164"/>
     </row>
-    <row r="125" spans="1:3" ht="26" customHeight="1">
+    <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="66" t="s">
         <v>289</v>
       </c>
@@ -10150,7 +10204,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
+    <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="63" t="s">
         <v>290</v>
       </c>
@@ -10158,7 +10212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="63" t="s">
         <v>292</v>
       </c>
@@ -10166,7 +10220,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="63" t="s">
         <v>291</v>
       </c>
@@ -10174,15 +10228,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B129" s="88">
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="76" t="s">
         <v>293</v>
       </c>
@@ -10190,7 +10244,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="76" t="s">
         <v>296</v>
       </c>
@@ -10198,7 +10252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="63" t="s">
         <v>295</v>
       </c>
@@ -10206,7 +10260,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="63" t="s">
         <v>300</v>
       </c>
@@ -10214,7 +10268,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="63" t="s">
         <v>294</v>
       </c>
@@ -10222,7 +10276,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="63" t="s">
         <v>337</v>
       </c>
@@ -10230,7 +10284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="63" t="s">
         <v>338</v>
       </c>
@@ -10239,7 +10293,7 @@
       </c>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="63" t="s">
         <v>335</v>
       </c>
@@ -10248,7 +10302,7 @@
       </c>
       <c r="C137"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="63" t="s">
         <v>297</v>
       </c>
@@ -10257,7 +10311,7 @@
       </c>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="63" t="s">
         <v>298</v>
       </c>
@@ -10266,7 +10320,7 @@
       </c>
       <c r="C139"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="63" t="s">
         <v>299</v>
       </c>
@@ -10275,9 +10329,9 @@
       </c>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
+    <row r="141" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B141" s="85">
         <v>86</v>
@@ -10287,7 +10341,7 @@
         <v>1349.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
+    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142"/>
       <c r="B142" s="86">
         <f>SUM(B125:B141)</f>
@@ -10298,14 +10352,14 @@
         <v>11156.77</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="28">
+    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A143" s="164" t="s">
         <v>302</v>
       </c>
       <c r="B143" s="164"/>
       <c r="C143"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="63" t="s">
         <v>303</v>
       </c>
@@ -10314,7 +10368,7 @@
       </c>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="63" t="s">
         <v>304</v>
       </c>
@@ -10323,23 +10377,23 @@
       </c>
       <c r="C145"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B146" s="85">
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="63" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B147" s="85">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="63" t="s">
         <v>334</v>
       </c>
@@ -10347,7 +10401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="63" t="s">
         <v>321</v>
       </c>
@@ -10355,7 +10409,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="63" t="s">
         <v>305</v>
       </c>
@@ -10363,7 +10417,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="63" t="s">
         <v>306</v>
       </c>
@@ -10371,7 +10425,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="63" t="s">
         <v>307</v>
       </c>
@@ -10379,7 +10433,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="63" t="s">
         <v>324</v>
       </c>
@@ -10387,7 +10441,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="65" t="s">
         <v>308</v>
       </c>
@@ -10395,7 +10449,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="65" t="s">
         <v>309</v>
       </c>
@@ -10403,7 +10457,7 @@
         <v>158.88</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="65" t="s">
         <v>310</v>
       </c>
@@ -10411,7 +10465,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="65" t="s">
         <v>311</v>
       </c>
@@ -10419,7 +10473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="65" t="s">
         <v>336</v>
       </c>
@@ -10427,7 +10481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="65" t="s">
         <v>320</v>
       </c>
@@ -10440,7 +10494,7 @@
       <c r="M159" s="77"/>
       <c r="O159"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="65" t="s">
         <v>312</v>
       </c>
@@ -10453,7 +10507,7 @@
       <c r="D160" s="83"/>
       <c r="E160" s="86"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="65"/>
       <c r="B161" s="86">
         <f>SUM(B144:B160)</f>
@@ -10464,13 +10518,13 @@
         <v>12618.25</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="28">
+    <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
       <c r="A162" s="163">
         <v>2018.01</v>
       </c>
       <c r="B162" s="164"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="65" t="s">
         <v>342</v>
       </c>
@@ -10478,7 +10532,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="63" t="s">
         <v>313</v>
       </c>
@@ -10486,7 +10540,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="63" t="s">
         <v>314</v>
       </c>
@@ -10494,7 +10548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="63" t="s">
         <v>315</v>
       </c>
@@ -10502,7 +10556,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="63" t="s">
         <v>316</v>
       </c>
@@ -10510,7 +10564,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="63" t="s">
         <v>317</v>
       </c>
@@ -10518,7 +10572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="65" t="s">
         <v>318</v>
       </c>
@@ -10526,7 +10580,7 @@
         <v>84.83</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="63" t="s">
         <v>319</v>
       </c>
@@ -10534,7 +10588,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="63" t="s">
         <v>322</v>
       </c>
@@ -10542,9 +10596,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="63" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B172" s="85">
         <v>84</v>
@@ -10554,9 +10608,9 @@
       <c r="M172" s="77"/>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B173" s="85">
         <v>84</v>
@@ -10565,7 +10619,7 @@
         <v>1262.6300000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B174" s="86">
         <f>SUM(B163:B173)</f>
         <v>1262.6300000000001</v>
@@ -10575,29 +10629,29 @@
         <v>13880.880000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="28">
+    <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
       <c r="A175" s="163">
         <v>2018.02</v>
       </c>
       <c r="B175" s="164"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B176" s="85">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B177" s="85">
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="63" t="s">
         <v>323</v>
       </c>
@@ -10608,7 +10662,7 @@
         <v>285.64</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B179" s="85">
         <f>SUM(B176:B178)</f>
         <v>285.64</v>
@@ -10618,21 +10672,21 @@
         <v>14166.52</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="28">
+    <row r="180" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A180" s="163">
         <v>2018.03</v>
       </c>
       <c r="B180" s="164"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="63" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B181" s="85">
         <v>84.74</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="63" t="s">
         <v>325</v>
       </c>
@@ -10640,9 +10694,9 @@
         <v>115.64</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B183" s="85">
         <v>86</v>
@@ -10651,7 +10705,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="63" t="s">
         <v>326</v>
       </c>
@@ -10659,7 +10713,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="63" t="s">
         <v>327</v>
       </c>
@@ -10667,7 +10721,7 @@
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="48">
+    <row r="186" spans="1:4" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="65" t="s">
         <v>328</v>
       </c>
@@ -10675,39 +10729,39 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B187" s="85">
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B188" s="85">
         <v>83.1</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B189" s="85">
         <v>84.4</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B190" s="85">
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="65" t="s">
         <v>330</v>
       </c>
@@ -10715,7 +10769,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="65" t="s">
         <v>331</v>
       </c>
@@ -10723,7 +10777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="65" t="s">
         <v>333</v>
       </c>
@@ -10734,7 +10788,7 @@
         <v>1328.56</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="65"/>
       <c r="B194" s="86">
         <f>SUM(B181:B193)</f>
@@ -10745,21 +10799,21 @@
         <v>15495.08</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="28">
+    <row r="195" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A195" s="163">
         <v>2018.04</v>
       </c>
       <c r="B195" s="164"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="65" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B196" s="85">
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="65" t="s">
         <v>339</v>
       </c>
@@ -10767,7 +10821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="63" t="s">
         <v>340</v>
       </c>
@@ -10775,13 +10829,13 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C199" s="70">
         <f>SUM(B200,0)</f>
         <v>484.5</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B200" s="86">
         <f>SUM(B196:B199)</f>
         <v>484.5</v>
@@ -10791,13 +10845,13 @@
         <v>17308.14</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="28">
+    <row r="201" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A201" s="163">
         <v>2018.05</v>
       </c>
       <c r="B201" s="164"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="63" t="s">
         <v>341</v>
       </c>
@@ -10805,7 +10859,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="63" t="s">
         <v>343</v>
       </c>
@@ -10813,7 +10867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="73" t="s">
         <v>345</v>
       </c>
@@ -10824,591 +10878,657 @@
         <v>344</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="63" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B205" s="85">
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="73" t="s">
-        <v>346</v>
-      </c>
-      <c r="B206" s="84">
-        <v>9.9</v>
-      </c>
-      <c r="D206" s="82" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="63" t="s">
+        <v>445</v>
+      </c>
+      <c r="B206" s="85">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="63" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B207" s="85">
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="63" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B208" s="85">
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B209" s="84">
         <v>10</v>
       </c>
       <c r="D209" s="82" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C210" s="70">
         <f>SUM(B211,0)</f>
-        <v>474</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B211" s="86">
         <f>SUM(B202:B210)</f>
-        <v>474</v>
+        <v>548</v>
       </c>
       <c r="C211" s="72">
         <f>SUM(C200:C210)</f>
-        <v>17782.14</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="28">
+        <v>17856.14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A212" s="163" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B212" s="164"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C213" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B214" s="86">
         <f>SUM(B213:B213)</f>
         <v>0</v>
       </c>
       <c r="C214" s="72">
         <f>SUM(C211:C213)</f>
-        <v>17782.14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="28">
+        <v>17856.14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A215" s="163">
         <v>2018.08</v>
       </c>
       <c r="B215" s="164"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B216" s="85">
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B217" s="85">
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="63" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B218" s="85">
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="73" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B219" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D219" s="82" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="73" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B220" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D220" s="82" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B221" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D221" s="82" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="73" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B222" s="84">
         <v>9.7100000000000009</v>
       </c>
       <c r="D222" s="82" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B223" s="85">
         <v>70.78</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B224" s="85">
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C225" s="70">
         <v>820.12</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B226" s="86">
         <f>SUM(B216:B225)</f>
         <v>820.11999999999989</v>
       </c>
       <c r="C226" s="72">
         <f>SUM(C214:C225)</f>
-        <v>18602.259999999998</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="28">
+        <v>18676.259999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A227" s="163" t="s">
+        <v>409</v>
+      </c>
+      <c r="B227" s="164"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="63" t="s">
         <v>410</v>
-      </c>
-      <c r="B227" s="164"/>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="63" t="s">
-        <v>411</v>
       </c>
       <c r="B228" s="85">
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="63" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B229" s="85">
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="73" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B230" s="84">
         <v>10</v>
       </c>
       <c r="D230" s="82" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C231" s="70">
         <v>388</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B232" s="86">
         <f>SUM(B228:B231)</f>
         <v>388</v>
       </c>
       <c r="C232" s="72">
         <f>SUM(C225:C231)</f>
-        <v>19810.379999999997</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="28">
+        <v>19884.379999999997</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A233" s="163" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B233" s="164"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B234" s="84">
         <v>9.66</v>
       </c>
       <c r="D234" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="73" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B235" s="84">
         <v>9.66</v>
       </c>
       <c r="D235" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="73" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B236" s="84">
         <v>9.66</v>
       </c>
       <c r="D236" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B237" s="84">
         <v>9.66</v>
       </c>
       <c r="D237" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="73" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B238" s="84">
         <v>9.66</v>
       </c>
       <c r="D238" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="73" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B239" s="84">
         <v>9.66</v>
       </c>
       <c r="D239" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B240" s="84">
         <v>9.66</v>
       </c>
       <c r="D240" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B241" s="84">
         <v>9.66</v>
       </c>
       <c r="D241" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B242" s="84">
         <v>9.66</v>
       </c>
       <c r="D242" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="73" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B243" s="84">
         <v>9.66</v>
       </c>
       <c r="D243" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="73" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B244" s="84">
         <v>9.66</v>
       </c>
       <c r="D244" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B245" s="84">
         <v>9.6</v>
       </c>
       <c r="D245" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B246" s="84">
         <v>9.61</v>
       </c>
       <c r="D246" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="63" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B247" s="85">
         <v>108.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="73" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B248" s="84">
         <v>9.61</v>
       </c>
       <c r="D248" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="73" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B249" s="84">
         <v>9.61</v>
       </c>
       <c r="D249" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="73" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B250" s="84">
         <v>9.61</v>
       </c>
       <c r="D250" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B251" s="102"/>
       <c r="C251" s="70">
         <v>115.86</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B252" s="86">
         <f>SUM(B234:B251)</f>
         <v>263.10000000000002</v>
       </c>
       <c r="C252" s="72">
         <f>SUM(C232:C251)</f>
-        <v>19926.239999999998</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="28">
+        <v>20000.239999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A253" s="163">
         <v>2018.11</v>
       </c>
       <c r="B253" s="164"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="73" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B254" s="84">
         <v>9.61</v>
       </c>
       <c r="D254" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="63" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B255" s="85">
         <v>68</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="63" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B256" s="85">
         <v>80.3</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="63" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B257" s="85">
         <v>129.69999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="73" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B258" s="84">
         <v>9.61</v>
       </c>
       <c r="D258" s="82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C260" s="70">
         <v>297.22000000000003</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B261" s="85">
         <f>SUM(B254:B260)</f>
         <v>297.22000000000003</v>
       </c>
       <c r="C261" s="72">
         <f>SUM(C252:C260)</f>
-        <v>20223.46</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10">
+        <v>20297.46</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="A262" s="163" t="s">
+        <v>446</v>
+      </c>
+      <c r="B262" s="164"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" s="73" t="s">
+        <v>447</v>
+      </c>
+      <c r="B263" s="84">
+        <v>9.61</v>
+      </c>
+      <c r="D263" s="82" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="B264" s="84">
+        <v>9.61</v>
+      </c>
+      <c r="D264" s="82" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="73" t="s">
+        <v>449</v>
+      </c>
+      <c r="B265" s="84">
+        <v>9.61</v>
+      </c>
+      <c r="D265" s="82" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I269" s="78"/>
       <c r="J269"/>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C270" s="70">
+        <v>28.83</v>
+      </c>
       <c r="I270" s="78"/>
       <c r="J270"/>
     </row>
-    <row r="339" spans="10:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B271" s="85">
+        <f>SUM(B263:B270)</f>
+        <v>28.83</v>
+      </c>
+      <c r="C271" s="72">
+        <f>SUM(C261:C270)</f>
+        <v>20326.29</v>
+      </c>
+    </row>
+    <row r="339" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J339" s="80"/>
     </row>
-    <row r="381" spans="9:9">
+    <row r="381" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I381" s="79"/>
     </row>
-    <row r="669" spans="15:15">
+    <row r="669" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O669" s="79"/>
     </row>
-    <row r="674" spans="14:25">
+    <row r="674" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y674">
         <v>9</v>
       </c>
     </row>
-    <row r="675" spans="14:25">
+    <row r="675" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y675">
         <v>12</v>
       </c>
     </row>
-    <row r="676" spans="14:25">
+    <row r="676" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y676">
         <v>8</v>
       </c>
     </row>
-    <row r="677" spans="14:25">
+    <row r="677" spans="14:25" x14ac:dyDescent="0.3">
       <c r="N677" s="79"/>
       <c r="Y677">
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="14:25">
+    <row r="678" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y678">
         <v>10</v>
       </c>
     </row>
-    <row r="679" spans="14:25">
+    <row r="679" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y679">
         <v>9</v>
       </c>
     </row>
-    <row r="680" spans="14:25">
+    <row r="680" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y680">
         <v>16</v>
       </c>
     </row>
-    <row r="681" spans="14:25">
+    <row r="681" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y681">
         <v>9</v>
       </c>
     </row>
-    <row r="682" spans="14:25">
+    <row r="682" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y682">
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="14:25">
+    <row r="683" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y683">
         <v>8</v>
       </c>
     </row>
-    <row r="684" spans="14:25">
+    <row r="684" spans="14:25" x14ac:dyDescent="0.3">
       <c r="Y684" s="81">
         <f>SUM(Y674:Y683)</f>
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A106:B106"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
     <mergeCell ref="A227:B227"/>
@@ -11425,28 +11545,12 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A106:B106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A227 A233" numberStoredAsText="1"/>
+    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A227 A233 A262" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="1780" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="3440" yWindow="640" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="450">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -4288,10 +4288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KOA   造型王   路飞四档           预定</t>
     <rPh sb="6" eb="7">
       <t>zao'xin'wang</t>
@@ -4336,6 +4332,19 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>qi'yu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yu'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROS    龙珠超悟吉塔              预定</t>
+    <rPh sb="8" eb="9">
+      <t>long'zhu'chao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wu'ji'ta</t>
     </rPh>
     <rPh sb="28" eb="29">
       <t>yu'din</t>
@@ -5437,93 +5446,96 @@
     <xf numFmtId="176" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5533,8 +5545,68 @@
     <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5553,69 +5625,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5661,7 +5670,7 @@
         <xdr:cNvPr id="3" name="直线连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5711,7 +5720,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5787,7 +5796,7 @@
         <xdr:cNvPr id="3" name="直线连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5837,7 +5846,7 @@
         <xdr:cNvPr id="6" name="文本框 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5915,7 +5924,7 @@
         <xdr:cNvPr id="8" name="文本框 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6288,18 +6297,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="2" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6454,32 +6463,32 @@
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K18" s="113" t="s">
+      <c r="K18" s="110" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="109" t="s">
+      <c r="M18" s="119" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K19" s="114"/>
+      <c r="K19" s="111"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="110"/>
+      <c r="M19" s="120"/>
     </row>
     <row r="20" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K20" s="115"/>
+      <c r="K20" s="112"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="111"/>
+      <c r="M20" s="121"/>
     </row>
     <row r="21" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K21" s="116" t="s">
+      <c r="K21" s="113" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
@@ -6487,7 +6496,7 @@
       </c>
     </row>
     <row r="22" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K22" s="117"/>
+      <c r="K22" s="114"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
@@ -6518,192 +6527,172 @@
       </c>
     </row>
     <row r="26" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="118" t="s">
+      <c r="K26" s="117" t="s">
         <v>380</v>
       </c>
-      <c r="L26" s="119"/>
+      <c r="L26" s="118"/>
       <c r="M26" s="89" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="27" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K27" s="105" t="s">
+      <c r="K27" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="106"/>
+      <c r="L27" s="116"/>
       <c r="M27" s="89" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="28" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K28" s="105" t="s">
+      <c r="K28" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="106"/>
+      <c r="L28" s="116"/>
       <c r="M28" s="89"/>
     </row>
     <row r="29" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K29" s="105" t="s">
+      <c r="K29" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="106"/>
+      <c r="L29" s="116"/>
     </row>
     <row r="30" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K30" s="105" t="s">
+      <c r="K30" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="106"/>
+      <c r="L30" s="116"/>
     </row>
     <row r="31" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K31" s="105" t="s">
+      <c r="K31" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="106"/>
+      <c r="L31" s="116"/>
     </row>
     <row r="32" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K32" s="105" t="s">
+      <c r="K32" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="106"/>
+      <c r="L32" s="116"/>
     </row>
     <row r="33" spans="11:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K33" s="105" t="s">
+      <c r="K33" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="106"/>
+      <c r="L33" s="116"/>
     </row>
     <row r="34" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K34" s="105" t="s">
+      <c r="K34" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="106"/>
+      <c r="L34" s="116"/>
     </row>
     <row r="35" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K35" s="105" t="s">
+      <c r="K35" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="106"/>
+      <c r="L35" s="116"/>
     </row>
     <row r="36" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K36" s="105" t="s">
+      <c r="K36" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="106"/>
+      <c r="L36" s="116"/>
     </row>
     <row r="37" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K37" s="105" t="s">
+      <c r="K37" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="L37" s="106"/>
+      <c r="L37" s="116"/>
     </row>
     <row r="38" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K38" s="105" t="s">
+      <c r="K38" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="106"/>
+      <c r="L38" s="116"/>
     </row>
     <row r="39" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K39" s="105" t="s">
+      <c r="K39" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="106"/>
+      <c r="L39" s="116"/>
     </row>
     <row r="40" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K40" s="105" t="s">
+      <c r="K40" s="115" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="106"/>
+      <c r="L40" s="116"/>
     </row>
     <row r="41" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K41" s="105" t="s">
+      <c r="K41" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="106"/>
+      <c r="L41" s="116"/>
     </row>
     <row r="42" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K42" s="105" t="s">
+      <c r="K42" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="106"/>
+      <c r="L42" s="116"/>
     </row>
     <row r="43" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K43" s="105" t="s">
+      <c r="K43" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="106"/>
+      <c r="L43" s="116"/>
     </row>
     <row r="44" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K44" s="105" t="s">
+      <c r="K44" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="106"/>
+      <c r="L44" s="116"/>
     </row>
     <row r="45" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K45" s="105" t="s">
+      <c r="K45" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="106"/>
+      <c r="L45" s="116"/>
     </row>
     <row r="46" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K46" s="107"/>
-      <c r="L46" s="108"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="125"/>
     </row>
     <row r="47" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K47" s="103"/>
-      <c r="L47" s="104"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="123"/>
     </row>
     <row r="48" spans="11:12" ht="23" x14ac:dyDescent="0.3">
-      <c r="K48" s="120" t="s">
+      <c r="K48" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="121"/>
+      <c r="L48" s="104"/>
     </row>
     <row r="49" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K49" s="122" t="s">
+      <c r="K49" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="123"/>
+      <c r="L49" s="106"/>
     </row>
     <row r="50" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K50" s="122" t="s">
+      <c r="K50" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="123"/>
+      <c r="L50" s="106"/>
     </row>
     <row r="51" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K51" s="122" t="s">
+      <c r="K51" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="123"/>
+      <c r="L51" s="106"/>
     </row>
     <row r="52" spans="11:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="K52" s="124" t="s">
+      <c r="K52" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="125"/>
+      <c r="L52" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
@@ -6715,6 +6704,26 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7092,17 +7101,17 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="127" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:7" s="132" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="132" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
@@ -7114,7 +7123,7 @@
       <c r="A3" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="127" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -7123,21 +7132,21 @@
     </row>
     <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="130"/>
-      <c r="B4" s="128"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="130"/>
-      <c r="B5" s="128"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="130"/>
-      <c r="B6" s="128"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="74" t="s">
         <v>78</v>
       </c>
@@ -7145,7 +7154,7 @@
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="130"/>
-      <c r="B7" s="128"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="74" t="s">
         <v>79</v>
       </c>
@@ -7153,7 +7162,7 @@
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="130"/>
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="127" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -7162,35 +7171,35 @@
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
-      <c r="B9" s="128"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="130"/>
-      <c r="B10" s="128"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="130"/>
-      <c r="B11" s="128"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="130"/>
-      <c r="B12" s="128"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="130"/>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -7199,42 +7208,42 @@
     </row>
     <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="130"/>
-      <c r="B14" s="128"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="130"/>
-      <c r="B15" s="128"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="130"/>
-      <c r="B16" s="128"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="130"/>
-      <c r="B17" s="128"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="130"/>
-      <c r="B18" s="128"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="131"/>
-      <c r="B19" s="128"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
@@ -7243,7 +7252,7 @@
       <c r="A20" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="127" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -7252,63 +7261,63 @@
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="130"/>
-      <c r="B21" s="128"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="130"/>
-      <c r="B22" s="128"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="130"/>
-      <c r="B23" s="128"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="130"/>
-      <c r="B24" s="128"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="130"/>
-      <c r="B25" s="128"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="130"/>
-      <c r="B26" s="128"/>
+      <c r="B26" s="127"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="130"/>
-      <c r="B27" s="128"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="130"/>
-      <c r="B28" s="128"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="130"/>
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="127" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -7317,14 +7326,14 @@
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="130"/>
-      <c r="B30" s="128"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="131"/>
-      <c r="B31" s="128"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
@@ -7333,7 +7342,7 @@
       <c r="A32" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="127" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
@@ -7342,35 +7351,35 @@
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="130"/>
-      <c r="B33" s="128"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="130"/>
-      <c r="B34" s="128"/>
+      <c r="B34" s="127"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="130"/>
-      <c r="B35" s="128"/>
+      <c r="B35" s="127"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="130"/>
-      <c r="B36" s="128"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="130"/>
-      <c r="B37" s="128" t="s">
+      <c r="B37" s="127" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -7379,14 +7388,14 @@
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="130"/>
-      <c r="B38" s="128"/>
+      <c r="B38" s="127"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="130"/>
-      <c r="B39" s="128" t="s">
+      <c r="B39" s="127" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -7395,14 +7404,14 @@
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="130"/>
-      <c r="B40" s="128"/>
+      <c r="B40" s="127"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="131"/>
-      <c r="B41" s="128"/>
+      <c r="B41" s="127"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
@@ -7411,7 +7420,7 @@
       <c r="A42" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="128" t="s">
+      <c r="B42" s="127" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -7420,35 +7429,35 @@
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="130"/>
-      <c r="B43" s="128"/>
+      <c r="B43" s="127"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="130"/>
-      <c r="B44" s="128"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="130"/>
-      <c r="B45" s="128"/>
+      <c r="B45" s="127"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="130"/>
-      <c r="B46" s="128"/>
+      <c r="B46" s="127"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="130"/>
-      <c r="B47" s="128" t="s">
+      <c r="B47" s="127" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -7457,14 +7466,14 @@
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="130"/>
-      <c r="B48" s="128"/>
+      <c r="B48" s="127"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="130"/>
-      <c r="B49" s="128" t="s">
+      <c r="B49" s="127" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -7473,56 +7482,56 @@
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="130"/>
-      <c r="B50" s="128"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="130"/>
-      <c r="B51" s="128"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="130"/>
-      <c r="B52" s="128"/>
+      <c r="B52" s="127"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="130"/>
-      <c r="B53" s="128"/>
+      <c r="B53" s="127"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="130"/>
-      <c r="B54" s="128"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="130"/>
-      <c r="B55" s="128"/>
+      <c r="B55" s="127"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="130"/>
-      <c r="B56" s="128"/>
+      <c r="B56" s="127"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="131"/>
-      <c r="B57" s="128"/>
+      <c r="B57" s="127"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
@@ -7531,7 +7540,7 @@
       <c r="A58" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="128" t="s">
+      <c r="B58" s="127" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -7540,21 +7549,21 @@
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="130"/>
-      <c r="B59" s="128"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="130"/>
-      <c r="B60" s="128"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="130"/>
-      <c r="B61" s="128"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
@@ -7581,7 +7590,7 @@
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="130"/>
-      <c r="B64" s="128" t="s">
+      <c r="B64" s="127" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="s">
@@ -7590,21 +7599,21 @@
     </row>
     <row r="65" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="130"/>
-      <c r="B65" s="128"/>
+      <c r="B65" s="127"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="130"/>
-      <c r="B66" s="128"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="130"/>
-      <c r="B67" s="128"/>
+      <c r="B67" s="127"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
@@ -7619,7 +7628,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="135" t="s">
+      <c r="A69" s="128" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7630,8 +7639,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="135"/>
-      <c r="B70" s="128" t="s">
+      <c r="A70" s="128"/>
+      <c r="B70" s="127" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -7639,49 +7648,49 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="135"/>
-      <c r="B71" s="128"/>
+      <c r="A71" s="128"/>
+      <c r="B71" s="127"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="135"/>
-      <c r="B72" s="128"/>
+      <c r="A72" s="128"/>
+      <c r="B72" s="127"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="135"/>
-      <c r="B73" s="128"/>
+      <c r="A73" s="128"/>
+      <c r="B73" s="127"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="135"/>
-      <c r="B74" s="128"/>
+      <c r="A74" s="128"/>
+      <c r="B74" s="127"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="135"/>
-      <c r="B75" s="128"/>
+      <c r="A75" s="128"/>
+      <c r="B75" s="127"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="135"/>
-      <c r="B76" s="128"/>
+      <c r="A76" s="128"/>
+      <c r="B76" s="127"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="135"/>
+      <c r="A77" s="128"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7690,7 +7699,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="135"/>
+      <c r="A78" s="128"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -8786,13 +8795,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B48"/>
@@ -8809,6 +8811,13 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A63:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8917,98 +8926,98 @@
       <c r="A1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="157" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="136"/>
+      <c r="D1" s="157"/>
     </row>
     <row r="2" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="137"/>
+      <c r="D2" s="158"/>
     </row>
     <row r="3" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="149"/>
-      <c r="C3" s="138" t="s">
+      <c r="A3" s="143"/>
+      <c r="C3" s="159" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="161" t="s">
+      <c r="E3" s="155" t="s">
         <v>332</v>
       </c>
-      <c r="F3" s="162"/>
+      <c r="F3" s="156"/>
     </row>
     <row r="4" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="144" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="139"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="151"/>
-      <c r="C5" s="140" t="s">
+      <c r="A5" s="145"/>
+      <c r="C5" s="161" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="136" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="151"/>
-      <c r="C6" s="141"/>
+      <c r="A6" s="145"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="142"/>
+      <c r="F6" s="136"/>
     </row>
     <row r="7" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="151"/>
-      <c r="C7" s="144" t="s">
+      <c r="A7" s="145"/>
+      <c r="C7" s="138" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="142"/>
+      <c r="F7" s="136"/>
     </row>
     <row r="8" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="151"/>
-      <c r="C8" s="145"/>
+      <c r="A8" s="145"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="142"/>
+      <c r="F8" s="136"/>
     </row>
     <row r="9" spans="1:6" ht="23" x14ac:dyDescent="0.2">
-      <c r="A9" s="151"/>
-      <c r="C9" s="157" t="s">
+      <c r="A9" s="145"/>
+      <c r="C9" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="F9" s="142"/>
+      <c r="D9" s="152"/>
+      <c r="F9" s="136"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="151"/>
-      <c r="C10" s="153" t="s">
+      <c r="A10" s="145"/>
+      <c r="C10" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="154"/>
-      <c r="F10" s="142"/>
+      <c r="D10" s="148"/>
+      <c r="F10" s="136"/>
     </row>
     <row r="11" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="151"/>
+      <c r="A11" s="145"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -9016,22 +9025,22 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="142"/>
+      <c r="F11" s="136"/>
     </row>
     <row r="12" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="152"/>
-      <c r="C12" s="155" t="s">
+      <c r="A12" s="146"/>
+      <c r="C12" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="F12" s="142"/>
+      <c r="D12" s="150"/>
+      <c r="F12" s="136"/>
     </row>
     <row r="13" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="160"/>
-      <c r="F13" s="142" t="s">
+      <c r="D13" s="154"/>
+      <c r="F13" s="136" t="s">
         <v>352</v>
       </c>
     </row>
@@ -9042,44 +9051,49 @@
       <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="142"/>
+      <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="147"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="142"/>
+      <c r="F15" s="136"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F16" s="142"/>
+      <c r="F16" s="136"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F17" s="142"/>
+      <c r="F17" s="136"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="142"/>
+      <c r="F18" s="136"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F19" s="142"/>
+      <c r="F19" s="136"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F20" s="143" t="s">
+      <c r="F20" s="137" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F21" s="143"/>
+      <c r="F21" s="137"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F22" s="143"/>
+      <c r="F22" s="137"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F23" s="143"/>
+      <c r="F23" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F12"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="C7:C8"/>
@@ -9091,11 +9105,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9108,7 +9117,7 @@
   <dimension ref="A1:Y684"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="A266" sqref="A266"/>
+      <selection activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -11385,14 +11394,14 @@
       </c>
     </row>
     <row r="262" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="163" t="s">
-        <v>446</v>
+      <c r="A262" s="163">
+        <v>2018.12</v>
       </c>
       <c r="B262" s="164"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="73" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B263" s="84">
         <v>9.61</v>
@@ -11403,7 +11412,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="73" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B264" s="84">
         <v>9.61</v>
@@ -11414,12 +11423,23 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="73" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B265" s="84">
         <v>9.61</v>
       </c>
       <c r="D265" s="82" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266" s="73" t="s">
+        <v>449</v>
+      </c>
+      <c r="B266" s="84">
+        <v>9.61</v>
+      </c>
+      <c r="D266" s="82" t="s">
         <v>421</v>
       </c>
     </row>
@@ -11437,7 +11457,7 @@
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B271" s="85">
         <f>SUM(B263:B270)</f>
-        <v>28.83</v>
+        <v>38.44</v>
       </c>
       <c r="C271" s="72">
         <f>SUM(C261:C270)</f>
@@ -11512,11 +11532,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A71:B71"/>
@@ -11529,28 +11555,22 @@
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
     <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A227 A233 A262" numberStoredAsText="1"/>
+    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A227 A233" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglingqiang/RnkTest/健身文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3DD4E924-A15B-4847-BAC9-C086AC15EBF3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{993E57CC-2818-134C-B9B5-2632638CAE22}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="1780" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18840" yWindow="1960" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="447">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -4286,6 +4286,10 @@
   </si>
   <si>
     <t>AOH       欧尔麦特                预定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5383,6 +5387,57 @@
     <xf numFmtId="176" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5401,86 +5456,53 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5544,24 +5566,6 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6234,18 +6238,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:17" ht="63" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6400,32 +6404,32 @@
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="11:14" ht="19" customHeight="1">
-      <c r="K18" s="110" t="s">
+      <c r="K18" s="113" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="119" t="s">
+      <c r="M18" s="109" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="11:14" ht="19" customHeight="1">
-      <c r="K19" s="111"/>
+      <c r="K19" s="114"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="120"/>
+      <c r="M19" s="110"/>
     </row>
     <row r="20" spans="11:14" ht="19" customHeight="1">
-      <c r="K20" s="112"/>
+      <c r="K20" s="115"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="121"/>
+      <c r="M20" s="111"/>
     </row>
     <row r="21" spans="11:14">
-      <c r="K21" s="113" t="s">
+      <c r="K21" s="116" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
@@ -6433,7 +6437,7 @@
       </c>
     </row>
     <row r="22" spans="11:14">
-      <c r="K22" s="114"/>
+      <c r="K22" s="117"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
@@ -6464,172 +6468,192 @@
       </c>
     </row>
     <row r="26" spans="11:14" ht="21" customHeight="1">
-      <c r="K26" s="117" t="s">
+      <c r="K26" s="118" t="s">
         <v>381</v>
       </c>
-      <c r="L26" s="118"/>
+      <c r="L26" s="119"/>
       <c r="M26" s="89" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="27" spans="11:14" ht="21" customHeight="1">
-      <c r="K27" s="115" t="s">
+      <c r="K27" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="116"/>
+      <c r="L27" s="106"/>
       <c r="M27" s="89" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="28" spans="11:14" ht="21" customHeight="1">
-      <c r="K28" s="115" t="s">
+      <c r="K28" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="116"/>
+      <c r="L28" s="106"/>
       <c r="M28" s="89"/>
     </row>
     <row r="29" spans="11:14" ht="21" customHeight="1">
-      <c r="K29" s="115" t="s">
+      <c r="K29" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="116"/>
+      <c r="L29" s="106"/>
     </row>
     <row r="30" spans="11:14" ht="21" customHeight="1">
-      <c r="K30" s="115" t="s">
+      <c r="K30" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="116"/>
+      <c r="L30" s="106"/>
     </row>
     <row r="31" spans="11:14" ht="21" customHeight="1">
-      <c r="K31" s="115" t="s">
+      <c r="K31" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="116"/>
+      <c r="L31" s="106"/>
     </row>
     <row r="32" spans="11:14" ht="21" customHeight="1">
-      <c r="K32" s="115" t="s">
+      <c r="K32" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="116"/>
+      <c r="L32" s="106"/>
     </row>
     <row r="33" spans="11:12" ht="21" customHeight="1">
-      <c r="K33" s="115" t="s">
+      <c r="K33" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="116"/>
+      <c r="L33" s="106"/>
     </row>
     <row r="34" spans="11:12">
-      <c r="K34" s="115" t="s">
+      <c r="K34" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="116"/>
+      <c r="L34" s="106"/>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="115" t="s">
+      <c r="K35" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="116"/>
+      <c r="L35" s="106"/>
     </row>
     <row r="36" spans="11:12">
-      <c r="K36" s="115" t="s">
+      <c r="K36" s="105" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="116"/>
+      <c r="L36" s="106"/>
     </row>
     <row r="37" spans="11:12">
-      <c r="K37" s="115" t="s">
+      <c r="K37" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="L37" s="116"/>
+      <c r="L37" s="106"/>
     </row>
     <row r="38" spans="11:12">
-      <c r="K38" s="115" t="s">
+      <c r="K38" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="116"/>
+      <c r="L38" s="106"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="115" t="s">
+      <c r="K39" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="116"/>
+      <c r="L39" s="106"/>
     </row>
     <row r="40" spans="11:12">
-      <c r="K40" s="115" t="s">
+      <c r="K40" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="116"/>
+      <c r="L40" s="106"/>
     </row>
     <row r="41" spans="11:12">
-      <c r="K41" s="115" t="s">
+      <c r="K41" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="116"/>
+      <c r="L41" s="106"/>
     </row>
     <row r="42" spans="11:12">
-      <c r="K42" s="115" t="s">
+      <c r="K42" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="116"/>
+      <c r="L42" s="106"/>
     </row>
     <row r="43" spans="11:12">
-      <c r="K43" s="115" t="s">
+      <c r="K43" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="116"/>
+      <c r="L43" s="106"/>
     </row>
     <row r="44" spans="11:12">
-      <c r="K44" s="115" t="s">
+      <c r="K44" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="116"/>
+      <c r="L44" s="106"/>
     </row>
     <row r="45" spans="11:12">
-      <c r="K45" s="115" t="s">
+      <c r="K45" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="116"/>
+      <c r="L45" s="106"/>
     </row>
     <row r="46" spans="11:12">
-      <c r="K46" s="124"/>
-      <c r="L46" s="125"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="108"/>
     </row>
     <row r="47" spans="11:12">
-      <c r="K47" s="122"/>
-      <c r="L47" s="123"/>
+      <c r="K47" s="103"/>
+      <c r="L47" s="104"/>
     </row>
     <row r="48" spans="11:12" ht="23">
-      <c r="K48" s="103" t="s">
+      <c r="K48" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="104"/>
+      <c r="L48" s="121"/>
     </row>
     <row r="49" spans="11:12">
-      <c r="K49" s="105" t="s">
+      <c r="K49" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="106"/>
+      <c r="L49" s="123"/>
     </row>
     <row r="50" spans="11:12">
-      <c r="K50" s="105" t="s">
+      <c r="K50" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="106"/>
+      <c r="L50" s="123"/>
     </row>
     <row r="51" spans="11:12">
-      <c r="K51" s="105" t="s">
+      <c r="K51" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="106"/>
+      <c r="L51" s="123"/>
     </row>
     <row r="52" spans="11:12" ht="22">
-      <c r="K52" s="107" t="s">
+      <c r="K52" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="108"/>
+      <c r="L52" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
@@ -6641,26 +6665,6 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7038,17 +7042,17 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="132" customFormat="1" ht="47" customHeight="1">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:7" s="127" customFormat="1" ht="47" customHeight="1">
+      <c r="A1" s="127" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
@@ -7060,7 +7064,7 @@
       <c r="A3" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -7069,21 +7073,21 @@
     </row>
     <row r="4" spans="1:7" ht="36" customHeight="1">
       <c r="A4" s="130"/>
-      <c r="B4" s="127"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1">
       <c r="A5" s="130"/>
-      <c r="B5" s="127"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1">
       <c r="A6" s="130"/>
-      <c r="B6" s="127"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="74" t="s">
         <v>78</v>
       </c>
@@ -7091,7 +7095,7 @@
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1">
       <c r="A7" s="130"/>
-      <c r="B7" s="127"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="74" t="s">
         <v>79</v>
       </c>
@@ -7099,7 +7103,7 @@
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="A8" s="130"/>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="128" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -7108,35 +7112,35 @@
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1">
       <c r="A9" s="130"/>
-      <c r="B9" s="127"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1">
       <c r="A10" s="130"/>
-      <c r="B10" s="127"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1">
       <c r="A11" s="130"/>
-      <c r="B11" s="127"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1">
       <c r="A12" s="130"/>
-      <c r="B12" s="127"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
       <c r="A13" s="130"/>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="128" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -7145,42 +7149,42 @@
     </row>
     <row r="14" spans="1:7" ht="36" customHeight="1">
       <c r="A14" s="130"/>
-      <c r="B14" s="127"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1">
       <c r="A15" s="130"/>
-      <c r="B15" s="127"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
       <c r="A16" s="130"/>
-      <c r="B16" s="127"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1">
       <c r="A17" s="130"/>
-      <c r="B17" s="127"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1">
       <c r="A18" s="130"/>
-      <c r="B18" s="127"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1">
       <c r="A19" s="131"/>
-      <c r="B19" s="127"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
@@ -7189,7 +7193,7 @@
       <c r="A20" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="128" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -7198,63 +7202,63 @@
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1">
       <c r="A21" s="130"/>
-      <c r="B21" s="127"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
       <c r="A22" s="130"/>
-      <c r="B22" s="127"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1">
       <c r="A23" s="130"/>
-      <c r="B23" s="127"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
       <c r="A24" s="130"/>
-      <c r="B24" s="127"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1">
       <c r="A25" s="130"/>
-      <c r="B25" s="127"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1">
       <c r="A26" s="130"/>
-      <c r="B26" s="127"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1">
       <c r="A27" s="130"/>
-      <c r="B27" s="127"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1">
       <c r="A28" s="130"/>
-      <c r="B28" s="127"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1">
       <c r="A29" s="130"/>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="128" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -7263,14 +7267,14 @@
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1">
       <c r="A30" s="130"/>
-      <c r="B30" s="127"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1">
       <c r="A31" s="131"/>
-      <c r="B31" s="127"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
@@ -7279,7 +7283,7 @@
       <c r="A32" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="128" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
@@ -7288,35 +7292,35 @@
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1">
       <c r="A33" s="130"/>
-      <c r="B33" s="127"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1">
       <c r="A34" s="130"/>
-      <c r="B34" s="127"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1">
       <c r="A35" s="130"/>
-      <c r="B35" s="127"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
       <c r="A36" s="130"/>
-      <c r="B36" s="127"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1">
       <c r="A37" s="130"/>
-      <c r="B37" s="127" t="s">
+      <c r="B37" s="128" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -7325,14 +7329,14 @@
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1">
       <c r="A38" s="130"/>
-      <c r="B38" s="127"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1">
       <c r="A39" s="130"/>
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="128" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -7341,14 +7345,14 @@
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1">
       <c r="A40" s="130"/>
-      <c r="B40" s="127"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1">
       <c r="A41" s="131"/>
-      <c r="B41" s="127"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
@@ -7357,7 +7361,7 @@
       <c r="A42" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="128" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -7366,35 +7370,35 @@
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1">
       <c r="A43" s="130"/>
-      <c r="B43" s="127"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1">
       <c r="A44" s="130"/>
-      <c r="B44" s="127"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1">
       <c r="A45" s="130"/>
-      <c r="B45" s="127"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1">
       <c r="A46" s="130"/>
-      <c r="B46" s="127"/>
+      <c r="B46" s="128"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1">
       <c r="A47" s="130"/>
-      <c r="B47" s="127" t="s">
+      <c r="B47" s="128" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -7403,14 +7407,14 @@
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1">
       <c r="A48" s="130"/>
-      <c r="B48" s="127"/>
+      <c r="B48" s="128"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1">
       <c r="A49" s="130"/>
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="128" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -7419,56 +7423,56 @@
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1">
       <c r="A50" s="130"/>
-      <c r="B50" s="127"/>
+      <c r="B50" s="128"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1">
       <c r="A51" s="130"/>
-      <c r="B51" s="127"/>
+      <c r="B51" s="128"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
       <c r="A52" s="130"/>
-      <c r="B52" s="127"/>
+      <c r="B52" s="128"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1">
       <c r="A53" s="130"/>
-      <c r="B53" s="127"/>
+      <c r="B53" s="128"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1">
       <c r="A54" s="130"/>
-      <c r="B54" s="127"/>
+      <c r="B54" s="128"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1">
       <c r="A55" s="130"/>
-      <c r="B55" s="127"/>
+      <c r="B55" s="128"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1">
       <c r="A56" s="130"/>
-      <c r="B56" s="127"/>
+      <c r="B56" s="128"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1">
       <c r="A57" s="131"/>
-      <c r="B57" s="127"/>
+      <c r="B57" s="128"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
@@ -7477,7 +7481,7 @@
       <c r="A58" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="128" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -7486,21 +7490,21 @@
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1">
       <c r="A59" s="130"/>
-      <c r="B59" s="127"/>
+      <c r="B59" s="128"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1">
       <c r="A60" s="130"/>
-      <c r="B60" s="127"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1">
       <c r="A61" s="130"/>
-      <c r="B61" s="127"/>
+      <c r="B61" s="128"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
@@ -7527,7 +7531,7 @@
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1">
       <c r="A64" s="130"/>
-      <c r="B64" s="127" t="s">
+      <c r="B64" s="128" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="s">
@@ -7536,21 +7540,21 @@
     </row>
     <row r="65" spans="1:4" ht="36" customHeight="1">
       <c r="A65" s="130"/>
-      <c r="B65" s="127"/>
+      <c r="B65" s="128"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="36" customHeight="1">
       <c r="A66" s="130"/>
-      <c r="B66" s="127"/>
+      <c r="B66" s="128"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="36" customHeight="1">
       <c r="A67" s="130"/>
-      <c r="B67" s="127"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
@@ -7565,7 +7569,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="36" customHeight="1">
-      <c r="A69" s="128" t="s">
+      <c r="A69" s="135" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7576,8 +7580,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="36" customHeight="1">
-      <c r="A70" s="128"/>
-      <c r="B70" s="127" t="s">
+      <c r="A70" s="135"/>
+      <c r="B70" s="128" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -7585,49 +7589,49 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="36" customHeight="1">
-      <c r="A71" s="128"/>
-      <c r="B71" s="127"/>
+      <c r="A71" s="135"/>
+      <c r="B71" s="128"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="36" customHeight="1">
-      <c r="A72" s="128"/>
-      <c r="B72" s="127"/>
+      <c r="A72" s="135"/>
+      <c r="B72" s="128"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36" customHeight="1">
-      <c r="A73" s="128"/>
-      <c r="B73" s="127"/>
+      <c r="A73" s="135"/>
+      <c r="B73" s="128"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="36" customHeight="1">
-      <c r="A74" s="128"/>
-      <c r="B74" s="127"/>
+      <c r="A74" s="135"/>
+      <c r="B74" s="128"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="36" customHeight="1">
-      <c r="A75" s="128"/>
-      <c r="B75" s="127"/>
+      <c r="A75" s="135"/>
+      <c r="B75" s="128"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="36" customHeight="1">
-      <c r="A76" s="128"/>
-      <c r="B76" s="127"/>
+      <c r="A76" s="135"/>
+      <c r="B76" s="128"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="36" customHeight="1">
-      <c r="A77" s="128"/>
+      <c r="A77" s="135"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7636,7 +7640,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="36" customHeight="1">
-      <c r="A78" s="128"/>
+      <c r="A78" s="135"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -8732,6 +8736,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B48"/>
@@ -8748,13 +8759,6 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A63:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8863,98 +8867,98 @@
       <c r="A1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="157"/>
+      <c r="D1" s="136"/>
     </row>
     <row r="2" spans="1:6" ht="65" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="158"/>
+      <c r="D2" s="137"/>
     </row>
     <row r="3" spans="1:6" ht="31" customHeight="1">
-      <c r="A3" s="143"/>
-      <c r="C3" s="159" t="s">
+      <c r="A3" s="149"/>
+      <c r="C3" s="138" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="161" t="s">
         <v>332</v>
       </c>
-      <c r="F3" s="156"/>
+      <c r="F3" s="162"/>
     </row>
     <row r="4" spans="1:6" ht="31" customHeight="1">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="150" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31" customHeight="1">
-      <c r="A5" s="145"/>
-      <c r="C5" s="161" t="s">
+      <c r="A5" s="151"/>
+      <c r="C5" s="140" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="142" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31" customHeight="1">
-      <c r="A6" s="145"/>
-      <c r="C6" s="162"/>
+      <c r="A6" s="151"/>
+      <c r="C6" s="141"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="136"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="31" customHeight="1">
-      <c r="A7" s="145"/>
-      <c r="C7" s="138" t="s">
+      <c r="A7" s="151"/>
+      <c r="C7" s="144" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="136"/>
+      <c r="F7" s="142"/>
     </row>
     <row r="8" spans="1:6" ht="31" customHeight="1">
-      <c r="A8" s="145"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="151"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="136"/>
+      <c r="F8" s="142"/>
     </row>
     <row r="9" spans="1:6" ht="23">
-      <c r="A9" s="145"/>
-      <c r="C9" s="151" t="s">
+      <c r="A9" s="151"/>
+      <c r="C9" s="157" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="F9" s="136"/>
+      <c r="D9" s="158"/>
+      <c r="F9" s="142"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="145"/>
-      <c r="C10" s="147" t="s">
+      <c r="A10" s="151"/>
+      <c r="C10" s="153" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="F10" s="136"/>
+      <c r="D10" s="154"/>
+      <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:6" ht="32" customHeight="1">
-      <c r="A11" s="145"/>
+      <c r="A11" s="151"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -8962,22 +8966,22 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="136"/>
+      <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:6" ht="54" customHeight="1">
-      <c r="A12" s="146"/>
-      <c r="C12" s="149" t="s">
+      <c r="A12" s="152"/>
+      <c r="C12" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="F12" s="136"/>
+      <c r="D12" s="156"/>
+      <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:6" ht="37" customHeight="1">
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="159" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="154"/>
-      <c r="F13" s="136" t="s">
+      <c r="D13" s="160"/>
+      <c r="F13" s="142" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8988,49 +8992,44 @@
       <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="136"/>
+      <c r="F14" s="142"/>
     </row>
     <row r="15" spans="1:6" ht="48" customHeight="1">
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="141"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="136"/>
+      <c r="F15" s="142"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="F16" s="136"/>
+      <c r="F16" s="142"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="136"/>
+      <c r="F17" s="142"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="136"/>
+      <c r="F18" s="142"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="136"/>
+      <c r="F19" s="142"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="137" t="s">
+      <c r="F20" s="143" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="137"/>
+      <c r="F21" s="143"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="137"/>
+      <c r="F22" s="143"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="137"/>
+      <c r="F23" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F12"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="C7:C8"/>
@@ -9042,6 +9041,11 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9053,8 +9057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="B260" sqref="B260"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -11333,6 +11337,12 @@
         <v>20223.46</v>
       </c>
     </row>
+    <row r="262" spans="1:10" ht="28">
+      <c r="A262" s="163" t="s">
+        <v>446</v>
+      </c>
+      <c r="B262" s="164"/>
+    </row>
     <row r="269" spans="1:10">
       <c r="I269" s="78"/>
       <c r="J269"/>
@@ -11408,7 +11418,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A106:B106"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="A233:B233"/>
     <mergeCell ref="A227:B227"/>
@@ -11425,28 +11452,12 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A106:B106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A227 A233" numberStoredAsText="1"/>
+    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A227 A233 A262" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/健身文档/减脂增肌执行表的副本.xlsx
+++ b/健身文档/减脂增肌执行表的副本.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="640" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="3200" yWindow="640" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="执行效果表" sheetId="1" r:id="rId1"/>
     <sheet name="饮食计划" sheetId="5" r:id="rId2"/>
     <sheet name="力量成绩表" sheetId="2" r:id="rId3"/>
     <sheet name="训练计划表" sheetId="3" r:id="rId4"/>
-    <sheet name="模型花费" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="229">
   <si>
     <t>脖围</t>
     <rPh sb="0" eb="1">
@@ -2428,1026 +2427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模型工具</t>
-    <rPh sb="0" eb="1">
-      <t>mo'xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gong'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红异端</t>
-    <rPh sb="0" eb="1">
-      <t>hong'yi'duan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>决斗</t>
-    <rPh sb="0" eb="1">
-      <t>jue'dou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM嫣红强袭凤装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>量子00Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独角兽高达 PG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车模</t>
-    <rPh sb="0" eb="1">
-      <t>che'mo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>童年卡片</t>
-    <rPh sb="0" eb="1">
-      <t>tong'nian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ka'pian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充电模块</t>
-    <rPh sb="0" eb="1">
-      <t>chong'dian'mo'kuai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG全武装独角兽武器包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万代铁血</t>
-    <rPh sb="0" eb="1">
-      <t>wan'dai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tie'xue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万代铁血</t>
-    <rPh sb="0" eb="1">
-      <t>wan'dai'tie'xue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">版件架 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原石新安洲</t>
-    <rPh sb="0" eb="1">
-      <t>yuan'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin'an'zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迅雷+圣盾</t>
-    <rPh sb="0" eb="1">
-      <t>xun'lei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shen'dun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙扎比</t>
-    <rPh sb="0" eb="1">
-      <t>sha'zha'bi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MK3+创燃+AGE双枪型+艾比安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具</t>
-    <rPh sb="0" eb="1">
-      <t>gong'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅萨拉+拖1+KA飞翼+宇宙星神+杰斯塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兹莎+完美强袭</t>
-    <rPh sb="3" eb="4">
-      <t>wan'mei'qiang'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴风+命运</t>
-    <rPh sb="3" eb="4">
-      <t>ming'yun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强袭自由</t>
-    <rPh sb="0" eb="1">
-      <t>qiang'xi'zi'you</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具+补件</t>
-    <rPh sb="0" eb="1">
-      <t>gong'ju</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bu'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RG新安洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX红蓝异端</t>
-    <rPh sb="2" eb="3">
-      <t>hong'lan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yi'duan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机甲红异端</t>
-    <rPh sb="0" eb="1">
-      <t>ji'jia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥迪双钻超限列兵</t>
-    <rPh sb="0" eb="1">
-      <t>ao'di'shuang'zhuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shuang'zuan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chao'xian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>lie'bin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>透明重炮+猎鸥</t>
-    <rPh sb="5" eb="6">
-      <t>lie'ou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田宫渗线液</t>
-    <rPh sb="0" eb="1">
-      <t>tian'gon</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shen'xian'ye</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂志</t>
-    <rPh sb="0" eb="1">
-      <t>za'zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a3切割板</t>
-    <rPh sb="2" eb="3">
-      <t>qie'ge'ban</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时空要塞</t>
-    <rPh sb="0" eb="1">
-      <t>chao'shi'kong'yao'sai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MB能天使【含四套装备】</t>
-  </si>
-  <si>
-    <t>成品最终决战样式</t>
-  </si>
-  <si>
-    <t>蓝异端【含2型3型装备】</t>
-  </si>
-  <si>
-    <t>EVA初号机</t>
-  </si>
-  <si>
-    <t>MENG 俾斯麦号战列舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Grandista ROS 悟空 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫画悟饭24cm</t>
-  </si>
-  <si>
-    <t>机甲红异端改武器包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子模型，R2-D2 R5-D</t>
-  </si>
-  <si>
-    <t>2016.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强袭自由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海牛吴羽东华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EX-S EXS 高达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HG杰斯塔+卡尔斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锋芒水口剪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箱牌锉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG奥古</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DA神意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红七剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X魔王+凤凰飞翼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杰斯塔加农</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京宝梵改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电扎古</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MB金异端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞翼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩佐法拉利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L级威镇天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVA武器搭载架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡海牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-232（带背胶）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元祖 敢达3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑武士+白兵+幻象长牙狮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长牙虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z高达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MB雪崩能天使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSPIAE ST-A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLFA爱利华AK-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防静电ESD14C特尖型直尖头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87133灰色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠+双龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大班雪崩*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Grandista ROS贝吉塔 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msp大组立超赛特兰克斯</t>
-    <rPh sb="3" eb="4">
-      <t>da'zu'li</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chao'sai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>te'lan'ke'si</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武道会6  超二+超三  悟空</t>
-    <rPh sb="0" eb="1">
-      <t>wu'dao'hui</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>er</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>chao'san</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>wu'kong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武道会6  超赛 贝吉塔</t>
-    <rPh sb="0" eb="1">
-      <t>wu'dao'hui</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chao'sai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bei'ji'ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扎古三连星</t>
-    <rPh sb="0" eb="1">
-      <t>zha'gu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>san'lian'xin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大班   MG自由2.0</t>
-    <rPh sb="0" eb="1">
-      <t>da'ban</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zi'you</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msp 特兰克斯</t>
-    <rPh sb="4" eb="5">
-      <t>te'lan'ke'is</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武道会6   超三发波</t>
-    <rPh sb="0" eb="1">
-      <t>wu'dao'hui</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>chao'san</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fa'bo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龟派气功  黑发悟空</t>
-    <rPh sb="0" eb="1">
-      <t>gui'pai'qi'gong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>hei'fa</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wu'kong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武道会7   悟吉塔订金</t>
-    <rPh sb="0" eb="1">
-      <t>wu'dao'hui</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wu'ji'ta</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>din'jin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高高重炮</t>
-    <rPh sb="0" eb="1">
-      <t>gao'gao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhong'pao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武道会7   悟吉塔补款</t>
-    <rPh sb="0" eb="1">
-      <t>wu'dao'hui</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wu'ji'ta</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bu'kuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七龙珠  画集+线稿</t>
-    <rPh sb="0" eb="1">
-      <t>qi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>long'zhu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hua'ji</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖国版七龙珠    smsp悟空</t>
-    <rPh sb="0" eb="1">
-      <t>zu'guo'ban</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>qi'long'zhu</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>wu'kong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机甲先驱 透明红异端</t>
-    <rPh sb="0" eb="1">
-      <t>ji'jia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙珠  彩色相片</t>
-    <rPh sb="0" eb="1">
-      <t>long'zhu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>cai'se</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xiang'pian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖国megahouse 18号</t>
-    <rPh sb="0" eb="1">
-      <t>zu'guo</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖国版SMSP 原色贝吉塔</t>
-    <rPh sb="0" eb="1">
-      <t>zu'guo'ban</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yuan'se</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bei'ji'ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖国版SMSP 原色悟空</t>
-    <rPh sb="0" eb="1">
-      <t>zu'guo'ban</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wu'kong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖国版SMSD 爆气悟空</t>
-    <rPh sb="0" eb="1">
-      <t>zu'guo'ban</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bao'zha</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wu'kong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武道会6 站立18号+终极闪光贝吉塔</t>
-    <rPh sb="0" eb="1">
-      <t>wu'dao'hui</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhan'li</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhong'ji</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shan'guang</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bei'ji'ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC造型王 4档路飞+FES 03系列02款超三悟空</t>
-    <rPh sb="2" eb="3">
-      <t>zao'xin'wang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>lu'fei</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fei</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xi'lie</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>kuan</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>chao'san</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>wu'kong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙珠Z BOS 超赛悟空 预定</t>
-    <rPh sb="0" eb="1">
-      <t>long'zhu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chao'sai</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wu'kong</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙珠Z BOS 超赛贝吉塔 预定</t>
-    <rPh sb="0" eb="1">
-      <t>long'zhu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chao'sai</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bei'ji'ta</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙珠DS 悟空+弗利萨</t>
-    <rPh sb="0" eb="1">
-      <t>long'zhu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wu'kong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fu'li'sa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万代拼装17,18号+超四贝吉塔</t>
-    <rPh sb="0" eb="1">
-      <t>wan'dai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pin'zhuang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>chao'si</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>bei'ji'ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖国版 龙珠 少年红发悟空</t>
-    <rPh sb="0" eb="1">
-      <t>zu'guo'ban</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>long'zhu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shao'nian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hong'fa</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wu'kong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖国版 msp原色贝吉塔</t>
-    <rPh sb="0" eb="1">
-      <t>zu'guo'ban</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yuan'se</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bei'ji'ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万代拼装 沙鲁+超四悟空</t>
-    <rPh sb="0" eb="1">
-      <t>wan'dai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ping'zhuang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>sha'lu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chao'si</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wu'kong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DXF  超三悟天克斯</t>
-    <rPh sb="5" eb="6">
-      <t>chao'san</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wu'tian'ke'si</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖国版 msp悟吉塔+Figuration悟吉塔</t>
-    <rPh sb="0" eb="1">
-      <t>zu'guo'ban</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wu'ji'ta</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>wu'ji'ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HS 正义女神F雪崩</t>
-    <rPh sb="3" eb="4">
-      <t>zhen'yi'nv'shen</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xue'ben</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOA 20周年 海贼路飞</t>
-    <rPh sb="6" eb="7">
-      <t>zhou'nian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hai'zei</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>lu'fei</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>fei'jiyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变色 布尔玛</t>
-    <rPh sb="0" eb="1">
-      <t>bian'se</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bu'er'mayu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟空+贝吉塔   Figuration胸像</t>
-    <rPh sb="0" eb="2">
-      <t>wu'kong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA    塞巴F拼装</t>
-    <rPh sb="0" eb="1">
-      <t>sai'ba</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万代robot魂  环太平洋2</t>
-    <rPh sb="0" eb="1">
-      <t>wan'dai</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hun</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>huan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>tai'pin'yangyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA    塞巴F拼装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高高HG   德天使+厄运式</t>
-    <rPh sb="0" eb="2">
-      <t>gao'ga</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖国版   Megahouse女帝侧卧泳装</t>
-    <rPh sb="0" eb="1">
-      <t>shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖国版 幻想金瓶梅瓶儿  + 祖国版 监狱学园白木芽衣副会长</t>
-    <rPh sb="0" eb="3">
-      <t>zu'guo'ban</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯美模玩社</t>
-    <rPh sb="0" eb="1">
-      <t>yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大班 HG 雷霆宙域78+吉姆3+飙狼+百式德尔塔</t>
-    <rPh sb="0" eb="2">
-      <t>da'ban</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大班 HG 雷霆吉姆</t>
-    <rPh sb="0" eb="2">
-      <t>da'ban</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新手建议从大肌群的训练动作开始练，不要急于细分化</t>
     <rPh sb="0" eb="24">
       <t>xin'shuo</t>
@@ -3455,152 +2434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>msp  悟天克斯</t>
-    <rPh sb="0" eb="2">
-      <t>wu'tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">闪光魅力   18号                </t>
-    <rPh sb="0" eb="1">
-      <t>shan'guang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武道会8   龟派气功悟空</t>
-    <rPh sb="11" eb="12">
-      <t>wu'kongyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DXF  超级龙珠英雄  超赛悟空      </t>
-    <rPh sb="5" eb="6">
-      <t>chao'ji</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>long'zhu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yin'xiong</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>chao'sai</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wu'kong</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">武道会8    沙鲁                   </t>
-    <rPh sb="0" eb="1">
-      <t>wu'dao'hui</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>sha'lu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">武道会8    弗利萨                 </t>
-    <rPh sb="0" eb="1">
-      <t>wu'dao'hui</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOJO        疯狂钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大班        MG黄狼</t>
-    <rPh sb="0" eb="2">
-      <t>da'ba</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA    小姐姐+摩托拼装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">龙珠   蓝超贝吉特          </t>
-    <rPh sb="0" eb="1">
-      <t>long'zhu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>lan'fa</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>bei'ji'te</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国产小贱贱粘土人</t>
-    <rPh sb="0" eb="2">
-      <t>guo'cha</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒲源</t>
-    <rPh sb="0" eb="1">
-      <t>pu'tua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROS        小时鸣人              预定</t>
-    <rPh sb="0" eb="4">
-      <t>bo's</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二十周年   悟空</t>
-    <rPh sb="0" eb="2">
-      <t>er'shi'zhou'nia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄生兽</t>
-    <rPh sb="0" eb="2">
-      <t>ji'shen'sho</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GROS     鸣人                </t>
-    <rPh sb="0" eb="16">
-      <t>bo's</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鸡胸</t>
     <rPh sb="0" eb="2">
       <t>ji'xion</t>
@@ -3618,33 +2451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">GROS     路飞                    </t>
-    <rPh sb="0" eb="16">
-      <t>bo's</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">大班 mb红红异端                </t>
-    <rPh sb="0" eb="1">
-      <t>da'ban</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hon'h'yi'duan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>din'jin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BOS         界王拳   悟空        </t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>脂肪的摄入要在20%</t>
     <rPh sb="0" eb="2">
       <t>zhi'fan</t>
@@ -3656,78 +2462,78 @@
     <rPh sb="0" eb="2">
       <t>ti'zhon</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>基础代谢</t>
     <rPh sb="0" eb="2">
       <t>ji'chu'dai'xi</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>目标代谢</t>
     <rPh sb="0" eb="2">
       <t>mu'bia</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>蛋白质</t>
     <rPh sb="0" eb="2">
       <t>dan'bai'zh</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>脂肪</t>
     <rPh sb="0" eb="2">
       <t>zhi'fan</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>碳水</t>
     <rPh sb="0" eb="2">
       <t>tan'shu</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>第一周</t>
     <rPh sb="0" eb="2">
       <t>di'yi'zho</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>50g</t>
     <rPh sb="0" eb="3">
       <t>di'yi'zho</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>2540cal</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>2200cal</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>每公斤碳水</t>
     <rPh sb="0" eb="2">
       <t>mei'gong'ji</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>每公斤蛋白</t>
     <rPh sb="0" eb="2">
       <t>mei'gong'ji</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>鸡蛋清</t>
@@ -3748,56 +2554,56 @@
     <rPh sb="0" eb="2">
       <t>dan'bai'fen</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>黄瓜</t>
     <rPh sb="0" eb="2">
       <t>huang'gu</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>西兰花</t>
     <rPh sb="0" eb="2">
       <t>xi'lan'hua</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>大米</t>
     <rPh sb="0" eb="2">
       <t>da'm</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>燕麦</t>
     <rPh sb="0" eb="2">
       <t>yan'ma</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>胡萝卜</t>
     <rPh sb="0" eb="2">
       <t>hu'luo'b</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>脱脂牛奶</t>
     <rPh sb="0" eb="2">
       <t>tuo'zh</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>鸡蛋</t>
     <rPh sb="0" eb="2">
       <t>ji'da</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3828,117 +2634,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">DXF        极意空                 </t>
-    <rPh sb="5" eb="6">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Grandista  ROS巴达克              </t>
-    <rPh sb="13" eb="14">
-      <t>ba'da'ke</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">龙珠Z  竞争对手  全功率弗利萨     </t>
-    <rPh sb="0" eb="22">
-      <t>bo's</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">武道会5    虎皮悟空               </t>
-    <rPh sb="0" eb="1">
-      <t>wu'dao'hui</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hu'pi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wu'kong</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屁股</t>
-    <rPh sb="0" eb="2">
-      <t>pi'gi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">海贼王      婚纱     女帝         </t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>质量/g</t>
     <rPh sb="0" eb="1">
       <t>zhi'liang</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>脂肪</t>
     <rPh sb="0" eb="1">
       <t>zhi'fang</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>碳水</t>
     <rPh sb="0" eb="1">
       <t>tan'shui</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>蛋白</t>
     <rPh sb="0" eb="1">
       <t>dan'bai</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>食物</t>
     <rPh sb="0" eb="1">
       <t>shi'wu</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>热量/kcal</t>
     <rPh sb="0" eb="1">
       <t>re'liang</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>热量计算</t>
     <rPh sb="0" eb="1">
       <t>re'liang'ji'suan</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>总热量</t>
     <rPh sb="0" eb="1">
       <t>zong're'liang</t>
     </rPh>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>鸡胸肉:蛋白质19.4g/脂肪5g  /碳水2.5g  ≈ 101卡</t>
@@ -3956,398 +2705,6 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>ka</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grandista ROS 觉悟3桃红(已付) + 黑发悟空</t>
-    <rPh sb="0" eb="2">
-      <t>yi'daohei'fawu'kong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗宾codeB 景品                    预定</t>
-    <rPh sb="0" eb="1">
-      <t>luo'bin</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jin'pin</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒲原</t>
-    <rPh sb="0" eb="1">
-      <t>pu'yuan</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒲原</t>
-    <rPh sb="0" eb="1">
-      <t>pu'yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景品  剧场 终极战士    布罗利     预定</t>
-    <rPh sb="0" eb="1">
-      <t>jin'pin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ju'chang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhong'ji'zhan'shi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bu'luo'li</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景品  剧场 终极战士    孙悟空     预定</t>
-    <rPh sb="0" eb="1">
-      <t>jin'pin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ju'chang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhong'ji'zhan'shi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>sun'wu'kong</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景品  剧场 终极战士    贝吉塔     预定</t>
-    <rPh sb="0" eb="1">
-      <t>jin'pin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ju'chang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhong'ji'zhan'shi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bei'ji'ta</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">魅力闪光    峰不二子              </t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑曼巴  氮气宙斯</t>
-    <rPh sb="0" eb="1">
-      <t>hei'man'ba</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhou'si</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GROS   佐助                       </t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GROS  终极自在极意功   悟空       </t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FDS   海贼王    蕾玖</t>
-    <rPh sb="0" eb="1">
-      <t>lei'jiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PI 新52超人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">HG     魔神Z铁甲万能侠            </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">龙珠TV      腾云小悟空            </t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GROS   卡卡西                     </t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩模主义</t>
-    <rPh sb="0" eb="2">
-      <t>wan'mo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1/6         钢铁奥特曼            </t>
-    <rPh sb="0" eb="2">
-      <t>gang'tie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">黑曼巴 L红蜘蛛                    </t>
-    <rPh sb="0" eb="1">
-      <t>hei'man'ba</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hong'zhi'zhu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>御模道     1/6 赛文               预定</t>
-    <rPh sb="0" eb="1">
-      <t>yu'mo'da</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 特兰克斯 未来                预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 黑悟空 扎马斯                预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 佛利萨 第2形态               预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒲原</t>
-  </si>
-  <si>
-    <t>BWFC 小悟空 童年                  预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 贝吉塔 比达                  预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">HG     魔神Z大魔神                </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 孙悟空 打伞修行              预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 比克 短笛                    预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 人造人 17号                  预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 孙悟空 军装                  预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 山治                         预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 海侠 甚平                    预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">龙珠GT    贝吉塔超4               预定 </t>
-    <rPh sb="0" eb="1">
-      <t>long'zh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变形金刚封绘集</t>
-    <rPh sb="0" eb="2">
-      <t>bian'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BWFC 卡塔库栗 卡二                预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Grandista  索隆                   预定           </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Grandista  山治                   预定           </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BOS         超赛悟空              </t>
-    <rPh sb="0" eb="1">
-      <t>long'zhulan'fabei'ji'teyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">闪光魅力    兰琪                  </t>
-    <rPh sb="0" eb="1">
-      <t>shan'guangyu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GROS        悟饭                  </t>
-    <rPh sb="0" eb="14">
-      <t>bo's</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪光与魅力      布尔玛            预定</t>
-    <rPh sb="0" eb="2">
-      <t>shan'guan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪光与魅力      女帝</t>
-    <rPh sb="0" eb="5">
-      <t>nv'd</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMSP            祖国超四悟空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/4             路人女主 英梨梨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROS            绿谷              预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOH       欧尔麦特                预定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">龟波气功    悟空                  </t>
-    <rPh sb="0" eb="2">
-      <t>gui'b</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOA   造型王   路飞四档           预定</t>
-    <rPh sb="6" eb="7">
-      <t>zao'xin'wang</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>lu'fei</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>si'dang</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXQ     叛逆的鲁路修 CC           预定</t>
-    <rPh sb="8" eb="9">
-      <t>pan'ni</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>lu'lu'xiu</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DXF   一拳超人   琦玉             预定</t>
-    <rPh sb="6" eb="7">
-      <t>yi'quan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chao'ren</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>qi'yu</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>yu'din</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROS    龙珠超悟吉塔              预定</t>
-    <rPh sb="8" eb="9">
-      <t>long'zhu'chao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wu'ji'ta</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>yu'din</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4356,10 +2713,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4631,27 +2985,6 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF3C3C3C"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
@@ -4684,14 +3017,6 @@
     </font>
     <font>
       <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <family val="4"/>
@@ -4763,14 +3088,6 @@
     <font>
       <sz val="28"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF002060"/>
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
@@ -5188,7 +3505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5362,94 +3679,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="35" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5464,22 +3729,22 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5494,13 +3759,13 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5515,7 +3780,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5533,19 +3798,19 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5557,10 +3822,10 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5569,13 +3834,13 @@
     <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5584,34 +3849,34 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5625,12 +3890,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6297,18 +4556,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
     </row>
     <row r="2" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6427,8 +4686,8 @@
       <c r="K12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="91" t="s">
-        <v>357</v>
+      <c r="L12" s="70" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6463,32 +4722,32 @@
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K18" s="110" t="s">
+      <c r="K18" s="88" t="s">
         <v>144</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="119" t="s">
+      <c r="M18" s="97" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K19" s="111"/>
+      <c r="K19" s="89"/>
       <c r="L19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="120"/>
+      <c r="M19" s="98"/>
     </row>
     <row r="20" spans="11:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K20" s="112"/>
+      <c r="K20" s="90"/>
       <c r="L20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="121"/>
+      <c r="M20" s="99"/>
     </row>
     <row r="21" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K21" s="113" t="s">
+      <c r="K21" s="91" t="s">
         <v>143</v>
       </c>
       <c r="L21" s="43" t="s">
@@ -6496,7 +4755,7 @@
       </c>
     </row>
     <row r="22" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K22" s="114"/>
+      <c r="K22" s="92"/>
       <c r="L22" s="44" t="s">
         <v>136</v>
       </c>
@@ -6508,7 +4767,7 @@
       <c r="L23" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="N23" s="90"/>
+      <c r="N23" s="69"/>
     </row>
     <row r="24" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K24" s="39" t="s">
@@ -6520,176 +4779,176 @@
     </row>
     <row r="25" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K25" s="41" t="s">
-        <v>395</v>
+        <v>228</v>
       </c>
       <c r="L25" s="42" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="26" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="117" t="s">
-        <v>380</v>
-      </c>
-      <c r="L26" s="118"/>
-      <c r="M26" s="89" t="s">
-        <v>370</v>
+      <c r="K26" s="95" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" s="96"/>
+      <c r="M26" s="68" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K27" s="115" t="s">
+      <c r="K27" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="116"/>
-      <c r="M27" s="89" t="s">
-        <v>350</v>
+      <c r="L27" s="94"/>
+      <c r="M27" s="68" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K28" s="115" t="s">
+      <c r="K28" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="116"/>
-      <c r="M28" s="89"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="68"/>
     </row>
     <row r="29" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K29" s="115" t="s">
+      <c r="K29" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="116"/>
+      <c r="L29" s="94"/>
     </row>
     <row r="30" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K30" s="115" t="s">
+      <c r="K30" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="L30" s="116"/>
+      <c r="L30" s="94"/>
     </row>
     <row r="31" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K31" s="115" t="s">
+      <c r="K31" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="116"/>
+      <c r="L31" s="94"/>
     </row>
     <row r="32" spans="11:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K32" s="115" t="s">
+      <c r="K32" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="116"/>
+      <c r="L32" s="94"/>
     </row>
     <row r="33" spans="11:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K33" s="115" t="s">
+      <c r="K33" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="116"/>
+      <c r="L33" s="94"/>
     </row>
     <row r="34" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K34" s="115" t="s">
+      <c r="K34" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="116"/>
+      <c r="L34" s="94"/>
     </row>
     <row r="35" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K35" s="115" t="s">
+      <c r="K35" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="116"/>
+      <c r="L35" s="94"/>
     </row>
     <row r="36" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K36" s="115" t="s">
+      <c r="K36" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="L36" s="116"/>
+      <c r="L36" s="94"/>
     </row>
     <row r="37" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K37" s="115" t="s">
+      <c r="K37" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="L37" s="116"/>
+      <c r="L37" s="94"/>
     </row>
     <row r="38" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K38" s="115" t="s">
+      <c r="K38" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="116"/>
+      <c r="L38" s="94"/>
     </row>
     <row r="39" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K39" s="115" t="s">
+      <c r="K39" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="116"/>
+      <c r="L39" s="94"/>
     </row>
     <row r="40" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K40" s="115" t="s">
+      <c r="K40" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="116"/>
+      <c r="L40" s="94"/>
     </row>
     <row r="41" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K41" s="115" t="s">
+      <c r="K41" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="116"/>
+      <c r="L41" s="94"/>
     </row>
     <row r="42" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K42" s="115" t="s">
+      <c r="K42" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="116"/>
+      <c r="L42" s="94"/>
     </row>
     <row r="43" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K43" s="115" t="s">
+      <c r="K43" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="116"/>
+      <c r="L43" s="94"/>
     </row>
     <row r="44" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K44" s="115" t="s">
+      <c r="K44" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="L44" s="116"/>
+      <c r="L44" s="94"/>
     </row>
     <row r="45" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K45" s="115" t="s">
+      <c r="K45" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="116"/>
+      <c r="L45" s="94"/>
     </row>
     <row r="46" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K46" s="124"/>
-      <c r="L46" s="125"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="103"/>
     </row>
     <row r="47" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K47" s="122"/>
-      <c r="L47" s="123"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="101"/>
     </row>
     <row r="48" spans="11:12" ht="23" x14ac:dyDescent="0.3">
-      <c r="K48" s="103" t="s">
+      <c r="K48" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="104"/>
+      <c r="L48" s="82"/>
     </row>
     <row r="49" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K49" s="105" t="s">
+      <c r="K49" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="L49" s="106"/>
+      <c r="L49" s="84"/>
     </row>
     <row r="50" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K50" s="105" t="s">
+      <c r="K50" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="106"/>
+      <c r="L50" s="84"/>
     </row>
     <row r="51" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K51" s="105" t="s">
+      <c r="K51" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="106"/>
+      <c r="L51" s="84"/>
     </row>
     <row r="52" spans="11:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="K52" s="107" t="s">
+      <c r="K52" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="L52" s="108"/>
+      <c r="L52" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -6742,343 +5001,343 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="77" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="77" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="77" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="77" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="77" customWidth="1"/>
-    <col min="6" max="9" width="10.83203125" style="77"/>
-    <col min="10" max="10" width="16.33203125" style="77" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="77" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="77" customWidth="1"/>
-    <col min="13" max="18" width="12.6640625" style="77" customWidth="1"/>
+    <col min="1" max="1" width="16" style="65" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="65" customWidth="1"/>
+    <col min="6" max="9" width="10.83203125" style="65"/>
+    <col min="10" max="10" width="16.33203125" style="65" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="65" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="65" customWidth="1"/>
+    <col min="13" max="18" width="12.6640625" style="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="78" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>359</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>360</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>361</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>363</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>362</v>
-      </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="126" t="s">
-        <v>393</v>
-      </c>
-      <c r="M1" s="100" t="s">
-        <v>391</v>
+    <row r="1" spans="1:28" s="66" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="104" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" s="79" t="s">
+        <v>224</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>387</v>
+        <v>220</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>388</v>
+        <v>221</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>390</v>
+        <v>223</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="S1" s="77"/>
+        <v>225</v>
+      </c>
+      <c r="S1" s="65"/>
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>364</v>
-      </c>
-      <c r="J2" s="77">
+      <c r="A2" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" s="65">
         <v>5</v>
       </c>
-      <c r="K2" s="77">
+      <c r="K2" s="65">
         <v>2</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="98" t="s">
-        <v>371</v>
-      </c>
-      <c r="N2" s="89">
+      <c r="L2" s="104"/>
+      <c r="M2" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="68">
         <v>500</v>
       </c>
-      <c r="O2" s="89">
+      <c r="O2" s="68">
         <f>AVERAGE(N2*0.05)</f>
         <v>25</v>
       </c>
-      <c r="P2" s="89">
+      <c r="P2" s="68">
         <f>AVERAGE(N2*0.03)</f>
         <v>15</v>
       </c>
-      <c r="Q2" s="89">
+      <c r="Q2" s="68">
         <f>AVERAGE(N2*0.194)</f>
         <v>97</v>
       </c>
-      <c r="R2" s="89">
+      <c r="R2" s="68">
         <f>SUM(O2*9+P2*4+Q2*4)</f>
         <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77">
+      <c r="A3" s="65">
         <v>90</v>
       </c>
-      <c r="B3" s="96" t="s">
-        <v>366</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>367</v>
-      </c>
-      <c r="D3" s="79">
+      <c r="B3" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="67">
         <v>200</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="67">
         <v>200</v>
       </c>
-      <c r="F3" s="79" t="s">
-        <v>365</v>
-      </c>
-      <c r="H3" s="77">
+      <c r="F3" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="65">
         <v>1750</v>
       </c>
-      <c r="I3" s="77">
+      <c r="I3" s="65">
         <v>437.5</v>
       </c>
-      <c r="L3" s="126"/>
+      <c r="L3" s="104"/>
       <c r="M3" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
+        <v>218</v>
+      </c>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
     </row>
     <row r="4" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="77">
+      <c r="C4" s="65">
         <v>2200</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="65">
         <v>800</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="65">
         <v>800</v>
       </c>
-      <c r="F4" s="95">
+      <c r="F4" s="74">
         <v>450</v>
       </c>
-      <c r="L4" s="126"/>
-      <c r="M4" s="98" t="s">
-        <v>372</v>
-      </c>
-      <c r="N4" s="89">
+      <c r="L4" s="104"/>
+      <c r="M4" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" s="68">
         <v>50</v>
       </c>
-      <c r="O4" s="89">
+      <c r="O4" s="68">
         <f>SUM(N4*0.071)</f>
         <v>3.55</v>
       </c>
-      <c r="P4" s="89">
+      <c r="P4" s="68">
         <f>SUM(N4*0.079)</f>
         <v>3.95</v>
       </c>
-      <c r="Q4" s="89">
+      <c r="Q4" s="68">
         <f>SUM(N4*0.75)</f>
         <v>37.5</v>
       </c>
-      <c r="R4" s="89">
+      <c r="R4" s="68">
         <f>SUM(O4*9+P4*4+Q4*4)</f>
         <v>197.75</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="126"/>
-      <c r="M5" s="98" t="s">
-        <v>378</v>
-      </c>
-      <c r="N5" s="89">
+      <c r="L5" s="104"/>
+      <c r="M5" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="N5" s="68">
         <v>30</v>
       </c>
-      <c r="O5" s="89">
+      <c r="O5" s="68">
         <f>SUM(N5*0.012)</f>
         <v>0.36</v>
       </c>
-      <c r="P5" s="89">
+      <c r="P5" s="68">
         <f>SUM(N5*0.532)</f>
         <v>15.96</v>
       </c>
-      <c r="Q5" s="89">
+      <c r="Q5" s="68">
         <f>SUM(N5*0.352)</f>
         <v>10.559999999999999</v>
       </c>
-      <c r="R5" s="89">
+      <c r="R5" s="68">
         <f>SUM(O5*9+P5*4+Q5*4)</f>
         <v>109.32</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L6" s="126"/>
+      <c r="L6" s="104"/>
       <c r="M6" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="N6" s="89">
+        <v>212</v>
+      </c>
+      <c r="N6" s="68">
         <v>250</v>
       </c>
-      <c r="O6" s="77">
+      <c r="O6" s="65">
         <f>SUM(N6*0.002)</f>
         <v>0.5</v>
       </c>
-      <c r="P6" s="77">
+      <c r="P6" s="65">
         <f>SUM(N6*0.008)</f>
         <v>2</v>
       </c>
-      <c r="Q6" s="77">
+      <c r="Q6" s="65">
         <f>SUM(N6*0.024)</f>
         <v>6</v>
       </c>
-      <c r="R6" s="89">
+      <c r="R6" s="68">
         <f>SUM(O6*9+P6*4+Q6*4)</f>
         <v>36.5</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L7" s="126"/>
+      <c r="L7" s="104"/>
       <c r="M7" s="6" t="s">
-        <v>377</v>
+        <v>216</v>
       </c>
       <c r="N7"/>
-      <c r="R7" s="89"/>
+      <c r="R7" s="68"/>
     </row>
     <row r="8" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L8" s="126"/>
-      <c r="M8" s="99" t="s">
-        <v>374</v>
-      </c>
-      <c r="N8" s="89">
+      <c r="L8" s="104"/>
+      <c r="M8" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="68">
         <v>500</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="65">
         <f>SUM(N8*0.006)</f>
         <v>3</v>
       </c>
-      <c r="P8" s="77">
+      <c r="P8" s="65">
         <f>SUM(N8*0.027)</f>
         <v>13.5</v>
       </c>
-      <c r="Q8" s="77">
+      <c r="Q8" s="65">
         <f>SUM(N8*0.041)</f>
         <v>20.5</v>
       </c>
-      <c r="R8" s="89">
+      <c r="R8" s="68">
         <f t="shared" ref="R8:R10" si="0">SUM(O8*9+P8*4+Q8*4)</f>
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="126"/>
-      <c r="M9" s="99" t="s">
-        <v>375</v>
-      </c>
-      <c r="N9" s="89">
+      <c r="L9" s="104"/>
+      <c r="M9" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="N9" s="68">
         <v>200</v>
       </c>
-      <c r="O9" s="77">
+      <c r="O9" s="65">
         <f>SUM(N9*0.008)</f>
         <v>1.6</v>
       </c>
-      <c r="P9" s="77">
+      <c r="P9" s="65">
         <f>SUM(N9*0.772)</f>
         <v>154.4</v>
       </c>
-      <c r="Q9" s="77">
+      <c r="Q9" s="65">
         <f>SUM(N9*0.074)</f>
         <v>14.799999999999999</v>
       </c>
-      <c r="R9" s="89">
+      <c r="R9" s="68">
         <f t="shared" si="0"/>
         <v>691.2</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L10" s="126"/>
-      <c r="M10" s="99" t="s">
-        <v>376</v>
-      </c>
-      <c r="N10" s="89">
+      <c r="L10" s="104"/>
+      <c r="M10" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="N10" s="68">
         <v>50</v>
       </c>
-      <c r="O10" s="77">
+      <c r="O10" s="65">
         <f>SUM(N10*0.067)</f>
         <v>3.35</v>
       </c>
-      <c r="P10" s="77">
+      <c r="P10" s="65">
         <f>SUM(N10*0.616)</f>
         <v>30.8</v>
       </c>
-      <c r="Q10" s="77">
+      <c r="Q10" s="65">
         <f>SUM(N10*0.15)</f>
         <v>7.5</v>
       </c>
-      <c r="R10" s="89">
+      <c r="R10" s="68">
         <f t="shared" si="0"/>
         <v>183.35</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L11" s="101" t="s">
-        <v>394</v>
-      </c>
-      <c r="O11" s="77">
+      <c r="L11" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="O11" s="65">
         <f>SUM(O2:O10)</f>
         <v>37.36</v>
       </c>
-      <c r="P11" s="77">
+      <c r="P11" s="65">
         <f>SUM(P2:P10)</f>
         <v>235.61</v>
       </c>
-      <c r="Q11" s="77">
+      <c r="Q11" s="65">
         <f>SUM(Q2:Q10)</f>
         <v>193.86</v>
       </c>
-      <c r="R11" s="77">
+      <c r="R11" s="65">
         <f>SUM(R2:R10)</f>
         <v>2054.12</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W14" s="98"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="L1:L10"/>
   </mergeCells>
-  <phoneticPr fontId="55" type="noConversion"/>
+  <phoneticPr fontId="50" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7101,17 +5360,17 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="132" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:7" s="110" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="110" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="25" t="s">
         <v>73</v>
       </c>
@@ -7120,10 +5379,10 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="105" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -7131,38 +5390,38 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="130"/>
-      <c r="B4" s="127"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="130"/>
-      <c r="B5" s="127"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="130"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="74" t="s">
+      <c r="A6" s="108"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="64"/>
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="130"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="74" t="s">
+      <c r="A7" s="108"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="130"/>
-      <c r="B8" s="127" t="s">
+      <c r="A8" s="108"/>
+      <c r="B8" s="105" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -7170,36 +5429,36 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="130"/>
-      <c r="B9" s="127"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="130"/>
-      <c r="B10" s="127"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="130"/>
-      <c r="B11" s="127"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="130"/>
-      <c r="B12" s="127"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="130"/>
-      <c r="B13" s="127" t="s">
+      <c r="A13" s="108"/>
+      <c r="B13" s="105" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -7207,52 +5466,52 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="130"/>
-      <c r="B14" s="127"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="130"/>
-      <c r="B15" s="127"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="130"/>
-      <c r="B16" s="127"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="130"/>
-      <c r="B17" s="127"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="130"/>
-      <c r="B18" s="127"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="131"/>
-      <c r="B19" s="127"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="105" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -7260,64 +5519,64 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="130"/>
-      <c r="B21" s="127"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="130"/>
-      <c r="B22" s="127"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="130"/>
-      <c r="B23" s="127"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="130"/>
-      <c r="B24" s="127"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="130"/>
-      <c r="B25" s="127"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="130"/>
-      <c r="B26" s="127"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="130"/>
-      <c r="B27" s="127"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="130"/>
-      <c r="B28" s="127"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="130"/>
-      <c r="B29" s="127" t="s">
+      <c r="A29" s="108"/>
+      <c r="B29" s="105" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -7325,24 +5584,24 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="130"/>
-      <c r="B30" s="127"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="131"/>
-      <c r="B31" s="127"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="129" t="s">
+      <c r="A32" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="105" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
@@ -7350,36 +5609,36 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="130"/>
-      <c r="B33" s="127"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="130"/>
-      <c r="B34" s="127"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="105"/>
       <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="130"/>
-      <c r="B35" s="127"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="105"/>
       <c r="C35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="130"/>
-      <c r="B36" s="127"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="130"/>
-      <c r="B37" s="127" t="s">
+      <c r="A37" s="108"/>
+      <c r="B37" s="105" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -7387,15 +5646,15 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="130"/>
-      <c r="B38" s="127"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="130"/>
-      <c r="B39" s="127" t="s">
+      <c r="A39" s="108"/>
+      <c r="B39" s="105" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -7403,24 +5662,24 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="130"/>
-      <c r="B40" s="127"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="131"/>
-      <c r="B41" s="127"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="129" t="s">
+      <c r="A42" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="105" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -7428,36 +5687,36 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="130"/>
-      <c r="B43" s="127"/>
+      <c r="A43" s="108"/>
+      <c r="B43" s="105"/>
       <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="130"/>
-      <c r="B44" s="127"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="105"/>
       <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="130"/>
-      <c r="B45" s="127"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="105"/>
       <c r="C45" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="130"/>
-      <c r="B46" s="127"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="105"/>
       <c r="C46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="130"/>
-      <c r="B47" s="127" t="s">
+      <c r="A47" s="108"/>
+      <c r="B47" s="105" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -7465,15 +5724,15 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="130"/>
-      <c r="B48" s="127"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="130"/>
-      <c r="B49" s="127" t="s">
+      <c r="A49" s="108"/>
+      <c r="B49" s="105" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -7481,66 +5740,66 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="130"/>
-      <c r="B50" s="127"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="105"/>
       <c r="C50" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="130"/>
-      <c r="B51" s="127"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="105"/>
       <c r="C51" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="130"/>
-      <c r="B52" s="127"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="105"/>
       <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="130"/>
-      <c r="B53" s="127"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="105"/>
       <c r="C53" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="130"/>
-      <c r="B54" s="127"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="105"/>
       <c r="C54" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="130"/>
-      <c r="B55" s="127"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="105"/>
       <c r="C55" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="130"/>
-      <c r="B56" s="127"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="105"/>
       <c r="C56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="131"/>
-      <c r="B57" s="127"/>
+      <c r="A57" s="109"/>
+      <c r="B57" s="105"/>
       <c r="C57" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="129" t="s">
+      <c r="A58" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="105" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -7548,28 +5807,28 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="130"/>
-      <c r="B59" s="127"/>
+      <c r="A59" s="108"/>
+      <c r="B59" s="105"/>
       <c r="C59" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="130"/>
-      <c r="B60" s="127"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="105"/>
       <c r="C60" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="130"/>
-      <c r="B61" s="127"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="105"/>
       <c r="C61" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="131"/>
+      <c r="A62" s="109"/>
       <c r="B62" s="21" t="s">
         <v>60</v>
       </c>
@@ -7578,7 +5837,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="129" t="s">
+      <c r="A63" s="107" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="21" t="s">
@@ -7589,8 +5848,8 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="130"/>
-      <c r="B64" s="127" t="s">
+      <c r="A64" s="108"/>
+      <c r="B64" s="105" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="16" t="s">
@@ -7598,28 +5857,28 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="130"/>
-      <c r="B65" s="127"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="105"/>
       <c r="C65" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="130"/>
-      <c r="B66" s="127"/>
+      <c r="A66" s="108"/>
+      <c r="B66" s="105"/>
       <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="130"/>
-      <c r="B67" s="127"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="105"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="131"/>
+      <c r="A68" s="109"/>
       <c r="B68" s="21" t="s">
         <v>64</v>
       </c>
@@ -7628,7 +5887,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="128" t="s">
+      <c r="A69" s="106" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -7639,8 +5898,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="128"/>
-      <c r="B70" s="127" t="s">
+      <c r="A70" s="106"/>
+      <c r="B70" s="105" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -7648,49 +5907,49 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="128"/>
-      <c r="B71" s="127"/>
+      <c r="A71" s="106"/>
+      <c r="B71" s="105"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="128"/>
-      <c r="B72" s="127"/>
+      <c r="A72" s="106"/>
+      <c r="B72" s="105"/>
       <c r="C72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="128"/>
-      <c r="B73" s="127"/>
+      <c r="A73" s="106"/>
+      <c r="B73" s="105"/>
       <c r="C73" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="128"/>
-      <c r="B74" s="127"/>
+      <c r="A74" s="106"/>
+      <c r="B74" s="105"/>
       <c r="C74" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="128"/>
-      <c r="B75" s="127"/>
+      <c r="A75" s="106"/>
+      <c r="B75" s="105"/>
       <c r="C75" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="128"/>
-      <c r="B76" s="127"/>
+      <c r="A76" s="106"/>
+      <c r="B76" s="105"/>
       <c r="C76" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="128"/>
+      <c r="A77" s="106"/>
       <c r="B77" s="21" t="s">
         <v>71</v>
       </c>
@@ -7699,7 +5958,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="128"/>
+      <c r="A78" s="106"/>
       <c r="B78" s="22" t="s">
         <v>72</v>
       </c>
@@ -8908,7 +7167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -8926,98 +7185,98 @@
       <c r="A1" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="157"/>
+      <c r="D1" s="135"/>
     </row>
     <row r="2" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="158"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="3" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="143"/>
-      <c r="C3" s="159" t="s">
+      <c r="A3" s="121"/>
+      <c r="C3" s="137" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="155" t="s">
-        <v>332</v>
-      </c>
-      <c r="F3" s="156"/>
+      <c r="E3" s="133" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="134"/>
     </row>
     <row r="4" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="145"/>
-      <c r="C5" s="161" t="s">
+      <c r="A5" s="123"/>
+      <c r="C5" s="139" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="136" t="s">
-        <v>351</v>
+      <c r="F5" s="114" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="145"/>
-      <c r="C6" s="162"/>
+      <c r="A6" s="123"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="136"/>
+      <c r="F6" s="114"/>
     </row>
     <row r="7" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="145"/>
-      <c r="C7" s="138" t="s">
+      <c r="A7" s="123"/>
+      <c r="C7" s="116" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="136"/>
+      <c r="F7" s="114"/>
     </row>
     <row r="8" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="145"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="123"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="136"/>
+      <c r="F8" s="114"/>
     </row>
     <row r="9" spans="1:6" ht="23" x14ac:dyDescent="0.2">
-      <c r="A9" s="145"/>
-      <c r="C9" s="151" t="s">
+      <c r="A9" s="123"/>
+      <c r="C9" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="F9" s="136"/>
+      <c r="D9" s="130"/>
+      <c r="F9" s="114"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="145"/>
-      <c r="C10" s="147" t="s">
+      <c r="A10" s="123"/>
+      <c r="C10" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="F10" s="136"/>
+      <c r="D10" s="126"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="145"/>
+      <c r="A11" s="123"/>
       <c r="C11" s="59" t="s">
         <v>156</v>
       </c>
@@ -9025,23 +7284,23 @@
         <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="136"/>
+      <c r="F11" s="114"/>
     </row>
     <row r="12" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="146"/>
-      <c r="C12" s="149" t="s">
+      <c r="A12" s="124"/>
+      <c r="C12" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="F12" s="136"/>
+      <c r="D12" s="128"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="154"/>
-      <c r="F13" s="136" t="s">
-        <v>352</v>
+      <c r="D13" s="132"/>
+      <c r="F13" s="114" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -9051,41 +7310,41 @@
       <c r="D14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="136"/>
+      <c r="F14" s="114"/>
     </row>
     <row r="15" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="141"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="136"/>
+      <c r="F15" s="114"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F16" s="136"/>
+      <c r="F16" s="114"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F17" s="136"/>
+      <c r="F17" s="114"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="136"/>
+      <c r="F18" s="114"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F19" s="136"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F20" s="137" t="s">
-        <v>353</v>
+      <c r="F20" s="115" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F21" s="137"/>
+      <c r="F21" s="115"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F22" s="137"/>
+      <c r="F22" s="115"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F23" s="137"/>
+      <c r="F23" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -9110,2467 +7369,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y684"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="72.5" style="63" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="85" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="70" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="82" customWidth="1"/>
-    <col min="9" max="9" width="33.5" style="77" customWidth="1"/>
-    <col min="10" max="10" width="32.33203125" style="78" customWidth="1"/>
-    <col min="14" max="14" width="36.33203125" style="77" customWidth="1"/>
-    <col min="15" max="15" width="34.6640625" style="77" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="164">
-        <v>2014.4</v>
-      </c>
-      <c r="B1" s="164"/>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="85">
-        <v>43.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="85">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="86">
-        <f>SUM(B2:B3)</f>
-        <v>163.80000000000001</v>
-      </c>
-      <c r="C4" s="71">
-        <v>163.80000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="164">
-        <v>2014.5</v>
-      </c>
-      <c r="B5" s="164"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="85">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="87">
-        <v>68.349999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="85">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="85">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
-        <v>255</v>
-      </c>
-      <c r="B10" s="85">
-        <v>148</v>
-      </c>
-      <c r="C10" s="70">
-        <v>623.35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="86">
-        <f>SUM(B6:B10)</f>
-        <v>623.35</v>
-      </c>
-      <c r="C11" s="71">
-        <f>SUM(C4:C10)</f>
-        <v>787.15000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="164" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="164"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="85">
-        <v>53.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="85">
-        <v>79</v>
-      </c>
-      <c r="C14" s="70">
-        <v>132.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="86">
-        <f>SUM(B13:B14)</f>
-        <v>132.75</v>
-      </c>
-      <c r="C15" s="71">
-        <f>SUM(C11:C14)</f>
-        <v>919.90000000000009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="164" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="70">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="86">
-        <v>324</v>
-      </c>
-      <c r="C17" s="71">
-        <f>SUM(C15:C16)</f>
-        <v>1243.9000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="164" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="164"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="85">
-        <v>109.61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="85">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="B21" s="85">
-        <v>105.7</v>
-      </c>
-      <c r="C21" s="70">
-        <v>305.31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="86">
-        <f>SUM(B19:B21)</f>
-        <v>305.31</v>
-      </c>
-      <c r="C22" s="71">
-        <f>SUM(C17:C21)</f>
-        <v>1549.21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="164" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="164"/>
-      <c r="C23" s="70">
-        <v>49.67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="B24" s="86">
-        <v>49.67</v>
-      </c>
-      <c r="C24" s="71">
-        <f>SUM(C22:C23)</f>
-        <v>1598.88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" s="164"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" s="85">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27" s="85">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" s="85">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="B29" s="85">
-        <v>308.70999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B30" s="85">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="B31" s="85">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="B32" s="85">
-        <v>116.82</v>
-      </c>
-      <c r="C32" s="70">
-        <v>1098.43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="86">
-        <f>SUM(B26:B32)</f>
-        <v>1098.43</v>
-      </c>
-      <c r="C33" s="71">
-        <f>SUM(C24:C32)</f>
-        <v>2697.3100000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="164" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="164"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" s="85">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="85">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="B37" s="85">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="B38" s="85">
-        <v>35.64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="63" t="s">
-        <v>258</v>
-      </c>
-      <c r="B39" s="85">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" s="85">
-        <v>178.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41" s="85">
-        <v>51.27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="63" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" s="85">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="B43" s="85">
-        <v>227.92</v>
-      </c>
-      <c r="C43" s="70">
-        <v>826.03</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
-      <c r="B44" s="86">
-        <f>SUM(B35:B43)</f>
-        <v>826.02999999999986</v>
-      </c>
-      <c r="C44" s="71">
-        <f>SUM(C33:C43)</f>
-        <v>3523.34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="164" t="s">
-        <v>242</v>
-      </c>
-      <c r="B45" s="164"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="B46" s="85">
-        <v>309.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="B47" s="85">
-        <v>191</v>
-      </c>
-      <c r="C47" s="70">
-        <v>500.7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="65"/>
-      <c r="B48" s="86">
-        <f>SUM(B46:B47)</f>
-        <v>500.7</v>
-      </c>
-      <c r="C48" s="71">
-        <f>SUM(C44:C47)</f>
-        <v>4024.04</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="164" t="s">
-        <v>243</v>
-      </c>
-      <c r="B49" s="164"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="65" t="s">
-        <v>259</v>
-      </c>
-      <c r="B50" s="85">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="B51" s="85">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="B52" s="85">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="B53" s="85">
-        <v>99</v>
-      </c>
-      <c r="C53" s="70">
-        <v>515.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="65"/>
-      <c r="B54" s="86">
-        <f>SUM(B50:B53)</f>
-        <v>515.5</v>
-      </c>
-      <c r="C54" s="71">
-        <f>SUM(C48:C53)</f>
-        <v>4539.54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="164" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" s="164"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="B56" s="85">
-        <v>199.78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="B57" s="85">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="B58" s="85">
-        <v>238.9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="B59" s="85">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" s="85">
-        <v>56</v>
-      </c>
-      <c r="C60" s="70">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
-      <c r="B61" s="86">
-        <f>SUM(B56:B60)</f>
-        <v>981.68</v>
-      </c>
-      <c r="C61" s="71">
-        <f>SUM(C54:C60)</f>
-        <v>5521.54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="164" t="s">
-        <v>245</v>
-      </c>
-      <c r="B62" s="164"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="B63" s="85">
-        <v>75.239999999999995</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="B64" s="85">
-        <v>85.84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="B65" s="85">
-        <v>46.06</v>
-      </c>
-      <c r="C65" s="70">
-        <v>207.14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
-      <c r="B66" s="86">
-        <f>SUM(B63:B65)</f>
-        <v>207.14</v>
-      </c>
-      <c r="C66" s="71">
-        <f>SUM(C61:C65)</f>
-        <v>5728.68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="164" t="s">
-        <v>219</v>
-      </c>
-      <c r="B67" s="164"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="B68" s="85">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="B69" s="85">
-        <v>83.3</v>
-      </c>
-      <c r="C69" s="70">
-        <v>198.3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="65"/>
-      <c r="B70" s="86">
-        <f>SUM(B68:B69)</f>
-        <v>198.3</v>
-      </c>
-      <c r="C70" s="71">
-        <f>SUM(C66:C69)</f>
-        <v>5926.9800000000005</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="164" t="s">
-        <v>247</v>
-      </c>
-      <c r="B71" s="164"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="B72" s="85">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="B73" s="85">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="B74" s="85">
-        <v>120</v>
-      </c>
-      <c r="C74" s="70">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="65"/>
-      <c r="B75" s="86">
-        <f>SUM(B72:B74)</f>
-        <v>415</v>
-      </c>
-      <c r="C75" s="71">
-        <f>SUM(C70:C74)</f>
-        <v>6341.9800000000005</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="164" t="s">
-        <v>248</v>
-      </c>
-      <c r="B76" s="164"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="B77" s="85">
-        <v>71.540000000000006</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="B78" s="85">
-        <v>98.99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="B79" s="85">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="B80" s="85">
-        <v>120</v>
-      </c>
-      <c r="C80" s="70">
-        <v>386.53</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="65"/>
-      <c r="B81" s="86">
-        <f>SUM(B77:B80)</f>
-        <v>386.53</v>
-      </c>
-      <c r="C81" s="71">
-        <f>SUM(C75:C80)</f>
-        <v>6728.51</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="164" t="s">
-        <v>221</v>
-      </c>
-      <c r="B82" s="164"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="B83" s="85">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="B84" s="85">
-        <v>17.149999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="B85" s="85">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="B86" s="85">
-        <v>229</v>
-      </c>
-      <c r="C86" s="70">
-        <v>579.15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="65"/>
-      <c r="B87" s="86">
-        <f>SUM(B83:B86)</f>
-        <v>579.15</v>
-      </c>
-      <c r="C87" s="71">
-        <f>SUM(C81:C86)</f>
-        <v>7307.66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="164" t="s">
-        <v>249</v>
-      </c>
-      <c r="B88" s="164"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="B89" s="85">
-        <v>36.26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="B90" s="85">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="B91" s="85">
-        <v>118</v>
-      </c>
-      <c r="C91" s="70">
-        <v>229.26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="65"/>
-      <c r="B92" s="86">
-        <f>SUM(B89:B91)</f>
-        <v>229.26</v>
-      </c>
-      <c r="C92" s="72">
-        <f>SUM(C87:C91)</f>
-        <v>7536.92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="164" t="s">
-        <v>225</v>
-      </c>
-      <c r="B93" s="164"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="B94" s="85">
-        <v>143.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="B95" s="85">
-        <v>69.8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="B96" s="85">
-        <v>166.32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="B97" s="85">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="65" t="s">
-        <v>280</v>
-      </c>
-      <c r="B98" s="85">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="B99" s="85">
-        <v>199.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="65" t="s">
-        <v>281</v>
-      </c>
-      <c r="B100" s="85">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="B101" s="85">
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="B102" s="85">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="B103" s="85">
-        <v>93.1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="65" t="s">
-        <v>285</v>
-      </c>
-      <c r="B104" s="85">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="C104" s="68">
-        <v>1068.92</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="65"/>
-      <c r="B105" s="86">
-        <f>SUM(B94:B104)</f>
-        <v>1068.92</v>
-      </c>
-      <c r="C105" s="69">
-        <f>SUM(C92:C104)</f>
-        <v>8605.84</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="164" t="s">
-        <v>250</v>
-      </c>
-      <c r="B106" s="164"/>
-      <c r="C106" s="68"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="B107" s="85">
-        <v>99</v>
-      </c>
-      <c r="C107" s="68"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="B108" s="85">
-        <v>22.5</v>
-      </c>
-      <c r="C108" s="68"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="B109" s="85">
-        <v>135.24</v>
-      </c>
-      <c r="C109" s="68"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="B110" s="85">
-        <v>0</v>
-      </c>
-      <c r="C110" s="68"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="B111" s="85">
-        <v>109.25</v>
-      </c>
-      <c r="C111" s="67">
-        <v>365.99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="66"/>
-      <c r="B112" s="86">
-        <f>SUM(B107:B111)</f>
-        <v>365.99</v>
-      </c>
-      <c r="C112" s="69">
-        <f>SUM(C105:C111)</f>
-        <v>8971.83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="164" t="s">
-        <v>251</v>
-      </c>
-      <c r="B113" s="164"/>
-      <c r="C113" s="68"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="66" t="s">
-        <v>233</v>
-      </c>
-      <c r="B114" s="85">
-        <v>121</v>
-      </c>
-      <c r="C114" s="68"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="66" t="s">
-        <v>234</v>
-      </c>
-      <c r="B115" s="85">
-        <v>104</v>
-      </c>
-      <c r="C115" s="68"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="B116" s="85">
-        <v>34.6</v>
-      </c>
-      <c r="C116" s="68"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="66" t="s">
-        <v>301</v>
-      </c>
-      <c r="B117" s="85">
-        <v>112.7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="B118" s="85">
-        <v>170.6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" s="85">
-        <v>34.299999999999997</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="B120" s="85">
-        <v>90.14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="66" t="s">
-        <v>286</v>
-      </c>
-      <c r="B121" s="85">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="B122" s="85">
-        <v>80</v>
-      </c>
-      <c r="C122" s="70">
-        <f>AVERAGE(B123)</f>
-        <v>835.33999999999992</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B123" s="86">
-        <f>SUM(B114:B122)</f>
-        <v>835.33999999999992</v>
-      </c>
-      <c r="C123" s="71">
-        <f>SUM(C112:C122)</f>
-        <v>9807.17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A124" s="164" t="s">
-        <v>288</v>
-      </c>
-      <c r="B124" s="164"/>
-    </row>
-    <row r="125" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="66" t="s">
-        <v>289</v>
-      </c>
-      <c r="B125" s="85">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="63" t="s">
-        <v>290</v>
-      </c>
-      <c r="B126" s="85">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="B127" s="85">
-        <v>88.2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="B128" s="85">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="B129" s="88">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="76" t="s">
-        <v>293</v>
-      </c>
-      <c r="B130" s="88">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="76" t="s">
-        <v>296</v>
-      </c>
-      <c r="B131" s="88">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="B132" s="85">
-        <v>78.599999999999994</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="B133" s="85">
-        <v>76.400000000000006</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="B134" s="85">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="63" t="s">
-        <v>337</v>
-      </c>
-      <c r="B135" s="85">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="63" t="s">
-        <v>338</v>
-      </c>
-      <c r="B136" s="85">
-        <v>70</v>
-      </c>
-      <c r="C136"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="63" t="s">
-        <v>335</v>
-      </c>
-      <c r="B137" s="85">
-        <v>80</v>
-      </c>
-      <c r="C137"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="B138" s="85">
-        <v>60</v>
-      </c>
-      <c r="C138"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="63" t="s">
-        <v>298</v>
-      </c>
-      <c r="B139" s="85">
-        <v>76</v>
-      </c>
-      <c r="C139"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="63" t="s">
-        <v>299</v>
-      </c>
-      <c r="B140" s="85">
-        <v>60</v>
-      </c>
-      <c r="C140"/>
-    </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="63" t="s">
-        <v>382</v>
-      </c>
-      <c r="B141" s="85">
-        <v>86</v>
-      </c>
-      <c r="C141" s="70">
-        <f>AVERAGE(B142)</f>
-        <v>1349.6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142"/>
-      <c r="B142" s="86">
-        <f>SUM(B125:B141)</f>
-        <v>1349.6</v>
-      </c>
-      <c r="C142" s="71">
-        <f>SUM(C123:C141)</f>
-        <v>11156.77</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="164" t="s">
-        <v>302</v>
-      </c>
-      <c r="B143" s="164"/>
-      <c r="C143"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="B144" s="85">
-        <v>98</v>
-      </c>
-      <c r="C144"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A145" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="B145" s="85">
-        <v>83</v>
-      </c>
-      <c r="C145"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A146" s="63" t="s">
-        <v>381</v>
-      </c>
-      <c r="B146" s="85">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A147" s="63" t="s">
-        <v>384</v>
-      </c>
-      <c r="B147" s="85">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A148" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="B148" s="85">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A149" s="63" t="s">
-        <v>321</v>
-      </c>
-      <c r="B149" s="85">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A150" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="B150" s="85">
-        <v>70.599999999999994</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A151" s="63" t="s">
-        <v>306</v>
-      </c>
-      <c r="B151" s="85">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A152" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="B152" s="85">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A153" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="B153" s="85">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A154" s="65" t="s">
-        <v>308</v>
-      </c>
-      <c r="B154" s="85">
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A155" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="B155" s="85">
-        <v>158.88</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A156" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="B156" s="85">
-        <v>83.6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A157" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="B157" s="85">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A158" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="B158" s="85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A159" s="65" t="s">
-        <v>320</v>
-      </c>
-      <c r="B159" s="85">
-        <v>84</v>
-      </c>
-      <c r="C159"/>
-      <c r="I159" s="78"/>
-      <c r="J159"/>
-      <c r="M159" s="77"/>
-      <c r="O159"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A160" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="B160" s="85">
-        <v>114.8</v>
-      </c>
-      <c r="C160" s="70">
-        <v>1461.48</v>
-      </c>
-      <c r="D160" s="83"/>
-      <c r="E160" s="86"/>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A161" s="65"/>
-      <c r="B161" s="86">
-        <f>SUM(B144:B160)</f>
-        <v>1461.48</v>
-      </c>
-      <c r="C161" s="71">
-        <f>SUM(C142:C160)</f>
-        <v>12618.25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A162" s="163">
-        <v>2018.01</v>
-      </c>
-      <c r="B162" s="164"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A163" s="65" t="s">
-        <v>342</v>
-      </c>
-      <c r="B163" s="85">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A164" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="B164" s="85">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A165" s="63" t="s">
-        <v>314</v>
-      </c>
-      <c r="B165" s="85">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A166" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="B166" s="85">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A167" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="B167" s="85">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A168" s="63" t="s">
-        <v>317</v>
-      </c>
-      <c r="B168" s="85">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A169" s="65" t="s">
-        <v>318</v>
-      </c>
-      <c r="B169" s="85">
-        <v>84.83</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A170" s="63" t="s">
-        <v>319</v>
-      </c>
-      <c r="B170" s="85">
-        <v>137.19999999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A171" s="63" t="s">
-        <v>322</v>
-      </c>
-      <c r="B171" s="85">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A172" s="63" t="s">
-        <v>412</v>
-      </c>
-      <c r="B172" s="85">
-        <v>84</v>
-      </c>
-      <c r="I172" s="78"/>
-      <c r="J172"/>
-      <c r="M172" s="77"/>
-      <c r="O172"/>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A173" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="B173" s="85">
-        <v>84</v>
-      </c>
-      <c r="C173" s="70">
-        <v>1262.6300000000001</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B174" s="86">
-        <f>SUM(B163:B173)</f>
-        <v>1262.6300000000001</v>
-      </c>
-      <c r="C174" s="72">
-        <f>SUM(C161:C173)</f>
-        <v>13880.880000000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" ht="28" x14ac:dyDescent="0.3">
-      <c r="A175" s="163">
-        <v>2018.02</v>
-      </c>
-      <c r="B175" s="164"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A176" s="63" t="s">
-        <v>354</v>
-      </c>
-      <c r="B176" s="85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="B177" s="85">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="63" t="s">
-        <v>323</v>
-      </c>
-      <c r="B178" s="85">
-        <v>115.64</v>
-      </c>
-      <c r="C178" s="70">
-        <v>285.64</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B179" s="85">
-        <f>SUM(B176:B178)</f>
-        <v>285.64</v>
-      </c>
-      <c r="C179" s="72">
-        <f>SUM(C174:C178)</f>
-        <v>14166.52</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="163">
-        <v>2018.03</v>
-      </c>
-      <c r="B180" s="164"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="63" t="s">
-        <v>383</v>
-      </c>
-      <c r="B181" s="85">
-        <v>84.74</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="B182" s="85">
-        <v>115.64</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="63" t="s">
-        <v>406</v>
-      </c>
-      <c r="B183" s="85">
-        <v>86</v>
-      </c>
-      <c r="D183" s="82" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="63" t="s">
-        <v>326</v>
-      </c>
-      <c r="B184" s="85">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="B185" s="85">
-        <v>64.680000000000007</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="48" x14ac:dyDescent="0.3">
-      <c r="A186" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="B186" s="85">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="B187" s="85">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="65" t="s">
-        <v>386</v>
-      </c>
-      <c r="B188" s="85">
-        <v>83.1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="65" t="s">
-        <v>403</v>
-      </c>
-      <c r="B189" s="85">
-        <v>84.4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="65" t="s">
-        <v>411</v>
-      </c>
-      <c r="B190" s="85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="65" t="s">
-        <v>330</v>
-      </c>
-      <c r="B191" s="85">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="65" t="s">
-        <v>331</v>
-      </c>
-      <c r="B192" s="85">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="65" t="s">
-        <v>333</v>
-      </c>
-      <c r="B193" s="85">
-        <v>72</v>
-      </c>
-      <c r="C193" s="70">
-        <v>1328.56</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="65"/>
-      <c r="B194" s="86">
-        <f>SUM(B181:B193)</f>
-        <v>1328.56</v>
-      </c>
-      <c r="C194" s="72">
-        <f>SUM(C179:C193)</f>
-        <v>15495.08</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A195" s="163">
-        <v>2018.04</v>
-      </c>
-      <c r="B195" s="164"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="65" t="s">
-        <v>414</v>
-      </c>
-      <c r="B196" s="85">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="B197" s="85">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="63" t="s">
-        <v>340</v>
-      </c>
-      <c r="B198" s="85">
-        <v>114.5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C199" s="70">
-        <f>SUM(B200,0)</f>
-        <v>484.5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B200" s="86">
-        <f>SUM(B196:B199)</f>
-        <v>484.5</v>
-      </c>
-      <c r="C200" s="72">
-        <f>SUM(C190:C199)</f>
-        <v>17308.14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A201" s="163">
-        <v>2018.05</v>
-      </c>
-      <c r="B201" s="164"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="63" t="s">
-        <v>341</v>
-      </c>
-      <c r="B202" s="85">
-        <v>137.19999999999999</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="63" t="s">
-        <v>343</v>
-      </c>
-      <c r="B203" s="85">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="73" t="s">
-        <v>345</v>
-      </c>
-      <c r="B204" s="84">
-        <v>9.9</v>
-      </c>
-      <c r="D204" s="82" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="B205" s="85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="63" t="s">
-        <v>445</v>
-      </c>
-      <c r="B206" s="85">
-        <v>83.9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="63" t="s">
-        <v>438</v>
-      </c>
-      <c r="B207" s="85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="63" t="s">
-        <v>436</v>
-      </c>
-      <c r="B208" s="85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="73" t="s">
-        <v>346</v>
-      </c>
-      <c r="B209" s="84">
-        <v>10</v>
-      </c>
-      <c r="D209" s="82" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C210" s="70">
-        <f>SUM(B211,0)</f>
-        <v>548</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B211" s="86">
-        <f>SUM(B202:B210)</f>
-        <v>548</v>
-      </c>
-      <c r="C211" s="72">
-        <f>SUM(C200:C210)</f>
-        <v>17856.14</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A212" s="163" t="s">
-        <v>348</v>
-      </c>
-      <c r="B212" s="164"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C213" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B214" s="86">
-        <f>SUM(B213:B213)</f>
-        <v>0</v>
-      </c>
-      <c r="C214" s="72">
-        <f>SUM(C211:C213)</f>
-        <v>17856.14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A215" s="163">
-        <v>2018.08</v>
-      </c>
-      <c r="B215" s="164"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="B216" s="85">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="B217" s="85">
-        <v>155.80000000000001</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="63" t="s">
-        <v>415</v>
-      </c>
-      <c r="B218" s="85">
-        <v>147.69999999999999</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="73" t="s">
-        <v>397</v>
-      </c>
-      <c r="B219" s="84">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="D219" s="82" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="73" t="s">
-        <v>400</v>
-      </c>
-      <c r="B220" s="84">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="D220" s="82" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="73" t="s">
-        <v>401</v>
-      </c>
-      <c r="B221" s="84">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="D221" s="82" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="73" t="s">
-        <v>402</v>
-      </c>
-      <c r="B222" s="84">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="D222" s="82" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="63" t="s">
-        <v>407</v>
-      </c>
-      <c r="B223" s="85">
-        <v>70.78</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="63" t="s">
-        <v>408</v>
-      </c>
-      <c r="B224" s="85">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C225" s="70">
-        <v>820.12</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B226" s="86">
-        <f>SUM(B216:B225)</f>
-        <v>820.11999999999989</v>
-      </c>
-      <c r="C226" s="72">
-        <f>SUM(C214:C225)</f>
-        <v>18676.259999999998</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A227" s="163" t="s">
-        <v>409</v>
-      </c>
-      <c r="B227" s="164"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="63" t="s">
-        <v>410</v>
-      </c>
-      <c r="B228" s="85">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="63" t="s">
-        <v>424</v>
-      </c>
-      <c r="B229" s="85">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="73" t="s">
-        <v>416</v>
-      </c>
-      <c r="B230" s="84">
-        <v>10</v>
-      </c>
-      <c r="D230" s="82" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C231" s="70">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B232" s="86">
-        <f>SUM(B228:B231)</f>
-        <v>388</v>
-      </c>
-      <c r="C232" s="72">
-        <f>SUM(C225:C231)</f>
-        <v>19884.379999999997</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="163" t="s">
-        <v>417</v>
-      </c>
-      <c r="B233" s="164"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="73" t="s">
-        <v>422</v>
-      </c>
-      <c r="B234" s="84">
-        <v>9.66</v>
-      </c>
-      <c r="D234" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="73" t="s">
-        <v>418</v>
-      </c>
-      <c r="B235" s="84">
-        <v>9.66</v>
-      </c>
-      <c r="D235" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="73" t="s">
-        <v>423</v>
-      </c>
-      <c r="B236" s="84">
-        <v>9.66</v>
-      </c>
-      <c r="D236" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="73" t="s">
-        <v>419</v>
-      </c>
-      <c r="B237" s="84">
-        <v>9.66</v>
-      </c>
-      <c r="D237" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="73" t="s">
-        <v>420</v>
-      </c>
-      <c r="B238" s="84">
-        <v>9.66</v>
-      </c>
-      <c r="D238" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="73" t="s">
-        <v>425</v>
-      </c>
-      <c r="B239" s="84">
-        <v>9.66</v>
-      </c>
-      <c r="D239" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="73" t="s">
-        <v>426</v>
-      </c>
-      <c r="B240" s="84">
-        <v>9.66</v>
-      </c>
-      <c r="D240" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="73" t="s">
-        <v>427</v>
-      </c>
-      <c r="B241" s="84">
-        <v>9.66</v>
-      </c>
-      <c r="D241" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="73" t="s">
-        <v>433</v>
-      </c>
-      <c r="B242" s="84">
-        <v>9.66</v>
-      </c>
-      <c r="D242" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="73" t="s">
-        <v>428</v>
-      </c>
-      <c r="B243" s="84">
-        <v>9.66</v>
-      </c>
-      <c r="D243" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="73" t="s">
-        <v>429</v>
-      </c>
-      <c r="B244" s="84">
-        <v>9.66</v>
-      </c>
-      <c r="D244" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="73" t="s">
-        <v>430</v>
-      </c>
-      <c r="B245" s="84">
-        <v>9.6</v>
-      </c>
-      <c r="D245" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="73" t="s">
-        <v>431</v>
-      </c>
-      <c r="B246" s="84">
-        <v>9.61</v>
-      </c>
-      <c r="D246" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="63" t="s">
-        <v>432</v>
-      </c>
-      <c r="B247" s="85">
-        <v>108.8</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="73" t="s">
-        <v>434</v>
-      </c>
-      <c r="B248" s="84">
-        <v>9.61</v>
-      </c>
-      <c r="D248" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="73" t="s">
-        <v>435</v>
-      </c>
-      <c r="B249" s="84">
-        <v>9.61</v>
-      </c>
-      <c r="D249" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="73" t="s">
-        <v>444</v>
-      </c>
-      <c r="B250" s="84">
-        <v>9.61</v>
-      </c>
-      <c r="D250" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B251" s="102"/>
-      <c r="C251" s="70">
-        <v>115.86</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B252" s="86">
-        <f>SUM(B234:B251)</f>
-        <v>263.10000000000002</v>
-      </c>
-      <c r="C252" s="72">
-        <f>SUM(C232:C251)</f>
-        <v>20000.239999999998</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A253" s="163">
-        <v>2018.11</v>
-      </c>
-      <c r="B253" s="164"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="73" t="s">
-        <v>439</v>
-      </c>
-      <c r="B254" s="84">
-        <v>9.61</v>
-      </c>
-      <c r="D254" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="63" t="s">
-        <v>440</v>
-      </c>
-      <c r="B255" s="85">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="63" t="s">
-        <v>441</v>
-      </c>
-      <c r="B256" s="85">
-        <v>80.3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A257" s="63" t="s">
-        <v>442</v>
-      </c>
-      <c r="B257" s="85">
-        <v>129.69999999999999</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A258" s="73" t="s">
-        <v>443</v>
-      </c>
-      <c r="B258" s="84">
-        <v>9.61</v>
-      </c>
-      <c r="D258" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C260" s="70">
-        <v>297.22000000000003</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B261" s="85">
-        <f>SUM(B254:B260)</f>
-        <v>297.22000000000003</v>
-      </c>
-      <c r="C261" s="72">
-        <f>SUM(C252:C260)</f>
-        <v>20297.46</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A262" s="163">
-        <v>2018.12</v>
-      </c>
-      <c r="B262" s="164"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A263" s="73" t="s">
-        <v>446</v>
-      </c>
-      <c r="B263" s="84">
-        <v>9.61</v>
-      </c>
-      <c r="D263" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A264" s="73" t="s">
-        <v>447</v>
-      </c>
-      <c r="B264" s="84">
-        <v>9.61</v>
-      </c>
-      <c r="D264" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A265" s="73" t="s">
-        <v>448</v>
-      </c>
-      <c r="B265" s="84">
-        <v>9.61</v>
-      </c>
-      <c r="D265" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A266" s="73" t="s">
-        <v>449</v>
-      </c>
-      <c r="B266" s="84">
-        <v>9.61</v>
-      </c>
-      <c r="D266" s="82" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I269" s="78"/>
-      <c r="J269"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C270" s="70">
-        <v>28.83</v>
-      </c>
-      <c r="I270" s="78"/>
-      <c r="J270"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B271" s="85">
-        <f>SUM(B263:B270)</f>
-        <v>38.44</v>
-      </c>
-      <c r="C271" s="72">
-        <f>SUM(C261:C270)</f>
-        <v>20326.29</v>
-      </c>
-    </row>
-    <row r="339" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J339" s="80"/>
-    </row>
-    <row r="381" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I381" s="79"/>
-    </row>
-    <row r="669" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O669" s="79"/>
-    </row>
-    <row r="674" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y674">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="675" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y675">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="676" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y676">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="677" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N677" s="79"/>
-      <c r="Y677">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="678" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y678">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="679" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y679">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="680" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y680">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="681" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y681">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="682" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y682">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="683" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y683">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="684" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="Y684" s="81">
-        <f>SUM(Y674:Y683)</f>
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A227:B227"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="A12 A16 A18 A23 A45 A71 A67 A62 A55 A49 A34 A25 A88 A82 A93 A106 A113 A76 A124 A143 A212 A227 A233" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>